--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_covid_cusco\dashboard-covid-19\data\source1_camas\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\covid-cusco\dashboard-covid-geresa\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF6B77D-1138-4FB4-8E72-D62E49071D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4675CC4-9A58-4B1D-ADAD-00BAAAF111BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4848" yWindow="4920" windowWidth="11712" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -111,231 +109,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -611,15 +394,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K523"/>
+  <dimension ref="A1:E474"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A499" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E523" sqref="E523"/>
+    <sheetView tabSelected="1" topLeftCell="A448" workbookViewId="0">
+      <selection activeCell="D474" sqref="D474"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -636,7 +419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44013</v>
       </c>
@@ -647,7 +430,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44014</v>
       </c>
@@ -658,7 +441,7 @@
         <v>0.6811594202898551</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44015</v>
       </c>
@@ -669,7 +452,7 @@
         <v>0.6811594202898551</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44016</v>
       </c>
@@ -680,7 +463,7 @@
         <v>0.78260869565217395</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44017</v>
       </c>
@@ -691,7 +474,7 @@
         <v>0.6811594202898551</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44018</v>
       </c>
@@ -702,7 +485,7 @@
         <v>0.59595959595959591</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44019</v>
       </c>
@@ -713,7 +496,7 @@
         <v>0.65656565656565657</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44020</v>
       </c>
@@ -724,7 +507,7 @@
         <v>0.68041237113402064</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44021</v>
       </c>
@@ -735,7 +518,7 @@
         <v>0.71134020618556704</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44022</v>
       </c>
@@ -746,7 +529,7 @@
         <v>0.77319587628865982</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44023</v>
       </c>
@@ -757,7 +540,7 @@
         <v>0.75257731958762886</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44024</v>
       </c>
@@ -768,7 +551,7 @@
         <v>0.79381443298969068</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44025</v>
       </c>
@@ -779,7 +562,7 @@
         <v>0.41116751269035534</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44026</v>
       </c>
@@ -790,7 +573,7 @@
         <v>0.41624365482233505</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44027</v>
       </c>
@@ -801,7 +584,7 @@
         <v>0.46192893401015228</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44028</v>
       </c>
@@ -812,7 +595,7 @@
         <v>0.54822335025380708</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44029</v>
       </c>
@@ -823,7 +606,7 @@
         <v>0.64467005076142136</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44030</v>
       </c>
@@ -834,7 +617,7 @@
         <v>0.69543147208121825</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44031</v>
       </c>
@@ -845,7 +628,7 @@
         <v>0.74111675126903553</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44032</v>
       </c>
@@ -856,7 +639,7 @@
         <v>0.79729729729729726</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44033</v>
       </c>
@@ -867,7 +650,7 @@
         <v>0.78378378378378377</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44034</v>
       </c>
@@ -878,7 +661,7 @@
         <v>0.78378378378378377</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44035</v>
       </c>
@@ -889,7 +672,7 @@
         <v>0.80180180180180183</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44036</v>
       </c>
@@ -900,7 +683,7 @@
         <v>0.9144144144144144</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44037</v>
       </c>
@@ -911,7 +694,7 @@
         <v>0.90990990990990994</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44038</v>
       </c>
@@ -922,7 +705,7 @@
         <v>0.90990990990990994</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44039</v>
       </c>
@@ -933,7 +716,7 @@
         <v>0.94594594594594594</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44040</v>
       </c>
@@ -944,7 +727,7 @@
         <v>0.93243243243243246</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44041</v>
       </c>
@@ -955,7 +738,7 @@
         <v>0.98198198198198194</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44042</v>
       </c>
@@ -966,7 +749,7 @@
         <v>1.045045045045045</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44043</v>
       </c>
@@ -977,7 +760,7 @@
         <v>1.0900900900900901</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44044</v>
       </c>
@@ -991,7 +774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44045</v>
       </c>
@@ -1005,7 +788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44046</v>
       </c>
@@ -1019,7 +802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44047</v>
       </c>
@@ -1033,7 +816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44048</v>
       </c>
@@ -1047,7 +830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44049</v>
       </c>
@@ -1061,7 +844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44050</v>
       </c>
@@ -1075,7 +858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44051</v>
       </c>
@@ -1089,7 +872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44052</v>
       </c>
@@ -1103,7 +886,7 @@
         <v>0.26804123711340205</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44053</v>
       </c>
@@ -1117,7 +900,7 @@
         <v>0.29896907216494845</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44054</v>
       </c>
@@ -1131,7 +914,7 @@
         <v>0.30927835051546393</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44055</v>
       </c>
@@ -1145,7 +928,7 @@
         <v>0.37113402061855671</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44056</v>
       </c>
@@ -1159,7 +942,7 @@
         <v>0.39175257731958762</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44057</v>
       </c>
@@ -1173,7 +956,7 @@
         <v>0.35051546391752575</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44058</v>
       </c>
@@ -1187,7 +970,7 @@
         <v>0.35051546391752575</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44059</v>
       </c>
@@ -1201,7 +984,7 @@
         <v>0.35051546391752575</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44060</v>
       </c>
@@ -1215,7 +998,7 @@
         <v>0.32989690721649484</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44061</v>
       </c>
@@ -1229,7 +1012,7 @@
         <v>0.31958762886597936</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>44062</v>
       </c>
@@ -1243,7 +1026,7 @@
         <v>0.31958762886597936</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44063</v>
       </c>
@@ -1257,7 +1040,7 @@
         <v>0.31958762886597936</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>44064</v>
       </c>
@@ -1271,7 +1054,7 @@
         <v>0.35164835164835168</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44065</v>
       </c>
@@ -1285,7 +1068,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>44066</v>
       </c>
@@ -1299,7 +1082,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>44067</v>
       </c>
@@ -1313,7 +1096,7 @@
         <v>0.40659340659340659</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>44068</v>
       </c>
@@ -1327,7 +1110,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>44069</v>
       </c>
@@ -1341,7 +1124,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>44070</v>
       </c>
@@ -1355,7 +1138,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>44071</v>
       </c>
@@ -1369,7 +1152,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>44072</v>
       </c>
@@ -1383,7 +1166,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>44073</v>
       </c>
@@ -1397,7 +1180,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>44074</v>
       </c>
@@ -1411,7 +1194,7 @@
         <v>0.34020618556701032</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>44075</v>
       </c>
@@ -1425,7 +1208,7 @@
         <v>0.34020618556701032</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>44076</v>
       </c>
@@ -1439,7 +1222,7 @@
         <v>0.39175257731958762</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>44077</v>
       </c>
@@ -1453,7 +1236,7 @@
         <v>0.25773195876288657</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>44078</v>
       </c>
@@ -1467,7 +1250,7 @@
         <v>0.24742268041237114</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>44079</v>
       </c>
@@ -1481,7 +1264,7 @@
         <v>0.24742268041237114</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>44080</v>
       </c>
@@ -1495,7 +1278,7 @@
         <v>0.24742268041237114</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>44081</v>
       </c>
@@ -1509,7 +1292,7 @@
         <v>0.24742268041237114</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>44082</v>
       </c>
@@ -1523,7 +1306,7 @@
         <v>0.24742268041237114</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>44083</v>
       </c>
@@ -1537,7 +1320,7 @@
         <v>0.22680412371134021</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>44084</v>
       </c>
@@ -1551,7 +1334,7 @@
         <v>0.27835051546391754</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>44085</v>
       </c>
@@ -1565,7 +1348,7 @@
         <v>0.24742268041237114</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>44086</v>
       </c>
@@ -1579,7 +1362,7 @@
         <v>0.27835051546391754</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>44087</v>
       </c>
@@ -1593,7 +1376,7 @@
         <v>0.32989690721649484</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>44088</v>
       </c>
@@ -1607,7 +1390,7 @@
         <v>0.27835051546391754</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>44089</v>
       </c>
@@ -1621,7 +1404,7 @@
         <v>0.34020618556701032</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>44090</v>
       </c>
@@ -1635,7 +1418,7 @@
         <v>0.25773195876288657</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>44091</v>
       </c>
@@ -1649,7 +1432,7 @@
         <v>0.27835051546391754</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>44092</v>
       </c>
@@ -1663,7 +1446,7 @@
         <v>0.30927835051546393</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>44093</v>
       </c>
@@ -1677,7 +1460,7 @@
         <v>0.29896907216494845</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>44094</v>
       </c>
@@ -1691,7 +1474,7 @@
         <v>0.29896907216494845</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>44095</v>
       </c>
@@ -1705,7 +1488,7 @@
         <v>0.24299065420560748</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>44096</v>
       </c>
@@ -1719,7 +1502,7 @@
         <v>0.26168224299065418</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>44097</v>
       </c>
@@ -1733,7 +1516,7 @@
         <v>0.24299065420560748</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>44098</v>
       </c>
@@ -1747,7 +1530,7 @@
         <v>0.24299065420560748</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>44099</v>
       </c>
@@ -1761,7 +1544,7 @@
         <v>0.24299065420560748</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>44100</v>
       </c>
@@ -1775,7 +1558,7 @@
         <v>0.24299065420560748</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>44101</v>
       </c>
@@ -1789,7 +1572,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>44102</v>
       </c>
@@ -1803,7 +1586,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>44103</v>
       </c>
@@ -1817,7 +1600,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>44104</v>
       </c>
@@ -1831,7 +1614,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>44105</v>
       </c>
@@ -1845,7 +1628,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>44106</v>
       </c>
@@ -1859,7 +1642,7 @@
         <v>0.2967032967032967</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>44107</v>
       </c>
@@ -1873,7 +1656,7 @@
         <v>0.2967032967032967</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>44108</v>
       </c>
@@ -1887,7 +1670,7 @@
         <v>0.2967032967032967</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>44109</v>
       </c>
@@ -1901,7 +1684,7 @@
         <v>0.2967032967032967</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>44110</v>
       </c>
@@ -1915,7 +1698,7 @@
         <v>0.2967032967032967</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>44111</v>
       </c>
@@ -1929,7 +1712,7 @@
         <v>0.35164835164835168</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>44112</v>
       </c>
@@ -1943,7 +1726,7 @@
         <v>0.36263736263736263</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>44113</v>
       </c>
@@ -1957,7 +1740,7 @@
         <v>0.35164835164835168</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>44114</v>
       </c>
@@ -1971,7 +1754,7 @@
         <v>0.36263736263736263</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>44115</v>
       </c>
@@ -1985,7 +1768,7 @@
         <v>0.25384615384615383</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>44116</v>
       </c>
@@ -1999,7 +1782,7 @@
         <v>0.2153846153846154</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>44117</v>
       </c>
@@ -2013,7 +1796,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>44118</v>
       </c>
@@ -2027,7 +1810,7 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>44119</v>
       </c>
@@ -2041,7 +1824,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>44120</v>
       </c>
@@ -2055,7 +1838,7 @@
         <v>0.19333333333333333</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>44121</v>
       </c>
@@ -2069,7 +1852,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>44122</v>
       </c>
@@ -2083,7 +1866,7 @@
         <v>0.17333333333333334</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>44123</v>
       </c>
@@ -2097,7 +1880,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>44124</v>
       </c>
@@ -2111,7 +1894,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>44125</v>
       </c>
@@ -2125,7 +1908,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>44126</v>
       </c>
@@ -2139,7 +1922,7 @@
         <v>0.17142857142857143</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>44127</v>
       </c>
@@ -2153,7 +1936,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>44128</v>
       </c>
@@ -2167,7 +1950,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>44129</v>
       </c>
@@ -2181,7 +1964,7 @@
         <v>0.14857142857142858</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>44130</v>
       </c>
@@ -2195,7 +1978,7 @@
         <v>0.14857142857142858</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>44131</v>
       </c>
@@ -2209,7 +1992,7 @@
         <v>0.14857142857142858</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>44132</v>
       </c>
@@ -2223,7 +2006,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>44133</v>
       </c>
@@ -2237,7 +2020,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>44134</v>
       </c>
@@ -2251,7 +2034,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>44135</v>
       </c>
@@ -2265,7 +2048,7 @@
         <v>0.12571428571428572</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>44136</v>
       </c>
@@ -2279,7 +2062,7 @@
         <v>0.12571428571428572</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>44137</v>
       </c>
@@ -2293,7 +2076,7 @@
         <v>0.13513513513513514</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>44138</v>
       </c>
@@ -2307,7 +2090,7 @@
         <v>0.11351351351351352</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>44139</v>
       </c>
@@ -2321,7 +2104,7 @@
         <v>0.10810810810810811</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>44140</v>
       </c>
@@ -2335,7 +2118,7 @@
         <v>0.13513513513513514</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>44141</v>
       </c>
@@ -2349,7 +2132,7 @@
         <v>0.12972972972972974</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>44142</v>
       </c>
@@ -2363,7 +2146,7 @@
         <v>0.12972972972972974</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>44143</v>
       </c>
@@ -2377,7 +2160,7 @@
         <v>0.12432432432432433</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>44144</v>
       </c>
@@ -2391,7 +2174,7 @@
         <v>0.12432432432432433</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>44145</v>
       </c>
@@ -2405,7 +2188,7 @@
         <v>0.12432432432432433</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>44146</v>
       </c>
@@ -2419,7 +2202,7 @@
         <v>0.14594594594594595</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>44147</v>
       </c>
@@ -2433,7 +2216,7 @@
         <v>0.14054054054054055</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>44148</v>
       </c>
@@ -2447,7 +2230,7 @@
         <v>0.11891891891891893</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>44149</v>
       </c>
@@ -2461,7 +2244,7 @@
         <v>0.12972972972972974</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>44150</v>
       </c>
@@ -2475,7 +2258,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>44151</v>
       </c>
@@ -2489,7 +2272,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>44152</v>
       </c>
@@ -2503,7 +2286,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>44153</v>
       </c>
@@ -2517,7 +2300,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>44154</v>
       </c>
@@ -2531,7 +2314,7 @@
         <v>0.1891891891891892</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>44155</v>
       </c>
@@ -2545,7 +2328,7 @@
         <v>0.16216216216216217</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>44156</v>
       </c>
@@ -2559,7 +2342,7 @@
         <v>0.16216216216216217</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>44157</v>
       </c>
@@ -2573,7 +2356,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>44158</v>
       </c>
@@ -2587,7 +2370,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>44159</v>
       </c>
@@ -2601,7 +2384,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>44160</v>
       </c>
@@ -2615,7 +2398,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>44161</v>
       </c>
@@ -2629,7 +2412,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>44162</v>
       </c>
@@ -2643,7 +2426,7 @@
         <v>0.14594594594594595</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>44163</v>
       </c>
@@ -2657,7 +2440,7 @@
         <v>0.14594594594594595</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>44164</v>
       </c>
@@ -2671,7 +2454,7 @@
         <v>0.14054054054054055</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>44165</v>
       </c>
@@ -2685,7 +2468,7 @@
         <v>0.15135135135135136</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>44166</v>
       </c>
@@ -2699,7 +2482,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>44167</v>
       </c>
@@ -2713,7 +2496,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>44168</v>
       </c>
@@ -2727,7 +2510,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>44169</v>
       </c>
@@ -2741,7 +2524,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>44170</v>
       </c>
@@ -2755,7 +2538,7 @@
         <v>0.17837837837837839</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>44171</v>
       </c>
@@ -2769,7 +2552,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>44172</v>
       </c>
@@ -2783,7 +2566,7 @@
         <v>0.17837837837837839</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>44173</v>
       </c>
@@ -2797,7 +2580,7 @@
         <v>0.17837837837837839</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>44174</v>
       </c>
@@ -2811,7 +2594,7 @@
         <v>0.17837837837837839</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>44175</v>
       </c>
@@ -2825,7 +2608,7 @@
         <v>0.20540540540540542</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>44176</v>
       </c>
@@ -2839,7 +2622,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>44177</v>
       </c>
@@ -2853,7 +2636,7 @@
         <v>0.18378378378378379</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>44178</v>
       </c>
@@ -2867,7 +2650,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>44179</v>
       </c>
@@ -2881,7 +2664,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>44180</v>
       </c>
@@ -2895,7 +2678,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>44181</v>
       </c>
@@ -2909,7 +2692,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>44182</v>
       </c>
@@ -2923,7 +2706,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>44183</v>
       </c>
@@ -2937,7 +2720,7 @@
         <v>0.16216216216216217</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>44184</v>
       </c>
@@ -2951,7 +2734,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>44185</v>
       </c>
@@ -2965,7 +2748,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>44186</v>
       </c>
@@ -2979,7 +2762,7 @@
         <v>0.18378378378378379</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>44187</v>
       </c>
@@ -2993,7 +2776,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>44188</v>
       </c>
@@ -3007,7 +2790,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>44189</v>
       </c>
@@ -3021,7 +2804,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>44190</v>
       </c>
@@ -3035,7 +2818,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>44191</v>
       </c>
@@ -3049,7 +2832,7 @@
         <v>0.17837837837837839</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>44192</v>
       </c>
@@ -3063,7 +2846,7 @@
         <v>0.1891891891891892</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>44193</v>
       </c>
@@ -3077,7 +2860,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>44194</v>
       </c>
@@ -3091,7 +2874,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>44195</v>
       </c>
@@ -3105,7 +2888,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>44196</v>
       </c>
@@ -3119,7 +2902,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>44197</v>
       </c>
@@ -3133,7 +2916,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>44198</v>
       </c>
@@ -3147,7 +2930,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>44199</v>
       </c>
@@ -3161,7 +2944,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>44200</v>
       </c>
@@ -3175,7 +2958,7 @@
         <v>0.16216216216216217</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>44201</v>
       </c>
@@ -3189,7 +2972,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>44202</v>
       </c>
@@ -3203,7 +2986,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>44203</v>
       </c>
@@ -3217,7 +3000,7 @@
         <v>0.19459459459459461</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>44204</v>
       </c>
@@ -3231,7 +3014,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>44205</v>
       </c>
@@ -3245,7 +3028,7 @@
         <v>0.19459459459459461</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>44206</v>
       </c>
@@ -3259,7 +3042,7 @@
         <v>0.21081081081081082</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>44207</v>
       </c>
@@ -3273,7 +3056,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>44208</v>
       </c>
@@ -3287,7 +3070,7 @@
         <v>0.22162162162162163</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>44209</v>
       </c>
@@ -3301,7 +3084,7 @@
         <v>0.24324324324324326</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>44210</v>
       </c>
@@ -3315,7 +3098,7 @@
         <v>0.24324324324324326</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>44211</v>
       </c>
@@ -3329,7 +3112,7 @@
         <v>0.23243243243243245</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>44212</v>
       </c>
@@ -3343,7 +3126,7 @@
         <v>0.25405405405405407</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>44213</v>
       </c>
@@ -3357,7 +3140,7 @@
         <v>0.26486486486486488</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>44214</v>
       </c>
@@ -3371,7 +3154,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>44215</v>
       </c>
@@ -3385,7 +3168,7 @@
         <v>0.28749999999999998</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>44216</v>
       </c>
@@ -3399,7 +3182,7 @@
         <v>0.28749999999999998</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>44217</v>
       </c>
@@ -3413,7 +3196,7 @@
         <v>0.18823529411764706</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>44218</v>
       </c>
@@ -3427,7 +3210,7 @@
         <v>0.18823529411764706</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>44219</v>
       </c>
@@ -3441,7 +3224,7 @@
         <v>0.18823529411764706</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>44220</v>
       </c>
@@ -3455,7 +3238,7 @@
         <v>0.18823529411764706</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>44221</v>
       </c>
@@ -3469,7 +3252,7 @@
         <v>0.30813953488372092</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>44222</v>
       </c>
@@ -3483,7 +3266,7 @@
         <v>0.27906976744186046</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>44223</v>
       </c>
@@ -3497,7 +3280,7 @@
         <v>0.32558139534883723</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>44224</v>
       </c>
@@ -3511,7 +3294,7 @@
         <v>0.31111111111111112</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>44225</v>
       </c>
@@ -3525,7 +3308,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>44226</v>
       </c>
@@ -3539,7 +3322,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>44227</v>
       </c>
@@ -3553,7 +3336,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>44228</v>
       </c>
@@ -3567,7 +3350,7 @@
         <v>0.38547486033519551</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>44229</v>
       </c>
@@ -3581,7 +3364,7 @@
         <v>0.38547486033519551</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>44230</v>
       </c>
@@ -3595,7 +3378,7 @@
         <v>0.31284916201117319</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>44231</v>
       </c>
@@ -3609,7 +3392,7 @@
         <v>0.31284916201117319</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>44232</v>
       </c>
@@ -3623,7 +3406,7 @@
         <v>0.31843575418994413</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>44233</v>
       </c>
@@ -3637,7 +3420,7 @@
         <v>0.33519553072625696</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>44234</v>
       </c>
@@ -3651,7 +3434,7 @@
         <v>0.32402234636871508</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>44235</v>
       </c>
@@ -3665,7 +3448,7 @@
         <v>0.31843575418994413</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>44236</v>
       </c>
@@ -3679,7 +3462,7 @@
         <v>0.32402234636871508</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>44237</v>
       </c>
@@ -3693,7 +3476,7 @@
         <v>0.34636871508379891</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>44238</v>
       </c>
@@ -3707,7 +3490,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>44239</v>
       </c>
@@ -3721,7 +3504,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>44240</v>
       </c>
@@ -3735,7 +3518,7 @@
         <v>0.33714285714285713</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>44241</v>
       </c>
@@ -3749,7 +3532,7 @@
         <v>0.32571428571428573</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>44242</v>
       </c>
@@ -3763,7 +3546,7 @@
         <v>0.38857142857142857</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>44243</v>
       </c>
@@ -3777,7 +3560,7 @@
         <v>0.38857142857142857</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>44244</v>
       </c>
@@ -3791,7 +3574,7 @@
         <v>0.31284916201117319</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>44245</v>
       </c>
@@ -3805,7 +3588,7 @@
         <v>0.27374301675977653</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>44246</v>
       </c>
@@ -3819,7 +3602,7 @@
         <v>0.27374301675977653</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>44247</v>
       </c>
@@ -3833,7 +3616,7 @@
         <v>0.31284916201117319</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>44248</v>
       </c>
@@ -3847,7 +3630,7 @@
         <v>0.30726256983240224</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>44249</v>
       </c>
@@ -3861,7 +3644,7 @@
         <v>0.31284916201117319</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>44250</v>
       </c>
@@ -3875,7 +3658,7 @@
         <v>0.2722222222222222</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>44251</v>
       </c>
@@ -3889,7 +3672,7 @@
         <v>0.2722222222222222</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>44252</v>
       </c>
@@ -3903,7 +3686,7 @@
         <v>0.25139664804469275</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>44253</v>
       </c>
@@ -3917,7 +3700,7 @@
         <v>0.29608938547486036</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>44254</v>
       </c>
@@ -3931,7 +3714,7 @@
         <v>0.27932960893854747</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>44255</v>
       </c>
@@ -3945,7 +3728,7 @@
         <v>0.21787709497206703</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>44256</v>
       </c>
@@ -3959,7 +3742,7 @@
         <v>0.21229050279329609</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>44257</v>
       </c>
@@ -3973,7 +3756,7 @@
         <v>0.21229050279329609</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>44258</v>
       </c>
@@ -3987,7 +3770,7 @@
         <v>0.24571428571428572</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>44259</v>
       </c>
@@ -4001,7 +3784,7 @@
         <v>0.26256983240223464</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>44260</v>
       </c>
@@ -4015,7 +3798,7 @@
         <v>0.2742857142857143</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>44261</v>
       </c>
@@ -4029,7 +3812,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>44262</v>
       </c>
@@ -4043,7 +3826,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>44263</v>
       </c>
@@ -4057,7 +3840,7 @@
         <v>0.26815642458100558</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>44264</v>
       </c>
@@ -4071,7 +3854,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>44265</v>
       </c>
@@ -4085,7 +3868,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>44266</v>
       </c>
@@ -4099,7 +3882,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>44267</v>
       </c>
@@ -4113,7 +3896,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>44268</v>
       </c>
@@ -4127,7 +3910,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>44269</v>
       </c>
@@ -4141,7 +3924,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>44270</v>
       </c>
@@ -4155,7 +3938,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>44271</v>
       </c>
@@ -4169,7 +3952,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>44272</v>
       </c>
@@ -4183,7 +3966,7 @@
         <v>0.33649289099526064</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>44273</v>
       </c>
@@ -4197,7 +3980,7 @@
         <v>0.33649289099526064</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>44274</v>
       </c>
@@ -4211,7 +3994,7 @@
         <v>0.30882352941176472</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>44275</v>
       </c>
@@ -4225,7 +4008,7 @@
         <v>0.34905660377358488</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>44276</v>
       </c>
@@ -4239,7 +4022,7 @@
         <v>0.34905660377358488</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>44277</v>
       </c>
@@ -4253,7 +4036,7 @@
         <v>0.34905660377358488</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>44278</v>
       </c>
@@ -4267,7 +4050,7 @@
         <v>0.37745098039215685</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>44279</v>
       </c>
@@ -4281,7 +4064,7 @@
         <v>0.37745098039215685</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>44280</v>
       </c>
@@ -4295,7 +4078,7 @@
         <v>0.34313725490196079</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>44281</v>
       </c>
@@ -4309,7 +4092,7 @@
         <v>0.30791788856304986</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>44282</v>
       </c>
@@ -4323,7 +4106,7 @@
         <v>0.30791788856304986</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>44283</v>
       </c>
@@ -4337,7 +4120,7 @@
         <v>0.30791788856304986</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>44284</v>
       </c>
@@ -4351,7 +4134,7 @@
         <v>0.30447761194029849</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>44285</v>
       </c>
@@ -4365,7 +4148,7 @@
         <v>0.35294117647058826</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>44286</v>
       </c>
@@ -4379,7 +4162,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>44287</v>
       </c>
@@ -4393,7 +4176,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>44288</v>
       </c>
@@ -4407,7 +4190,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>44289</v>
       </c>
@@ -4421,7 +4204,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>44290</v>
       </c>
@@ -4435,7 +4218,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>44291</v>
       </c>
@@ -4449,7 +4232,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>44292</v>
       </c>
@@ -4463,7 +4246,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>44293</v>
       </c>
@@ -4477,7 +4260,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>44294</v>
       </c>
@@ -4491,7 +4274,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>44295</v>
       </c>
@@ -4505,7 +4288,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>44296</v>
       </c>
@@ -4519,7 +4302,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>44297</v>
       </c>
@@ -4533,7 +4316,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>44298</v>
       </c>
@@ -4547,7 +4330,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>44299</v>
       </c>
@@ -4561,7 +4344,7 @@
         <v>0.33185840707964603</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>44300</v>
       </c>
@@ -4575,7 +4358,7 @@
         <v>0.36440677966101692</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>44301</v>
       </c>
@@ -4589,7 +4372,7 @@
         <v>0.34854771784232363</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>44302</v>
       </c>
@@ -4603,7 +4386,7 @@
         <v>0.34854771784232363</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>44303</v>
       </c>
@@ -4617,7 +4400,7 @@
         <v>0.36514522821576761</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>44304</v>
       </c>
@@ -4631,7 +4414,7 @@
         <v>0.34854771784232363</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>44305</v>
       </c>
@@ -4645,7 +4428,7 @@
         <v>0.37344398340248963</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>44306</v>
       </c>
@@ -4659,7 +4442,7 @@
         <v>0.37344398340248963</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>44307</v>
       </c>
@@ -4673,7 +4456,7 @@
         <v>0.37344398340248963</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>44308</v>
       </c>
@@ -4687,7 +4470,7 @@
         <v>0.36595744680851061</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>44309</v>
       </c>
@@ -4701,7 +4484,7 @@
         <v>0.36595744680851061</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>44310</v>
       </c>
@@ -4715,7 +4498,7 @@
         <v>0.36595744680851061</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>44311</v>
       </c>
@@ -4729,7 +4512,7 @@
         <v>0.36595744680851061</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>44312</v>
       </c>
@@ -4743,7 +4526,7 @@
         <v>0.33920704845814981</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>44313</v>
       </c>
@@ -4757,7 +4540,7 @@
         <v>0.47136563876651982</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>44314</v>
       </c>
@@ -4771,7 +4554,7 @@
         <v>0.45061728395061729</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>44315</v>
       </c>
@@ -4785,7 +4568,7 @@
         <v>0.48113207547169812</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>44316</v>
       </c>
@@ -4799,7 +4582,7 @@
         <v>0.48113207547169812</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>44317</v>
       </c>
@@ -4813,7 +4596,7 @@
         <v>0.48113207547169812</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>44318</v>
       </c>
@@ -4827,7 +4610,7 @@
         <v>0.48113207547169812</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>44319</v>
       </c>
@@ -4841,7 +4624,7 @@
         <v>0.35909090909090907</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>44320</v>
       </c>
@@ -4855,7 +4638,7 @@
         <v>0.33636363636363636</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>44321</v>
       </c>
@@ -4869,7 +4652,7 @@
         <v>0.35909090909090907</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>44322</v>
       </c>
@@ -4883,7 +4666,7 @@
         <v>0.5074626865671642</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>44323</v>
       </c>
@@ -4897,7 +4680,7 @@
         <v>0.41818181818181815</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>44324</v>
       </c>
@@ -4911,7 +4694,7 @@
         <v>0.41818181818181815</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>44325</v>
       </c>
@@ -4925,7 +4708,7 @@
         <v>0.41818181818181815</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>44326</v>
       </c>
@@ -4939,7 +4722,7 @@
         <v>0.5074626865671642</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>44327</v>
       </c>
@@ -4953,7 +4736,7 @@
         <v>0.3574660633484163</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>44328</v>
       </c>
@@ -4967,7 +4750,7 @@
         <v>0.39366515837104071</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>44329</v>
       </c>
@@ -4981,7 +4764,7 @@
         <v>0.43891402714932126</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>44330</v>
       </c>
@@ -4995,7 +4778,7 @@
         <v>0.46363636363636362</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>44331</v>
       </c>
@@ -5009,7 +4792,7 @@
         <v>0.46363636363636362</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>44332</v>
       </c>
@@ -5023,7 +4806,7 @@
         <v>0.38528138528138528</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>44333</v>
       </c>
@@ -5037,7 +4820,7 @@
         <v>0.39826839826839827</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>44334</v>
       </c>
@@ -5051,7 +4834,7 @@
         <v>0.42570281124497994</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>44335</v>
       </c>
@@ -5065,7 +4848,7 @@
         <v>0.42231075697211157</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>44336</v>
       </c>
@@ -5079,7 +4862,7 @@
         <v>0.42231075697211157</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>44337</v>
       </c>
@@ -5093,7 +4876,7 @@
         <v>0.42231075697211157</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>44338</v>
       </c>
@@ -5107,7 +4890,7 @@
         <v>0.42231075697211157</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>44339</v>
       </c>
@@ -5121,7 +4904,7 @@
         <v>0.44166666666666665</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>44340</v>
       </c>
@@ -5135,7 +4918,7 @@
         <v>0.44166666666666665</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>44341</v>
       </c>
@@ -5149,7 +4932,7 @@
         <v>0.42916666666666664</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>44342</v>
       </c>
@@ -5163,7 +4946,7 @@
         <v>0.41249999999999998</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>44343</v>
       </c>
@@ -5177,7 +4960,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>44344</v>
       </c>
@@ -5191,7 +4974,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>44345</v>
       </c>
@@ -5205,7 +4988,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>44346</v>
       </c>
@@ -5222,7 +5005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>44347</v>
       </c>
@@ -5239,7 +5022,7 @@
         <v>0.7857142857142857</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>44348</v>
       </c>
@@ -5256,7 +5039,7 @@
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>44349</v>
       </c>
@@ -5273,7 +5056,7 @@
         <v>0.84210526315789469</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>44350</v>
       </c>
@@ -5290,7 +5073,7 @@
         <v>0.84210526315789469</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>44351</v>
       </c>
@@ -5307,7 +5090,7 @@
         <v>0.84210526315789469</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>44352</v>
       </c>
@@ -5324,7 +5107,7 @@
         <v>0.84210526315789469</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>44353</v>
       </c>
@@ -5341,7 +5124,7 @@
         <v>0.84210526315789469</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>44354</v>
       </c>
@@ -5358,7 +5141,7 @@
         <v>0.89473684210526316</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>44355</v>
       </c>
@@ -5375,7 +5158,7 @@
         <v>0.94736842105263153</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>44356</v>
       </c>
@@ -5392,7 +5175,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>44357</v>
       </c>
@@ -5409,7 +5192,7 @@
         <v>0.52631578947368418</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>44358</v>
       </c>
@@ -5426,7 +5209,7 @@
         <v>0.52631578947368418</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>44359</v>
       </c>
@@ -5443,7 +5226,7 @@
         <v>0.52631578947368418</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>44360</v>
       </c>
@@ -5460,7 +5243,7 @@
         <v>0.52631578947368418</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>44361</v>
       </c>
@@ -5477,7 +5260,7 @@
         <v>0.42105263157894735</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>44362</v>
       </c>
@@ -5494,7 +5277,7 @@
         <v>0.36842105263157893</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>44363</v>
       </c>
@@ -5511,7 +5294,7 @@
         <v>0.36842105263157893</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>44364</v>
       </c>
@@ -5528,7 +5311,7 @@
         <v>0.57894736842105265</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>44365</v>
       </c>
@@ -5545,7 +5328,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>44366</v>
       </c>
@@ -5562,7 +5345,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>44367</v>
       </c>
@@ -5579,7 +5362,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>44368</v>
       </c>
@@ -5596,7 +5379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>44369</v>
       </c>
@@ -5613,7 +5396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>44370</v>
       </c>
@@ -5630,7 +5413,7 @@
         <v>0.89473684210526316</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>44371</v>
       </c>
@@ -5647,7 +5430,7 @@
         <v>0.89473684210526316</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>44372</v>
       </c>
@@ -5664,7 +5447,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>44373</v>
       </c>
@@ -5681,7 +5464,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>44374</v>
       </c>
@@ -5698,7 +5481,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>44375</v>
       </c>
@@ -5715,7 +5498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>44376</v>
       </c>
@@ -5732,7 +5515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>44377</v>
       </c>
@@ -5749,7 +5532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>44378</v>
       </c>
@@ -5766,7 +5549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>44379</v>
       </c>
@@ -5783,7 +5566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>44380</v>
       </c>
@@ -5800,7 +5583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>44381</v>
       </c>
@@ -5817,7 +5600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>44382</v>
       </c>
@@ -5834,7 +5617,7 @@
         <v>0.89473684210526316</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>44383</v>
       </c>
@@ -5851,7 +5634,7 @@
         <v>0.89473684210526316</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>44384</v>
       </c>
@@ -5868,7 +5651,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>44385</v>
       </c>
@@ -5885,7 +5668,7 @@
         <v>0.68421052631578949</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>44386</v>
       </c>
@@ -5902,7 +5685,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>44387</v>
       </c>
@@ -5919,7 +5702,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>44388</v>
       </c>
@@ -5936,7 +5719,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>44389</v>
       </c>
@@ -5953,7 +5736,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>44390</v>
       </c>
@@ -5970,7 +5753,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>44391</v>
       </c>
@@ -5987,7 +5770,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>44392</v>
       </c>
@@ -6004,7 +5787,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>44393</v>
       </c>
@@ -6021,7 +5804,7 @@
         <v>0.45454545454545453</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>44394</v>
       </c>
@@ -6038,7 +5821,7 @@
         <v>0.45454545454545453</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>44395</v>
       </c>
@@ -6055,7 +5838,7 @@
         <v>0.36363636363636365</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>44396</v>
       </c>
@@ -6072,7 +5855,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>44397</v>
       </c>
@@ -6089,7 +5872,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>44398</v>
       </c>
@@ -6106,7 +5889,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>44399</v>
       </c>
@@ -6123,7 +5906,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>44400</v>
       </c>
@@ -6140,7 +5923,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>44401</v>
       </c>
@@ -6157,7 +5940,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>44402</v>
       </c>
@@ -6174,7 +5957,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>44403</v>
       </c>
@@ -6191,7 +5974,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>44404</v>
       </c>
@@ -6208,7 +5991,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>44405</v>
       </c>
@@ -6225,7 +6008,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>44406</v>
       </c>
@@ -6242,7 +6025,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>44407</v>
       </c>
@@ -6259,7 +6042,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>44408</v>
       </c>
@@ -6276,7 +6059,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>44409</v>
       </c>
@@ -6293,7 +6076,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>44410</v>
       </c>
@@ -6310,7 +6093,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>44411</v>
       </c>
@@ -6327,7 +6110,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>44412</v>
       </c>
@@ -6344,7 +6127,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>44413</v>
       </c>
@@ -6361,7 +6144,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>44414</v>
       </c>
@@ -6378,7 +6161,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>44415</v>
       </c>
@@ -6395,7 +6178,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>44416</v>
       </c>
@@ -6412,7 +6195,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>44417</v>
       </c>
@@ -6429,7 +6212,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>44418</v>
       </c>
@@ -6446,7 +6229,7 @@
         <v>0.73913043478260865</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>44419</v>
       </c>
@@ -6463,7 +6246,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>44420</v>
       </c>
@@ -6480,7 +6263,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>44421</v>
       </c>
@@ -6497,7 +6280,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>44422</v>
       </c>
@@ -6514,7 +6297,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>44423</v>
       </c>
@@ -6531,7 +6314,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>44424</v>
       </c>
@@ -6548,7 +6331,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>44425</v>
       </c>
@@ -6565,7 +6348,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>44426</v>
       </c>
@@ -6582,7 +6365,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>44427</v>
       </c>
@@ -6599,7 +6382,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>44428</v>
       </c>
@@ -6616,7 +6399,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>44429</v>
       </c>
@@ -6633,7 +6416,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>44430</v>
       </c>
@@ -6650,7 +6433,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>44431</v>
       </c>
@@ -6667,7 +6450,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>44432</v>
       </c>
@@ -6684,7 +6467,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>44433</v>
       </c>
@@ -6701,7 +6484,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>44434</v>
       </c>
@@ -6718,7 +6501,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>44435</v>
       </c>
@@ -6735,7 +6518,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>44436</v>
       </c>
@@ -6752,7 +6535,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>44437</v>
       </c>
@@ -6769,7 +6552,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>44438</v>
       </c>
@@ -6786,7 +6569,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>44439</v>
       </c>
@@ -6803,7 +6586,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>44440</v>
       </c>
@@ -6820,7 +6603,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>44441</v>
       </c>
@@ -6837,7 +6620,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>44442</v>
       </c>
@@ -6854,7 +6637,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>44443</v>
       </c>
@@ -6871,7 +6654,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>44444</v>
       </c>
@@ -6888,7 +6671,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>44445</v>
       </c>
@@ -6905,7 +6688,7 @@
         <v>0.43333333333333335</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>44446</v>
       </c>
@@ -6922,7 +6705,7 @@
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>44447</v>
       </c>
@@ -6939,7 +6722,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>44448</v>
       </c>
@@ -6956,7 +6739,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>44449</v>
       </c>
@@ -6973,7 +6756,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>44450</v>
       </c>
@@ -6990,7 +6773,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>44451</v>
       </c>
@@ -7007,7 +6790,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>44452</v>
       </c>
@@ -7024,7 +6807,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>44453</v>
       </c>
@@ -7041,7 +6824,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>44454</v>
       </c>
@@ -7058,7 +6841,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>44455</v>
       </c>
@@ -7075,7 +6858,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>44456</v>
       </c>
@@ -7092,7 +6875,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>44457</v>
       </c>
@@ -7109,7 +6892,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447" s="3">
         <v>44458</v>
       </c>
@@ -7126,7 +6909,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448" s="3">
         <v>44459</v>
       </c>
@@ -7143,7 +6926,7 @@
         <v>0.36666666666666664</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449" s="3">
         <v>44460</v>
       </c>
@@ -7160,7 +6943,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450" s="3">
         <v>44461</v>
       </c>
@@ -7177,7 +6960,7 @@
         <v>0.45161290322580644</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451" s="3">
         <v>44462</v>
       </c>
@@ -7194,7 +6977,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452" s="3">
         <v>44463</v>
       </c>
@@ -7211,7 +6994,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453" s="3">
         <v>44464</v>
       </c>
@@ -7228,7 +7011,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454" s="3">
         <v>44465</v>
       </c>
@@ -7245,7 +7028,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455" s="3">
         <v>44466</v>
       </c>
@@ -7262,7 +7045,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456" s="3">
         <v>44467</v>
       </c>
@@ -7279,7 +7062,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457" s="3">
         <v>44468</v>
       </c>
@@ -7296,7 +7079,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458" s="3">
         <v>44469</v>
       </c>
@@ -7313,7 +7096,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459" s="3">
         <v>44470</v>
       </c>
@@ -7330,7 +7113,7 @@
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460" s="3">
         <v>44471</v>
       </c>
@@ -7347,7 +7130,7 @@
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461" s="3">
         <v>44472</v>
       </c>
@@ -7364,7 +7147,7 @@
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462" s="3">
         <v>44473</v>
       </c>
@@ -7381,7 +7164,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463" s="3">
         <v>44474</v>
       </c>
@@ -7398,7 +7181,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464" s="3">
         <v>44475</v>
       </c>
@@ -7415,7 +7198,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465" s="3">
         <v>44476</v>
       </c>
@@ -7432,7 +7215,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466" s="3">
         <v>44477</v>
       </c>
@@ -7449,7 +7232,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467" s="3">
         <v>44478</v>
       </c>
@@ -7466,7 +7249,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468" s="3">
         <v>44479</v>
       </c>
@@ -7483,7 +7266,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469" s="3">
         <v>44480</v>
       </c>
@@ -7499,13 +7282,8 @@
       <c r="E469">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G469" s="7"/>
-      <c r="H469" s="7"/>
-      <c r="I469" s="7"/>
-      <c r="J469" s="7"/>
-      <c r="K469" s="7"/>
-    </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A470" s="3">
         <v>44481</v>
       </c>
@@ -7521,13 +7299,8 @@
       <c r="E470">
         <v>0.6</v>
       </c>
-      <c r="G470" s="7"/>
-      <c r="H470" s="7"/>
-      <c r="I470" s="7"/>
-      <c r="J470" s="7"/>
-      <c r="K470" s="7"/>
-    </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A471" s="3">
         <v>44482</v>
       </c>
@@ -7543,13 +7316,8 @@
       <c r="E471">
         <v>0.6</v>
       </c>
-      <c r="G471" s="7"/>
-      <c r="H471" s="7"/>
-      <c r="I471" s="7"/>
-      <c r="J471" s="7"/>
-      <c r="K471" s="7"/>
-    </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A472" s="3">
         <v>44483</v>
       </c>
@@ -7565,13 +7333,8 @@
       <c r="E472">
         <v>0.52</v>
       </c>
-      <c r="G472" s="7"/>
-      <c r="H472" s="7"/>
-      <c r="I472" s="7"/>
-      <c r="J472" s="7"/>
-      <c r="K472" s="7"/>
-    </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A473" s="3">
         <v>44484</v>
       </c>
@@ -7587,13 +7350,8 @@
       <c r="E473">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G473" s="7"/>
-      <c r="H473" s="7"/>
-      <c r="I473" s="7"/>
-      <c r="J473" s="7"/>
-      <c r="K473" s="7"/>
-    </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A474" s="3">
         <v>44485</v>
       </c>
@@ -7609,1152 +7367,8 @@
       <c r="E474">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G474" s="7"/>
-      <c r="H474" s="7"/>
-      <c r="I474" s="7"/>
-      <c r="J474" s="7"/>
-      <c r="K474" s="7"/>
-    </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A475" s="4">
-        <v>44486</v>
-      </c>
-      <c r="B475" s="5">
-        <v>0.79487179487179482</v>
-      </c>
-      <c r="C475" s="2">
-        <v>0.1088646967340591</v>
-      </c>
-      <c r="D475">
-        <v>8.7301587301587297E-2</v>
-      </c>
-      <c r="E475" s="7">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F475" s="2"/>
-      <c r="G475" s="7"/>
-      <c r="H475" s="2"/>
-      <c r="I475" s="2"/>
-      <c r="J475" s="7"/>
-      <c r="K475" s="7"/>
-    </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A476" s="4">
-        <v>44487</v>
-      </c>
-      <c r="B476" s="2">
-        <v>0.79487179487179482</v>
-      </c>
-      <c r="C476" s="2">
-        <v>0.1088646967340591</v>
-      </c>
-      <c r="D476">
-        <v>8.7301587301587297E-2</v>
-      </c>
-      <c r="E476" s="7">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F476" s="2"/>
-      <c r="G476" s="7"/>
-      <c r="H476" s="2"/>
-      <c r="I476" s="2"/>
-      <c r="J476" s="7"/>
-      <c r="K476" s="7"/>
-    </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A477" s="4">
-        <v>44488</v>
-      </c>
-      <c r="B477" s="2">
-        <v>0.74358974358974361</v>
-      </c>
-      <c r="C477" s="2">
-        <v>0.11214953271028037</v>
-      </c>
-      <c r="D477">
-        <v>6.7729083665338641E-2</v>
-      </c>
-      <c r="E477" s="7">
-        <v>0.37931034482758619</v>
-      </c>
-      <c r="F477" s="2"/>
-      <c r="G477" s="7"/>
-      <c r="H477" s="2"/>
-      <c r="I477" s="2"/>
-      <c r="J477" s="7"/>
-      <c r="K477" s="7"/>
-    </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A478" s="4">
-        <v>44489</v>
-      </c>
-      <c r="B478" s="2">
-        <v>0.71794871794871795</v>
-      </c>
-      <c r="C478" s="2">
-        <v>0.1181959564541213</v>
-      </c>
-      <c r="D478">
-        <v>6.3492063492063489E-2</v>
-      </c>
-      <c r="E478" s="7">
-        <v>0.48</v>
-      </c>
-      <c r="F478" s="2"/>
-      <c r="G478" s="7"/>
-      <c r="H478" s="2"/>
-      <c r="I478" s="2"/>
-      <c r="J478" s="7"/>
-      <c r="K478" s="7"/>
-    </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A479" s="4">
-        <v>44490</v>
-      </c>
-      <c r="B479" s="2">
-        <v>0.71794871794871795</v>
-      </c>
-      <c r="C479" s="2">
-        <v>0.1181959564541213</v>
-      </c>
-      <c r="D479">
-        <v>6.3492063492063489E-2</v>
-      </c>
-      <c r="E479" s="7">
-        <v>0.48</v>
-      </c>
-      <c r="F479" s="2"/>
-      <c r="G479" s="7"/>
-      <c r="H479" s="2"/>
-      <c r="I479" s="2"/>
-      <c r="J479" s="7"/>
-      <c r="K479" s="7"/>
-    </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A480" s="4">
-        <v>44491</v>
-      </c>
-      <c r="B480" s="2">
-        <v>0.71794871794871795</v>
-      </c>
-      <c r="C480" s="2">
-        <v>0.1181959564541213</v>
-      </c>
-      <c r="D480">
-        <v>6.3492063492063489E-2</v>
-      </c>
-      <c r="E480" s="7">
-        <v>0.48</v>
-      </c>
-      <c r="F480" s="2"/>
-      <c r="G480" s="7"/>
-      <c r="H480" s="2"/>
-      <c r="I480" s="2"/>
-      <c r="J480" s="7"/>
-      <c r="K480" s="7"/>
-    </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A481" s="4">
-        <v>44492</v>
-      </c>
-      <c r="B481" s="2">
-        <v>0.71794871794871795</v>
-      </c>
-      <c r="C481" s="2">
-        <v>0.1181959564541213</v>
-      </c>
-      <c r="D481">
-        <v>6.3492063492063489E-2</v>
-      </c>
-      <c r="E481" s="7">
-        <v>0.48</v>
-      </c>
-      <c r="F481" s="2"/>
-      <c r="G481" s="7"/>
-      <c r="H481" s="2"/>
-      <c r="I481" s="2"/>
-      <c r="J481" s="7"/>
-      <c r="K481" s="7"/>
-    </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A482" s="4">
-        <v>44493</v>
-      </c>
-      <c r="B482" s="2">
-        <v>0.79487179487179482</v>
-      </c>
-      <c r="C482" s="2">
-        <v>0.1088646967340591</v>
-      </c>
-      <c r="D482">
-        <v>8.7301587301587297E-2</v>
-      </c>
-      <c r="E482" s="7">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F482" s="2"/>
-      <c r="G482" s="7"/>
-      <c r="H482" s="2"/>
-      <c r="I482" s="2"/>
-      <c r="J482" s="7"/>
-      <c r="K482" s="7"/>
-    </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A483" s="4">
-        <v>44494</v>
-      </c>
-      <c r="B483" s="2">
-        <v>0.79487179487179482</v>
-      </c>
-      <c r="C483" s="2">
-        <v>0.1088646967340591</v>
-      </c>
-      <c r="D483">
-        <v>8.7301587301587297E-2</v>
-      </c>
-      <c r="E483" s="7">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F483" s="2"/>
-      <c r="G483" s="7"/>
-      <c r="H483" s="2"/>
-      <c r="I483" s="2"/>
-      <c r="J483" s="7"/>
-      <c r="K483" s="7"/>
-    </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A484" s="4">
-        <v>44495</v>
-      </c>
-      <c r="B484" s="2">
-        <v>0.74358974358974361</v>
-      </c>
-      <c r="C484" s="2">
-        <v>0.11214953271028037</v>
-      </c>
-      <c r="D484">
-        <v>6.7729083665338641E-2</v>
-      </c>
-      <c r="E484" s="7">
-        <v>0.37931034482758619</v>
-      </c>
-      <c r="F484" s="2"/>
-      <c r="G484" s="7"/>
-      <c r="H484" s="2"/>
-      <c r="I484" s="2"/>
-      <c r="J484" s="7"/>
-      <c r="K484" s="7"/>
-    </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A485" s="4">
-        <v>44496</v>
-      </c>
-      <c r="B485" s="2">
-        <v>0.71794871794871795</v>
-      </c>
-      <c r="C485" s="2">
-        <v>0.1181959564541213</v>
-      </c>
-      <c r="D485">
-        <v>6.3492063492063489E-2</v>
-      </c>
-      <c r="E485" s="7">
-        <v>0.48</v>
-      </c>
-      <c r="F485" s="2"/>
-      <c r="G485" s="7"/>
-      <c r="H485" s="2"/>
-      <c r="I485" s="2"/>
-      <c r="J485" s="7"/>
-      <c r="K485" s="7"/>
-    </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A486" s="4">
-        <v>44497</v>
-      </c>
-      <c r="B486" s="2">
-        <v>0.71794871794871795</v>
-      </c>
-      <c r="C486" s="2">
-        <v>0.1181959564541213</v>
-      </c>
-      <c r="D486">
-        <v>6.3492063492063489E-2</v>
-      </c>
-      <c r="E486" s="7">
-        <v>0.48</v>
-      </c>
-      <c r="F486" s="2"/>
-      <c r="G486" s="7"/>
-      <c r="H486" s="2"/>
-      <c r="I486" s="2"/>
-      <c r="J486" s="7"/>
-      <c r="K486" s="7"/>
-    </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A487" s="4">
-        <v>44498</v>
-      </c>
-      <c r="B487" s="2">
-        <v>0.71794871794871795</v>
-      </c>
-      <c r="C487" s="2">
-        <v>0.1181959564541213</v>
-      </c>
-      <c r="D487">
-        <v>6.3492063492063489E-2</v>
-      </c>
-      <c r="E487" s="7">
-        <v>0.48</v>
-      </c>
-      <c r="F487" s="2"/>
-      <c r="G487" s="7"/>
-      <c r="H487" s="2"/>
-      <c r="I487" s="2"/>
-      <c r="J487" s="7"/>
-      <c r="K487" s="7"/>
-    </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A488" s="4">
-        <v>44499</v>
-      </c>
-      <c r="B488" s="2">
-        <v>0.71794871794871795</v>
-      </c>
-      <c r="C488" s="2">
-        <v>0.1181959564541213</v>
-      </c>
-      <c r="D488">
-        <v>6.3492063492063489E-2</v>
-      </c>
-      <c r="E488" s="7">
-        <v>0.48</v>
-      </c>
-      <c r="F488" s="2"/>
-      <c r="G488" s="7"/>
-      <c r="H488" s="2"/>
-      <c r="I488" s="2"/>
-      <c r="J488" s="7"/>
-      <c r="K488" s="7"/>
-    </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A489" s="4">
-        <v>44500</v>
-      </c>
-      <c r="B489" s="2">
-        <v>0.79487179487179482</v>
-      </c>
-      <c r="C489" s="2">
-        <v>0.1088646967340591</v>
-      </c>
-      <c r="D489">
-        <v>8.7301587301587297E-2</v>
-      </c>
-      <c r="E489" s="7">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F489" s="2"/>
-      <c r="G489" s="7"/>
-      <c r="H489" s="2"/>
-      <c r="I489" s="2"/>
-      <c r="J489" s="7"/>
-      <c r="K489" s="7"/>
-    </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A490" s="4">
-        <v>44501</v>
-      </c>
-      <c r="B490" s="2">
-        <v>0.79487179487179482</v>
-      </c>
-      <c r="C490" s="2">
-        <v>0.1088646967340591</v>
-      </c>
-      <c r="D490">
-        <v>8.7301587301587297E-2</v>
-      </c>
-      <c r="E490" s="7">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F490" s="2"/>
-      <c r="G490" s="7"/>
-      <c r="H490" s="2"/>
-      <c r="I490" s="2"/>
-      <c r="J490" s="7"/>
-      <c r="K490" s="7"/>
-    </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A491" s="4">
-        <v>44502</v>
-      </c>
-      <c r="B491" s="2">
-        <v>0.74358974358974361</v>
-      </c>
-      <c r="C491" s="2">
-        <v>0.11214953271028037</v>
-      </c>
-      <c r="D491">
-        <v>6.7729083665338641E-2</v>
-      </c>
-      <c r="E491" s="7">
-        <v>0.37931034482758619</v>
-      </c>
-      <c r="F491" s="2"/>
-      <c r="G491" s="7"/>
-      <c r="H491" s="2"/>
-      <c r="I491" s="2"/>
-      <c r="J491" s="7"/>
-      <c r="K491" s="7"/>
-    </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A492" s="4">
-        <v>44503</v>
-      </c>
-      <c r="B492" s="2">
-        <v>0.71794871794871795</v>
-      </c>
-      <c r="C492" s="2">
-        <v>0.1181959564541213</v>
-      </c>
-      <c r="D492">
-        <v>6.3492063492063489E-2</v>
-      </c>
-      <c r="E492" s="7">
-        <v>0.48</v>
-      </c>
-      <c r="F492" s="2"/>
-      <c r="G492" s="7"/>
-      <c r="H492" s="2"/>
-      <c r="I492" s="2"/>
-      <c r="J492" s="7"/>
-      <c r="K492" s="7"/>
-    </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A493" s="4">
-        <v>44504</v>
-      </c>
-      <c r="B493" s="2">
-        <v>0.71794871794871795</v>
-      </c>
-      <c r="C493" s="2">
-        <v>0.1181959564541213</v>
-      </c>
-      <c r="D493">
-        <v>6.3492063492063489E-2</v>
-      </c>
-      <c r="E493" s="7">
-        <v>0.48</v>
-      </c>
-      <c r="F493" s="2"/>
-      <c r="G493" s="7"/>
-      <c r="H493" s="2"/>
-      <c r="I493" s="2"/>
-      <c r="J493" s="7"/>
-      <c r="K493" s="7"/>
-    </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A494" s="4">
-        <v>44505</v>
-      </c>
-      <c r="B494" s="2">
-        <v>0.71794871794871795</v>
-      </c>
-      <c r="C494" s="2">
-        <v>0.1181959564541213</v>
-      </c>
-      <c r="D494">
-        <v>6.3492063492063489E-2</v>
-      </c>
-      <c r="E494" s="7">
-        <v>0.48</v>
-      </c>
-      <c r="F494" s="2"/>
-      <c r="G494" s="6"/>
-      <c r="H494" s="2"/>
-      <c r="I494" s="2"/>
-      <c r="J494" s="7"/>
-    </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A495" s="4">
-        <v>44506</v>
-      </c>
-      <c r="B495" s="2">
-        <v>0.71794871794871795</v>
-      </c>
-      <c r="C495" s="2">
-        <v>0.1181959564541213</v>
-      </c>
-      <c r="D495">
-        <v>6.3492063492063489E-2</v>
-      </c>
-      <c r="E495" s="7">
-        <v>0.48</v>
-      </c>
-      <c r="F495" s="2"/>
-      <c r="G495" s="6"/>
-      <c r="H495" s="2"/>
-      <c r="I495" s="2"/>
-      <c r="J495" s="7"/>
-    </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A496" s="4">
-        <v>44507</v>
-      </c>
-      <c r="B496" s="2">
-        <v>0.71794871794871795</v>
-      </c>
-      <c r="C496" s="2">
-        <v>0.1181959564541213</v>
-      </c>
-      <c r="D496">
-        <v>6.3492063492063489E-2</v>
-      </c>
-      <c r="E496" s="7">
-        <v>0.48</v>
-      </c>
-      <c r="F496" s="2"/>
-      <c r="G496" s="6"/>
-      <c r="H496" s="2"/>
-      <c r="I496" s="2"/>
-      <c r="J496" s="7"/>
-    </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A497" s="4">
-        <v>44508</v>
-      </c>
-      <c r="B497" s="2">
-        <v>0.71794871794871795</v>
-      </c>
-      <c r="C497" s="2">
-        <v>0.1181959564541213</v>
-      </c>
-      <c r="D497">
-        <v>6.3492063492063489E-2</v>
-      </c>
-      <c r="E497" s="7">
-        <v>0.48</v>
-      </c>
-      <c r="F497" s="2"/>
-      <c r="G497" s="6"/>
-      <c r="H497" s="2"/>
-      <c r="I497" s="2"/>
-      <c r="J497" s="7"/>
-    </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A498" s="4">
-        <v>44509</v>
-      </c>
-      <c r="B498" s="2">
-        <v>0.78125</v>
-      </c>
-      <c r="C498" s="2">
-        <v>0.1181959564541213</v>
-      </c>
-      <c r="D498">
-        <v>6.3492063492063489E-2</v>
-      </c>
-      <c r="E498" s="7">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F498" s="2"/>
-      <c r="G498" s="6"/>
-      <c r="H498" s="2"/>
-      <c r="I498" s="2"/>
-      <c r="J498" s="7"/>
-    </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A499" s="4">
-        <v>44510</v>
-      </c>
-      <c r="B499" s="2">
-        <v>0.78125</v>
-      </c>
-      <c r="C499" s="2">
-        <v>0.1181959564541213</v>
-      </c>
-      <c r="D499">
-        <v>6.3492063492063489E-2</v>
-      </c>
-      <c r="E499" s="7">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F499" s="2"/>
-      <c r="G499" s="6"/>
-      <c r="H499" s="2"/>
-      <c r="I499" s="2"/>
-      <c r="J499" s="7"/>
-    </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A500" s="4">
-        <v>44511</v>
-      </c>
-      <c r="B500" s="2">
-        <v>0.78125</v>
-      </c>
-      <c r="C500" s="2">
-        <v>0.1181959564541213</v>
-      </c>
-      <c r="D500">
-        <v>6.3492063492063489E-2</v>
-      </c>
-      <c r="E500" s="7">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F500" s="2"/>
-      <c r="G500" s="6"/>
-      <c r="H500" s="2"/>
-      <c r="I500" s="2"/>
-      <c r="J500" s="7"/>
-    </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A501" s="4">
-        <v>44512</v>
-      </c>
-      <c r="B501" s="2">
-        <v>0.78125</v>
-      </c>
-      <c r="C501" s="2">
-        <v>0.1181959564541213</v>
-      </c>
-      <c r="D501">
-        <v>6.3492063492063489E-2</v>
-      </c>
-      <c r="E501" s="7">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F501" s="2"/>
-      <c r="G501" s="6"/>
-      <c r="H501" s="2"/>
-      <c r="I501" s="2"/>
-      <c r="J501" s="7"/>
-    </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A502" s="4">
-        <v>44513</v>
-      </c>
-      <c r="B502" s="2">
-        <v>0.78125</v>
-      </c>
-      <c r="C502" s="2">
-        <v>0.1181959564541213</v>
-      </c>
-      <c r="D502">
-        <v>6.3492063492063489E-2</v>
-      </c>
-      <c r="E502" s="7">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F502" s="2"/>
-      <c r="G502" s="6"/>
-      <c r="H502" s="2"/>
-      <c r="I502" s="2"/>
-      <c r="J502" s="7"/>
-    </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A503" s="4">
-        <v>44514</v>
-      </c>
-      <c r="B503" s="2">
-        <v>0.78125</v>
-      </c>
-      <c r="C503" s="2">
-        <v>0.1181959564541213</v>
-      </c>
-      <c r="D503">
-        <v>6.3492063492063489E-2</v>
-      </c>
-      <c r="E503" s="7">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F503" s="2"/>
-      <c r="G503" s="6"/>
-      <c r="H503" s="2"/>
-      <c r="I503" s="2"/>
-      <c r="J503" s="7"/>
-    </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A504" s="4">
-        <v>44515</v>
-      </c>
-      <c r="B504" s="2">
-        <v>0.71875</v>
-      </c>
-      <c r="C504" s="2">
-        <v>0.11516314779270634</v>
-      </c>
-      <c r="D504">
-        <v>5.905511811023622E-2</v>
-      </c>
-      <c r="E504" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="F504" s="2"/>
-      <c r="G504" s="6"/>
-      <c r="H504" s="2"/>
-      <c r="I504" s="2"/>
-      <c r="J504" s="7"/>
-    </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A505" s="4">
-        <v>44516</v>
-      </c>
-      <c r="B505" s="2">
-        <v>0.6875</v>
-      </c>
-      <c r="C505" s="2">
-        <v>0.10748560460652591</v>
-      </c>
-      <c r="D505">
-        <v>6.2992125984251968E-2</v>
-      </c>
-      <c r="E505" s="7">
-        <v>0.36</v>
-      </c>
-      <c r="F505" s="2"/>
-      <c r="G505" s="6"/>
-      <c r="H505" s="2"/>
-      <c r="I505" s="2"/>
-      <c r="J505" s="7"/>
-    </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A506" s="4">
-        <v>44517</v>
-      </c>
-      <c r="B506" s="2">
-        <v>0.6875</v>
-      </c>
-      <c r="C506" s="2">
-        <v>0.10748560460652591</v>
-      </c>
-      <c r="D506">
-        <v>6.2992125984251968E-2</v>
-      </c>
-      <c r="E506" s="7">
-        <v>0.36</v>
-      </c>
-      <c r="F506" s="2"/>
-      <c r="G506" s="6"/>
-      <c r="H506" s="2"/>
-      <c r="I506" s="2"/>
-      <c r="J506" s="7"/>
-    </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A507" s="4">
-        <v>44518</v>
-      </c>
-      <c r="B507" s="2">
-        <v>0.6875</v>
-      </c>
-      <c r="C507" s="2">
-        <v>0.10748560460652591</v>
-      </c>
-      <c r="D507">
-        <v>6.2992125984251968E-2</v>
-      </c>
-      <c r="E507" s="7">
-        <v>0.36</v>
-      </c>
-      <c r="F507" s="2"/>
-      <c r="G507" s="6"/>
-      <c r="H507" s="2"/>
-      <c r="I507" s="2"/>
-      <c r="J507" s="7"/>
-    </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A508" s="4">
-        <v>44519</v>
-      </c>
-      <c r="B508" s="2">
-        <v>0.6875</v>
-      </c>
-      <c r="C508" s="2">
-        <v>0.10748560460652591</v>
-      </c>
-      <c r="D508">
-        <v>6.2992125984251968E-2</v>
-      </c>
-      <c r="E508" s="7">
-        <v>0.36</v>
-      </c>
-      <c r="F508" s="2"/>
-      <c r="G508" s="6"/>
-      <c r="H508" s="2"/>
-      <c r="I508" s="2"/>
-      <c r="J508" s="7"/>
-    </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A509" s="4">
-        <v>44520</v>
-      </c>
-      <c r="B509" s="2">
-        <v>0.6875</v>
-      </c>
-      <c r="C509" s="2">
-        <v>0.10748560460652591</v>
-      </c>
-      <c r="D509">
-        <v>6.2992125984251968E-2</v>
-      </c>
-      <c r="E509" s="7">
-        <v>0.36</v>
-      </c>
-      <c r="F509" s="2"/>
-      <c r="G509" s="6"/>
-      <c r="H509" s="2"/>
-      <c r="I509" s="2"/>
-      <c r="J509" s="7"/>
-    </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A510" s="4">
-        <v>44521</v>
-      </c>
-      <c r="B510" s="2">
-        <v>0.6875</v>
-      </c>
-      <c r="C510" s="2">
-        <v>0.10748560460652591</v>
-      </c>
-      <c r="D510">
-        <v>6.2992125984251968E-2</v>
-      </c>
-      <c r="E510" s="7">
-        <v>0.36</v>
-      </c>
-      <c r="F510" s="2"/>
-      <c r="G510" s="6"/>
-      <c r="H510" s="2"/>
-      <c r="I510" s="2"/>
-      <c r="J510" s="7"/>
-    </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A511" s="4">
-        <v>44522</v>
-      </c>
-      <c r="B511" s="2">
-        <v>0.78125</v>
-      </c>
-      <c r="C511" s="2">
-        <v>9.2130518234165071E-2</v>
-      </c>
-      <c r="D511">
-        <v>5.5118110236220472E-2</v>
-      </c>
-      <c r="E511" s="7">
-        <v>0.36</v>
-      </c>
-      <c r="F511" s="2"/>
-      <c r="G511" s="6"/>
-      <c r="H511" s="2"/>
-      <c r="I511" s="2"/>
-      <c r="J511" s="7"/>
-    </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A512" s="4">
-        <v>44523</v>
-      </c>
-      <c r="B512" s="2">
-        <v>0.8125</v>
-      </c>
-      <c r="C512" s="2">
-        <v>9.4049904030710174E-2</v>
-      </c>
-      <c r="D512">
-        <v>5.5118110236220472E-2</v>
-      </c>
-      <c r="E512" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="F512" s="2"/>
-      <c r="G512" s="6"/>
-      <c r="H512" s="2"/>
-      <c r="I512" s="2"/>
-      <c r="J512" s="7"/>
-    </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A513" s="4">
-        <v>44524</v>
-      </c>
-      <c r="B513" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="C513" s="2">
-        <v>9.2130518234165071E-2</v>
-      </c>
-      <c r="D513">
-        <v>5.905511811023622E-2</v>
-      </c>
-      <c r="E513" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="F513" s="2"/>
-      <c r="G513" s="6"/>
-      <c r="H513" s="2"/>
-      <c r="I513" s="2"/>
-      <c r="J513" s="7"/>
-    </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A514" s="4">
-        <v>44525</v>
-      </c>
-      <c r="B514" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="C514" s="2">
-        <v>9.2130518234165071E-2</v>
-      </c>
-      <c r="D514">
-        <v>5.905511811023622E-2</v>
-      </c>
-      <c r="E514" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="F514" s="2"/>
-      <c r="G514" s="6"/>
-      <c r="H514" s="2"/>
-      <c r="I514" s="2"/>
-      <c r="J514" s="7"/>
-    </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A515" s="4">
-        <v>44526</v>
-      </c>
-      <c r="B515" s="2">
-        <v>0.78125</v>
-      </c>
-      <c r="C515" s="2">
-        <v>0.1036468330134357</v>
-      </c>
-      <c r="D515">
-        <v>5.5118110236220472E-2</v>
-      </c>
-      <c r="E515" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="F515" s="2"/>
-      <c r="G515" s="6"/>
-      <c r="H515" s="2"/>
-      <c r="I515" s="2"/>
-      <c r="J515" s="7"/>
-    </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A516" s="4">
-        <v>44527</v>
-      </c>
-      <c r="B516" s="2">
-        <v>0.78125</v>
-      </c>
-      <c r="C516" s="2">
-        <v>0.1036468330134357</v>
-      </c>
-      <c r="D516">
-        <v>5.5118110236220472E-2</v>
-      </c>
-      <c r="E516" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="F516" s="2"/>
-      <c r="G516" s="6"/>
-      <c r="H516" s="2"/>
-      <c r="I516" s="2"/>
-      <c r="J516" s="7"/>
-    </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A517" s="4">
-        <v>44528</v>
-      </c>
-      <c r="B517" s="2">
-        <v>0.78125</v>
-      </c>
-      <c r="C517" s="2">
-        <v>0.1036468330134357</v>
-      </c>
-      <c r="D517">
-        <v>5.5118110236220472E-2</v>
-      </c>
-      <c r="E517" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="F517" s="2"/>
-      <c r="G517" s="6"/>
-      <c r="H517" s="2"/>
-      <c r="I517" s="2"/>
-      <c r="J517" s="7"/>
-    </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A518" s="4">
-        <v>44529</v>
-      </c>
-      <c r="B518" s="2">
-        <v>0.78125</v>
-      </c>
-      <c r="C518" s="2">
-        <v>0.1036468330134357</v>
-      </c>
-      <c r="D518">
-        <v>5.5118110236220472E-2</v>
-      </c>
-      <c r="E518" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="F518" s="2"/>
-      <c r="G518" s="6"/>
-      <c r="H518" s="2"/>
-      <c r="I518" s="2"/>
-      <c r="J518" s="7"/>
-    </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A519" s="4">
-        <v>44530</v>
-      </c>
-      <c r="B519" s="2">
-        <v>0.78125</v>
-      </c>
-      <c r="C519" s="2">
-        <v>0.1036468330134357</v>
-      </c>
-      <c r="D519">
-        <v>5.5118110236220472E-2</v>
-      </c>
-      <c r="E519" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="F519" s="2"/>
-      <c r="G519" s="6"/>
-      <c r="H519" s="2"/>
-      <c r="I519" s="2"/>
-      <c r="J519" s="7"/>
-    </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A520" s="4">
-        <v>44531</v>
-      </c>
-      <c r="B520" s="2">
-        <v>0.78125</v>
-      </c>
-      <c r="C520" s="2">
-        <v>0.1036468330134357</v>
-      </c>
-      <c r="D520">
-        <v>5.5118110236220472E-2</v>
-      </c>
-      <c r="E520" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="F520" s="2"/>
-      <c r="G520" s="6"/>
-      <c r="H520" s="2"/>
-      <c r="I520" s="2"/>
-      <c r="J520" s="7"/>
-    </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A521" s="4">
-        <v>44532</v>
-      </c>
-      <c r="B521" s="2">
-        <v>0.78125</v>
-      </c>
-      <c r="C521" s="2">
-        <v>0.1036468330134357</v>
-      </c>
-      <c r="D521">
-        <v>5.5118110236220472E-2</v>
-      </c>
-      <c r="E521" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="F521" s="2"/>
-      <c r="G521" s="6"/>
-      <c r="H521" s="2"/>
-      <c r="I521" s="2"/>
-      <c r="J521" s="7"/>
-    </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A522" s="4">
-        <v>44533</v>
-      </c>
-      <c r="B522" s="2">
-        <v>0.65625</v>
-      </c>
-      <c r="C522" s="2">
-        <v>9.3235831809872036E-2</v>
-      </c>
-      <c r="D522">
-        <v>7.0866141732283464E-2</v>
-      </c>
-      <c r="E522" s="7">
-        <v>0.24</v>
-      </c>
-      <c r="F522" s="2"/>
-      <c r="G522" s="6"/>
-      <c r="H522" s="2"/>
-      <c r="I522" s="2"/>
-      <c r="J522" s="7"/>
-    </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A523" s="4">
-        <v>44534</v>
-      </c>
-      <c r="B523" s="2">
-        <v>0.65625</v>
-      </c>
-      <c r="C523" s="2">
-        <v>9.3235831809872036E-2</v>
-      </c>
-      <c r="D523">
-        <v>7.0866141732283464E-2</v>
-      </c>
-      <c r="E523" s="7">
-        <v>0.24</v>
-      </c>
-      <c r="F523" s="2"/>
-      <c r="G523" s="6"/>
-      <c r="H523" s="2"/>
-      <c r="I523" s="2"/>
-      <c r="J523" s="7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G510">
-    <cfRule type="cellIs" dxfId="16" priority="9" operator="between">
-      <formula>50</formula>
-      <formula>70</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G504:G509 G511:G523">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="between">
-      <formula>50</formula>
-      <formula>70</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H475:I481 H498:I523">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="between">
-      <formula>50</formula>
-      <formula>70</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H482:I488">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
-      <formula>50</formula>
-      <formula>70</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H489:I495">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
-      <formula>50</formula>
-      <formula>70</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H496:I496">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
-      <formula>50</formula>
-      <formula>70</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H497:I497">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
-      <formula>50</formula>
-      <formula>70</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\covid-cusco\dashboard-covid-geresa\data\source1_camas\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4675CC4-9A58-4B1D-ADAD-00BAAAF111BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A213A9DA-D064-4CBF-A4E1-09A3E6A40563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4848" yWindow="4920" windowWidth="11712" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -53,7 +55,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +65,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -106,19 +115,264 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -394,15 +648,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E474"/>
+  <dimension ref="A1:E537"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A448" workbookViewId="0">
-      <selection activeCell="D474" sqref="D474"/>
+    <sheetView tabSelected="1" topLeftCell="A457" workbookViewId="0">
+      <selection activeCell="D472" sqref="D472"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,7 +673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44013</v>
       </c>
@@ -430,7 +684,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44014</v>
       </c>
@@ -441,7 +695,7 @@
         <v>0.6811594202898551</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44015</v>
       </c>
@@ -452,7 +706,7 @@
         <v>0.6811594202898551</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44016</v>
       </c>
@@ -463,7 +717,7 @@
         <v>0.78260869565217395</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44017</v>
       </c>
@@ -474,7 +728,7 @@
         <v>0.6811594202898551</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44018</v>
       </c>
@@ -485,7 +739,7 @@
         <v>0.59595959595959591</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44019</v>
       </c>
@@ -496,7 +750,7 @@
         <v>0.65656565656565657</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44020</v>
       </c>
@@ -507,7 +761,7 @@
         <v>0.68041237113402064</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44021</v>
       </c>
@@ -518,7 +772,7 @@
         <v>0.71134020618556704</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44022</v>
       </c>
@@ -529,7 +783,7 @@
         <v>0.77319587628865982</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44023</v>
       </c>
@@ -540,7 +794,7 @@
         <v>0.75257731958762886</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44024</v>
       </c>
@@ -551,7 +805,7 @@
         <v>0.79381443298969068</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44025</v>
       </c>
@@ -562,7 +816,7 @@
         <v>0.41116751269035534</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44026</v>
       </c>
@@ -573,7 +827,7 @@
         <v>0.41624365482233505</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44027</v>
       </c>
@@ -584,7 +838,7 @@
         <v>0.46192893401015228</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44028</v>
       </c>
@@ -595,7 +849,7 @@
         <v>0.54822335025380708</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44029</v>
       </c>
@@ -606,7 +860,7 @@
         <v>0.64467005076142136</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44030</v>
       </c>
@@ -617,7 +871,7 @@
         <v>0.69543147208121825</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44031</v>
       </c>
@@ -628,7 +882,7 @@
         <v>0.74111675126903553</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44032</v>
       </c>
@@ -639,7 +893,7 @@
         <v>0.79729729729729726</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44033</v>
       </c>
@@ -650,7 +904,7 @@
         <v>0.78378378378378377</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44034</v>
       </c>
@@ -661,7 +915,7 @@
         <v>0.78378378378378377</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44035</v>
       </c>
@@ -672,7 +926,7 @@
         <v>0.80180180180180183</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44036</v>
       </c>
@@ -683,7 +937,7 @@
         <v>0.9144144144144144</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44037</v>
       </c>
@@ -694,7 +948,7 @@
         <v>0.90990990990990994</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44038</v>
       </c>
@@ -705,7 +959,7 @@
         <v>0.90990990990990994</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44039</v>
       </c>
@@ -716,7 +970,7 @@
         <v>0.94594594594594594</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44040</v>
       </c>
@@ -727,7 +981,7 @@
         <v>0.93243243243243246</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44041</v>
       </c>
@@ -738,7 +992,7 @@
         <v>0.98198198198198194</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44042</v>
       </c>
@@ -749,7 +1003,7 @@
         <v>1.045045045045045</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44043</v>
       </c>
@@ -760,7 +1014,7 @@
         <v>1.0900900900900901</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44044</v>
       </c>
@@ -774,7 +1028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44045</v>
       </c>
@@ -788,7 +1042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44046</v>
       </c>
@@ -802,7 +1056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44047</v>
       </c>
@@ -816,7 +1070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44048</v>
       </c>
@@ -830,7 +1084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44049</v>
       </c>
@@ -844,7 +1098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44050</v>
       </c>
@@ -858,7 +1112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>44051</v>
       </c>
@@ -872,7 +1126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>44052</v>
       </c>
@@ -886,7 +1140,7 @@
         <v>0.26804123711340205</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44053</v>
       </c>
@@ -900,7 +1154,7 @@
         <v>0.29896907216494845</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44054</v>
       </c>
@@ -914,7 +1168,7 @@
         <v>0.30927835051546393</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44055</v>
       </c>
@@ -928,7 +1182,7 @@
         <v>0.37113402061855671</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44056</v>
       </c>
@@ -942,7 +1196,7 @@
         <v>0.39175257731958762</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44057</v>
       </c>
@@ -956,7 +1210,7 @@
         <v>0.35051546391752575</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44058</v>
       </c>
@@ -970,7 +1224,7 @@
         <v>0.35051546391752575</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>44059</v>
       </c>
@@ -984,7 +1238,7 @@
         <v>0.35051546391752575</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44060</v>
       </c>
@@ -998,7 +1252,7 @@
         <v>0.32989690721649484</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>44061</v>
       </c>
@@ -1012,7 +1266,7 @@
         <v>0.31958762886597936</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>44062</v>
       </c>
@@ -1026,7 +1280,7 @@
         <v>0.31958762886597936</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>44063</v>
       </c>
@@ -1040,7 +1294,7 @@
         <v>0.31958762886597936</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>44064</v>
       </c>
@@ -1054,7 +1308,7 @@
         <v>0.35164835164835168</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>44065</v>
       </c>
@@ -1068,7 +1322,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>44066</v>
       </c>
@@ -1082,7 +1336,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>44067</v>
       </c>
@@ -1096,7 +1350,7 @@
         <v>0.40659340659340659</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>44068</v>
       </c>
@@ -1110,7 +1364,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>44069</v>
       </c>
@@ -1124,7 +1378,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>44070</v>
       </c>
@@ -1138,7 +1392,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>44071</v>
       </c>
@@ -1152,7 +1406,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>44072</v>
       </c>
@@ -1166,7 +1420,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>44073</v>
       </c>
@@ -1180,7 +1434,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>44074</v>
       </c>
@@ -1194,7 +1448,7 @@
         <v>0.34020618556701032</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>44075</v>
       </c>
@@ -1208,7 +1462,7 @@
         <v>0.34020618556701032</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>44076</v>
       </c>
@@ -1222,7 +1476,7 @@
         <v>0.39175257731958762</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>44077</v>
       </c>
@@ -1236,7 +1490,7 @@
         <v>0.25773195876288657</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>44078</v>
       </c>
@@ -1250,7 +1504,7 @@
         <v>0.24742268041237114</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>44079</v>
       </c>
@@ -1264,7 +1518,7 @@
         <v>0.24742268041237114</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>44080</v>
       </c>
@@ -1278,7 +1532,7 @@
         <v>0.24742268041237114</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>44081</v>
       </c>
@@ -1292,7 +1546,7 @@
         <v>0.24742268041237114</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>44082</v>
       </c>
@@ -1306,7 +1560,7 @@
         <v>0.24742268041237114</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>44083</v>
       </c>
@@ -1320,7 +1574,7 @@
         <v>0.22680412371134021</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>44084</v>
       </c>
@@ -1334,7 +1588,7 @@
         <v>0.27835051546391754</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>44085</v>
       </c>
@@ -1348,7 +1602,7 @@
         <v>0.24742268041237114</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>44086</v>
       </c>
@@ -1362,7 +1616,7 @@
         <v>0.27835051546391754</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>44087</v>
       </c>
@@ -1376,7 +1630,7 @@
         <v>0.32989690721649484</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>44088</v>
       </c>
@@ -1390,7 +1644,7 @@
         <v>0.27835051546391754</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>44089</v>
       </c>
@@ -1404,7 +1658,7 @@
         <v>0.34020618556701032</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>44090</v>
       </c>
@@ -1418,7 +1672,7 @@
         <v>0.25773195876288657</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>44091</v>
       </c>
@@ -1432,7 +1686,7 @@
         <v>0.27835051546391754</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>44092</v>
       </c>
@@ -1446,7 +1700,7 @@
         <v>0.30927835051546393</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>44093</v>
       </c>
@@ -1460,7 +1714,7 @@
         <v>0.29896907216494845</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>44094</v>
       </c>
@@ -1474,7 +1728,7 @@
         <v>0.29896907216494845</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>44095</v>
       </c>
@@ -1488,7 +1742,7 @@
         <v>0.24299065420560748</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>44096</v>
       </c>
@@ -1502,7 +1756,7 @@
         <v>0.26168224299065418</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>44097</v>
       </c>
@@ -1516,7 +1770,7 @@
         <v>0.24299065420560748</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>44098</v>
       </c>
@@ -1530,7 +1784,7 @@
         <v>0.24299065420560748</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>44099</v>
       </c>
@@ -1544,7 +1798,7 @@
         <v>0.24299065420560748</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>44100</v>
       </c>
@@ -1558,7 +1812,7 @@
         <v>0.24299065420560748</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>44101</v>
       </c>
@@ -1572,7 +1826,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>44102</v>
       </c>
@@ -1586,7 +1840,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>44103</v>
       </c>
@@ -1600,7 +1854,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>44104</v>
       </c>
@@ -1614,7 +1868,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>44105</v>
       </c>
@@ -1628,7 +1882,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>44106</v>
       </c>
@@ -1642,7 +1896,7 @@
         <v>0.2967032967032967</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>44107</v>
       </c>
@@ -1656,7 +1910,7 @@
         <v>0.2967032967032967</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>44108</v>
       </c>
@@ -1670,7 +1924,7 @@
         <v>0.2967032967032967</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>44109</v>
       </c>
@@ -1684,7 +1938,7 @@
         <v>0.2967032967032967</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>44110</v>
       </c>
@@ -1698,7 +1952,7 @@
         <v>0.2967032967032967</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>44111</v>
       </c>
@@ -1712,7 +1966,7 @@
         <v>0.35164835164835168</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>44112</v>
       </c>
@@ -1726,7 +1980,7 @@
         <v>0.36263736263736263</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>44113</v>
       </c>
@@ -1740,7 +1994,7 @@
         <v>0.35164835164835168</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>44114</v>
       </c>
@@ -1754,7 +2008,7 @@
         <v>0.36263736263736263</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>44115</v>
       </c>
@@ -1768,7 +2022,7 @@
         <v>0.25384615384615383</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>44116</v>
       </c>
@@ -1782,7 +2036,7 @@
         <v>0.2153846153846154</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>44117</v>
       </c>
@@ -1796,7 +2050,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>44118</v>
       </c>
@@ -1810,7 +2064,7 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>44119</v>
       </c>
@@ -1824,7 +2078,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>44120</v>
       </c>
@@ -1838,7 +2092,7 @@
         <v>0.19333333333333333</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>44121</v>
       </c>
@@ -1852,7 +2106,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>44122</v>
       </c>
@@ -1866,7 +2120,7 @@
         <v>0.17333333333333334</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>44123</v>
       </c>
@@ -1880,7 +2134,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>44124</v>
       </c>
@@ -1894,7 +2148,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>44125</v>
       </c>
@@ -1908,7 +2162,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>44126</v>
       </c>
@@ -1922,7 +2176,7 @@
         <v>0.17142857142857143</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>44127</v>
       </c>
@@ -1936,7 +2190,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>44128</v>
       </c>
@@ -1950,7 +2204,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>44129</v>
       </c>
@@ -1964,7 +2218,7 @@
         <v>0.14857142857142858</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>44130</v>
       </c>
@@ -1978,7 +2232,7 @@
         <v>0.14857142857142858</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>44131</v>
       </c>
@@ -1992,7 +2246,7 @@
         <v>0.14857142857142858</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>44132</v>
       </c>
@@ -2006,7 +2260,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>44133</v>
       </c>
@@ -2020,7 +2274,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>44134</v>
       </c>
@@ -2034,7 +2288,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>44135</v>
       </c>
@@ -2048,7 +2302,7 @@
         <v>0.12571428571428572</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>44136</v>
       </c>
@@ -2062,7 +2316,7 @@
         <v>0.12571428571428572</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>44137</v>
       </c>
@@ -2076,7 +2330,7 @@
         <v>0.13513513513513514</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>44138</v>
       </c>
@@ -2090,7 +2344,7 @@
         <v>0.11351351351351352</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>44139</v>
       </c>
@@ -2104,7 +2358,7 @@
         <v>0.10810810810810811</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>44140</v>
       </c>
@@ -2118,7 +2372,7 @@
         <v>0.13513513513513514</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>44141</v>
       </c>
@@ -2132,7 +2386,7 @@
         <v>0.12972972972972974</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>44142</v>
       </c>
@@ -2146,7 +2400,7 @@
         <v>0.12972972972972974</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>44143</v>
       </c>
@@ -2160,7 +2414,7 @@
         <v>0.12432432432432433</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>44144</v>
       </c>
@@ -2174,7 +2428,7 @@
         <v>0.12432432432432433</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>44145</v>
       </c>
@@ -2188,7 +2442,7 @@
         <v>0.12432432432432433</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>44146</v>
       </c>
@@ -2202,7 +2456,7 @@
         <v>0.14594594594594595</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>44147</v>
       </c>
@@ -2216,7 +2470,7 @@
         <v>0.14054054054054055</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>44148</v>
       </c>
@@ -2230,7 +2484,7 @@
         <v>0.11891891891891893</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>44149</v>
       </c>
@@ -2244,7 +2498,7 @@
         <v>0.12972972972972974</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>44150</v>
       </c>
@@ -2258,7 +2512,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>44151</v>
       </c>
@@ -2272,7 +2526,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>44152</v>
       </c>
@@ -2286,7 +2540,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>44153</v>
       </c>
@@ -2300,7 +2554,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>44154</v>
       </c>
@@ -2314,7 +2568,7 @@
         <v>0.1891891891891892</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>44155</v>
       </c>
@@ -2328,7 +2582,7 @@
         <v>0.16216216216216217</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>44156</v>
       </c>
@@ -2342,7 +2596,7 @@
         <v>0.16216216216216217</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>44157</v>
       </c>
@@ -2356,7 +2610,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>44158</v>
       </c>
@@ -2370,7 +2624,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>44159</v>
       </c>
@@ -2384,7 +2638,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>44160</v>
       </c>
@@ -2398,7 +2652,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>44161</v>
       </c>
@@ -2412,7 +2666,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>44162</v>
       </c>
@@ -2426,7 +2680,7 @@
         <v>0.14594594594594595</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>44163</v>
       </c>
@@ -2440,7 +2694,7 @@
         <v>0.14594594594594595</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>44164</v>
       </c>
@@ -2454,7 +2708,7 @@
         <v>0.14054054054054055</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>44165</v>
       </c>
@@ -2468,7 +2722,7 @@
         <v>0.15135135135135136</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>44166</v>
       </c>
@@ -2482,7 +2736,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>44167</v>
       </c>
@@ -2496,7 +2750,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>44168</v>
       </c>
@@ -2510,7 +2764,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>44169</v>
       </c>
@@ -2524,7 +2778,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>44170</v>
       </c>
@@ -2538,7 +2792,7 @@
         <v>0.17837837837837839</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>44171</v>
       </c>
@@ -2552,7 +2806,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>44172</v>
       </c>
@@ -2566,7 +2820,7 @@
         <v>0.17837837837837839</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>44173</v>
       </c>
@@ -2580,7 +2834,7 @@
         <v>0.17837837837837839</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>44174</v>
       </c>
@@ -2594,7 +2848,7 @@
         <v>0.17837837837837839</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>44175</v>
       </c>
@@ -2608,7 +2862,7 @@
         <v>0.20540540540540542</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>44176</v>
       </c>
@@ -2622,7 +2876,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>44177</v>
       </c>
@@ -2636,7 +2890,7 @@
         <v>0.18378378378378379</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>44178</v>
       </c>
@@ -2650,7 +2904,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>44179</v>
       </c>
@@ -2664,7 +2918,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>44180</v>
       </c>
@@ -2678,7 +2932,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>44181</v>
       </c>
@@ -2692,7 +2946,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>44182</v>
       </c>
@@ -2706,7 +2960,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>44183</v>
       </c>
@@ -2720,7 +2974,7 @@
         <v>0.16216216216216217</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>44184</v>
       </c>
@@ -2734,7 +2988,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>44185</v>
       </c>
@@ -2748,7 +3002,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>44186</v>
       </c>
@@ -2762,7 +3016,7 @@
         <v>0.18378378378378379</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>44187</v>
       </c>
@@ -2776,7 +3030,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>44188</v>
       </c>
@@ -2790,7 +3044,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>44189</v>
       </c>
@@ -2804,7 +3058,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>44190</v>
       </c>
@@ -2818,7 +3072,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>44191</v>
       </c>
@@ -2832,7 +3086,7 @@
         <v>0.17837837837837839</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>44192</v>
       </c>
@@ -2846,7 +3100,7 @@
         <v>0.1891891891891892</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>44193</v>
       </c>
@@ -2860,7 +3114,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>44194</v>
       </c>
@@ -2874,7 +3128,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>44195</v>
       </c>
@@ -2888,7 +3142,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>44196</v>
       </c>
@@ -2902,7 +3156,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>44197</v>
       </c>
@@ -2916,7 +3170,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>44198</v>
       </c>
@@ -2930,7 +3184,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>44199</v>
       </c>
@@ -2944,7 +3198,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>44200</v>
       </c>
@@ -2958,7 +3212,7 @@
         <v>0.16216216216216217</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>44201</v>
       </c>
@@ -2972,7 +3226,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>44202</v>
       </c>
@@ -2986,7 +3240,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>44203</v>
       </c>
@@ -3000,7 +3254,7 @@
         <v>0.19459459459459461</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>44204</v>
       </c>
@@ -3014,7 +3268,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>44205</v>
       </c>
@@ -3028,7 +3282,7 @@
         <v>0.19459459459459461</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>44206</v>
       </c>
@@ -3042,7 +3296,7 @@
         <v>0.21081081081081082</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>44207</v>
       </c>
@@ -3056,7 +3310,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>44208</v>
       </c>
@@ -3070,7 +3324,7 @@
         <v>0.22162162162162163</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>44209</v>
       </c>
@@ -3084,7 +3338,7 @@
         <v>0.24324324324324326</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>44210</v>
       </c>
@@ -3098,7 +3352,7 @@
         <v>0.24324324324324326</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>44211</v>
       </c>
@@ -3112,7 +3366,7 @@
         <v>0.23243243243243245</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>44212</v>
       </c>
@@ -3126,7 +3380,7 @@
         <v>0.25405405405405407</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>44213</v>
       </c>
@@ -3140,7 +3394,7 @@
         <v>0.26486486486486488</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>44214</v>
       </c>
@@ -3154,7 +3408,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>44215</v>
       </c>
@@ -3168,7 +3422,7 @@
         <v>0.28749999999999998</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>44216</v>
       </c>
@@ -3182,7 +3436,7 @@
         <v>0.28749999999999998</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>44217</v>
       </c>
@@ -3196,7 +3450,7 @@
         <v>0.18823529411764706</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>44218</v>
       </c>
@@ -3210,7 +3464,7 @@
         <v>0.18823529411764706</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>44219</v>
       </c>
@@ -3224,7 +3478,7 @@
         <v>0.18823529411764706</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>44220</v>
       </c>
@@ -3238,7 +3492,7 @@
         <v>0.18823529411764706</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>44221</v>
       </c>
@@ -3252,7 +3506,7 @@
         <v>0.30813953488372092</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>44222</v>
       </c>
@@ -3266,7 +3520,7 @@
         <v>0.27906976744186046</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>44223</v>
       </c>
@@ -3280,7 +3534,7 @@
         <v>0.32558139534883723</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>44224</v>
       </c>
@@ -3294,7 +3548,7 @@
         <v>0.31111111111111112</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>44225</v>
       </c>
@@ -3308,7 +3562,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>44226</v>
       </c>
@@ -3322,7 +3576,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>44227</v>
       </c>
@@ -3336,7 +3590,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>44228</v>
       </c>
@@ -3350,7 +3604,7 @@
         <v>0.38547486033519551</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>44229</v>
       </c>
@@ -3364,7 +3618,7 @@
         <v>0.38547486033519551</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>44230</v>
       </c>
@@ -3378,7 +3632,7 @@
         <v>0.31284916201117319</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>44231</v>
       </c>
@@ -3392,7 +3646,7 @@
         <v>0.31284916201117319</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>44232</v>
       </c>
@@ -3406,7 +3660,7 @@
         <v>0.31843575418994413</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>44233</v>
       </c>
@@ -3420,7 +3674,7 @@
         <v>0.33519553072625696</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>44234</v>
       </c>
@@ -3434,7 +3688,7 @@
         <v>0.32402234636871508</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>44235</v>
       </c>
@@ -3448,7 +3702,7 @@
         <v>0.31843575418994413</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>44236</v>
       </c>
@@ -3462,7 +3716,7 @@
         <v>0.32402234636871508</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>44237</v>
       </c>
@@ -3476,7 +3730,7 @@
         <v>0.34636871508379891</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>44238</v>
       </c>
@@ -3490,7 +3744,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>44239</v>
       </c>
@@ -3504,7 +3758,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>44240</v>
       </c>
@@ -3518,7 +3772,7 @@
         <v>0.33714285714285713</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>44241</v>
       </c>
@@ -3532,7 +3786,7 @@
         <v>0.32571428571428573</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>44242</v>
       </c>
@@ -3546,7 +3800,7 @@
         <v>0.38857142857142857</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>44243</v>
       </c>
@@ -3560,7 +3814,7 @@
         <v>0.38857142857142857</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>44244</v>
       </c>
@@ -3574,7 +3828,7 @@
         <v>0.31284916201117319</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>44245</v>
       </c>
@@ -3588,7 +3842,7 @@
         <v>0.27374301675977653</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>44246</v>
       </c>
@@ -3602,7 +3856,7 @@
         <v>0.27374301675977653</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>44247</v>
       </c>
@@ -3616,7 +3870,7 @@
         <v>0.31284916201117319</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>44248</v>
       </c>
@@ -3630,7 +3884,7 @@
         <v>0.30726256983240224</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>44249</v>
       </c>
@@ -3644,7 +3898,7 @@
         <v>0.31284916201117319</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>44250</v>
       </c>
@@ -3658,7 +3912,7 @@
         <v>0.2722222222222222</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>44251</v>
       </c>
@@ -3672,7 +3926,7 @@
         <v>0.2722222222222222</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>44252</v>
       </c>
@@ -3686,7 +3940,7 @@
         <v>0.25139664804469275</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>44253</v>
       </c>
@@ -3700,7 +3954,7 @@
         <v>0.29608938547486036</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>44254</v>
       </c>
@@ -3714,7 +3968,7 @@
         <v>0.27932960893854747</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>44255</v>
       </c>
@@ -3728,7 +3982,7 @@
         <v>0.21787709497206703</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>44256</v>
       </c>
@@ -3742,7 +3996,7 @@
         <v>0.21229050279329609</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>44257</v>
       </c>
@@ -3756,7 +4010,7 @@
         <v>0.21229050279329609</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>44258</v>
       </c>
@@ -3770,7 +4024,7 @@
         <v>0.24571428571428572</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>44259</v>
       </c>
@@ -3784,7 +4038,7 @@
         <v>0.26256983240223464</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>44260</v>
       </c>
@@ -3798,7 +4052,7 @@
         <v>0.2742857142857143</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>44261</v>
       </c>
@@ -3812,7 +4066,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>44262</v>
       </c>
@@ -3826,7 +4080,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>44263</v>
       </c>
@@ -3840,7 +4094,7 @@
         <v>0.26815642458100558</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>44264</v>
       </c>
@@ -3854,7 +4108,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>44265</v>
       </c>
@@ -3868,7 +4122,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>44266</v>
       </c>
@@ -3882,7 +4136,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>44267</v>
       </c>
@@ -3896,7 +4150,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>44268</v>
       </c>
@@ -3910,7 +4164,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>44269</v>
       </c>
@@ -3924,7 +4178,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>44270</v>
       </c>
@@ -3938,7 +4192,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>44271</v>
       </c>
@@ -3952,7 +4206,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>44272</v>
       </c>
@@ -3966,7 +4220,7 @@
         <v>0.33649289099526064</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>44273</v>
       </c>
@@ -3980,7 +4234,7 @@
         <v>0.33649289099526064</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>44274</v>
       </c>
@@ -3994,7 +4248,7 @@
         <v>0.30882352941176472</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>44275</v>
       </c>
@@ -4008,7 +4262,7 @@
         <v>0.34905660377358488</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>44276</v>
       </c>
@@ -4022,7 +4276,7 @@
         <v>0.34905660377358488</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>44277</v>
       </c>
@@ -4036,7 +4290,7 @@
         <v>0.34905660377358488</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>44278</v>
       </c>
@@ -4050,7 +4304,7 @@
         <v>0.37745098039215685</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>44279</v>
       </c>
@@ -4064,7 +4318,7 @@
         <v>0.37745098039215685</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>44280</v>
       </c>
@@ -4078,7 +4332,7 @@
         <v>0.34313725490196079</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>44281</v>
       </c>
@@ -4092,7 +4346,7 @@
         <v>0.30791788856304986</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>44282</v>
       </c>
@@ -4106,7 +4360,7 @@
         <v>0.30791788856304986</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>44283</v>
       </c>
@@ -4120,7 +4374,7 @@
         <v>0.30791788856304986</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>44284</v>
       </c>
@@ -4134,7 +4388,7 @@
         <v>0.30447761194029849</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>44285</v>
       </c>
@@ -4148,7 +4402,7 @@
         <v>0.35294117647058826</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>44286</v>
       </c>
@@ -4162,7 +4416,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>44287</v>
       </c>
@@ -4176,7 +4430,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>44288</v>
       </c>
@@ -4190,7 +4444,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>44289</v>
       </c>
@@ -4204,7 +4458,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>44290</v>
       </c>
@@ -4218,7 +4472,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>44291</v>
       </c>
@@ -4232,7 +4486,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>44292</v>
       </c>
@@ -4246,7 +4500,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>44293</v>
       </c>
@@ -4260,7 +4514,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>44294</v>
       </c>
@@ -4274,7 +4528,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>44295</v>
       </c>
@@ -4288,7 +4542,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>44296</v>
       </c>
@@ -4302,7 +4556,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>44297</v>
       </c>
@@ -4316,7 +4570,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>44298</v>
       </c>
@@ -4330,7 +4584,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>44299</v>
       </c>
@@ -4344,7 +4598,7 @@
         <v>0.33185840707964603</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>44300</v>
       </c>
@@ -4358,7 +4612,7 @@
         <v>0.36440677966101692</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>44301</v>
       </c>
@@ -4372,7 +4626,7 @@
         <v>0.34854771784232363</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>44302</v>
       </c>
@@ -4386,7 +4640,7 @@
         <v>0.34854771784232363</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>44303</v>
       </c>
@@ -4400,7 +4654,7 @@
         <v>0.36514522821576761</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>44304</v>
       </c>
@@ -4414,7 +4668,7 @@
         <v>0.34854771784232363</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>44305</v>
       </c>
@@ -4428,7 +4682,7 @@
         <v>0.37344398340248963</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>44306</v>
       </c>
@@ -4442,7 +4696,7 @@
         <v>0.37344398340248963</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>44307</v>
       </c>
@@ -4456,7 +4710,7 @@
         <v>0.37344398340248963</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>44308</v>
       </c>
@@ -4470,7 +4724,7 @@
         <v>0.36595744680851061</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>44309</v>
       </c>
@@ -4484,7 +4738,7 @@
         <v>0.36595744680851061</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>44310</v>
       </c>
@@ -4498,7 +4752,7 @@
         <v>0.36595744680851061</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>44311</v>
       </c>
@@ -4512,7 +4766,7 @@
         <v>0.36595744680851061</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>44312</v>
       </c>
@@ -4526,7 +4780,7 @@
         <v>0.33920704845814981</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>44313</v>
       </c>
@@ -4540,7 +4794,7 @@
         <v>0.47136563876651982</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>44314</v>
       </c>
@@ -4554,7 +4808,7 @@
         <v>0.45061728395061729</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>44315</v>
       </c>
@@ -4568,7 +4822,7 @@
         <v>0.48113207547169812</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>44316</v>
       </c>
@@ -4582,7 +4836,7 @@
         <v>0.48113207547169812</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>44317</v>
       </c>
@@ -4596,7 +4850,7 @@
         <v>0.48113207547169812</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>44318</v>
       </c>
@@ -4610,7 +4864,7 @@
         <v>0.48113207547169812</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>44319</v>
       </c>
@@ -4624,7 +4878,7 @@
         <v>0.35909090909090907</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>44320</v>
       </c>
@@ -4638,7 +4892,7 @@
         <v>0.33636363636363636</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>44321</v>
       </c>
@@ -4652,7 +4906,7 @@
         <v>0.35909090909090907</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>44322</v>
       </c>
@@ -4666,7 +4920,7 @@
         <v>0.5074626865671642</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>44323</v>
       </c>
@@ -4680,7 +4934,7 @@
         <v>0.41818181818181815</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>44324</v>
       </c>
@@ -4694,7 +4948,7 @@
         <v>0.41818181818181815</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>44325</v>
       </c>
@@ -4708,7 +4962,7 @@
         <v>0.41818181818181815</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>44326</v>
       </c>
@@ -4722,7 +4976,7 @@
         <v>0.5074626865671642</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>44327</v>
       </c>
@@ -4736,7 +4990,7 @@
         <v>0.3574660633484163</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>44328</v>
       </c>
@@ -4750,7 +5004,7 @@
         <v>0.39366515837104071</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>44329</v>
       </c>
@@ -4764,7 +5018,7 @@
         <v>0.43891402714932126</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>44330</v>
       </c>
@@ -4778,7 +5032,7 @@
         <v>0.46363636363636362</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>44331</v>
       </c>
@@ -4792,7 +5046,7 @@
         <v>0.46363636363636362</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>44332</v>
       </c>
@@ -4806,7 +5060,7 @@
         <v>0.38528138528138528</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>44333</v>
       </c>
@@ -4820,7 +5074,7 @@
         <v>0.39826839826839827</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>44334</v>
       </c>
@@ -4834,7 +5088,7 @@
         <v>0.42570281124497994</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>44335</v>
       </c>
@@ -4848,7 +5102,7 @@
         <v>0.42231075697211157</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>44336</v>
       </c>
@@ -4862,7 +5116,7 @@
         <v>0.42231075697211157</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>44337</v>
       </c>
@@ -4876,7 +5130,7 @@
         <v>0.42231075697211157</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>44338</v>
       </c>
@@ -4890,7 +5144,7 @@
         <v>0.42231075697211157</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>44339</v>
       </c>
@@ -4904,7 +5158,7 @@
         <v>0.44166666666666665</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>44340</v>
       </c>
@@ -4918,7 +5172,7 @@
         <v>0.44166666666666665</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>44341</v>
       </c>
@@ -4932,7 +5186,7 @@
         <v>0.42916666666666664</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>44342</v>
       </c>
@@ -4946,7 +5200,7 @@
         <v>0.41249999999999998</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>44343</v>
       </c>
@@ -4960,7 +5214,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>44344</v>
       </c>
@@ -4974,7 +5228,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>44345</v>
       </c>
@@ -4988,7 +5242,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>44346</v>
       </c>
@@ -5005,7 +5259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>44347</v>
       </c>
@@ -5022,7 +5276,7 @@
         <v>0.7857142857142857</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>44348</v>
       </c>
@@ -5039,7 +5293,7 @@
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>44349</v>
       </c>
@@ -5056,7 +5310,7 @@
         <v>0.84210526315789469</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>44350</v>
       </c>
@@ -5073,7 +5327,7 @@
         <v>0.84210526315789469</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>44351</v>
       </c>
@@ -5090,7 +5344,7 @@
         <v>0.84210526315789469</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>44352</v>
       </c>
@@ -5107,7 +5361,7 @@
         <v>0.84210526315789469</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>44353</v>
       </c>
@@ -5124,7 +5378,7 @@
         <v>0.84210526315789469</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>44354</v>
       </c>
@@ -5141,7 +5395,7 @@
         <v>0.89473684210526316</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>44355</v>
       </c>
@@ -5158,7 +5412,7 @@
         <v>0.94736842105263153</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>44356</v>
       </c>
@@ -5175,7 +5429,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>44357</v>
       </c>
@@ -5192,7 +5446,7 @@
         <v>0.52631578947368418</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>44358</v>
       </c>
@@ -5209,7 +5463,7 @@
         <v>0.52631578947368418</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>44359</v>
       </c>
@@ -5226,7 +5480,7 @@
         <v>0.52631578947368418</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>44360</v>
       </c>
@@ -5243,7 +5497,7 @@
         <v>0.52631578947368418</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>44361</v>
       </c>
@@ -5260,7 +5514,7 @@
         <v>0.42105263157894735</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>44362</v>
       </c>
@@ -5277,7 +5531,7 @@
         <v>0.36842105263157893</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>44363</v>
       </c>
@@ -5294,7 +5548,7 @@
         <v>0.36842105263157893</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>44364</v>
       </c>
@@ -5311,7 +5565,7 @@
         <v>0.57894736842105265</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>44365</v>
       </c>
@@ -5328,7 +5582,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>44366</v>
       </c>
@@ -5345,7 +5599,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>44367</v>
       </c>
@@ -5362,7 +5616,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>44368</v>
       </c>
@@ -5379,7 +5633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>44369</v>
       </c>
@@ -5396,7 +5650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>44370</v>
       </c>
@@ -5413,7 +5667,7 @@
         <v>0.89473684210526316</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>44371</v>
       </c>
@@ -5430,7 +5684,7 @@
         <v>0.89473684210526316</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>44372</v>
       </c>
@@ -5447,7 +5701,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>44373</v>
       </c>
@@ -5464,7 +5718,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>44374</v>
       </c>
@@ -5481,7 +5735,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>44375</v>
       </c>
@@ -5498,7 +5752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>44376</v>
       </c>
@@ -5515,7 +5769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>44377</v>
       </c>
@@ -5532,7 +5786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>44378</v>
       </c>
@@ -5549,7 +5803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>44379</v>
       </c>
@@ -5566,7 +5820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>44380</v>
       </c>
@@ -5583,7 +5837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>44381</v>
       </c>
@@ -5600,7 +5854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>44382</v>
       </c>
@@ -5617,7 +5871,7 @@
         <v>0.89473684210526316</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>44383</v>
       </c>
@@ -5634,7 +5888,7 @@
         <v>0.89473684210526316</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>44384</v>
       </c>
@@ -5651,7 +5905,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>44385</v>
       </c>
@@ -5668,7 +5922,7 @@
         <v>0.68421052631578949</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>44386</v>
       </c>
@@ -5685,7 +5939,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>44387</v>
       </c>
@@ -5702,7 +5956,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>44388</v>
       </c>
@@ -5719,7 +5973,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>44389</v>
       </c>
@@ -5736,7 +5990,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>44390</v>
       </c>
@@ -5753,7 +6007,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>44391</v>
       </c>
@@ -5770,7 +6024,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>44392</v>
       </c>
@@ -5787,7 +6041,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>44393</v>
       </c>
@@ -5804,7 +6058,7 @@
         <v>0.45454545454545453</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>44394</v>
       </c>
@@ -5821,7 +6075,7 @@
         <v>0.45454545454545453</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>44395</v>
       </c>
@@ -5838,7 +6092,7 @@
         <v>0.36363636363636365</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>44396</v>
       </c>
@@ -5855,7 +6109,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>44397</v>
       </c>
@@ -5872,7 +6126,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>44398</v>
       </c>
@@ -5889,7 +6143,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>44399</v>
       </c>
@@ -5906,7 +6160,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>44400</v>
       </c>
@@ -5923,7 +6177,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>44401</v>
       </c>
@@ -5940,7 +6194,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>44402</v>
       </c>
@@ -5957,7 +6211,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>44403</v>
       </c>
@@ -5974,7 +6228,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>44404</v>
       </c>
@@ -5991,7 +6245,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>44405</v>
       </c>
@@ -6008,7 +6262,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>44406</v>
       </c>
@@ -6025,7 +6279,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>44407</v>
       </c>
@@ -6042,7 +6296,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>44408</v>
       </c>
@@ -6059,7 +6313,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>44409</v>
       </c>
@@ -6076,7 +6330,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>44410</v>
       </c>
@@ -6093,7 +6347,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>44411</v>
       </c>
@@ -6110,7 +6364,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>44412</v>
       </c>
@@ -6127,7 +6381,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>44413</v>
       </c>
@@ -6144,7 +6398,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>44414</v>
       </c>
@@ -6161,7 +6415,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>44415</v>
       </c>
@@ -6178,7 +6432,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>44416</v>
       </c>
@@ -6195,7 +6449,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>44417</v>
       </c>
@@ -6212,7 +6466,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>44418</v>
       </c>
@@ -6229,7 +6483,7 @@
         <v>0.73913043478260865</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>44419</v>
       </c>
@@ -6246,7 +6500,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>44420</v>
       </c>
@@ -6263,7 +6517,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>44421</v>
       </c>
@@ -6280,7 +6534,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>44422</v>
       </c>
@@ -6297,7 +6551,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>44423</v>
       </c>
@@ -6314,7 +6568,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>44424</v>
       </c>
@@ -6331,7 +6585,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>44425</v>
       </c>
@@ -6348,7 +6602,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>44426</v>
       </c>
@@ -6365,7 +6619,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>44427</v>
       </c>
@@ -6382,7 +6636,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>44428</v>
       </c>
@@ -6399,7 +6653,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>44429</v>
       </c>
@@ -6416,7 +6670,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>44430</v>
       </c>
@@ -6433,7 +6687,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>44431</v>
       </c>
@@ -6450,7 +6704,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>44432</v>
       </c>
@@ -6467,7 +6721,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>44433</v>
       </c>
@@ -6484,7 +6738,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>44434</v>
       </c>
@@ -6501,7 +6755,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>44435</v>
       </c>
@@ -6518,7 +6772,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>44436</v>
       </c>
@@ -6535,7 +6789,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>44437</v>
       </c>
@@ -6552,7 +6806,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>44438</v>
       </c>
@@ -6569,7 +6823,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>44439</v>
       </c>
@@ -6586,7 +6840,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>44440</v>
       </c>
@@ -6603,7 +6857,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>44441</v>
       </c>
@@ -6620,7 +6874,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>44442</v>
       </c>
@@ -6637,7 +6891,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>44443</v>
       </c>
@@ -6654,7 +6908,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>44444</v>
       </c>
@@ -6671,7 +6925,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>44445</v>
       </c>
@@ -6688,7 +6942,7 @@
         <v>0.43333333333333335</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>44446</v>
       </c>
@@ -6705,7 +6959,7 @@
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>44447</v>
       </c>
@@ -6722,7 +6976,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>44448</v>
       </c>
@@ -6739,7 +6993,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>44449</v>
       </c>
@@ -6756,7 +7010,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>44450</v>
       </c>
@@ -6773,7 +7027,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>44451</v>
       </c>
@@ -6790,7 +7044,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>44452</v>
       </c>
@@ -6807,7 +7061,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>44453</v>
       </c>
@@ -6824,7 +7078,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>44454</v>
       </c>
@@ -6841,7 +7095,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>44455</v>
       </c>
@@ -6858,7 +7112,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>44456</v>
       </c>
@@ -6875,7 +7129,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>44457</v>
       </c>
@@ -6892,7 +7146,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" s="3">
         <v>44458</v>
       </c>
@@ -6909,7 +7163,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" s="3">
         <v>44459</v>
       </c>
@@ -6926,7 +7180,7 @@
         <v>0.36666666666666664</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" s="3">
         <v>44460</v>
       </c>
@@ -6943,7 +7197,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" s="3">
         <v>44461</v>
       </c>
@@ -6960,7 +7214,7 @@
         <v>0.45161290322580644</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" s="3">
         <v>44462</v>
       </c>
@@ -6977,7 +7231,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" s="3">
         <v>44463</v>
       </c>
@@ -6994,7 +7248,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" s="3">
         <v>44464</v>
       </c>
@@ -7011,7 +7265,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" s="3">
         <v>44465</v>
       </c>
@@ -7028,7 +7282,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" s="3">
         <v>44466</v>
       </c>
@@ -7045,7 +7299,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" s="3">
         <v>44467</v>
       </c>
@@ -7062,7 +7316,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" s="3">
         <v>44468</v>
       </c>
@@ -7079,7 +7333,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" s="3">
         <v>44469</v>
       </c>
@@ -7096,7 +7350,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" s="3">
         <v>44470</v>
       </c>
@@ -7113,7 +7367,7 @@
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" s="3">
         <v>44471</v>
       </c>
@@ -7130,7 +7384,7 @@
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" s="3">
         <v>44472</v>
       </c>
@@ -7147,7 +7401,7 @@
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" s="3">
         <v>44473</v>
       </c>
@@ -7164,7 +7418,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" s="3">
         <v>44474</v>
       </c>
@@ -7181,7 +7435,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" s="3">
         <v>44475</v>
       </c>
@@ -7198,7 +7452,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" s="3">
         <v>44476</v>
       </c>
@@ -7215,7 +7469,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" s="3">
         <v>44477</v>
       </c>
@@ -7232,7 +7486,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" s="3">
         <v>44478</v>
       </c>
@@ -7249,7 +7503,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" s="3">
         <v>44479</v>
       </c>
@@ -7266,7 +7520,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" s="3">
         <v>44480</v>
       </c>
@@ -7283,7 +7537,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" s="3">
         <v>44481</v>
       </c>
@@ -7300,7 +7554,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" s="3">
         <v>44482</v>
       </c>
@@ -7317,7 +7571,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" s="3">
         <v>44483</v>
       </c>
@@ -7334,7 +7588,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" s="3">
         <v>44484</v>
       </c>
@@ -7351,7 +7605,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" s="3">
         <v>44485</v>
       </c>
@@ -7366,6 +7620,1077 @@
       </c>
       <c r="E474">
         <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A475" s="3">
+        <v>44486</v>
+      </c>
+      <c r="B475" s="4">
+        <v>0.79487179487179482</v>
+      </c>
+      <c r="C475">
+        <v>0.1088646967340591</v>
+      </c>
+      <c r="D475">
+        <v>8.7301587301587297E-2</v>
+      </c>
+      <c r="E475">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A476" s="3">
+        <v>44487</v>
+      </c>
+      <c r="B476" s="5">
+        <v>0.79487179487179482</v>
+      </c>
+      <c r="C476">
+        <v>0.1088646967340591</v>
+      </c>
+      <c r="D476">
+        <v>8.7301587301587297E-2</v>
+      </c>
+      <c r="E476">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A477" s="3">
+        <v>44488</v>
+      </c>
+      <c r="B477" s="5">
+        <v>0.74358974358974361</v>
+      </c>
+      <c r="C477">
+        <v>0.11214953271028037</v>
+      </c>
+      <c r="D477">
+        <v>6.7729083665338641E-2</v>
+      </c>
+      <c r="E477">
+        <v>0.37931034482758619</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A478" s="3">
+        <v>44489</v>
+      </c>
+      <c r="B478" s="5">
+        <v>0.71794871794871795</v>
+      </c>
+      <c r="C478">
+        <v>0.1181959564541213</v>
+      </c>
+      <c r="D478">
+        <v>6.3492063492063489E-2</v>
+      </c>
+      <c r="E478">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A479" s="3">
+        <v>44490</v>
+      </c>
+      <c r="B479" s="5">
+        <v>0.71794871794871795</v>
+      </c>
+      <c r="C479">
+        <v>0.1181959564541213</v>
+      </c>
+      <c r="D479">
+        <v>6.3492063492063489E-2</v>
+      </c>
+      <c r="E479">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A480" s="3">
+        <v>44491</v>
+      </c>
+      <c r="B480" s="5">
+        <v>0.71794871794871795</v>
+      </c>
+      <c r="C480">
+        <v>0.1181959564541213</v>
+      </c>
+      <c r="D480">
+        <v>6.3492063492063489E-2</v>
+      </c>
+      <c r="E480">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A481" s="3">
+        <v>44492</v>
+      </c>
+      <c r="B481" s="5">
+        <v>0.71794871794871795</v>
+      </c>
+      <c r="C481">
+        <v>0.1181959564541213</v>
+      </c>
+      <c r="D481">
+        <v>6.3492063492063489E-2</v>
+      </c>
+      <c r="E481">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A482" s="3">
+        <v>44493</v>
+      </c>
+      <c r="B482" s="5">
+        <v>0.79487179487179482</v>
+      </c>
+      <c r="C482">
+        <v>0.1088646967340591</v>
+      </c>
+      <c r="D482">
+        <v>8.7301587301587297E-2</v>
+      </c>
+      <c r="E482">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A483" s="3">
+        <v>44494</v>
+      </c>
+      <c r="B483" s="5">
+        <v>0.79487179487179482</v>
+      </c>
+      <c r="C483">
+        <v>0.1088646967340591</v>
+      </c>
+      <c r="D483">
+        <v>8.7301587301587297E-2</v>
+      </c>
+      <c r="E483">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A484" s="3">
+        <v>44495</v>
+      </c>
+      <c r="B484" s="5">
+        <v>0.74358974358974361</v>
+      </c>
+      <c r="C484">
+        <v>0.11214953271028037</v>
+      </c>
+      <c r="D484">
+        <v>6.7729083665338641E-2</v>
+      </c>
+      <c r="E484">
+        <v>0.37931034482758619</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A485" s="3">
+        <v>44496</v>
+      </c>
+      <c r="B485" s="5">
+        <v>0.71794871794871795</v>
+      </c>
+      <c r="C485">
+        <v>0.1181959564541213</v>
+      </c>
+      <c r="D485">
+        <v>6.3492063492063489E-2</v>
+      </c>
+      <c r="E485">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A486" s="3">
+        <v>44497</v>
+      </c>
+      <c r="B486" s="5">
+        <v>0.71794871794871795</v>
+      </c>
+      <c r="C486">
+        <v>0.1181959564541213</v>
+      </c>
+      <c r="D486">
+        <v>6.3492063492063489E-2</v>
+      </c>
+      <c r="E486">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A487" s="3">
+        <v>44498</v>
+      </c>
+      <c r="B487" s="5">
+        <v>0.71794871794871795</v>
+      </c>
+      <c r="C487">
+        <v>0.1181959564541213</v>
+      </c>
+      <c r="D487">
+        <v>6.3492063492063489E-2</v>
+      </c>
+      <c r="E487">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A488" s="3">
+        <v>44499</v>
+      </c>
+      <c r="B488" s="5">
+        <v>0.71794871794871795</v>
+      </c>
+      <c r="C488">
+        <v>0.1181959564541213</v>
+      </c>
+      <c r="D488">
+        <v>6.3492063492063489E-2</v>
+      </c>
+      <c r="E488">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A489" s="3">
+        <v>44500</v>
+      </c>
+      <c r="B489" s="5">
+        <v>0.79487179487179482</v>
+      </c>
+      <c r="C489">
+        <v>0.1088646967340591</v>
+      </c>
+      <c r="D489">
+        <v>8.7301587301587297E-2</v>
+      </c>
+      <c r="E489">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A490" s="3">
+        <v>44501</v>
+      </c>
+      <c r="B490" s="5">
+        <v>0.79487179487179482</v>
+      </c>
+      <c r="C490">
+        <v>0.1088646967340591</v>
+      </c>
+      <c r="D490">
+        <v>8.7301587301587297E-2</v>
+      </c>
+      <c r="E490">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A491" s="3">
+        <v>44502</v>
+      </c>
+      <c r="B491" s="5">
+        <v>0.74358974358974361</v>
+      </c>
+      <c r="C491">
+        <v>0.11214953271028037</v>
+      </c>
+      <c r="D491">
+        <v>6.7729083665338641E-2</v>
+      </c>
+      <c r="E491">
+        <v>0.37931034482758619</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A492" s="3">
+        <v>44503</v>
+      </c>
+      <c r="B492" s="5">
+        <v>0.71794871794871795</v>
+      </c>
+      <c r="C492">
+        <v>0.1181959564541213</v>
+      </c>
+      <c r="D492">
+        <v>6.3492063492063489E-2</v>
+      </c>
+      <c r="E492">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A493" s="3">
+        <v>44504</v>
+      </c>
+      <c r="B493" s="5">
+        <v>0.71794871794871795</v>
+      </c>
+      <c r="C493">
+        <v>0.1181959564541213</v>
+      </c>
+      <c r="D493">
+        <v>6.3492063492063489E-2</v>
+      </c>
+      <c r="E493">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A494" s="3">
+        <v>44505</v>
+      </c>
+      <c r="B494" s="5">
+        <v>0.71794871794871795</v>
+      </c>
+      <c r="C494">
+        <v>0.1181959564541213</v>
+      </c>
+      <c r="D494">
+        <v>6.3492063492063489E-2</v>
+      </c>
+      <c r="E494">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A495" s="3">
+        <v>44506</v>
+      </c>
+      <c r="B495" s="5">
+        <v>0.71794871794871795</v>
+      </c>
+      <c r="C495">
+        <v>0.1181959564541213</v>
+      </c>
+      <c r="D495">
+        <v>6.3492063492063489E-2</v>
+      </c>
+      <c r="E495">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A496" s="3">
+        <v>44507</v>
+      </c>
+      <c r="B496" s="5">
+        <v>0.71794871794871795</v>
+      </c>
+      <c r="C496">
+        <v>0.1181959564541213</v>
+      </c>
+      <c r="D496">
+        <v>6.3492063492063489E-2</v>
+      </c>
+      <c r="E496">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A497" s="3">
+        <v>44508</v>
+      </c>
+      <c r="B497" s="5">
+        <v>0.71794871794871795</v>
+      </c>
+      <c r="C497">
+        <v>0.1181959564541213</v>
+      </c>
+      <c r="D497">
+        <v>6.3492063492063489E-2</v>
+      </c>
+      <c r="E497">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A498" s="3">
+        <v>44509</v>
+      </c>
+      <c r="B498" s="5">
+        <v>0.78125</v>
+      </c>
+      <c r="C498">
+        <v>0.1181959564541213</v>
+      </c>
+      <c r="D498">
+        <v>6.3492063492063489E-2</v>
+      </c>
+      <c r="E498">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A499" s="3">
+        <v>44510</v>
+      </c>
+      <c r="B499" s="5">
+        <v>0.78125</v>
+      </c>
+      <c r="C499">
+        <v>0.1181959564541213</v>
+      </c>
+      <c r="D499">
+        <v>6.3492063492063489E-2</v>
+      </c>
+      <c r="E499">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A500" s="3">
+        <v>44511</v>
+      </c>
+      <c r="B500" s="5">
+        <v>0.78125</v>
+      </c>
+      <c r="C500">
+        <v>0.1181959564541213</v>
+      </c>
+      <c r="D500">
+        <v>6.3492063492063489E-2</v>
+      </c>
+      <c r="E500">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A501" s="3">
+        <v>44512</v>
+      </c>
+      <c r="B501" s="5">
+        <v>0.78125</v>
+      </c>
+      <c r="C501">
+        <v>0.1181959564541213</v>
+      </c>
+      <c r="D501">
+        <v>6.3492063492063489E-2</v>
+      </c>
+      <c r="E501">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A502" s="3">
+        <v>44513</v>
+      </c>
+      <c r="B502" s="5">
+        <v>0.78125</v>
+      </c>
+      <c r="C502">
+        <v>0.1181959564541213</v>
+      </c>
+      <c r="D502">
+        <v>6.3492063492063489E-2</v>
+      </c>
+      <c r="E502">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A503" s="3">
+        <v>44514</v>
+      </c>
+      <c r="B503" s="5">
+        <v>0.78125</v>
+      </c>
+      <c r="C503">
+        <v>0.1181959564541213</v>
+      </c>
+      <c r="D503">
+        <v>6.3492063492063489E-2</v>
+      </c>
+      <c r="E503">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A504" s="3">
+        <v>44515</v>
+      </c>
+      <c r="B504" s="5">
+        <v>0.71875</v>
+      </c>
+      <c r="C504">
+        <v>0.11516314779270634</v>
+      </c>
+      <c r="D504">
+        <v>5.905511811023622E-2</v>
+      </c>
+      <c r="E504">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A505" s="3">
+        <v>44516</v>
+      </c>
+      <c r="B505" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="C505">
+        <v>0.10748560460652591</v>
+      </c>
+      <c r="D505">
+        <v>6.2992125984251968E-2</v>
+      </c>
+      <c r="E505">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A506" s="3">
+        <v>44517</v>
+      </c>
+      <c r="B506" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="C506">
+        <v>0.10748560460652591</v>
+      </c>
+      <c r="D506">
+        <v>6.2992125984251968E-2</v>
+      </c>
+      <c r="E506">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A507" s="3">
+        <v>44518</v>
+      </c>
+      <c r="B507" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="C507">
+        <v>0.10748560460652591</v>
+      </c>
+      <c r="D507">
+        <v>6.2992125984251968E-2</v>
+      </c>
+      <c r="E507">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A508" s="3">
+        <v>44519</v>
+      </c>
+      <c r="B508" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="C508">
+        <v>0.10748560460652591</v>
+      </c>
+      <c r="D508">
+        <v>6.2992125984251968E-2</v>
+      </c>
+      <c r="E508">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A509" s="3">
+        <v>44520</v>
+      </c>
+      <c r="B509" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="C509">
+        <v>0.10748560460652591</v>
+      </c>
+      <c r="D509">
+        <v>6.2992125984251968E-2</v>
+      </c>
+      <c r="E509">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A510" s="3">
+        <v>44521</v>
+      </c>
+      <c r="B510" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="C510">
+        <v>0.10748560460652591</v>
+      </c>
+      <c r="D510">
+        <v>6.2992125984251968E-2</v>
+      </c>
+      <c r="E510">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A511" s="3">
+        <v>44522</v>
+      </c>
+      <c r="B511" s="5">
+        <v>0.78125</v>
+      </c>
+      <c r="C511">
+        <v>9.2130518234165071E-2</v>
+      </c>
+      <c r="D511">
+        <v>5.5118110236220472E-2</v>
+      </c>
+      <c r="E511">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A512" s="3">
+        <v>44523</v>
+      </c>
+      <c r="B512" s="5">
+        <v>0.8125</v>
+      </c>
+      <c r="C512">
+        <v>9.4049904030710174E-2</v>
+      </c>
+      <c r="D512">
+        <v>5.5118110236220472E-2</v>
+      </c>
+      <c r="E512">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A513" s="3">
+        <v>44524</v>
+      </c>
+      <c r="B513" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="C513">
+        <v>9.2130518234165071E-2</v>
+      </c>
+      <c r="D513">
+        <v>5.905511811023622E-2</v>
+      </c>
+      <c r="E513">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A514" s="3">
+        <v>44525</v>
+      </c>
+      <c r="B514" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="C514">
+        <v>9.2130518234165071E-2</v>
+      </c>
+      <c r="D514">
+        <v>5.905511811023622E-2</v>
+      </c>
+      <c r="E514">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A515" s="3">
+        <v>44526</v>
+      </c>
+      <c r="B515" s="5">
+        <v>0.78125</v>
+      </c>
+      <c r="C515">
+        <v>0.1036468330134357</v>
+      </c>
+      <c r="D515">
+        <v>5.5118110236220472E-2</v>
+      </c>
+      <c r="E515">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A516" s="3">
+        <v>44527</v>
+      </c>
+      <c r="B516" s="5">
+        <v>0.78125</v>
+      </c>
+      <c r="C516">
+        <v>0.1036468330134357</v>
+      </c>
+      <c r="D516">
+        <v>5.5118110236220472E-2</v>
+      </c>
+      <c r="E516">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A517" s="3">
+        <v>44528</v>
+      </c>
+      <c r="B517" s="5">
+        <v>0.78125</v>
+      </c>
+      <c r="C517">
+        <v>0.1036468330134357</v>
+      </c>
+      <c r="D517">
+        <v>5.5118110236220472E-2</v>
+      </c>
+      <c r="E517">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A518" s="3">
+        <v>44529</v>
+      </c>
+      <c r="B518" s="5">
+        <v>0.78125</v>
+      </c>
+      <c r="C518">
+        <v>0.1036468330134357</v>
+      </c>
+      <c r="D518">
+        <v>5.5118110236220472E-2</v>
+      </c>
+      <c r="E518">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A519" s="3">
+        <v>44530</v>
+      </c>
+      <c r="B519" s="5">
+        <v>0.78125</v>
+      </c>
+      <c r="C519">
+        <v>0.1036468330134357</v>
+      </c>
+      <c r="D519">
+        <v>5.5118110236220472E-2</v>
+      </c>
+      <c r="E519">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A520" s="3">
+        <v>44531</v>
+      </c>
+      <c r="B520" s="5">
+        <v>0.78125</v>
+      </c>
+      <c r="C520">
+        <v>0.1036468330134357</v>
+      </c>
+      <c r="D520">
+        <v>5.5118110236220472E-2</v>
+      </c>
+      <c r="E520">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A521" s="3">
+        <v>44532</v>
+      </c>
+      <c r="B521" s="5">
+        <v>0.78125</v>
+      </c>
+      <c r="C521">
+        <v>0.1036468330134357</v>
+      </c>
+      <c r="D521">
+        <v>5.5118110236220472E-2</v>
+      </c>
+      <c r="E521">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A522" s="3">
+        <v>44533</v>
+      </c>
+      <c r="B522" s="5">
+        <v>0.65625</v>
+      </c>
+      <c r="C522">
+        <v>9.3235831809872036E-2</v>
+      </c>
+      <c r="D522">
+        <v>7.0866141732283464E-2</v>
+      </c>
+      <c r="E522">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A523" s="3">
+        <v>44534</v>
+      </c>
+      <c r="B523" s="5">
+        <v>0.65625</v>
+      </c>
+      <c r="C523">
+        <v>9.3235831809872036E-2</v>
+      </c>
+      <c r="D523">
+        <v>7.0866141732283464E-2</v>
+      </c>
+      <c r="E523">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A524" s="3">
+        <v>44535</v>
+      </c>
+      <c r="B524" s="5">
+        <v>0.65625</v>
+      </c>
+      <c r="C524">
+        <v>9.3235831809872036E-2</v>
+      </c>
+      <c r="D524">
+        <v>7.0866141732283464E-2</v>
+      </c>
+      <c r="E524">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A525" s="3">
+        <v>44536</v>
+      </c>
+      <c r="B525" s="5">
+        <v>0.65625</v>
+      </c>
+      <c r="C525">
+        <v>9.3235831809872036E-2</v>
+      </c>
+      <c r="D525">
+        <v>7.0866141732283464E-2</v>
+      </c>
+      <c r="E525">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A526" s="3">
+        <v>44537</v>
+      </c>
+      <c r="B526" s="5">
+        <v>0.65625</v>
+      </c>
+      <c r="C526">
+        <v>9.3235831809872036E-2</v>
+      </c>
+      <c r="D526">
+        <v>7.0866141732283464E-2</v>
+      </c>
+      <c r="E526">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A527" s="3">
+        <v>44538</v>
+      </c>
+      <c r="B527" s="5">
+        <v>0.65625</v>
+      </c>
+      <c r="C527">
+        <v>9.3235831809872036E-2</v>
+      </c>
+      <c r="D527">
+        <v>7.0866141732283464E-2</v>
+      </c>
+      <c r="E527">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A528" s="3">
+        <v>44539</v>
+      </c>
+      <c r="B528" s="5">
+        <v>0.65625</v>
+      </c>
+      <c r="C528">
+        <v>9.3235831809872036E-2</v>
+      </c>
+      <c r="D528">
+        <v>7.0866141732283464E-2</v>
+      </c>
+      <c r="E528">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A529" s="3">
+        <v>44540</v>
+      </c>
+      <c r="B529" s="5">
+        <v>0.65625</v>
+      </c>
+      <c r="C529">
+        <v>9.3235831809872036E-2</v>
+      </c>
+      <c r="D529">
+        <v>7.0866141732283464E-2</v>
+      </c>
+      <c r="E529">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A530" s="3">
+        <v>44541</v>
+      </c>
+      <c r="B530" s="5">
+        <v>0.65625</v>
+      </c>
+      <c r="C530">
+        <v>9.3235831809872036E-2</v>
+      </c>
+      <c r="D530">
+        <v>7.0866141732283464E-2</v>
+      </c>
+      <c r="E530">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A531" s="3">
+        <v>44542</v>
+      </c>
+      <c r="B531" s="5">
+        <v>0.65625</v>
+      </c>
+      <c r="C531">
+        <v>9.3235831809872036E-2</v>
+      </c>
+      <c r="D531">
+        <v>7.0866141732283464E-2</v>
+      </c>
+      <c r="E531">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A532" s="3">
+        <v>44543</v>
+      </c>
+      <c r="B532" s="5">
+        <v>0.65625</v>
+      </c>
+      <c r="C532">
+        <v>9.3235831809872036E-2</v>
+      </c>
+      <c r="D532">
+        <v>7.0866141732283464E-2</v>
+      </c>
+      <c r="E532">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A533" s="3">
+        <v>44544</v>
+      </c>
+      <c r="B533" s="5">
+        <v>0.65625</v>
+      </c>
+      <c r="C533">
+        <v>9.3235831809872036E-2</v>
+      </c>
+      <c r="D533">
+        <v>7.0866141732283464E-2</v>
+      </c>
+      <c r="E533">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A534" s="3">
+        <v>44545</v>
+      </c>
+      <c r="B534" s="5">
+        <v>0.65625</v>
+      </c>
+      <c r="C534">
+        <v>9.3235831809872036E-2</v>
+      </c>
+      <c r="D534">
+        <v>7.0866141732283464E-2</v>
+      </c>
+      <c r="E534">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A535" s="3">
+        <v>44546</v>
+      </c>
+      <c r="B535" s="5">
+        <v>0.65625</v>
+      </c>
+      <c r="C535">
+        <v>9.3235831809872036E-2</v>
+      </c>
+      <c r="D535">
+        <v>7.0866141732283464E-2</v>
+      </c>
+      <c r="E535">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A536" s="3">
+        <v>44547</v>
+      </c>
+      <c r="B536" s="5">
+        <v>0.65625</v>
+      </c>
+      <c r="C536">
+        <v>9.3235831809872036E-2</v>
+      </c>
+      <c r="D536">
+        <v>7.0866141732283464E-2</v>
+      </c>
+      <c r="E536">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A537" s="3">
+        <v>44548</v>
+      </c>
+      <c r="B537" s="5">
+        <v>0.65625</v>
+      </c>
+      <c r="C537">
+        <v>9.3235831809872036E-2</v>
+      </c>
+      <c r="D537">
+        <v>7.0866141732283464E-2</v>
+      </c>
+      <c r="E537">
+        <v>0.24</v>
       </c>
     </row>
   </sheetData>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A213A9DA-D064-4CBF-A4E1-09A3E6A40563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB60B7B-322F-48E1-9C62-716E6B52F2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +75,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -115,264 +121,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{D5B59C75-6032-4395-BC69-0FBC4B832E20}"/>
+    <cellStyle name="Normal 5" xfId="3" xr:uid="{B98FD99A-6B85-4C0C-A90E-16861C88A380}"/>
+    <cellStyle name="Normal 6" xfId="4" xr:uid="{C9BAD8E5-46A9-41B1-98B3-537725FAD62B}"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -648,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E537"/>
+  <dimension ref="A1:E558"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A457" workbookViewId="0">
-      <selection activeCell="D472" sqref="D472"/>
+    <sheetView tabSelected="1" topLeftCell="A523" workbookViewId="0">
+      <selection activeCell="C535" sqref="C535:C558"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8693,6 +8469,363 @@
         <v>0.24</v>
       </c>
     </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A538" s="3">
+        <v>44549</v>
+      </c>
+      <c r="B538" s="7">
+        <v>0.65625</v>
+      </c>
+      <c r="C538" s="10">
+        <v>9.3235831809871994E-2</v>
+      </c>
+      <c r="D538" s="9">
+        <v>7.0866141732283464E-2</v>
+      </c>
+      <c r="E538" s="6">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A539" s="3">
+        <v>44550</v>
+      </c>
+      <c r="B539" s="8">
+        <v>0.65625</v>
+      </c>
+      <c r="C539" s="10">
+        <v>9.3235831809871994E-2</v>
+      </c>
+      <c r="D539" s="9">
+        <v>7.0866141732283464E-2</v>
+      </c>
+      <c r="E539" s="6">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A540" s="3">
+        <v>44551</v>
+      </c>
+      <c r="B540" s="8">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="C540" s="10">
+        <v>9.3235831809871994E-2</v>
+      </c>
+      <c r="D540" s="9">
+        <v>5.5776892430278883E-2</v>
+      </c>
+      <c r="E540" s="6">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A541" s="3">
+        <v>44552</v>
+      </c>
+      <c r="B541" s="8">
+        <v>0.48148148148148145</v>
+      </c>
+      <c r="C541" s="10">
+        <v>9.3235831809871994E-2</v>
+      </c>
+      <c r="D541" s="9">
+        <v>6.7460317460317457E-2</v>
+      </c>
+      <c r="E541" s="6">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A542" s="3">
+        <v>44553</v>
+      </c>
+      <c r="B542" s="8">
+        <v>0.51851851851851849</v>
+      </c>
+      <c r="C542" s="10">
+        <v>9.3235831809871994E-2</v>
+      </c>
+      <c r="D542" s="9">
+        <v>7.5396825396825393E-2</v>
+      </c>
+      <c r="E542" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A543" s="3">
+        <v>44554</v>
+      </c>
+      <c r="B543" s="8">
+        <v>0.51851851851851849</v>
+      </c>
+      <c r="C543" s="10">
+        <v>9.3235831809871994E-2</v>
+      </c>
+      <c r="D543" s="9">
+        <v>7.5396825396825393E-2</v>
+      </c>
+      <c r="E543" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A544" s="3">
+        <v>44555</v>
+      </c>
+      <c r="B544" s="8">
+        <v>0.51851851851851849</v>
+      </c>
+      <c r="C544" s="10">
+        <v>9.3235831809871994E-2</v>
+      </c>
+      <c r="D544" s="9">
+        <v>7.5396825396825393E-2</v>
+      </c>
+      <c r="E544" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A545" s="3">
+        <v>44556</v>
+      </c>
+      <c r="B545" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C545" s="10">
+        <v>9.3235831809871994E-2</v>
+      </c>
+      <c r="D545" s="9">
+        <v>7.5396825396825393E-2</v>
+      </c>
+      <c r="E545" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A546" s="3">
+        <v>44557</v>
+      </c>
+      <c r="B546" s="8">
+        <v>0.70370370370370372</v>
+      </c>
+      <c r="C546" s="10">
+        <v>9.3235831809871994E-2</v>
+      </c>
+      <c r="D546" s="9">
+        <v>4.3650793650793648E-2</v>
+      </c>
+      <c r="E546" s="6">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A547" s="3">
+        <v>44558</v>
+      </c>
+      <c r="B547" s="8">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="C547" s="10">
+        <v>9.3235831809871994E-2</v>
+      </c>
+      <c r="D547" s="9">
+        <v>4.3650793650793648E-2</v>
+      </c>
+      <c r="E547" s="6">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A548" s="3">
+        <v>44559</v>
+      </c>
+      <c r="B548" s="8">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="C548" s="10">
+        <v>9.3235831809871994E-2</v>
+      </c>
+      <c r="D548" s="9">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="E548" s="6">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A549" s="3">
+        <v>44560</v>
+      </c>
+      <c r="B549" s="8">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="C549" s="10">
+        <v>9.3235831809871994E-2</v>
+      </c>
+      <c r="D549" s="9">
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="E549" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A550" s="3">
+        <v>44561</v>
+      </c>
+      <c r="B550" s="8">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="C550" s="10">
+        <v>9.3235831809871994E-2</v>
+      </c>
+      <c r="D550" s="9">
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="E550" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A551" s="3">
+        <v>44562</v>
+      </c>
+      <c r="B551" s="8">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="C551" s="10">
+        <v>9.3235831809871994E-2</v>
+      </c>
+      <c r="D551" s="9">
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="E551" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A552" s="3">
+        <v>44563</v>
+      </c>
+      <c r="B552" s="8">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="C552" s="10">
+        <v>9.3235831809871994E-2</v>
+      </c>
+      <c r="D552" s="9">
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="E552" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A553" s="3">
+        <v>44564</v>
+      </c>
+      <c r="B553" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C553" s="10">
+        <v>9.3235831809871994E-2</v>
+      </c>
+      <c r="D553" s="9">
+        <v>6.3745019920318724E-2</v>
+      </c>
+      <c r="E553" s="6">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A554" s="3">
+        <v>44565</v>
+      </c>
+      <c r="B554" s="8">
+        <v>0.62962962962962965</v>
+      </c>
+      <c r="C554" s="10">
+        <v>9.3235831809871994E-2</v>
+      </c>
+      <c r="D554" s="9">
+        <v>6.3745019920318724E-2</v>
+      </c>
+      <c r="E554" s="6">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A555" s="3">
+        <v>44566</v>
+      </c>
+      <c r="B555" s="8">
+        <v>0.62962962962962965</v>
+      </c>
+      <c r="C555" s="10">
+        <v>9.3235831809871994E-2</v>
+      </c>
+      <c r="D555" s="9">
+        <v>7.0833333333333331E-2</v>
+      </c>
+      <c r="E555" s="6">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A556" s="3">
+        <v>44567</v>
+      </c>
+      <c r="B556" s="8">
+        <v>0.62962962962962965</v>
+      </c>
+      <c r="C556" s="10">
+        <v>9.3235831809871994E-2</v>
+      </c>
+      <c r="D556" s="9">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="E556" s="6">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A557" s="3">
+        <v>44568</v>
+      </c>
+      <c r="B557" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C557" s="10">
+        <v>9.3235831809871994E-2</v>
+      </c>
+      <c r="D557" s="9">
+        <v>9.8765432098765427E-2</v>
+      </c>
+      <c r="E557" s="6">
+        <v>0.65384615384615385</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A558" s="3">
+        <v>44569</v>
+      </c>
+      <c r="B558" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C558" s="10">
+        <v>9.3235831809871994E-2</v>
+      </c>
+      <c r="D558" s="9">
+        <v>9.8765432098765427E-2</v>
+      </c>
+      <c r="E558" s="6">
+        <v>0.65384615384615385</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB60B7B-322F-48E1-9C62-716E6B52F2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE0A3E1-7855-4A33-9945-052DD0DBA082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,7 +128,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -140,6 +140,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -148,7 +149,18 @@
     <cellStyle name="Normal 6" xfId="4" xr:uid="{C9BAD8E5-46A9-41B1-98B3-537725FAD62B}"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -424,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E558"/>
+  <dimension ref="A1:E565"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A523" workbookViewId="0">
-      <selection activeCell="C535" sqref="C535:C558"/>
+    <sheetView tabSelected="1" topLeftCell="A547" workbookViewId="0">
+      <selection activeCell="G558" sqref="G558"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8511,7 +8523,7 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="C540" s="10">
-        <v>9.3235831809871994E-2</v>
+        <v>9.9800399201596807E-2</v>
       </c>
       <c r="D540" s="9">
         <v>5.5776892430278883E-2</v>
@@ -8528,7 +8540,7 @@
         <v>0.48148148148148145</v>
       </c>
       <c r="C541" s="10">
-        <v>9.3235831809871994E-2</v>
+        <v>0.10358565737051793</v>
       </c>
       <c r="D541" s="9">
         <v>6.7460317460317457E-2</v>
@@ -8545,7 +8557,7 @@
         <v>0.51851851851851849</v>
       </c>
       <c r="C542" s="10">
-        <v>9.3235831809871994E-2</v>
+        <v>0.10358565737051793</v>
       </c>
       <c r="D542" s="9">
         <v>7.5396825396825393E-2</v>
@@ -8562,7 +8574,7 @@
         <v>0.51851851851851849</v>
       </c>
       <c r="C543" s="10">
-        <v>9.3235831809871994E-2</v>
+        <v>0.10358565737051793</v>
       </c>
       <c r="D543" s="9">
         <v>7.5396825396825393E-2</v>
@@ -8579,7 +8591,7 @@
         <v>0.51851851851851849</v>
       </c>
       <c r="C544" s="10">
-        <v>9.3235831809871994E-2</v>
+        <v>0.10358565737051793</v>
       </c>
       <c r="D544" s="9">
         <v>7.5396825396825393E-2</v>
@@ -8593,10 +8605,10 @@
         <v>44556</v>
       </c>
       <c r="B545" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.51851851851851849</v>
       </c>
       <c r="C545" s="10">
-        <v>9.3235831809871994E-2</v>
+        <v>0.10358565737051793</v>
       </c>
       <c r="D545" s="9">
         <v>7.5396825396825393E-2</v>
@@ -8610,10 +8622,10 @@
         <v>44557</v>
       </c>
       <c r="B546" s="8">
-        <v>0.70370370370370372</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="C546" s="10">
-        <v>9.3235831809871994E-2</v>
+        <v>6.9721115537848599E-2</v>
       </c>
       <c r="D546" s="9">
         <v>4.3650793650793648E-2</v>
@@ -8627,10 +8639,10 @@
         <v>44558</v>
       </c>
       <c r="B547" s="8">
-        <v>0.77777777777777779</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="C547" s="10">
-        <v>9.3235831809871994E-2</v>
+        <v>8.1673306772908363E-2</v>
       </c>
       <c r="D547" s="9">
         <v>4.3650793650793648E-2</v>
@@ -8644,10 +8656,10 @@
         <v>44559</v>
       </c>
       <c r="B548" s="8">
-        <v>0.7407407407407407</v>
+        <v>0.51851851851851849</v>
       </c>
       <c r="C548" s="10">
-        <v>9.3235831809871994E-2</v>
+        <v>8.565737051792828E-2</v>
       </c>
       <c r="D548" s="9">
         <v>5.5555555555555552E-2</v>
@@ -8661,10 +8673,10 @@
         <v>44560</v>
       </c>
       <c r="B549" s="8">
-        <v>0.7407407407407407</v>
+        <v>0.51851851851851849</v>
       </c>
       <c r="C549" s="10">
-        <v>9.3235831809871994E-2</v>
+        <v>9.1633466135458169E-2</v>
       </c>
       <c r="D549" s="9">
         <v>7.1428571428571425E-2</v>
@@ -8678,10 +8690,10 @@
         <v>44561</v>
       </c>
       <c r="B550" s="8">
-        <v>0.7407407407407407</v>
+        <v>0.51851851851851849</v>
       </c>
       <c r="C550" s="10">
-        <v>9.3235831809871994E-2</v>
+        <v>9.1633466135458169E-2</v>
       </c>
       <c r="D550" s="9">
         <v>7.1428571428571425E-2</v>
@@ -8695,10 +8707,10 @@
         <v>44562</v>
       </c>
       <c r="B551" s="8">
-        <v>0.7407407407407407</v>
+        <v>0.51851851851851849</v>
       </c>
       <c r="C551" s="10">
-        <v>9.3235831809871994E-2</v>
+        <v>9.1633466135458169E-2</v>
       </c>
       <c r="D551" s="9">
         <v>7.1428571428571425E-2</v>
@@ -8712,10 +8724,10 @@
         <v>44563</v>
       </c>
       <c r="B552" s="8">
-        <v>0.7407407407407407</v>
-      </c>
-      <c r="C552" s="10">
-        <v>9.3235831809871994E-2</v>
+        <v>0.51851851851851849</v>
+      </c>
+      <c r="C552" s="11">
+        <v>9.1633466135458169E-2</v>
       </c>
       <c r="D552" s="9">
         <v>7.1428571428571425E-2</v>
@@ -8731,14 +8743,14 @@
       <c r="B553" s="8">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C553" s="10">
-        <v>9.3235831809871994E-2</v>
+      <c r="C553" s="11">
+        <v>0.11776447105788423</v>
       </c>
       <c r="D553" s="9">
         <v>6.3745019920318724E-2</v>
       </c>
       <c r="E553" s="6">
-        <v>0.36</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.25">
@@ -8748,8 +8760,8 @@
       <c r="B554" s="8">
         <v>0.62962962962962965</v>
       </c>
-      <c r="C554" s="10">
-        <v>9.3235831809871994E-2</v>
+      <c r="C554" s="11">
+        <v>0.1217564870259481</v>
       </c>
       <c r="D554" s="9">
         <v>6.3745019920318724E-2</v>
@@ -8765,8 +8777,8 @@
       <c r="B555" s="8">
         <v>0.62962962962962965</v>
       </c>
-      <c r="C555" s="10">
-        <v>9.3235831809871994E-2</v>
+      <c r="C555" s="11">
+        <v>0.15510204081632653</v>
       </c>
       <c r="D555" s="9">
         <v>7.0833333333333331E-2</v>
@@ -8782,8 +8794,8 @@
       <c r="B556" s="8">
         <v>0.62962962962962965</v>
       </c>
-      <c r="C556" s="10">
-        <v>9.3235831809871994E-2</v>
+      <c r="C556" s="11">
+        <v>0.17959183673469387</v>
       </c>
       <c r="D556" s="9">
         <v>8.7499999999999994E-2</v>
@@ -8799,8 +8811,8 @@
       <c r="B557" s="8">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C557" s="10">
-        <v>9.3235831809871994E-2</v>
+      <c r="C557" s="11">
+        <v>0.18255578093306288</v>
       </c>
       <c r="D557" s="9">
         <v>9.8765432098765427E-2</v>
@@ -8816,14 +8828,133 @@
       <c r="B558" s="8">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C558" s="10">
-        <v>9.3235831809871994E-2</v>
+      <c r="C558" s="11">
+        <v>0.18255578093306288</v>
       </c>
       <c r="D558" s="9">
         <v>9.8765432098765427E-2</v>
       </c>
       <c r="E558" s="6">
         <v>0.65384615384615385</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A559" s="3">
+        <v>44570</v>
+      </c>
+      <c r="B559" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C559">
+        <v>0.18255578093306288</v>
+      </c>
+      <c r="D559">
+        <v>9.8765432098765427E-2</v>
+      </c>
+      <c r="E559">
+        <v>0.65384615384615385</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A560" s="3">
+        <v>44571</v>
+      </c>
+      <c r="B560" s="8">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="C560">
+        <v>0.23170731707317074</v>
+      </c>
+      <c r="D560">
+        <v>0.11570247933884298</v>
+      </c>
+      <c r="E560">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A561" s="3">
+        <v>44572</v>
+      </c>
+      <c r="B561" s="8">
+        <v>0.81481481481481477</v>
+      </c>
+      <c r="C561">
+        <v>0.35326086956521741</v>
+      </c>
+      <c r="D561">
+        <v>0.10126582278481013</v>
+      </c>
+      <c r="E561">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A562" s="3">
+        <v>44573</v>
+      </c>
+      <c r="B562" s="8">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="C562">
+        <v>0.35326086956521741</v>
+      </c>
+      <c r="D562">
+        <v>0.11428571428571428</v>
+      </c>
+      <c r="E562">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A563" s="3">
+        <v>44574</v>
+      </c>
+      <c r="B563" s="8">
+        <v>0.81481481481481477</v>
+      </c>
+      <c r="C563">
+        <v>0.34601449275362317</v>
+      </c>
+      <c r="D563">
+        <v>0.11382113821138211</v>
+      </c>
+      <c r="E563">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A564" s="3">
+        <v>44575</v>
+      </c>
+      <c r="B564" s="8">
+        <v>0.81481481481481477</v>
+      </c>
+      <c r="C564">
+        <v>0.34601449275362317</v>
+      </c>
+      <c r="D564">
+        <v>0.11382113821138211</v>
+      </c>
+      <c r="E564">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A565" s="3">
+        <v>44576</v>
+      </c>
+      <c r="B565" s="8">
+        <v>0.81481481481481477</v>
+      </c>
+      <c r="C565">
+        <v>0.34601449275362317</v>
+      </c>
+      <c r="D565">
+        <v>0.11382113821138211</v>
+      </c>
+      <c r="E565">
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE0A3E1-7855-4A33-9945-052DD0DBA082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F476A0C-DFD0-4ADE-9BD3-E1A29122C766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,7 +128,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -141,6 +141,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -149,18 +155,7 @@
     <cellStyle name="Normal 6" xfId="4" xr:uid="{C9BAD8E5-46A9-41B1-98B3-537725FAD62B}"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -436,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E565"/>
+  <dimension ref="A1:E576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A547" workbookViewId="0">
-      <selection activeCell="G558" sqref="G558"/>
+    <sheetView tabSelected="1" topLeftCell="A545" workbookViewId="0">
+      <selection activeCell="E572" sqref="E572"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8957,6 +8952,141 @@
         <v>0.44</v>
       </c>
     </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A566" s="3">
+        <v>44577</v>
+      </c>
+      <c r="B566" s="8">
+        <v>0.81481481481481477</v>
+      </c>
+      <c r="C566" s="13">
+        <v>0.34601449275362317</v>
+      </c>
+      <c r="D566" s="16">
+        <v>0.11382113821138211</v>
+      </c>
+      <c r="E566" s="17">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A567" s="3">
+        <v>44578</v>
+      </c>
+      <c r="B567" s="8">
+        <v>0.81481481481481477</v>
+      </c>
+      <c r="C567" s="13">
+        <v>0.27822580645161288</v>
+      </c>
+      <c r="D567" s="16">
+        <v>0.12195121951219512</v>
+      </c>
+      <c r="E567" s="17">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A568" s="3">
+        <v>44579</v>
+      </c>
+      <c r="B568" s="8">
+        <v>0.81481481481481477</v>
+      </c>
+      <c r="C568" s="13">
+        <v>0.32534930139720558</v>
+      </c>
+      <c r="D568" s="16">
+        <v>0.20717131474103587</v>
+      </c>
+      <c r="E568" s="17">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A569" s="3">
+        <v>44580</v>
+      </c>
+      <c r="B569" s="8">
+        <v>0.81481481481481477</v>
+      </c>
+      <c r="C569" s="13">
+        <v>0.32534930139720558</v>
+      </c>
+      <c r="D569" s="16">
+        <v>0.20717131474103587</v>
+      </c>
+      <c r="E569" s="17">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A570" s="3">
+        <v>44581</v>
+      </c>
+      <c r="B570" s="8">
+        <v>0.81481481481481477</v>
+      </c>
+      <c r="C570" s="13">
+        <v>0.35943775100401604</v>
+      </c>
+      <c r="D570" s="16">
+        <v>0.18145161290322581</v>
+      </c>
+      <c r="E570" s="17">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A571" s="3">
+        <v>44582</v>
+      </c>
+      <c r="B571" s="8">
+        <v>0.81481481481481477</v>
+      </c>
+      <c r="C571" s="13">
+        <v>0.35943775100401604</v>
+      </c>
+      <c r="D571" s="16">
+        <v>0.18145161290322581</v>
+      </c>
+      <c r="E571" s="17">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A572" s="14">
+        <v>44583</v>
+      </c>
+      <c r="B572" s="15">
+        <v>0.81481481481481477</v>
+      </c>
+      <c r="C572" s="13">
+        <v>0.35943775100401604</v>
+      </c>
+      <c r="D572" s="16">
+        <v>0.18145161290322581</v>
+      </c>
+      <c r="E572" s="17">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A573" s="12"/>
+      <c r="B573" s="8"/>
+    </row>
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A574" s="12"/>
+      <c r="B574" s="8"/>
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A575" s="12"/>
+      <c r="B575" s="8"/>
+    </row>
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A576" s="12"/>
+      <c r="B576" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F476A0C-DFD0-4ADE-9BD3-E1A29122C766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC610950-DDB2-46BB-ABB4-39589CCA55E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,7 +128,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -141,7 +141,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -434,7 +433,7 @@
   <dimension ref="A1:E576"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A545" workbookViewId="0">
-      <selection activeCell="E572" sqref="E572"/>
+      <selection activeCell="B572" sqref="B572"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8959,13 +8958,13 @@
       <c r="B566" s="8">
         <v>0.81481481481481477</v>
       </c>
-      <c r="C566" s="13">
+      <c r="C566" s="12">
         <v>0.34601449275362317</v>
       </c>
-      <c r="D566" s="16">
+      <c r="D566" s="15">
         <v>0.11382113821138211</v>
       </c>
-      <c r="E566" s="17">
+      <c r="E566" s="16">
         <v>0.44</v>
       </c>
     </row>
@@ -8976,13 +8975,13 @@
       <c r="B567" s="8">
         <v>0.81481481481481477</v>
       </c>
-      <c r="C567" s="13">
+      <c r="C567" s="12">
         <v>0.27822580645161288</v>
       </c>
-      <c r="D567" s="16">
+      <c r="D567" s="15">
         <v>0.12195121951219512</v>
       </c>
-      <c r="E567" s="17">
+      <c r="E567" s="16">
         <v>0.8</v>
       </c>
     </row>
@@ -8993,13 +8992,13 @@
       <c r="B568" s="8">
         <v>0.81481481481481477</v>
       </c>
-      <c r="C568" s="13">
+      <c r="C568" s="12">
         <v>0.32534930139720558</v>
       </c>
-      <c r="D568" s="16">
+      <c r="D568" s="15">
         <v>0.20717131474103587</v>
       </c>
-      <c r="E568" s="17">
+      <c r="E568" s="16">
         <v>0.8</v>
       </c>
     </row>
@@ -9010,13 +9009,13 @@
       <c r="B569" s="8">
         <v>0.81481481481481477</v>
       </c>
-      <c r="C569" s="13">
+      <c r="C569" s="12">
         <v>0.32534930139720558</v>
       </c>
-      <c r="D569" s="16">
+      <c r="D569" s="15">
         <v>0.20717131474103587</v>
       </c>
-      <c r="E569" s="17">
+      <c r="E569" s="16">
         <v>0.8</v>
       </c>
     </row>
@@ -9027,13 +9026,13 @@
       <c r="B570" s="8">
         <v>0.81481481481481477</v>
       </c>
-      <c r="C570" s="13">
+      <c r="C570" s="12">
         <v>0.35943775100401604</v>
       </c>
-      <c r="D570" s="16">
+      <c r="D570" s="15">
         <v>0.18145161290322581</v>
       </c>
-      <c r="E570" s="17">
+      <c r="E570" s="16">
         <v>0.88</v>
       </c>
     </row>
@@ -9044,47 +9043,47 @@
       <c r="B571" s="8">
         <v>0.81481481481481477</v>
       </c>
-      <c r="C571" s="13">
+      <c r="C571" s="12">
         <v>0.35943775100401604</v>
       </c>
-      <c r="D571" s="16">
+      <c r="D571" s="15">
         <v>0.18145161290322581</v>
       </c>
-      <c r="E571" s="17">
+      <c r="E571" s="16">
         <v>0.88</v>
       </c>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A572" s="14">
+      <c r="A572" s="13">
         <v>44583</v>
       </c>
-      <c r="B572" s="15">
+      <c r="B572" s="14">
         <v>0.81481481481481477</v>
       </c>
-      <c r="C572" s="13">
+      <c r="C572" s="12">
         <v>0.35943775100401604</v>
       </c>
-      <c r="D572" s="16">
+      <c r="D572" s="15">
         <v>0.18145161290322581</v>
       </c>
-      <c r="E572" s="17">
+      <c r="E572" s="16">
         <v>0.88</v>
       </c>
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A573" s="12"/>
+      <c r="A573" s="14"/>
       <c r="B573" s="8"/>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A574" s="12"/>
+      <c r="A574" s="14"/>
       <c r="B574" s="8"/>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A575" s="12"/>
+      <c r="A575" s="14"/>
       <c r="B575" s="8"/>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A576" s="12"/>
+      <c r="A576" s="14"/>
       <c r="B576" s="8"/>
     </row>
   </sheetData>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC610950-DDB2-46BB-ABB4-39589CCA55E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE13E75-7801-4825-AE60-B66F6A483266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -432,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A545" workbookViewId="0">
-      <selection activeCell="B572" sqref="B572"/>
+    <sheetView tabSelected="1" topLeftCell="A536" workbookViewId="0">
+      <selection activeCell="B567" sqref="B567:E572"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8972,16 +8972,16 @@
       <c r="A567" s="3">
         <v>44578</v>
       </c>
-      <c r="B567" s="8">
+      <c r="B567" s="14">
         <v>0.81481481481481477</v>
       </c>
-      <c r="C567" s="12">
+      <c r="C567" s="14">
         <v>0.27822580645161288</v>
       </c>
-      <c r="D567" s="15">
+      <c r="D567" s="14">
         <v>0.12195121951219512</v>
       </c>
-      <c r="E567" s="16">
+      <c r="E567" s="14">
         <v>0.8</v>
       </c>
     </row>
@@ -8989,16 +8989,16 @@
       <c r="A568" s="3">
         <v>44579</v>
       </c>
-      <c r="B568" s="8">
+      <c r="B568" s="14">
         <v>0.81481481481481477</v>
       </c>
-      <c r="C568" s="12">
+      <c r="C568" s="14">
         <v>0.32534930139720558</v>
       </c>
-      <c r="D568" s="15">
+      <c r="D568" s="14">
         <v>0.20717131474103587</v>
       </c>
-      <c r="E568" s="16">
+      <c r="E568" s="14">
         <v>0.8</v>
       </c>
     </row>
@@ -9006,16 +9006,16 @@
       <c r="A569" s="3">
         <v>44580</v>
       </c>
-      <c r="B569" s="8">
+      <c r="B569" s="14">
         <v>0.81481481481481477</v>
       </c>
-      <c r="C569" s="12">
+      <c r="C569" s="14">
         <v>0.32534930139720558</v>
       </c>
-      <c r="D569" s="15">
+      <c r="D569" s="14">
         <v>0.20717131474103587</v>
       </c>
-      <c r="E569" s="16">
+      <c r="E569" s="14">
         <v>0.8</v>
       </c>
     </row>
@@ -9023,16 +9023,16 @@
       <c r="A570" s="3">
         <v>44581</v>
       </c>
-      <c r="B570" s="8">
+      <c r="B570" s="14">
         <v>0.81481481481481477</v>
       </c>
-      <c r="C570" s="12">
+      <c r="C570" s="14">
         <v>0.35943775100401604</v>
       </c>
-      <c r="D570" s="15">
+      <c r="D570" s="14">
         <v>0.18145161290322581</v>
       </c>
-      <c r="E570" s="16">
+      <c r="E570" s="14">
         <v>0.88</v>
       </c>
     </row>
@@ -9040,16 +9040,16 @@
       <c r="A571" s="3">
         <v>44582</v>
       </c>
-      <c r="B571" s="8">
+      <c r="B571" s="14">
         <v>0.81481481481481477</v>
       </c>
-      <c r="C571" s="12">
+      <c r="C571" s="14">
         <v>0.35943775100401604</v>
       </c>
-      <c r="D571" s="15">
+      <c r="D571" s="14">
         <v>0.18145161290322581</v>
       </c>
-      <c r="E571" s="16">
+      <c r="E571" s="14">
         <v>0.88</v>
       </c>
     </row>
@@ -9060,13 +9060,13 @@
       <c r="B572" s="14">
         <v>0.81481481481481477</v>
       </c>
-      <c r="C572" s="12">
+      <c r="C572" s="14">
         <v>0.35943775100401604</v>
       </c>
-      <c r="D572" s="15">
+      <c r="D572" s="14">
         <v>0.18145161290322581</v>
       </c>
-      <c r="E572" s="16">
+      <c r="E572" s="14">
         <v>0.88</v>
       </c>
     </row>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\covid-cusco\dashboard-covid-geresa\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE13E75-7801-4825-AE60-B66F6A483266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4675CC4-9A58-4B1D-ADAD-00BAAAF111BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4848" yWindow="4920" windowWidth="11712" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -55,7 +53,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,19 +66,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -121,38 +106,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{D5B59C75-6032-4395-BC69-0FBC4B832E20}"/>
-    <cellStyle name="Normal 5" xfId="3" xr:uid="{B98FD99A-6B85-4C0C-A90E-16861C88A380}"/>
-    <cellStyle name="Normal 6" xfId="4" xr:uid="{C9BAD8E5-46A9-41B1-98B3-537725FAD62B}"/>
-    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -430,15 +394,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E576"/>
+  <dimension ref="A1:E474"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A536" workbookViewId="0">
-      <selection activeCell="B567" sqref="B567:E572"/>
+    <sheetView tabSelected="1" topLeftCell="A448" workbookViewId="0">
+      <selection activeCell="D474" sqref="D474"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,7 +419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44013</v>
       </c>
@@ -466,7 +430,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44014</v>
       </c>
@@ -477,7 +441,7 @@
         <v>0.6811594202898551</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44015</v>
       </c>
@@ -488,7 +452,7 @@
         <v>0.6811594202898551</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44016</v>
       </c>
@@ -499,7 +463,7 @@
         <v>0.78260869565217395</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44017</v>
       </c>
@@ -510,7 +474,7 @@
         <v>0.6811594202898551</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44018</v>
       </c>
@@ -521,7 +485,7 @@
         <v>0.59595959595959591</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44019</v>
       </c>
@@ -532,7 +496,7 @@
         <v>0.65656565656565657</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44020</v>
       </c>
@@ -543,7 +507,7 @@
         <v>0.68041237113402064</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44021</v>
       </c>
@@ -554,7 +518,7 @@
         <v>0.71134020618556704</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44022</v>
       </c>
@@ -565,7 +529,7 @@
         <v>0.77319587628865982</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44023</v>
       </c>
@@ -576,7 +540,7 @@
         <v>0.75257731958762886</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44024</v>
       </c>
@@ -587,7 +551,7 @@
         <v>0.79381443298969068</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44025</v>
       </c>
@@ -598,7 +562,7 @@
         <v>0.41116751269035534</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44026</v>
       </c>
@@ -609,7 +573,7 @@
         <v>0.41624365482233505</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44027</v>
       </c>
@@ -620,7 +584,7 @@
         <v>0.46192893401015228</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44028</v>
       </c>
@@ -631,7 +595,7 @@
         <v>0.54822335025380708</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44029</v>
       </c>
@@ -642,7 +606,7 @@
         <v>0.64467005076142136</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44030</v>
       </c>
@@ -653,7 +617,7 @@
         <v>0.69543147208121825</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44031</v>
       </c>
@@ -664,7 +628,7 @@
         <v>0.74111675126903553</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44032</v>
       </c>
@@ -675,7 +639,7 @@
         <v>0.79729729729729726</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44033</v>
       </c>
@@ -686,7 +650,7 @@
         <v>0.78378378378378377</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44034</v>
       </c>
@@ -697,7 +661,7 @@
         <v>0.78378378378378377</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44035</v>
       </c>
@@ -708,7 +672,7 @@
         <v>0.80180180180180183</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44036</v>
       </c>
@@ -719,7 +683,7 @@
         <v>0.9144144144144144</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44037</v>
       </c>
@@ -730,7 +694,7 @@
         <v>0.90990990990990994</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44038</v>
       </c>
@@ -741,7 +705,7 @@
         <v>0.90990990990990994</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44039</v>
       </c>
@@ -752,7 +716,7 @@
         <v>0.94594594594594594</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44040</v>
       </c>
@@ -763,7 +727,7 @@
         <v>0.93243243243243246</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44041</v>
       </c>
@@ -774,7 +738,7 @@
         <v>0.98198198198198194</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44042</v>
       </c>
@@ -785,7 +749,7 @@
         <v>1.045045045045045</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44043</v>
       </c>
@@ -796,7 +760,7 @@
         <v>1.0900900900900901</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44044</v>
       </c>
@@ -810,7 +774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44045</v>
       </c>
@@ -824,7 +788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44046</v>
       </c>
@@ -838,7 +802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44047</v>
       </c>
@@ -852,7 +816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44048</v>
       </c>
@@ -866,7 +830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44049</v>
       </c>
@@ -880,7 +844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44050</v>
       </c>
@@ -894,7 +858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44051</v>
       </c>
@@ -908,7 +872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44052</v>
       </c>
@@ -922,7 +886,7 @@
         <v>0.26804123711340205</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44053</v>
       </c>
@@ -936,7 +900,7 @@
         <v>0.29896907216494845</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44054</v>
       </c>
@@ -950,7 +914,7 @@
         <v>0.30927835051546393</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44055</v>
       </c>
@@ -964,7 +928,7 @@
         <v>0.37113402061855671</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44056</v>
       </c>
@@ -978,7 +942,7 @@
         <v>0.39175257731958762</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44057</v>
       </c>
@@ -992,7 +956,7 @@
         <v>0.35051546391752575</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44058</v>
       </c>
@@ -1006,7 +970,7 @@
         <v>0.35051546391752575</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44059</v>
       </c>
@@ -1020,7 +984,7 @@
         <v>0.35051546391752575</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44060</v>
       </c>
@@ -1034,7 +998,7 @@
         <v>0.32989690721649484</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44061</v>
       </c>
@@ -1048,7 +1012,7 @@
         <v>0.31958762886597936</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>44062</v>
       </c>
@@ -1062,7 +1026,7 @@
         <v>0.31958762886597936</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44063</v>
       </c>
@@ -1076,7 +1040,7 @@
         <v>0.31958762886597936</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>44064</v>
       </c>
@@ -1090,7 +1054,7 @@
         <v>0.35164835164835168</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44065</v>
       </c>
@@ -1104,7 +1068,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>44066</v>
       </c>
@@ -1118,7 +1082,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>44067</v>
       </c>
@@ -1132,7 +1096,7 @@
         <v>0.40659340659340659</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>44068</v>
       </c>
@@ -1146,7 +1110,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>44069</v>
       </c>
@@ -1160,7 +1124,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>44070</v>
       </c>
@@ -1174,7 +1138,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>44071</v>
       </c>
@@ -1188,7 +1152,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>44072</v>
       </c>
@@ -1202,7 +1166,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>44073</v>
       </c>
@@ -1216,7 +1180,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>44074</v>
       </c>
@@ -1230,7 +1194,7 @@
         <v>0.34020618556701032</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>44075</v>
       </c>
@@ -1244,7 +1208,7 @@
         <v>0.34020618556701032</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>44076</v>
       </c>
@@ -1258,7 +1222,7 @@
         <v>0.39175257731958762</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>44077</v>
       </c>
@@ -1272,7 +1236,7 @@
         <v>0.25773195876288657</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>44078</v>
       </c>
@@ -1286,7 +1250,7 @@
         <v>0.24742268041237114</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>44079</v>
       </c>
@@ -1300,7 +1264,7 @@
         <v>0.24742268041237114</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>44080</v>
       </c>
@@ -1314,7 +1278,7 @@
         <v>0.24742268041237114</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>44081</v>
       </c>
@@ -1328,7 +1292,7 @@
         <v>0.24742268041237114</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>44082</v>
       </c>
@@ -1342,7 +1306,7 @@
         <v>0.24742268041237114</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>44083</v>
       </c>
@@ -1356,7 +1320,7 @@
         <v>0.22680412371134021</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>44084</v>
       </c>
@@ -1370,7 +1334,7 @@
         <v>0.27835051546391754</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>44085</v>
       </c>
@@ -1384,7 +1348,7 @@
         <v>0.24742268041237114</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>44086</v>
       </c>
@@ -1398,7 +1362,7 @@
         <v>0.27835051546391754</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>44087</v>
       </c>
@@ -1412,7 +1376,7 @@
         <v>0.32989690721649484</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>44088</v>
       </c>
@@ -1426,7 +1390,7 @@
         <v>0.27835051546391754</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>44089</v>
       </c>
@@ -1440,7 +1404,7 @@
         <v>0.34020618556701032</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>44090</v>
       </c>
@@ -1454,7 +1418,7 @@
         <v>0.25773195876288657</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>44091</v>
       </c>
@@ -1468,7 +1432,7 @@
         <v>0.27835051546391754</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>44092</v>
       </c>
@@ -1482,7 +1446,7 @@
         <v>0.30927835051546393</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>44093</v>
       </c>
@@ -1496,7 +1460,7 @@
         <v>0.29896907216494845</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>44094</v>
       </c>
@@ -1510,7 +1474,7 @@
         <v>0.29896907216494845</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>44095</v>
       </c>
@@ -1524,7 +1488,7 @@
         <v>0.24299065420560748</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>44096</v>
       </c>
@@ -1538,7 +1502,7 @@
         <v>0.26168224299065418</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>44097</v>
       </c>
@@ -1552,7 +1516,7 @@
         <v>0.24299065420560748</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>44098</v>
       </c>
@@ -1566,7 +1530,7 @@
         <v>0.24299065420560748</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>44099</v>
       </c>
@@ -1580,7 +1544,7 @@
         <v>0.24299065420560748</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>44100</v>
       </c>
@@ -1594,7 +1558,7 @@
         <v>0.24299065420560748</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>44101</v>
       </c>
@@ -1608,7 +1572,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>44102</v>
       </c>
@@ -1622,7 +1586,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>44103</v>
       </c>
@@ -1636,7 +1600,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>44104</v>
       </c>
@@ -1650,7 +1614,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>44105</v>
       </c>
@@ -1664,7 +1628,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>44106</v>
       </c>
@@ -1678,7 +1642,7 @@
         <v>0.2967032967032967</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>44107</v>
       </c>
@@ -1692,7 +1656,7 @@
         <v>0.2967032967032967</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>44108</v>
       </c>
@@ -1706,7 +1670,7 @@
         <v>0.2967032967032967</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>44109</v>
       </c>
@@ -1720,7 +1684,7 @@
         <v>0.2967032967032967</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>44110</v>
       </c>
@@ -1734,7 +1698,7 @@
         <v>0.2967032967032967</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>44111</v>
       </c>
@@ -1748,7 +1712,7 @@
         <v>0.35164835164835168</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>44112</v>
       </c>
@@ -1762,7 +1726,7 @@
         <v>0.36263736263736263</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>44113</v>
       </c>
@@ -1776,7 +1740,7 @@
         <v>0.35164835164835168</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>44114</v>
       </c>
@@ -1790,7 +1754,7 @@
         <v>0.36263736263736263</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>44115</v>
       </c>
@@ -1804,7 +1768,7 @@
         <v>0.25384615384615383</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>44116</v>
       </c>
@@ -1818,7 +1782,7 @@
         <v>0.2153846153846154</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>44117</v>
       </c>
@@ -1832,7 +1796,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>44118</v>
       </c>
@@ -1846,7 +1810,7 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>44119</v>
       </c>
@@ -1860,7 +1824,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>44120</v>
       </c>
@@ -1874,7 +1838,7 @@
         <v>0.19333333333333333</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>44121</v>
       </c>
@@ -1888,7 +1852,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>44122</v>
       </c>
@@ -1902,7 +1866,7 @@
         <v>0.17333333333333334</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>44123</v>
       </c>
@@ -1916,7 +1880,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>44124</v>
       </c>
@@ -1930,7 +1894,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>44125</v>
       </c>
@@ -1944,7 +1908,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>44126</v>
       </c>
@@ -1958,7 +1922,7 @@
         <v>0.17142857142857143</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>44127</v>
       </c>
@@ -1972,7 +1936,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>44128</v>
       </c>
@@ -1986,7 +1950,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>44129</v>
       </c>
@@ -2000,7 +1964,7 @@
         <v>0.14857142857142858</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>44130</v>
       </c>
@@ -2014,7 +1978,7 @@
         <v>0.14857142857142858</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>44131</v>
       </c>
@@ -2028,7 +1992,7 @@
         <v>0.14857142857142858</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>44132</v>
       </c>
@@ -2042,7 +2006,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>44133</v>
       </c>
@@ -2056,7 +2020,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>44134</v>
       </c>
@@ -2070,7 +2034,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>44135</v>
       </c>
@@ -2084,7 +2048,7 @@
         <v>0.12571428571428572</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>44136</v>
       </c>
@@ -2098,7 +2062,7 @@
         <v>0.12571428571428572</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>44137</v>
       </c>
@@ -2112,7 +2076,7 @@
         <v>0.13513513513513514</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>44138</v>
       </c>
@@ -2126,7 +2090,7 @@
         <v>0.11351351351351352</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>44139</v>
       </c>
@@ -2140,7 +2104,7 @@
         <v>0.10810810810810811</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>44140</v>
       </c>
@@ -2154,7 +2118,7 @@
         <v>0.13513513513513514</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>44141</v>
       </c>
@@ -2168,7 +2132,7 @@
         <v>0.12972972972972974</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>44142</v>
       </c>
@@ -2182,7 +2146,7 @@
         <v>0.12972972972972974</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>44143</v>
       </c>
@@ -2196,7 +2160,7 @@
         <v>0.12432432432432433</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>44144</v>
       </c>
@@ -2210,7 +2174,7 @@
         <v>0.12432432432432433</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>44145</v>
       </c>
@@ -2224,7 +2188,7 @@
         <v>0.12432432432432433</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>44146</v>
       </c>
@@ -2238,7 +2202,7 @@
         <v>0.14594594594594595</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>44147</v>
       </c>
@@ -2252,7 +2216,7 @@
         <v>0.14054054054054055</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>44148</v>
       </c>
@@ -2266,7 +2230,7 @@
         <v>0.11891891891891893</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>44149</v>
       </c>
@@ -2280,7 +2244,7 @@
         <v>0.12972972972972974</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>44150</v>
       </c>
@@ -2294,7 +2258,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>44151</v>
       </c>
@@ -2308,7 +2272,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>44152</v>
       </c>
@@ -2322,7 +2286,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>44153</v>
       </c>
@@ -2336,7 +2300,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>44154</v>
       </c>
@@ -2350,7 +2314,7 @@
         <v>0.1891891891891892</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>44155</v>
       </c>
@@ -2364,7 +2328,7 @@
         <v>0.16216216216216217</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>44156</v>
       </c>
@@ -2378,7 +2342,7 @@
         <v>0.16216216216216217</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>44157</v>
       </c>
@@ -2392,7 +2356,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>44158</v>
       </c>
@@ -2406,7 +2370,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>44159</v>
       </c>
@@ -2420,7 +2384,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>44160</v>
       </c>
@@ -2434,7 +2398,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>44161</v>
       </c>
@@ -2448,7 +2412,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>44162</v>
       </c>
@@ -2462,7 +2426,7 @@
         <v>0.14594594594594595</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>44163</v>
       </c>
@@ -2476,7 +2440,7 @@
         <v>0.14594594594594595</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>44164</v>
       </c>
@@ -2490,7 +2454,7 @@
         <v>0.14054054054054055</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>44165</v>
       </c>
@@ -2504,7 +2468,7 @@
         <v>0.15135135135135136</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>44166</v>
       </c>
@@ -2518,7 +2482,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>44167</v>
       </c>
@@ -2532,7 +2496,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>44168</v>
       </c>
@@ -2546,7 +2510,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>44169</v>
       </c>
@@ -2560,7 +2524,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>44170</v>
       </c>
@@ -2574,7 +2538,7 @@
         <v>0.17837837837837839</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>44171</v>
       </c>
@@ -2588,7 +2552,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>44172</v>
       </c>
@@ -2602,7 +2566,7 @@
         <v>0.17837837837837839</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>44173</v>
       </c>
@@ -2616,7 +2580,7 @@
         <v>0.17837837837837839</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>44174</v>
       </c>
@@ -2630,7 +2594,7 @@
         <v>0.17837837837837839</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>44175</v>
       </c>
@@ -2644,7 +2608,7 @@
         <v>0.20540540540540542</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>44176</v>
       </c>
@@ -2658,7 +2622,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>44177</v>
       </c>
@@ -2672,7 +2636,7 @@
         <v>0.18378378378378379</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>44178</v>
       </c>
@@ -2686,7 +2650,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>44179</v>
       </c>
@@ -2700,7 +2664,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>44180</v>
       </c>
@@ -2714,7 +2678,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>44181</v>
       </c>
@@ -2728,7 +2692,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>44182</v>
       </c>
@@ -2742,7 +2706,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>44183</v>
       </c>
@@ -2756,7 +2720,7 @@
         <v>0.16216216216216217</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>44184</v>
       </c>
@@ -2770,7 +2734,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>44185</v>
       </c>
@@ -2784,7 +2748,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>44186</v>
       </c>
@@ -2798,7 +2762,7 @@
         <v>0.18378378378378379</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>44187</v>
       </c>
@@ -2812,7 +2776,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>44188</v>
       </c>
@@ -2826,7 +2790,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>44189</v>
       </c>
@@ -2840,7 +2804,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>44190</v>
       </c>
@@ -2854,7 +2818,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>44191</v>
       </c>
@@ -2868,7 +2832,7 @@
         <v>0.17837837837837839</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>44192</v>
       </c>
@@ -2882,7 +2846,7 @@
         <v>0.1891891891891892</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>44193</v>
       </c>
@@ -2896,7 +2860,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>44194</v>
       </c>
@@ -2910,7 +2874,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>44195</v>
       </c>
@@ -2924,7 +2888,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>44196</v>
       </c>
@@ -2938,7 +2902,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>44197</v>
       </c>
@@ -2952,7 +2916,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>44198</v>
       </c>
@@ -2966,7 +2930,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>44199</v>
       </c>
@@ -2980,7 +2944,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>44200</v>
       </c>
@@ -2994,7 +2958,7 @@
         <v>0.16216216216216217</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>44201</v>
       </c>
@@ -3008,7 +2972,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>44202</v>
       </c>
@@ -3022,7 +2986,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>44203</v>
       </c>
@@ -3036,7 +3000,7 @@
         <v>0.19459459459459461</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>44204</v>
       </c>
@@ -3050,7 +3014,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>44205</v>
       </c>
@@ -3064,7 +3028,7 @@
         <v>0.19459459459459461</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>44206</v>
       </c>
@@ -3078,7 +3042,7 @@
         <v>0.21081081081081082</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>44207</v>
       </c>
@@ -3092,7 +3056,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>44208</v>
       </c>
@@ -3106,7 +3070,7 @@
         <v>0.22162162162162163</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>44209</v>
       </c>
@@ -3120,7 +3084,7 @@
         <v>0.24324324324324326</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>44210</v>
       </c>
@@ -3134,7 +3098,7 @@
         <v>0.24324324324324326</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>44211</v>
       </c>
@@ -3148,7 +3112,7 @@
         <v>0.23243243243243245</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>44212</v>
       </c>
@@ -3162,7 +3126,7 @@
         <v>0.25405405405405407</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>44213</v>
       </c>
@@ -3176,7 +3140,7 @@
         <v>0.26486486486486488</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>44214</v>
       </c>
@@ -3190,7 +3154,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>44215</v>
       </c>
@@ -3204,7 +3168,7 @@
         <v>0.28749999999999998</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>44216</v>
       </c>
@@ -3218,7 +3182,7 @@
         <v>0.28749999999999998</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>44217</v>
       </c>
@@ -3232,7 +3196,7 @@
         <v>0.18823529411764706</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>44218</v>
       </c>
@@ -3246,7 +3210,7 @@
         <v>0.18823529411764706</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>44219</v>
       </c>
@@ -3260,7 +3224,7 @@
         <v>0.18823529411764706</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>44220</v>
       </c>
@@ -3274,7 +3238,7 @@
         <v>0.18823529411764706</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>44221</v>
       </c>
@@ -3288,7 +3252,7 @@
         <v>0.30813953488372092</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>44222</v>
       </c>
@@ -3302,7 +3266,7 @@
         <v>0.27906976744186046</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>44223</v>
       </c>
@@ -3316,7 +3280,7 @@
         <v>0.32558139534883723</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>44224</v>
       </c>
@@ -3330,7 +3294,7 @@
         <v>0.31111111111111112</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>44225</v>
       </c>
@@ -3344,7 +3308,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>44226</v>
       </c>
@@ -3358,7 +3322,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>44227</v>
       </c>
@@ -3372,7 +3336,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>44228</v>
       </c>
@@ -3386,7 +3350,7 @@
         <v>0.38547486033519551</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>44229</v>
       </c>
@@ -3400,7 +3364,7 @@
         <v>0.38547486033519551</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>44230</v>
       </c>
@@ -3414,7 +3378,7 @@
         <v>0.31284916201117319</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>44231</v>
       </c>
@@ -3428,7 +3392,7 @@
         <v>0.31284916201117319</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>44232</v>
       </c>
@@ -3442,7 +3406,7 @@
         <v>0.31843575418994413</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>44233</v>
       </c>
@@ -3456,7 +3420,7 @@
         <v>0.33519553072625696</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>44234</v>
       </c>
@@ -3470,7 +3434,7 @@
         <v>0.32402234636871508</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>44235</v>
       </c>
@@ -3484,7 +3448,7 @@
         <v>0.31843575418994413</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>44236</v>
       </c>
@@ -3498,7 +3462,7 @@
         <v>0.32402234636871508</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>44237</v>
       </c>
@@ -3512,7 +3476,7 @@
         <v>0.34636871508379891</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>44238</v>
       </c>
@@ -3526,7 +3490,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>44239</v>
       </c>
@@ -3540,7 +3504,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>44240</v>
       </c>
@@ -3554,7 +3518,7 @@
         <v>0.33714285714285713</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>44241</v>
       </c>
@@ -3568,7 +3532,7 @@
         <v>0.32571428571428573</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>44242</v>
       </c>
@@ -3582,7 +3546,7 @@
         <v>0.38857142857142857</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>44243</v>
       </c>
@@ -3596,7 +3560,7 @@
         <v>0.38857142857142857</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>44244</v>
       </c>
@@ -3610,7 +3574,7 @@
         <v>0.31284916201117319</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>44245</v>
       </c>
@@ -3624,7 +3588,7 @@
         <v>0.27374301675977653</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>44246</v>
       </c>
@@ -3638,7 +3602,7 @@
         <v>0.27374301675977653</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>44247</v>
       </c>
@@ -3652,7 +3616,7 @@
         <v>0.31284916201117319</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>44248</v>
       </c>
@@ -3666,7 +3630,7 @@
         <v>0.30726256983240224</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>44249</v>
       </c>
@@ -3680,7 +3644,7 @@
         <v>0.31284916201117319</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>44250</v>
       </c>
@@ -3694,7 +3658,7 @@
         <v>0.2722222222222222</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>44251</v>
       </c>
@@ -3708,7 +3672,7 @@
         <v>0.2722222222222222</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>44252</v>
       </c>
@@ -3722,7 +3686,7 @@
         <v>0.25139664804469275</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>44253</v>
       </c>
@@ -3736,7 +3700,7 @@
         <v>0.29608938547486036</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>44254</v>
       </c>
@@ -3750,7 +3714,7 @@
         <v>0.27932960893854747</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>44255</v>
       </c>
@@ -3764,7 +3728,7 @@
         <v>0.21787709497206703</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>44256</v>
       </c>
@@ -3778,7 +3742,7 @@
         <v>0.21229050279329609</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>44257</v>
       </c>
@@ -3792,7 +3756,7 @@
         <v>0.21229050279329609</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>44258</v>
       </c>
@@ -3806,7 +3770,7 @@
         <v>0.24571428571428572</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>44259</v>
       </c>
@@ -3820,7 +3784,7 @@
         <v>0.26256983240223464</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>44260</v>
       </c>
@@ -3834,7 +3798,7 @@
         <v>0.2742857142857143</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>44261</v>
       </c>
@@ -3848,7 +3812,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>44262</v>
       </c>
@@ -3862,7 +3826,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>44263</v>
       </c>
@@ -3876,7 +3840,7 @@
         <v>0.26815642458100558</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>44264</v>
       </c>
@@ -3890,7 +3854,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>44265</v>
       </c>
@@ -3904,7 +3868,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>44266</v>
       </c>
@@ -3918,7 +3882,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>44267</v>
       </c>
@@ -3932,7 +3896,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>44268</v>
       </c>
@@ -3946,7 +3910,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>44269</v>
       </c>
@@ -3960,7 +3924,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>44270</v>
       </c>
@@ -3974,7 +3938,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>44271</v>
       </c>
@@ -3988,7 +3952,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>44272</v>
       </c>
@@ -4002,7 +3966,7 @@
         <v>0.33649289099526064</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>44273</v>
       </c>
@@ -4016,7 +3980,7 @@
         <v>0.33649289099526064</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>44274</v>
       </c>
@@ -4030,7 +3994,7 @@
         <v>0.30882352941176472</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>44275</v>
       </c>
@@ -4044,7 +4008,7 @@
         <v>0.34905660377358488</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>44276</v>
       </c>
@@ -4058,7 +4022,7 @@
         <v>0.34905660377358488</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>44277</v>
       </c>
@@ -4072,7 +4036,7 @@
         <v>0.34905660377358488</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>44278</v>
       </c>
@@ -4086,7 +4050,7 @@
         <v>0.37745098039215685</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>44279</v>
       </c>
@@ -4100,7 +4064,7 @@
         <v>0.37745098039215685</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>44280</v>
       </c>
@@ -4114,7 +4078,7 @@
         <v>0.34313725490196079</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>44281</v>
       </c>
@@ -4128,7 +4092,7 @@
         <v>0.30791788856304986</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>44282</v>
       </c>
@@ -4142,7 +4106,7 @@
         <v>0.30791788856304986</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>44283</v>
       </c>
@@ -4156,7 +4120,7 @@
         <v>0.30791788856304986</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>44284</v>
       </c>
@@ -4170,7 +4134,7 @@
         <v>0.30447761194029849</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>44285</v>
       </c>
@@ -4184,7 +4148,7 @@
         <v>0.35294117647058826</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>44286</v>
       </c>
@@ -4198,7 +4162,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>44287</v>
       </c>
@@ -4212,7 +4176,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>44288</v>
       </c>
@@ -4226,7 +4190,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>44289</v>
       </c>
@@ -4240,7 +4204,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>44290</v>
       </c>
@@ -4254,7 +4218,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>44291</v>
       </c>
@@ -4268,7 +4232,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>44292</v>
       </c>
@@ -4282,7 +4246,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>44293</v>
       </c>
@@ -4296,7 +4260,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>44294</v>
       </c>
@@ -4310,7 +4274,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>44295</v>
       </c>
@@ -4324,7 +4288,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>44296</v>
       </c>
@@ -4338,7 +4302,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>44297</v>
       </c>
@@ -4352,7 +4316,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>44298</v>
       </c>
@@ -4366,7 +4330,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>44299</v>
       </c>
@@ -4380,7 +4344,7 @@
         <v>0.33185840707964603</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>44300</v>
       </c>
@@ -4394,7 +4358,7 @@
         <v>0.36440677966101692</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>44301</v>
       </c>
@@ -4408,7 +4372,7 @@
         <v>0.34854771784232363</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>44302</v>
       </c>
@@ -4422,7 +4386,7 @@
         <v>0.34854771784232363</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>44303</v>
       </c>
@@ -4436,7 +4400,7 @@
         <v>0.36514522821576761</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>44304</v>
       </c>
@@ -4450,7 +4414,7 @@
         <v>0.34854771784232363</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>44305</v>
       </c>
@@ -4464,7 +4428,7 @@
         <v>0.37344398340248963</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>44306</v>
       </c>
@@ -4478,7 +4442,7 @@
         <v>0.37344398340248963</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>44307</v>
       </c>
@@ -4492,7 +4456,7 @@
         <v>0.37344398340248963</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>44308</v>
       </c>
@@ -4506,7 +4470,7 @@
         <v>0.36595744680851061</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>44309</v>
       </c>
@@ -4520,7 +4484,7 @@
         <v>0.36595744680851061</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>44310</v>
       </c>
@@ -4534,7 +4498,7 @@
         <v>0.36595744680851061</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>44311</v>
       </c>
@@ -4548,7 +4512,7 @@
         <v>0.36595744680851061</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>44312</v>
       </c>
@@ -4562,7 +4526,7 @@
         <v>0.33920704845814981</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>44313</v>
       </c>
@@ -4576,7 +4540,7 @@
         <v>0.47136563876651982</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>44314</v>
       </c>
@@ -4590,7 +4554,7 @@
         <v>0.45061728395061729</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>44315</v>
       </c>
@@ -4604,7 +4568,7 @@
         <v>0.48113207547169812</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>44316</v>
       </c>
@@ -4618,7 +4582,7 @@
         <v>0.48113207547169812</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>44317</v>
       </c>
@@ -4632,7 +4596,7 @@
         <v>0.48113207547169812</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>44318</v>
       </c>
@@ -4646,7 +4610,7 @@
         <v>0.48113207547169812</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>44319</v>
       </c>
@@ -4660,7 +4624,7 @@
         <v>0.35909090909090907</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>44320</v>
       </c>
@@ -4674,7 +4638,7 @@
         <v>0.33636363636363636</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>44321</v>
       </c>
@@ -4688,7 +4652,7 @@
         <v>0.35909090909090907</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>44322</v>
       </c>
@@ -4702,7 +4666,7 @@
         <v>0.5074626865671642</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>44323</v>
       </c>
@@ -4716,7 +4680,7 @@
         <v>0.41818181818181815</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>44324</v>
       </c>
@@ -4730,7 +4694,7 @@
         <v>0.41818181818181815</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>44325</v>
       </c>
@@ -4744,7 +4708,7 @@
         <v>0.41818181818181815</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>44326</v>
       </c>
@@ -4758,7 +4722,7 @@
         <v>0.5074626865671642</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>44327</v>
       </c>
@@ -4772,7 +4736,7 @@
         <v>0.3574660633484163</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>44328</v>
       </c>
@@ -4786,7 +4750,7 @@
         <v>0.39366515837104071</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>44329</v>
       </c>
@@ -4800,7 +4764,7 @@
         <v>0.43891402714932126</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>44330</v>
       </c>
@@ -4814,7 +4778,7 @@
         <v>0.46363636363636362</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>44331</v>
       </c>
@@ -4828,7 +4792,7 @@
         <v>0.46363636363636362</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>44332</v>
       </c>
@@ -4842,7 +4806,7 @@
         <v>0.38528138528138528</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>44333</v>
       </c>
@@ -4856,7 +4820,7 @@
         <v>0.39826839826839827</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>44334</v>
       </c>
@@ -4870,7 +4834,7 @@
         <v>0.42570281124497994</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>44335</v>
       </c>
@@ -4884,7 +4848,7 @@
         <v>0.42231075697211157</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>44336</v>
       </c>
@@ -4898,7 +4862,7 @@
         <v>0.42231075697211157</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>44337</v>
       </c>
@@ -4912,7 +4876,7 @@
         <v>0.42231075697211157</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>44338</v>
       </c>
@@ -4926,7 +4890,7 @@
         <v>0.42231075697211157</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>44339</v>
       </c>
@@ -4940,7 +4904,7 @@
         <v>0.44166666666666665</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>44340</v>
       </c>
@@ -4954,7 +4918,7 @@
         <v>0.44166666666666665</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>44341</v>
       </c>
@@ -4968,7 +4932,7 @@
         <v>0.42916666666666664</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>44342</v>
       </c>
@@ -4982,7 +4946,7 @@
         <v>0.41249999999999998</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>44343</v>
       </c>
@@ -4996,7 +4960,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>44344</v>
       </c>
@@ -5010,7 +4974,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>44345</v>
       </c>
@@ -5024,7 +4988,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>44346</v>
       </c>
@@ -5041,7 +5005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>44347</v>
       </c>
@@ -5058,7 +5022,7 @@
         <v>0.7857142857142857</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>44348</v>
       </c>
@@ -5075,7 +5039,7 @@
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>44349</v>
       </c>
@@ -5092,7 +5056,7 @@
         <v>0.84210526315789469</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>44350</v>
       </c>
@@ -5109,7 +5073,7 @@
         <v>0.84210526315789469</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>44351</v>
       </c>
@@ -5126,7 +5090,7 @@
         <v>0.84210526315789469</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>44352</v>
       </c>
@@ -5143,7 +5107,7 @@
         <v>0.84210526315789469</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>44353</v>
       </c>
@@ -5160,7 +5124,7 @@
         <v>0.84210526315789469</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>44354</v>
       </c>
@@ -5177,7 +5141,7 @@
         <v>0.89473684210526316</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>44355</v>
       </c>
@@ -5194,7 +5158,7 @@
         <v>0.94736842105263153</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>44356</v>
       </c>
@@ -5211,7 +5175,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>44357</v>
       </c>
@@ -5228,7 +5192,7 @@
         <v>0.52631578947368418</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>44358</v>
       </c>
@@ -5245,7 +5209,7 @@
         <v>0.52631578947368418</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>44359</v>
       </c>
@@ -5262,7 +5226,7 @@
         <v>0.52631578947368418</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>44360</v>
       </c>
@@ -5279,7 +5243,7 @@
         <v>0.52631578947368418</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>44361</v>
       </c>
@@ -5296,7 +5260,7 @@
         <v>0.42105263157894735</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>44362</v>
       </c>
@@ -5313,7 +5277,7 @@
         <v>0.36842105263157893</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>44363</v>
       </c>
@@ -5330,7 +5294,7 @@
         <v>0.36842105263157893</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>44364</v>
       </c>
@@ -5347,7 +5311,7 @@
         <v>0.57894736842105265</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>44365</v>
       </c>
@@ -5364,7 +5328,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>44366</v>
       </c>
@@ -5381,7 +5345,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>44367</v>
       </c>
@@ -5398,7 +5362,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>44368</v>
       </c>
@@ -5415,7 +5379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>44369</v>
       </c>
@@ -5432,7 +5396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>44370</v>
       </c>
@@ -5449,7 +5413,7 @@
         <v>0.89473684210526316</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>44371</v>
       </c>
@@ -5466,7 +5430,7 @@
         <v>0.89473684210526316</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>44372</v>
       </c>
@@ -5483,7 +5447,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>44373</v>
       </c>
@@ -5500,7 +5464,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>44374</v>
       </c>
@@ -5517,7 +5481,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>44375</v>
       </c>
@@ -5534,7 +5498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>44376</v>
       </c>
@@ -5551,7 +5515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>44377</v>
       </c>
@@ -5568,7 +5532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>44378</v>
       </c>
@@ -5585,7 +5549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>44379</v>
       </c>
@@ -5602,7 +5566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>44380</v>
       </c>
@@ -5619,7 +5583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>44381</v>
       </c>
@@ -5636,7 +5600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>44382</v>
       </c>
@@ -5653,7 +5617,7 @@
         <v>0.89473684210526316</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>44383</v>
       </c>
@@ -5670,7 +5634,7 @@
         <v>0.89473684210526316</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>44384</v>
       </c>
@@ -5687,7 +5651,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>44385</v>
       </c>
@@ -5704,7 +5668,7 @@
         <v>0.68421052631578949</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>44386</v>
       </c>
@@ -5721,7 +5685,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>44387</v>
       </c>
@@ -5738,7 +5702,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>44388</v>
       </c>
@@ -5755,7 +5719,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>44389</v>
       </c>
@@ -5772,7 +5736,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>44390</v>
       </c>
@@ -5789,7 +5753,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>44391</v>
       </c>
@@ -5806,7 +5770,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>44392</v>
       </c>
@@ -5823,7 +5787,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>44393</v>
       </c>
@@ -5840,7 +5804,7 @@
         <v>0.45454545454545453</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>44394</v>
       </c>
@@ -5857,7 +5821,7 @@
         <v>0.45454545454545453</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>44395</v>
       </c>
@@ -5874,7 +5838,7 @@
         <v>0.36363636363636365</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>44396</v>
       </c>
@@ -5891,7 +5855,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>44397</v>
       </c>
@@ -5908,7 +5872,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>44398</v>
       </c>
@@ -5925,7 +5889,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>44399</v>
       </c>
@@ -5942,7 +5906,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>44400</v>
       </c>
@@ -5959,7 +5923,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>44401</v>
       </c>
@@ -5976,7 +5940,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>44402</v>
       </c>
@@ -5993,7 +5957,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>44403</v>
       </c>
@@ -6010,7 +5974,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>44404</v>
       </c>
@@ -6027,7 +5991,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>44405</v>
       </c>
@@ -6044,7 +6008,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>44406</v>
       </c>
@@ -6061,7 +6025,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>44407</v>
       </c>
@@ -6078,7 +6042,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>44408</v>
       </c>
@@ -6095,7 +6059,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>44409</v>
       </c>
@@ -6112,7 +6076,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>44410</v>
       </c>
@@ -6129,7 +6093,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>44411</v>
       </c>
@@ -6146,7 +6110,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>44412</v>
       </c>
@@ -6163,7 +6127,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>44413</v>
       </c>
@@ -6180,7 +6144,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>44414</v>
       </c>
@@ -6197,7 +6161,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>44415</v>
       </c>
@@ -6214,7 +6178,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>44416</v>
       </c>
@@ -6231,7 +6195,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>44417</v>
       </c>
@@ -6248,7 +6212,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>44418</v>
       </c>
@@ -6265,7 +6229,7 @@
         <v>0.73913043478260865</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>44419</v>
       </c>
@@ -6282,7 +6246,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>44420</v>
       </c>
@@ -6299,7 +6263,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>44421</v>
       </c>
@@ -6316,7 +6280,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>44422</v>
       </c>
@@ -6333,7 +6297,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>44423</v>
       </c>
@@ -6350,7 +6314,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>44424</v>
       </c>
@@ -6367,7 +6331,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>44425</v>
       </c>
@@ -6384,7 +6348,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>44426</v>
       </c>
@@ -6401,7 +6365,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>44427</v>
       </c>
@@ -6418,7 +6382,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>44428</v>
       </c>
@@ -6435,7 +6399,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>44429</v>
       </c>
@@ -6452,7 +6416,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>44430</v>
       </c>
@@ -6469,7 +6433,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>44431</v>
       </c>
@@ -6486,7 +6450,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>44432</v>
       </c>
@@ -6503,7 +6467,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>44433</v>
       </c>
@@ -6520,7 +6484,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>44434</v>
       </c>
@@ -6537,7 +6501,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>44435</v>
       </c>
@@ -6554,7 +6518,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>44436</v>
       </c>
@@ -6571,7 +6535,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>44437</v>
       </c>
@@ -6588,7 +6552,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>44438</v>
       </c>
@@ -6605,7 +6569,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>44439</v>
       </c>
@@ -6622,7 +6586,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>44440</v>
       </c>
@@ -6639,7 +6603,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>44441</v>
       </c>
@@ -6656,7 +6620,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>44442</v>
       </c>
@@ -6673,7 +6637,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>44443</v>
       </c>
@@ -6690,7 +6654,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>44444</v>
       </c>
@@ -6707,7 +6671,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>44445</v>
       </c>
@@ -6724,7 +6688,7 @@
         <v>0.43333333333333335</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>44446</v>
       </c>
@@ -6741,7 +6705,7 @@
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>44447</v>
       </c>
@@ -6758,7 +6722,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>44448</v>
       </c>
@@ -6775,7 +6739,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>44449</v>
       </c>
@@ -6792,7 +6756,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>44450</v>
       </c>
@@ -6809,7 +6773,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>44451</v>
       </c>
@@ -6826,7 +6790,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>44452</v>
       </c>
@@ -6843,7 +6807,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>44453</v>
       </c>
@@ -6860,7 +6824,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>44454</v>
       </c>
@@ -6877,7 +6841,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>44455</v>
       </c>
@@ -6894,7 +6858,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>44456</v>
       </c>
@@ -6911,7 +6875,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>44457</v>
       </c>
@@ -6928,7 +6892,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447" s="3">
         <v>44458</v>
       </c>
@@ -6945,7 +6909,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448" s="3">
         <v>44459</v>
       </c>
@@ -6962,7 +6926,7 @@
         <v>0.36666666666666664</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449" s="3">
         <v>44460</v>
       </c>
@@ -6979,7 +6943,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450" s="3">
         <v>44461</v>
       </c>
@@ -6996,7 +6960,7 @@
         <v>0.45161290322580644</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451" s="3">
         <v>44462</v>
       </c>
@@ -7013,7 +6977,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452" s="3">
         <v>44463</v>
       </c>
@@ -7030,7 +6994,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453" s="3">
         <v>44464</v>
       </c>
@@ -7047,7 +7011,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454" s="3">
         <v>44465</v>
       </c>
@@ -7064,7 +7028,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455" s="3">
         <v>44466</v>
       </c>
@@ -7081,7 +7045,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456" s="3">
         <v>44467</v>
       </c>
@@ -7098,7 +7062,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457" s="3">
         <v>44468</v>
       </c>
@@ -7115,7 +7079,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458" s="3">
         <v>44469</v>
       </c>
@@ -7132,7 +7096,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459" s="3">
         <v>44470</v>
       </c>
@@ -7149,7 +7113,7 @@
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460" s="3">
         <v>44471</v>
       </c>
@@ -7166,7 +7130,7 @@
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461" s="3">
         <v>44472</v>
       </c>
@@ -7183,7 +7147,7 @@
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462" s="3">
         <v>44473</v>
       </c>
@@ -7200,7 +7164,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463" s="3">
         <v>44474</v>
       </c>
@@ -7217,7 +7181,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464" s="3">
         <v>44475</v>
       </c>
@@ -7234,7 +7198,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465" s="3">
         <v>44476</v>
       </c>
@@ -7251,7 +7215,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466" s="3">
         <v>44477</v>
       </c>
@@ -7268,7 +7232,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467" s="3">
         <v>44478</v>
       </c>
@@ -7285,7 +7249,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468" s="3">
         <v>44479</v>
       </c>
@@ -7302,7 +7266,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469" s="3">
         <v>44480</v>
       </c>
@@ -7319,7 +7283,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A470" s="3">
         <v>44481</v>
       </c>
@@ -7336,7 +7300,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A471" s="3">
         <v>44482</v>
       </c>
@@ -7353,7 +7317,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A472" s="3">
         <v>44483</v>
       </c>
@@ -7370,7 +7334,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A473" s="3">
         <v>44484</v>
       </c>
@@ -7387,7 +7351,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A474" s="3">
         <v>44485</v>
       </c>
@@ -7403,1688 +7367,6 @@
       <c r="E474">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A475" s="3">
-        <v>44486</v>
-      </c>
-      <c r="B475" s="4">
-        <v>0.79487179487179482</v>
-      </c>
-      <c r="C475">
-        <v>0.1088646967340591</v>
-      </c>
-      <c r="D475">
-        <v>8.7301587301587297E-2</v>
-      </c>
-      <c r="E475">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A476" s="3">
-        <v>44487</v>
-      </c>
-      <c r="B476" s="5">
-        <v>0.79487179487179482</v>
-      </c>
-      <c r="C476">
-        <v>0.1088646967340591</v>
-      </c>
-      <c r="D476">
-        <v>8.7301587301587297E-2</v>
-      </c>
-      <c r="E476">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A477" s="3">
-        <v>44488</v>
-      </c>
-      <c r="B477" s="5">
-        <v>0.74358974358974361</v>
-      </c>
-      <c r="C477">
-        <v>0.11214953271028037</v>
-      </c>
-      <c r="D477">
-        <v>6.7729083665338641E-2</v>
-      </c>
-      <c r="E477">
-        <v>0.37931034482758619</v>
-      </c>
-    </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A478" s="3">
-        <v>44489</v>
-      </c>
-      <c r="B478" s="5">
-        <v>0.71794871794871795</v>
-      </c>
-      <c r="C478">
-        <v>0.1181959564541213</v>
-      </c>
-      <c r="D478">
-        <v>6.3492063492063489E-2</v>
-      </c>
-      <c r="E478">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A479" s="3">
-        <v>44490</v>
-      </c>
-      <c r="B479" s="5">
-        <v>0.71794871794871795</v>
-      </c>
-      <c r="C479">
-        <v>0.1181959564541213</v>
-      </c>
-      <c r="D479">
-        <v>6.3492063492063489E-2</v>
-      </c>
-      <c r="E479">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A480" s="3">
-        <v>44491</v>
-      </c>
-      <c r="B480" s="5">
-        <v>0.71794871794871795</v>
-      </c>
-      <c r="C480">
-        <v>0.1181959564541213</v>
-      </c>
-      <c r="D480">
-        <v>6.3492063492063489E-2</v>
-      </c>
-      <c r="E480">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A481" s="3">
-        <v>44492</v>
-      </c>
-      <c r="B481" s="5">
-        <v>0.71794871794871795</v>
-      </c>
-      <c r="C481">
-        <v>0.1181959564541213</v>
-      </c>
-      <c r="D481">
-        <v>6.3492063492063489E-2</v>
-      </c>
-      <c r="E481">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A482" s="3">
-        <v>44493</v>
-      </c>
-      <c r="B482" s="5">
-        <v>0.79487179487179482</v>
-      </c>
-      <c r="C482">
-        <v>0.1088646967340591</v>
-      </c>
-      <c r="D482">
-        <v>8.7301587301587297E-2</v>
-      </c>
-      <c r="E482">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A483" s="3">
-        <v>44494</v>
-      </c>
-      <c r="B483" s="5">
-        <v>0.79487179487179482</v>
-      </c>
-      <c r="C483">
-        <v>0.1088646967340591</v>
-      </c>
-      <c r="D483">
-        <v>8.7301587301587297E-2</v>
-      </c>
-      <c r="E483">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A484" s="3">
-        <v>44495</v>
-      </c>
-      <c r="B484" s="5">
-        <v>0.74358974358974361</v>
-      </c>
-      <c r="C484">
-        <v>0.11214953271028037</v>
-      </c>
-      <c r="D484">
-        <v>6.7729083665338641E-2</v>
-      </c>
-      <c r="E484">
-        <v>0.37931034482758619</v>
-      </c>
-    </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A485" s="3">
-        <v>44496</v>
-      </c>
-      <c r="B485" s="5">
-        <v>0.71794871794871795</v>
-      </c>
-      <c r="C485">
-        <v>0.1181959564541213</v>
-      </c>
-      <c r="D485">
-        <v>6.3492063492063489E-2</v>
-      </c>
-      <c r="E485">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A486" s="3">
-        <v>44497</v>
-      </c>
-      <c r="B486" s="5">
-        <v>0.71794871794871795</v>
-      </c>
-      <c r="C486">
-        <v>0.1181959564541213</v>
-      </c>
-      <c r="D486">
-        <v>6.3492063492063489E-2</v>
-      </c>
-      <c r="E486">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A487" s="3">
-        <v>44498</v>
-      </c>
-      <c r="B487" s="5">
-        <v>0.71794871794871795</v>
-      </c>
-      <c r="C487">
-        <v>0.1181959564541213</v>
-      </c>
-      <c r="D487">
-        <v>6.3492063492063489E-2</v>
-      </c>
-      <c r="E487">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A488" s="3">
-        <v>44499</v>
-      </c>
-      <c r="B488" s="5">
-        <v>0.71794871794871795</v>
-      </c>
-      <c r="C488">
-        <v>0.1181959564541213</v>
-      </c>
-      <c r="D488">
-        <v>6.3492063492063489E-2</v>
-      </c>
-      <c r="E488">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A489" s="3">
-        <v>44500</v>
-      </c>
-      <c r="B489" s="5">
-        <v>0.79487179487179482</v>
-      </c>
-      <c r="C489">
-        <v>0.1088646967340591</v>
-      </c>
-      <c r="D489">
-        <v>8.7301587301587297E-2</v>
-      </c>
-      <c r="E489">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A490" s="3">
-        <v>44501</v>
-      </c>
-      <c r="B490" s="5">
-        <v>0.79487179487179482</v>
-      </c>
-      <c r="C490">
-        <v>0.1088646967340591</v>
-      </c>
-      <c r="D490">
-        <v>8.7301587301587297E-2</v>
-      </c>
-      <c r="E490">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A491" s="3">
-        <v>44502</v>
-      </c>
-      <c r="B491" s="5">
-        <v>0.74358974358974361</v>
-      </c>
-      <c r="C491">
-        <v>0.11214953271028037</v>
-      </c>
-      <c r="D491">
-        <v>6.7729083665338641E-2</v>
-      </c>
-      <c r="E491">
-        <v>0.37931034482758619</v>
-      </c>
-    </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A492" s="3">
-        <v>44503</v>
-      </c>
-      <c r="B492" s="5">
-        <v>0.71794871794871795</v>
-      </c>
-      <c r="C492">
-        <v>0.1181959564541213</v>
-      </c>
-      <c r="D492">
-        <v>6.3492063492063489E-2</v>
-      </c>
-      <c r="E492">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A493" s="3">
-        <v>44504</v>
-      </c>
-      <c r="B493" s="5">
-        <v>0.71794871794871795</v>
-      </c>
-      <c r="C493">
-        <v>0.1181959564541213</v>
-      </c>
-      <c r="D493">
-        <v>6.3492063492063489E-2</v>
-      </c>
-      <c r="E493">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A494" s="3">
-        <v>44505</v>
-      </c>
-      <c r="B494" s="5">
-        <v>0.71794871794871795</v>
-      </c>
-      <c r="C494">
-        <v>0.1181959564541213</v>
-      </c>
-      <c r="D494">
-        <v>6.3492063492063489E-2</v>
-      </c>
-      <c r="E494">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A495" s="3">
-        <v>44506</v>
-      </c>
-      <c r="B495" s="5">
-        <v>0.71794871794871795</v>
-      </c>
-      <c r="C495">
-        <v>0.1181959564541213</v>
-      </c>
-      <c r="D495">
-        <v>6.3492063492063489E-2</v>
-      </c>
-      <c r="E495">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A496" s="3">
-        <v>44507</v>
-      </c>
-      <c r="B496" s="5">
-        <v>0.71794871794871795</v>
-      </c>
-      <c r="C496">
-        <v>0.1181959564541213</v>
-      </c>
-      <c r="D496">
-        <v>6.3492063492063489E-2</v>
-      </c>
-      <c r="E496">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A497" s="3">
-        <v>44508</v>
-      </c>
-      <c r="B497" s="5">
-        <v>0.71794871794871795</v>
-      </c>
-      <c r="C497">
-        <v>0.1181959564541213</v>
-      </c>
-      <c r="D497">
-        <v>6.3492063492063489E-2</v>
-      </c>
-      <c r="E497">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A498" s="3">
-        <v>44509</v>
-      </c>
-      <c r="B498" s="5">
-        <v>0.78125</v>
-      </c>
-      <c r="C498">
-        <v>0.1181959564541213</v>
-      </c>
-      <c r="D498">
-        <v>6.3492063492063489E-2</v>
-      </c>
-      <c r="E498">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A499" s="3">
-        <v>44510</v>
-      </c>
-      <c r="B499" s="5">
-        <v>0.78125</v>
-      </c>
-      <c r="C499">
-        <v>0.1181959564541213</v>
-      </c>
-      <c r="D499">
-        <v>6.3492063492063489E-2</v>
-      </c>
-      <c r="E499">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A500" s="3">
-        <v>44511</v>
-      </c>
-      <c r="B500" s="5">
-        <v>0.78125</v>
-      </c>
-      <c r="C500">
-        <v>0.1181959564541213</v>
-      </c>
-      <c r="D500">
-        <v>6.3492063492063489E-2</v>
-      </c>
-      <c r="E500">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A501" s="3">
-        <v>44512</v>
-      </c>
-      <c r="B501" s="5">
-        <v>0.78125</v>
-      </c>
-      <c r="C501">
-        <v>0.1181959564541213</v>
-      </c>
-      <c r="D501">
-        <v>6.3492063492063489E-2</v>
-      </c>
-      <c r="E501">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A502" s="3">
-        <v>44513</v>
-      </c>
-      <c r="B502" s="5">
-        <v>0.78125</v>
-      </c>
-      <c r="C502">
-        <v>0.1181959564541213</v>
-      </c>
-      <c r="D502">
-        <v>6.3492063492063489E-2</v>
-      </c>
-      <c r="E502">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A503" s="3">
-        <v>44514</v>
-      </c>
-      <c r="B503" s="5">
-        <v>0.78125</v>
-      </c>
-      <c r="C503">
-        <v>0.1181959564541213</v>
-      </c>
-      <c r="D503">
-        <v>6.3492063492063489E-2</v>
-      </c>
-      <c r="E503">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A504" s="3">
-        <v>44515</v>
-      </c>
-      <c r="B504" s="5">
-        <v>0.71875</v>
-      </c>
-      <c r="C504">
-        <v>0.11516314779270634</v>
-      </c>
-      <c r="D504">
-        <v>5.905511811023622E-2</v>
-      </c>
-      <c r="E504">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A505" s="3">
-        <v>44516</v>
-      </c>
-      <c r="B505" s="5">
-        <v>0.6875</v>
-      </c>
-      <c r="C505">
-        <v>0.10748560460652591</v>
-      </c>
-      <c r="D505">
-        <v>6.2992125984251968E-2</v>
-      </c>
-      <c r="E505">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A506" s="3">
-        <v>44517</v>
-      </c>
-      <c r="B506" s="5">
-        <v>0.6875</v>
-      </c>
-      <c r="C506">
-        <v>0.10748560460652591</v>
-      </c>
-      <c r="D506">
-        <v>6.2992125984251968E-2</v>
-      </c>
-      <c r="E506">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A507" s="3">
-        <v>44518</v>
-      </c>
-      <c r="B507" s="5">
-        <v>0.6875</v>
-      </c>
-      <c r="C507">
-        <v>0.10748560460652591</v>
-      </c>
-      <c r="D507">
-        <v>6.2992125984251968E-2</v>
-      </c>
-      <c r="E507">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A508" s="3">
-        <v>44519</v>
-      </c>
-      <c r="B508" s="5">
-        <v>0.6875</v>
-      </c>
-      <c r="C508">
-        <v>0.10748560460652591</v>
-      </c>
-      <c r="D508">
-        <v>6.2992125984251968E-2</v>
-      </c>
-      <c r="E508">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A509" s="3">
-        <v>44520</v>
-      </c>
-      <c r="B509" s="5">
-        <v>0.6875</v>
-      </c>
-      <c r="C509">
-        <v>0.10748560460652591</v>
-      </c>
-      <c r="D509">
-        <v>6.2992125984251968E-2</v>
-      </c>
-      <c r="E509">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A510" s="3">
-        <v>44521</v>
-      </c>
-      <c r="B510" s="5">
-        <v>0.6875</v>
-      </c>
-      <c r="C510">
-        <v>0.10748560460652591</v>
-      </c>
-      <c r="D510">
-        <v>6.2992125984251968E-2</v>
-      </c>
-      <c r="E510">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A511" s="3">
-        <v>44522</v>
-      </c>
-      <c r="B511" s="5">
-        <v>0.78125</v>
-      </c>
-      <c r="C511">
-        <v>9.2130518234165071E-2</v>
-      </c>
-      <c r="D511">
-        <v>5.5118110236220472E-2</v>
-      </c>
-      <c r="E511">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A512" s="3">
-        <v>44523</v>
-      </c>
-      <c r="B512" s="5">
-        <v>0.8125</v>
-      </c>
-      <c r="C512">
-        <v>9.4049904030710174E-2</v>
-      </c>
-      <c r="D512">
-        <v>5.5118110236220472E-2</v>
-      </c>
-      <c r="E512">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A513" s="3">
-        <v>44524</v>
-      </c>
-      <c r="B513" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="C513">
-        <v>9.2130518234165071E-2</v>
-      </c>
-      <c r="D513">
-        <v>5.905511811023622E-2</v>
-      </c>
-      <c r="E513">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A514" s="3">
-        <v>44525</v>
-      </c>
-      <c r="B514" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="C514">
-        <v>9.2130518234165071E-2</v>
-      </c>
-      <c r="D514">
-        <v>5.905511811023622E-2</v>
-      </c>
-      <c r="E514">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A515" s="3">
-        <v>44526</v>
-      </c>
-      <c r="B515" s="5">
-        <v>0.78125</v>
-      </c>
-      <c r="C515">
-        <v>0.1036468330134357</v>
-      </c>
-      <c r="D515">
-        <v>5.5118110236220472E-2</v>
-      </c>
-      <c r="E515">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A516" s="3">
-        <v>44527</v>
-      </c>
-      <c r="B516" s="5">
-        <v>0.78125</v>
-      </c>
-      <c r="C516">
-        <v>0.1036468330134357</v>
-      </c>
-      <c r="D516">
-        <v>5.5118110236220472E-2</v>
-      </c>
-      <c r="E516">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A517" s="3">
-        <v>44528</v>
-      </c>
-      <c r="B517" s="5">
-        <v>0.78125</v>
-      </c>
-      <c r="C517">
-        <v>0.1036468330134357</v>
-      </c>
-      <c r="D517">
-        <v>5.5118110236220472E-2</v>
-      </c>
-      <c r="E517">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A518" s="3">
-        <v>44529</v>
-      </c>
-      <c r="B518" s="5">
-        <v>0.78125</v>
-      </c>
-      <c r="C518">
-        <v>0.1036468330134357</v>
-      </c>
-      <c r="D518">
-        <v>5.5118110236220472E-2</v>
-      </c>
-      <c r="E518">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A519" s="3">
-        <v>44530</v>
-      </c>
-      <c r="B519" s="5">
-        <v>0.78125</v>
-      </c>
-      <c r="C519">
-        <v>0.1036468330134357</v>
-      </c>
-      <c r="D519">
-        <v>5.5118110236220472E-2</v>
-      </c>
-      <c r="E519">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A520" s="3">
-        <v>44531</v>
-      </c>
-      <c r="B520" s="5">
-        <v>0.78125</v>
-      </c>
-      <c r="C520">
-        <v>0.1036468330134357</v>
-      </c>
-      <c r="D520">
-        <v>5.5118110236220472E-2</v>
-      </c>
-      <c r="E520">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A521" s="3">
-        <v>44532</v>
-      </c>
-      <c r="B521" s="5">
-        <v>0.78125</v>
-      </c>
-      <c r="C521">
-        <v>0.1036468330134357</v>
-      </c>
-      <c r="D521">
-        <v>5.5118110236220472E-2</v>
-      </c>
-      <c r="E521">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A522" s="3">
-        <v>44533</v>
-      </c>
-      <c r="B522" s="5">
-        <v>0.65625</v>
-      </c>
-      <c r="C522">
-        <v>9.3235831809872036E-2</v>
-      </c>
-      <c r="D522">
-        <v>7.0866141732283464E-2</v>
-      </c>
-      <c r="E522">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A523" s="3">
-        <v>44534</v>
-      </c>
-      <c r="B523" s="5">
-        <v>0.65625</v>
-      </c>
-      <c r="C523">
-        <v>9.3235831809872036E-2</v>
-      </c>
-      <c r="D523">
-        <v>7.0866141732283464E-2</v>
-      </c>
-      <c r="E523">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A524" s="3">
-        <v>44535</v>
-      </c>
-      <c r="B524" s="5">
-        <v>0.65625</v>
-      </c>
-      <c r="C524">
-        <v>9.3235831809872036E-2</v>
-      </c>
-      <c r="D524">
-        <v>7.0866141732283464E-2</v>
-      </c>
-      <c r="E524">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A525" s="3">
-        <v>44536</v>
-      </c>
-      <c r="B525" s="5">
-        <v>0.65625</v>
-      </c>
-      <c r="C525">
-        <v>9.3235831809872036E-2</v>
-      </c>
-      <c r="D525">
-        <v>7.0866141732283464E-2</v>
-      </c>
-      <c r="E525">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A526" s="3">
-        <v>44537</v>
-      </c>
-      <c r="B526" s="5">
-        <v>0.65625</v>
-      </c>
-      <c r="C526">
-        <v>9.3235831809872036E-2</v>
-      </c>
-      <c r="D526">
-        <v>7.0866141732283464E-2</v>
-      </c>
-      <c r="E526">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A527" s="3">
-        <v>44538</v>
-      </c>
-      <c r="B527" s="5">
-        <v>0.65625</v>
-      </c>
-      <c r="C527">
-        <v>9.3235831809872036E-2</v>
-      </c>
-      <c r="D527">
-        <v>7.0866141732283464E-2</v>
-      </c>
-      <c r="E527">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A528" s="3">
-        <v>44539</v>
-      </c>
-      <c r="B528" s="5">
-        <v>0.65625</v>
-      </c>
-      <c r="C528">
-        <v>9.3235831809872036E-2</v>
-      </c>
-      <c r="D528">
-        <v>7.0866141732283464E-2</v>
-      </c>
-      <c r="E528">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A529" s="3">
-        <v>44540</v>
-      </c>
-      <c r="B529" s="5">
-        <v>0.65625</v>
-      </c>
-      <c r="C529">
-        <v>9.3235831809872036E-2</v>
-      </c>
-      <c r="D529">
-        <v>7.0866141732283464E-2</v>
-      </c>
-      <c r="E529">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A530" s="3">
-        <v>44541</v>
-      </c>
-      <c r="B530" s="5">
-        <v>0.65625</v>
-      </c>
-      <c r="C530">
-        <v>9.3235831809872036E-2</v>
-      </c>
-      <c r="D530">
-        <v>7.0866141732283464E-2</v>
-      </c>
-      <c r="E530">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A531" s="3">
-        <v>44542</v>
-      </c>
-      <c r="B531" s="5">
-        <v>0.65625</v>
-      </c>
-      <c r="C531">
-        <v>9.3235831809872036E-2</v>
-      </c>
-      <c r="D531">
-        <v>7.0866141732283464E-2</v>
-      </c>
-      <c r="E531">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A532" s="3">
-        <v>44543</v>
-      </c>
-      <c r="B532" s="5">
-        <v>0.65625</v>
-      </c>
-      <c r="C532">
-        <v>9.3235831809872036E-2</v>
-      </c>
-      <c r="D532">
-        <v>7.0866141732283464E-2</v>
-      </c>
-      <c r="E532">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A533" s="3">
-        <v>44544</v>
-      </c>
-      <c r="B533" s="5">
-        <v>0.65625</v>
-      </c>
-      <c r="C533">
-        <v>9.3235831809872036E-2</v>
-      </c>
-      <c r="D533">
-        <v>7.0866141732283464E-2</v>
-      </c>
-      <c r="E533">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A534" s="3">
-        <v>44545</v>
-      </c>
-      <c r="B534" s="5">
-        <v>0.65625</v>
-      </c>
-      <c r="C534">
-        <v>9.3235831809872036E-2</v>
-      </c>
-      <c r="D534">
-        <v>7.0866141732283464E-2</v>
-      </c>
-      <c r="E534">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A535" s="3">
-        <v>44546</v>
-      </c>
-      <c r="B535" s="5">
-        <v>0.65625</v>
-      </c>
-      <c r="C535">
-        <v>9.3235831809872036E-2</v>
-      </c>
-      <c r="D535">
-        <v>7.0866141732283464E-2</v>
-      </c>
-      <c r="E535">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A536" s="3">
-        <v>44547</v>
-      </c>
-      <c r="B536" s="5">
-        <v>0.65625</v>
-      </c>
-      <c r="C536">
-        <v>9.3235831809872036E-2</v>
-      </c>
-      <c r="D536">
-        <v>7.0866141732283464E-2</v>
-      </c>
-      <c r="E536">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A537" s="3">
-        <v>44548</v>
-      </c>
-      <c r="B537" s="5">
-        <v>0.65625</v>
-      </c>
-      <c r="C537">
-        <v>9.3235831809872036E-2</v>
-      </c>
-      <c r="D537">
-        <v>7.0866141732283464E-2</v>
-      </c>
-      <c r="E537">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A538" s="3">
-        <v>44549</v>
-      </c>
-      <c r="B538" s="7">
-        <v>0.65625</v>
-      </c>
-      <c r="C538" s="10">
-        <v>9.3235831809871994E-2</v>
-      </c>
-      <c r="D538" s="9">
-        <v>7.0866141732283464E-2</v>
-      </c>
-      <c r="E538" s="6">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A539" s="3">
-        <v>44550</v>
-      </c>
-      <c r="B539" s="8">
-        <v>0.65625</v>
-      </c>
-      <c r="C539" s="10">
-        <v>9.3235831809871994E-2</v>
-      </c>
-      <c r="D539" s="9">
-        <v>7.0866141732283464E-2</v>
-      </c>
-      <c r="E539" s="6">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A540" s="3">
-        <v>44551</v>
-      </c>
-      <c r="B540" s="8">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="C540" s="10">
-        <v>9.9800399201596807E-2</v>
-      </c>
-      <c r="D540" s="9">
-        <v>5.5776892430278883E-2</v>
-      </c>
-      <c r="E540" s="6">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A541" s="3">
-        <v>44552</v>
-      </c>
-      <c r="B541" s="8">
-        <v>0.48148148148148145</v>
-      </c>
-      <c r="C541" s="10">
-        <v>0.10358565737051793</v>
-      </c>
-      <c r="D541" s="9">
-        <v>6.7460317460317457E-2</v>
-      </c>
-      <c r="E541" s="6">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A542" s="3">
-        <v>44553</v>
-      </c>
-      <c r="B542" s="8">
-        <v>0.51851851851851849</v>
-      </c>
-      <c r="C542" s="10">
-        <v>0.10358565737051793</v>
-      </c>
-      <c r="D542" s="9">
-        <v>7.5396825396825393E-2</v>
-      </c>
-      <c r="E542" s="6">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A543" s="3">
-        <v>44554</v>
-      </c>
-      <c r="B543" s="8">
-        <v>0.51851851851851849</v>
-      </c>
-      <c r="C543" s="10">
-        <v>0.10358565737051793</v>
-      </c>
-      <c r="D543" s="9">
-        <v>7.5396825396825393E-2</v>
-      </c>
-      <c r="E543" s="6">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A544" s="3">
-        <v>44555</v>
-      </c>
-      <c r="B544" s="8">
-        <v>0.51851851851851849</v>
-      </c>
-      <c r="C544" s="10">
-        <v>0.10358565737051793</v>
-      </c>
-      <c r="D544" s="9">
-        <v>7.5396825396825393E-2</v>
-      </c>
-      <c r="E544" s="6">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A545" s="3">
-        <v>44556</v>
-      </c>
-      <c r="B545" s="8">
-        <v>0.51851851851851849</v>
-      </c>
-      <c r="C545" s="10">
-        <v>0.10358565737051793</v>
-      </c>
-      <c r="D545" s="9">
-        <v>7.5396825396825393E-2</v>
-      </c>
-      <c r="E545" s="6">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A546" s="3">
-        <v>44557</v>
-      </c>
-      <c r="B546" s="8">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="C546" s="10">
-        <v>6.9721115537848599E-2</v>
-      </c>
-      <c r="D546" s="9">
-        <v>4.3650793650793648E-2</v>
-      </c>
-      <c r="E546" s="6">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A547" s="3">
-        <v>44558</v>
-      </c>
-      <c r="B547" s="8">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="C547" s="10">
-        <v>8.1673306772908363E-2</v>
-      </c>
-      <c r="D547" s="9">
-        <v>4.3650793650793648E-2</v>
-      </c>
-      <c r="E547" s="6">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A548" s="3">
-        <v>44559</v>
-      </c>
-      <c r="B548" s="8">
-        <v>0.51851851851851849</v>
-      </c>
-      <c r="C548" s="10">
-        <v>8.565737051792828E-2</v>
-      </c>
-      <c r="D548" s="9">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="E548" s="6">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A549" s="3">
-        <v>44560</v>
-      </c>
-      <c r="B549" s="8">
-        <v>0.51851851851851849</v>
-      </c>
-      <c r="C549" s="10">
-        <v>9.1633466135458169E-2</v>
-      </c>
-      <c r="D549" s="9">
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="E549" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A550" s="3">
-        <v>44561</v>
-      </c>
-      <c r="B550" s="8">
-        <v>0.51851851851851849</v>
-      </c>
-      <c r="C550" s="10">
-        <v>9.1633466135458169E-2</v>
-      </c>
-      <c r="D550" s="9">
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="E550" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A551" s="3">
-        <v>44562</v>
-      </c>
-      <c r="B551" s="8">
-        <v>0.51851851851851849</v>
-      </c>
-      <c r="C551" s="10">
-        <v>9.1633466135458169E-2</v>
-      </c>
-      <c r="D551" s="9">
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="E551" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A552" s="3">
-        <v>44563</v>
-      </c>
-      <c r="B552" s="8">
-        <v>0.51851851851851849</v>
-      </c>
-      <c r="C552" s="11">
-        <v>9.1633466135458169E-2</v>
-      </c>
-      <c r="D552" s="9">
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="E552" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A553" s="3">
-        <v>44564</v>
-      </c>
-      <c r="B553" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C553" s="11">
-        <v>0.11776447105788423</v>
-      </c>
-      <c r="D553" s="9">
-        <v>6.3745019920318724E-2</v>
-      </c>
-      <c r="E553" s="6">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A554" s="3">
-        <v>44565</v>
-      </c>
-      <c r="B554" s="8">
-        <v>0.62962962962962965</v>
-      </c>
-      <c r="C554" s="11">
-        <v>0.1217564870259481</v>
-      </c>
-      <c r="D554" s="9">
-        <v>6.3745019920318724E-2</v>
-      </c>
-      <c r="E554" s="6">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A555" s="3">
-        <v>44566</v>
-      </c>
-      <c r="B555" s="8">
-        <v>0.62962962962962965</v>
-      </c>
-      <c r="C555" s="11">
-        <v>0.15510204081632653</v>
-      </c>
-      <c r="D555" s="9">
-        <v>7.0833333333333331E-2</v>
-      </c>
-      <c r="E555" s="6">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A556" s="3">
-        <v>44567</v>
-      </c>
-      <c r="B556" s="8">
-        <v>0.62962962962962965</v>
-      </c>
-      <c r="C556" s="11">
-        <v>0.17959183673469387</v>
-      </c>
-      <c r="D556" s="9">
-        <v>8.7499999999999994E-2</v>
-      </c>
-      <c r="E556" s="6">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A557" s="3">
-        <v>44568</v>
-      </c>
-      <c r="B557" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C557" s="11">
-        <v>0.18255578093306288</v>
-      </c>
-      <c r="D557" s="9">
-        <v>9.8765432098765427E-2</v>
-      </c>
-      <c r="E557" s="6">
-        <v>0.65384615384615385</v>
-      </c>
-    </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A558" s="3">
-        <v>44569</v>
-      </c>
-      <c r="B558" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C558" s="11">
-        <v>0.18255578093306288</v>
-      </c>
-      <c r="D558" s="9">
-        <v>9.8765432098765427E-2</v>
-      </c>
-      <c r="E558" s="6">
-        <v>0.65384615384615385</v>
-      </c>
-    </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A559" s="3">
-        <v>44570</v>
-      </c>
-      <c r="B559" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C559">
-        <v>0.18255578093306288</v>
-      </c>
-      <c r="D559">
-        <v>9.8765432098765427E-2</v>
-      </c>
-      <c r="E559">
-        <v>0.65384615384615385</v>
-      </c>
-    </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A560" s="3">
-        <v>44571</v>
-      </c>
-      <c r="B560" s="8">
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="C560">
-        <v>0.23170731707317074</v>
-      </c>
-      <c r="D560">
-        <v>0.11570247933884298</v>
-      </c>
-      <c r="E560">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A561" s="3">
-        <v>44572</v>
-      </c>
-      <c r="B561" s="8">
-        <v>0.81481481481481477</v>
-      </c>
-      <c r="C561">
-        <v>0.35326086956521741</v>
-      </c>
-      <c r="D561">
-        <v>0.10126582278481013</v>
-      </c>
-      <c r="E561">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A562" s="3">
-        <v>44573</v>
-      </c>
-      <c r="B562" s="8">
-        <v>0.7407407407407407</v>
-      </c>
-      <c r="C562">
-        <v>0.35326086956521741</v>
-      </c>
-      <c r="D562">
-        <v>0.11428571428571428</v>
-      </c>
-      <c r="E562">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A563" s="3">
-        <v>44574</v>
-      </c>
-      <c r="B563" s="8">
-        <v>0.81481481481481477</v>
-      </c>
-      <c r="C563">
-        <v>0.34601449275362317</v>
-      </c>
-      <c r="D563">
-        <v>0.11382113821138211</v>
-      </c>
-      <c r="E563">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A564" s="3">
-        <v>44575</v>
-      </c>
-      <c r="B564" s="8">
-        <v>0.81481481481481477</v>
-      </c>
-      <c r="C564">
-        <v>0.34601449275362317</v>
-      </c>
-      <c r="D564">
-        <v>0.11382113821138211</v>
-      </c>
-      <c r="E564">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A565" s="3">
-        <v>44576</v>
-      </c>
-      <c r="B565" s="8">
-        <v>0.81481481481481477</v>
-      </c>
-      <c r="C565">
-        <v>0.34601449275362317</v>
-      </c>
-      <c r="D565">
-        <v>0.11382113821138211</v>
-      </c>
-      <c r="E565">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A566" s="3">
-        <v>44577</v>
-      </c>
-      <c r="B566" s="8">
-        <v>0.81481481481481477</v>
-      </c>
-      <c r="C566" s="12">
-        <v>0.34601449275362317</v>
-      </c>
-      <c r="D566" s="15">
-        <v>0.11382113821138211</v>
-      </c>
-      <c r="E566" s="16">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A567" s="3">
-        <v>44578</v>
-      </c>
-      <c r="B567" s="14">
-        <v>0.81481481481481477</v>
-      </c>
-      <c r="C567" s="14">
-        <v>0.27822580645161288</v>
-      </c>
-      <c r="D567" s="14">
-        <v>0.12195121951219512</v>
-      </c>
-      <c r="E567" s="14">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A568" s="3">
-        <v>44579</v>
-      </c>
-      <c r="B568" s="14">
-        <v>0.81481481481481477</v>
-      </c>
-      <c r="C568" s="14">
-        <v>0.32534930139720558</v>
-      </c>
-      <c r="D568" s="14">
-        <v>0.20717131474103587</v>
-      </c>
-      <c r="E568" s="14">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A569" s="3">
-        <v>44580</v>
-      </c>
-      <c r="B569" s="14">
-        <v>0.81481481481481477</v>
-      </c>
-      <c r="C569" s="14">
-        <v>0.32534930139720558</v>
-      </c>
-      <c r="D569" s="14">
-        <v>0.20717131474103587</v>
-      </c>
-      <c r="E569" s="14">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A570" s="3">
-        <v>44581</v>
-      </c>
-      <c r="B570" s="14">
-        <v>0.81481481481481477</v>
-      </c>
-      <c r="C570" s="14">
-        <v>0.35943775100401604</v>
-      </c>
-      <c r="D570" s="14">
-        <v>0.18145161290322581</v>
-      </c>
-      <c r="E570" s="14">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A571" s="3">
-        <v>44582</v>
-      </c>
-      <c r="B571" s="14">
-        <v>0.81481481481481477</v>
-      </c>
-      <c r="C571" s="14">
-        <v>0.35943775100401604</v>
-      </c>
-      <c r="D571" s="14">
-        <v>0.18145161290322581</v>
-      </c>
-      <c r="E571" s="14">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A572" s="13">
-        <v>44583</v>
-      </c>
-      <c r="B572" s="14">
-        <v>0.81481481481481477</v>
-      </c>
-      <c r="C572" s="14">
-        <v>0.35943775100401604</v>
-      </c>
-      <c r="D572" s="14">
-        <v>0.18145161290322581</v>
-      </c>
-      <c r="E572" s="14">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A573" s="14"/>
-      <c r="B573" s="8"/>
-    </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A574" s="14"/>
-      <c r="B574" s="8"/>
-    </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A575" s="14"/>
-      <c r="B575" s="8"/>
-    </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A576" s="14"/>
-      <c r="B576" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\covid-cusco\dashboard-covid-geresa\data\source1_camas\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4675CC4-9A58-4B1D-ADAD-00BAAAF111BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1045E77-29F2-46DB-AD5F-132FC0BEB466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4848" yWindow="4920" windowWidth="11712" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -394,15 +394,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E474"/>
+  <dimension ref="A1:E573"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A448" workbookViewId="0">
-      <selection activeCell="D474" sqref="D474"/>
+    <sheetView tabSelected="1" topLeftCell="A543" workbookViewId="0">
+      <selection activeCell="B541" sqref="B541:B573"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,7 +419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44013</v>
       </c>
@@ -430,7 +430,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44014</v>
       </c>
@@ -441,7 +441,7 @@
         <v>0.6811594202898551</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44015</v>
       </c>
@@ -452,7 +452,7 @@
         <v>0.6811594202898551</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44016</v>
       </c>
@@ -463,7 +463,7 @@
         <v>0.78260869565217395</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44017</v>
       </c>
@@ -474,7 +474,7 @@
         <v>0.6811594202898551</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44018</v>
       </c>
@@ -485,7 +485,7 @@
         <v>0.59595959595959591</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44019</v>
       </c>
@@ -496,7 +496,7 @@
         <v>0.65656565656565657</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44020</v>
       </c>
@@ -507,7 +507,7 @@
         <v>0.68041237113402064</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44021</v>
       </c>
@@ -518,7 +518,7 @@
         <v>0.71134020618556704</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44022</v>
       </c>
@@ -529,7 +529,7 @@
         <v>0.77319587628865982</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44023</v>
       </c>
@@ -540,7 +540,7 @@
         <v>0.75257731958762886</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44024</v>
       </c>
@@ -551,7 +551,7 @@
         <v>0.79381443298969068</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44025</v>
       </c>
@@ -562,7 +562,7 @@
         <v>0.41116751269035534</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44026</v>
       </c>
@@ -573,7 +573,7 @@
         <v>0.41624365482233505</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44027</v>
       </c>
@@ -584,7 +584,7 @@
         <v>0.46192893401015228</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44028</v>
       </c>
@@ -595,7 +595,7 @@
         <v>0.54822335025380708</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44029</v>
       </c>
@@ -606,7 +606,7 @@
         <v>0.64467005076142136</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44030</v>
       </c>
@@ -617,7 +617,7 @@
         <v>0.69543147208121825</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44031</v>
       </c>
@@ -628,7 +628,7 @@
         <v>0.74111675126903553</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44032</v>
       </c>
@@ -639,7 +639,7 @@
         <v>0.79729729729729726</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44033</v>
       </c>
@@ -650,7 +650,7 @@
         <v>0.78378378378378377</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44034</v>
       </c>
@@ -661,7 +661,7 @@
         <v>0.78378378378378377</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44035</v>
       </c>
@@ -672,7 +672,7 @@
         <v>0.80180180180180183</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44036</v>
       </c>
@@ -683,7 +683,7 @@
         <v>0.9144144144144144</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44037</v>
       </c>
@@ -694,7 +694,7 @@
         <v>0.90990990990990994</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44038</v>
       </c>
@@ -705,7 +705,7 @@
         <v>0.90990990990990994</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44039</v>
       </c>
@@ -716,7 +716,7 @@
         <v>0.94594594594594594</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44040</v>
       </c>
@@ -727,7 +727,7 @@
         <v>0.93243243243243246</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44041</v>
       </c>
@@ -738,7 +738,7 @@
         <v>0.98198198198198194</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44042</v>
       </c>
@@ -749,7 +749,7 @@
         <v>1.045045045045045</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44043</v>
       </c>
@@ -760,7 +760,7 @@
         <v>1.0900900900900901</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44044</v>
       </c>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44045</v>
       </c>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44046</v>
       </c>
@@ -802,7 +802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44047</v>
       </c>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44048</v>
       </c>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44049</v>
       </c>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44050</v>
       </c>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>44051</v>
       </c>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>44052</v>
       </c>
@@ -886,7 +886,7 @@
         <v>0.26804123711340205</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44053</v>
       </c>
@@ -900,7 +900,7 @@
         <v>0.29896907216494845</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44054</v>
       </c>
@@ -914,7 +914,7 @@
         <v>0.30927835051546393</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44055</v>
       </c>
@@ -928,7 +928,7 @@
         <v>0.37113402061855671</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44056</v>
       </c>
@@ -942,7 +942,7 @@
         <v>0.39175257731958762</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44057</v>
       </c>
@@ -956,7 +956,7 @@
         <v>0.35051546391752575</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44058</v>
       </c>
@@ -970,7 +970,7 @@
         <v>0.35051546391752575</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>44059</v>
       </c>
@@ -984,7 +984,7 @@
         <v>0.35051546391752575</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44060</v>
       </c>
@@ -998,7 +998,7 @@
         <v>0.32989690721649484</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>44061</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>0.31958762886597936</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>44062</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>0.31958762886597936</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>44063</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>0.31958762886597936</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>44064</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>0.35164835164835168</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>44065</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>44066</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>44067</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>0.40659340659340659</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>44068</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>44069</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>44070</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>44071</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>44072</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>44073</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>0.34065934065934067</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>44074</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>0.34020618556701032</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>44075</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>0.34020618556701032</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>44076</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>0.39175257731958762</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>44077</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>0.25773195876288657</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>44078</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>0.24742268041237114</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>44079</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>0.24742268041237114</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>44080</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>0.24742268041237114</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>44081</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>0.24742268041237114</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>44082</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>0.24742268041237114</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>44083</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>0.22680412371134021</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>44084</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>0.27835051546391754</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>44085</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>0.24742268041237114</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>44086</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>0.27835051546391754</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>44087</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>0.32989690721649484</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>44088</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>0.27835051546391754</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>44089</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>0.34020618556701032</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>44090</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>0.25773195876288657</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>44091</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>0.27835051546391754</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>44092</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>0.30927835051546393</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>44093</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>0.29896907216494845</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>44094</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>0.29896907216494845</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>44095</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>0.24299065420560748</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>44096</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>0.26168224299065418</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>44097</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>0.24299065420560748</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>44098</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>0.24299065420560748</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>44099</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>0.24299065420560748</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>44100</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>0.24299065420560748</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>44101</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>44102</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>44103</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>44104</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>44105</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>44106</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>0.2967032967032967</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>44107</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>0.2967032967032967</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>44108</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>0.2967032967032967</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>44109</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>0.2967032967032967</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>44110</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>0.2967032967032967</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>44111</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>0.35164835164835168</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>44112</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>0.36263736263736263</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>44113</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>0.35164835164835168</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>44114</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>0.36263736263736263</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>44115</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>0.25384615384615383</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>44116</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>0.2153846153846154</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>44117</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>44118</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>44119</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>44120</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>0.19333333333333333</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>44121</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>44122</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>0.17333333333333334</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>44123</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>44124</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>44125</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>44126</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>0.17142857142857143</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>44127</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>44128</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>44129</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>0.14857142857142858</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>44130</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>0.14857142857142858</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>44131</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>0.14857142857142858</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>44132</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>44133</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>44134</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>44135</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>0.12571428571428572</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>44136</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>0.12571428571428572</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>44137</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>0.13513513513513514</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>44138</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>0.11351351351351352</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>44139</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>0.10810810810810811</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>44140</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>0.13513513513513514</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>44141</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>0.12972972972972974</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>44142</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>0.12972972972972974</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>44143</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>0.12432432432432433</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>44144</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>0.12432432432432433</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>44145</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>0.12432432432432433</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>44146</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>0.14594594594594595</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>44147</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>0.14054054054054055</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>44148</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>0.11891891891891893</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>44149</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>0.12972972972972974</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>44150</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>44151</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>44152</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>44153</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>44154</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>0.1891891891891892</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>44155</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>0.16216216216216217</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>44156</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>0.16216216216216217</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>44157</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>44158</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>44159</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>44160</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>44161</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>44162</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>0.14594594594594595</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>44163</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>0.14594594594594595</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>44164</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>0.14054054054054055</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>44165</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>0.15135135135135136</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>44166</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>44167</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>44168</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>44169</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>44170</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>0.17837837837837839</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>44171</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>44172</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>0.17837837837837839</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>44173</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>0.17837837837837839</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>44174</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>0.17837837837837839</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>44175</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>0.20540540540540542</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>44176</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>44177</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>0.18378378378378379</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>44178</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>44179</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>44180</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>44181</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>44182</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>44183</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>0.16216216216216217</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>44184</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>44185</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>44186</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>0.18378378378378379</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>44187</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>44188</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>44189</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>44190</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>44191</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>0.17837837837837839</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>44192</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>0.1891891891891892</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>44193</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>44194</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>44195</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>44196</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>44197</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>0.15675675675675677</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>44198</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>44199</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>44200</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>0.16216216216216217</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>44201</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>44202</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>0.16756756756756758</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>44203</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>0.19459459459459461</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>44204</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>0.17297297297297298</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>44205</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>0.19459459459459461</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>44206</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>0.21081081081081082</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>44207</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>44208</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>0.22162162162162163</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>44209</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>0.24324324324324326</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>44210</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>0.24324324324324326</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>44211</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>0.23243243243243245</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>44212</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>0.25405405405405407</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>44213</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>0.26486486486486488</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>44214</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>44215</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>0.28749999999999998</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>44216</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>0.28749999999999998</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>44217</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>0.18823529411764706</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>44218</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>0.18823529411764706</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>44219</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>0.18823529411764706</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>44220</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>0.18823529411764706</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>44221</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>0.30813953488372092</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>44222</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>0.27906976744186046</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>44223</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>0.32558139534883723</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>44224</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>0.31111111111111112</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>44225</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>44226</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>44227</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>44228</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>0.38547486033519551</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>44229</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>0.38547486033519551</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>44230</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>0.31284916201117319</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>44231</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>0.31284916201117319</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>44232</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>0.31843575418994413</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>44233</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>0.33519553072625696</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>44234</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>0.32402234636871508</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>44235</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>0.31843575418994413</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>44236</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>0.32402234636871508</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>44237</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>0.34636871508379891</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>44238</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>44239</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>44240</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>0.33714285714285713</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>44241</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>0.32571428571428573</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>44242</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>0.38857142857142857</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>44243</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>0.38857142857142857</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>44244</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>0.31284916201117319</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>44245</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>0.27374301675977653</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>44246</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>0.27374301675977653</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>44247</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>0.31284916201117319</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>44248</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>0.30726256983240224</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>44249</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>0.31284916201117319</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>44250</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>0.2722222222222222</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>44251</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>0.2722222222222222</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>44252</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>0.25139664804469275</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>44253</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>0.29608938547486036</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>44254</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>0.27932960893854747</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>44255</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>0.21787709497206703</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>44256</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>0.21229050279329609</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>44257</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>0.21229050279329609</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>44258</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>0.24571428571428572</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>44259</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>0.26256983240223464</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>44260</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>0.2742857142857143</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>44261</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>44262</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>44263</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>0.26815642458100558</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>44264</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>44265</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>44266</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>44267</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>44268</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>44269</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>44270</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>44271</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>0.28491620111731841</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>44272</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>0.33649289099526064</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>44273</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>0.33649289099526064</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>44274</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>0.30882352941176472</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>44275</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>0.34905660377358488</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>44276</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>0.34905660377358488</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>44277</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>0.34905660377358488</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>44278</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>0.37745098039215685</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>44279</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>0.37745098039215685</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>44280</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>0.34313725490196079</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>44281</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>0.30791788856304986</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>44282</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>0.30791788856304986</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>44283</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>0.30791788856304986</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>44284</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>0.30447761194029849</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>44285</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>0.35294117647058826</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>44286</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>44287</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>44288</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>44289</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>44290</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>44291</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>44292</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>44293</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>44294</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>44295</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>44296</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>44297</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>44298</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>0.24766355140186916</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>44299</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>0.33185840707964603</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>44300</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>0.36440677966101692</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>44301</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>0.34854771784232363</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>44302</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>0.34854771784232363</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>44303</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>0.36514522821576761</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>44304</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>0.34854771784232363</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>44305</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>0.37344398340248963</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>44306</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>0.37344398340248963</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>44307</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>0.37344398340248963</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>44308</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>0.36595744680851061</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>44309</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>0.36595744680851061</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>44310</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>0.36595744680851061</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>44311</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>0.36595744680851061</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>44312</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>0.33920704845814981</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>44313</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>0.47136563876651982</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>44314</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>0.45061728395061729</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>44315</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>0.48113207547169812</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>44316</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>0.48113207547169812</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>44317</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>0.48113207547169812</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>44318</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>0.48113207547169812</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>44319</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>0.35909090909090907</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>44320</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>0.33636363636363636</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>44321</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>0.35909090909090907</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>44322</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>0.5074626865671642</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>44323</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>0.41818181818181815</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>44324</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>0.41818181818181815</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>44325</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>0.41818181818181815</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>44326</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>0.5074626865671642</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>44327</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>0.3574660633484163</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>44328</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>0.39366515837104071</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>44329</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>0.43891402714932126</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>44330</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>0.46363636363636362</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>44331</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>0.46363636363636362</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>44332</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>0.38528138528138528</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>44333</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>0.39826839826839827</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>44334</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>0.42570281124497994</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>44335</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>0.42231075697211157</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>44336</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>0.42231075697211157</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>44337</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>0.42231075697211157</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>44338</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>0.42231075697211157</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>44339</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>0.44166666666666665</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>44340</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>0.44166666666666665</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>44341</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>0.42916666666666664</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>44342</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>0.41249999999999998</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>44343</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>44344</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>44345</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>44346</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>44347</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>0.7857142857142857</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>44348</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>44349</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>0.84210526315789469</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>44350</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>0.84210526315789469</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>44351</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>0.84210526315789469</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>44352</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>0.84210526315789469</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>44353</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>0.84210526315789469</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>44354</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>0.89473684210526316</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>44355</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>0.94736842105263153</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>44356</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>44357</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>0.52631578947368418</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>44358</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>0.52631578947368418</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>44359</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>0.52631578947368418</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>44360</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>0.52631578947368418</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>44361</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>0.42105263157894735</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>44362</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>0.36842105263157893</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>44363</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>0.36842105263157893</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>44364</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>0.57894736842105265</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>44365</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>44366</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>44367</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>44368</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>44369</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>44370</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>0.89473684210526316</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>44371</v>
       </c>
@@ -5430,7 +5430,7 @@
         <v>0.89473684210526316</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>44372</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>44373</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>44374</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>44375</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>44376</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>44377</v>
       </c>
@@ -5532,7 +5532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>44378</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>44379</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>44380</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>44381</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>44382</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>0.89473684210526316</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>44383</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>0.89473684210526316</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>44384</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>44385</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>0.68421052631578949</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>44386</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>44387</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>44388</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>44389</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>44390</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>44391</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>44392</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>44393</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>0.45454545454545453</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>44394</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>0.45454545454545453</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>44395</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>0.36363636363636365</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>44396</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>44397</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>44398</v>
       </c>
@@ -5889,7 +5889,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>44399</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>44400</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>44401</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>44402</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>44403</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>44404</v>
       </c>
@@ -5991,7 +5991,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>44405</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>44406</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>44407</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>44408</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>44409</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>44410</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>44411</v>
       </c>
@@ -6110,7 +6110,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>44412</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>44413</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>44414</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>44415</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>44416</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>44417</v>
       </c>
@@ -6212,7 +6212,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>44418</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>0.73913043478260865</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>44419</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>44420</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>44421</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>44422</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>44423</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>44424</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>44425</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>44426</v>
       </c>
@@ -6365,7 +6365,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>44427</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>44428</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>44429</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>44430</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>44431</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>44432</v>
       </c>
@@ -6467,7 +6467,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>44433</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>44434</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>44435</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>44436</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>44437</v>
       </c>
@@ -6552,7 +6552,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>44438</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>44439</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>44440</v>
       </c>
@@ -6603,7 +6603,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>44441</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>44442</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>44443</v>
       </c>
@@ -6654,7 +6654,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>44444</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>44445</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>0.43333333333333335</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>44446</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>44447</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>44448</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>44449</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>44450</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>44451</v>
       </c>
@@ -6790,7 +6790,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>44452</v>
       </c>
@@ -6807,7 +6807,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>44453</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>44454</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>44455</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>44456</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>44457</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" s="3">
         <v>44458</v>
       </c>
@@ -6909,7 +6909,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" s="3">
         <v>44459</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>0.36666666666666664</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" s="3">
         <v>44460</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" s="3">
         <v>44461</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>0.45161290322580644</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" s="3">
         <v>44462</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" s="3">
         <v>44463</v>
       </c>
@@ -6994,7 +6994,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" s="3">
         <v>44464</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" s="3">
         <v>44465</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" s="3">
         <v>44466</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" s="3">
         <v>44467</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" s="3">
         <v>44468</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" s="3">
         <v>44469</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" s="3">
         <v>44470</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" s="3">
         <v>44471</v>
       </c>
@@ -7130,7 +7130,7 @@
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" s="3">
         <v>44472</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" s="3">
         <v>44473</v>
       </c>
@@ -7164,7 +7164,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" s="3">
         <v>44474</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" s="3">
         <v>44475</v>
       </c>
@@ -7198,7 +7198,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" s="3">
         <v>44476</v>
       </c>
@@ -7215,7 +7215,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" s="3">
         <v>44477</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" s="3">
         <v>44478</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" s="3">
         <v>44479</v>
       </c>
@@ -7266,7 +7266,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" s="3">
         <v>44480</v>
       </c>
@@ -7283,7 +7283,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" s="3">
         <v>44481</v>
       </c>
@@ -7300,7 +7300,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" s="3">
         <v>44482</v>
       </c>
@@ -7317,7 +7317,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" s="3">
         <v>44483</v>
       </c>
@@ -7334,7 +7334,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" s="3">
         <v>44484</v>
       </c>
@@ -7351,7 +7351,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" s="3">
         <v>44485</v>
       </c>
@@ -7366,6 +7366,1689 @@
       </c>
       <c r="E474">
         <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A475" s="3">
+        <v>44486</v>
+      </c>
+      <c r="B475">
+        <v>0.79487179487179482</v>
+      </c>
+      <c r="C475">
+        <v>0.1088646967340591</v>
+      </c>
+      <c r="D475">
+        <v>8.7301587301587297E-2</v>
+      </c>
+      <c r="E475">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A476" s="3">
+        <v>44487</v>
+      </c>
+      <c r="B476">
+        <v>0.79487179487179482</v>
+      </c>
+      <c r="C476">
+        <v>0.1088646967340591</v>
+      </c>
+      <c r="D476">
+        <v>8.7301587301587297E-2</v>
+      </c>
+      <c r="E476">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A477" s="3">
+        <v>44488</v>
+      </c>
+      <c r="B477">
+        <v>0.79487179487179482</v>
+      </c>
+      <c r="C477">
+        <v>0.1088646967340591</v>
+      </c>
+      <c r="D477">
+        <v>8.7301587301587297E-2</v>
+      </c>
+      <c r="E477">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A478" s="3">
+        <v>44489</v>
+      </c>
+      <c r="B478">
+        <v>0.74358974358974361</v>
+      </c>
+      <c r="C478">
+        <v>0.11214953271028037</v>
+      </c>
+      <c r="D478">
+        <v>6.7729083665338641E-2</v>
+      </c>
+      <c r="E478">
+        <v>0.37931034482758619</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A479" s="3">
+        <v>44490</v>
+      </c>
+      <c r="B479">
+        <v>0.71794871794871795</v>
+      </c>
+      <c r="C479">
+        <v>0.1181959564541213</v>
+      </c>
+      <c r="D479">
+        <v>6.3492063492063489E-2</v>
+      </c>
+      <c r="E479">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A480" s="3">
+        <v>44491</v>
+      </c>
+      <c r="B480">
+        <v>0.71794871794871795</v>
+      </c>
+      <c r="C480">
+        <v>0.1181959564541213</v>
+      </c>
+      <c r="D480">
+        <v>6.3492063492063489E-2</v>
+      </c>
+      <c r="E480">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A481" s="3">
+        <v>44492</v>
+      </c>
+      <c r="B481">
+        <v>0.71794871794871795</v>
+      </c>
+      <c r="C481">
+        <v>0.1181959564541213</v>
+      </c>
+      <c r="D481">
+        <v>6.3492063492063489E-2</v>
+      </c>
+      <c r="E481">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A482" s="3">
+        <v>44493</v>
+      </c>
+      <c r="B482">
+        <v>0.71794871794871795</v>
+      </c>
+      <c r="C482">
+        <v>0.1181959564541213</v>
+      </c>
+      <c r="D482">
+        <v>6.3492063492063489E-2</v>
+      </c>
+      <c r="E482">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A483" s="3">
+        <v>44494</v>
+      </c>
+      <c r="B483">
+        <v>0.79487179487179482</v>
+      </c>
+      <c r="C483">
+        <v>0.1088646967340591</v>
+      </c>
+      <c r="D483">
+        <v>8.7301587301587297E-2</v>
+      </c>
+      <c r="E483">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A484" s="3">
+        <v>44495</v>
+      </c>
+      <c r="B484">
+        <v>0.79487179487179482</v>
+      </c>
+      <c r="C484">
+        <v>0.1088646967340591</v>
+      </c>
+      <c r="D484">
+        <v>8.7301587301587297E-2</v>
+      </c>
+      <c r="E484">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A485" s="3">
+        <v>44496</v>
+      </c>
+      <c r="B485">
+        <v>0.74358974358974361</v>
+      </c>
+      <c r="C485">
+        <v>0.11214953271028037</v>
+      </c>
+      <c r="D485">
+        <v>6.7729083665338641E-2</v>
+      </c>
+      <c r="E485">
+        <v>0.37931034482758619</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A486" s="3">
+        <v>44497</v>
+      </c>
+      <c r="B486">
+        <v>0.71794871794871795</v>
+      </c>
+      <c r="C486">
+        <v>0.1181959564541213</v>
+      </c>
+      <c r="D486">
+        <v>6.3492063492063489E-2</v>
+      </c>
+      <c r="E486">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A487" s="3">
+        <v>44498</v>
+      </c>
+      <c r="B487">
+        <v>0.71794871794871795</v>
+      </c>
+      <c r="C487">
+        <v>0.1181959564541213</v>
+      </c>
+      <c r="D487">
+        <v>6.3492063492063489E-2</v>
+      </c>
+      <c r="E487">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A488" s="3">
+        <v>44499</v>
+      </c>
+      <c r="B488">
+        <v>0.71794871794871795</v>
+      </c>
+      <c r="C488">
+        <v>0.1181959564541213</v>
+      </c>
+      <c r="D488">
+        <v>6.3492063492063489E-2</v>
+      </c>
+      <c r="E488">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A489" s="3">
+        <v>44500</v>
+      </c>
+      <c r="B489">
+        <v>0.71794871794871795</v>
+      </c>
+      <c r="C489">
+        <v>0.1181959564541213</v>
+      </c>
+      <c r="D489">
+        <v>6.3492063492063489E-2</v>
+      </c>
+      <c r="E489">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A490" s="3">
+        <v>44501</v>
+      </c>
+      <c r="B490">
+        <v>0.79487179487179482</v>
+      </c>
+      <c r="C490">
+        <v>0.1088646967340591</v>
+      </c>
+      <c r="D490">
+        <v>8.7301587301587297E-2</v>
+      </c>
+      <c r="E490">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A491" s="3">
+        <v>44502</v>
+      </c>
+      <c r="B491">
+        <v>0.79487179487179482</v>
+      </c>
+      <c r="C491">
+        <v>0.1088646967340591</v>
+      </c>
+      <c r="D491">
+        <v>8.7301587301587297E-2</v>
+      </c>
+      <c r="E491">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A492" s="3">
+        <v>44503</v>
+      </c>
+      <c r="B492">
+        <v>0.74358974358974361</v>
+      </c>
+      <c r="C492">
+        <v>0.11214953271028037</v>
+      </c>
+      <c r="D492">
+        <v>6.7729083665338641E-2</v>
+      </c>
+      <c r="E492">
+        <v>0.37931034482758619</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A493" s="3">
+        <v>44504</v>
+      </c>
+      <c r="B493">
+        <v>0.71794871794871795</v>
+      </c>
+      <c r="C493">
+        <v>0.1181959564541213</v>
+      </c>
+      <c r="D493">
+        <v>6.3492063492063489E-2</v>
+      </c>
+      <c r="E493">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A494" s="3">
+        <v>44505</v>
+      </c>
+      <c r="B494">
+        <v>0.71794871794871795</v>
+      </c>
+      <c r="C494">
+        <v>0.1181959564541213</v>
+      </c>
+      <c r="D494">
+        <v>6.3492063492063489E-2</v>
+      </c>
+      <c r="E494">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A495" s="3">
+        <v>44506</v>
+      </c>
+      <c r="B495">
+        <v>0.71794871794871795</v>
+      </c>
+      <c r="C495">
+        <v>0.1181959564541213</v>
+      </c>
+      <c r="D495">
+        <v>6.3492063492063489E-2</v>
+      </c>
+      <c r="E495">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A496" s="3">
+        <v>44507</v>
+      </c>
+      <c r="B496">
+        <v>0.71794871794871795</v>
+      </c>
+      <c r="C496">
+        <v>0.1181959564541213</v>
+      </c>
+      <c r="D496">
+        <v>6.3492063492063489E-2</v>
+      </c>
+      <c r="E496">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A497" s="3">
+        <v>44508</v>
+      </c>
+      <c r="B497">
+        <v>0.71794871794871795</v>
+      </c>
+      <c r="C497">
+        <v>0.1181959564541213</v>
+      </c>
+      <c r="D497">
+        <v>6.3492063492063489E-2</v>
+      </c>
+      <c r="E497">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A498" s="3">
+        <v>44509</v>
+      </c>
+      <c r="B498">
+        <v>0.71794871794871795</v>
+      </c>
+      <c r="C498">
+        <v>0.1181959564541213</v>
+      </c>
+      <c r="D498">
+        <v>6.3492063492063489E-2</v>
+      </c>
+      <c r="E498">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A499" s="3">
+        <v>44510</v>
+      </c>
+      <c r="B499">
+        <v>0.78125</v>
+      </c>
+      <c r="C499">
+        <v>0.1181959564541213</v>
+      </c>
+      <c r="D499">
+        <v>6.3492063492063489E-2</v>
+      </c>
+      <c r="E499">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A500" s="3">
+        <v>44511</v>
+      </c>
+      <c r="B500">
+        <v>0.78125</v>
+      </c>
+      <c r="C500">
+        <v>0.1181959564541213</v>
+      </c>
+      <c r="D500">
+        <v>6.3492063492063489E-2</v>
+      </c>
+      <c r="E500">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A501" s="3">
+        <v>44512</v>
+      </c>
+      <c r="B501">
+        <v>0.78125</v>
+      </c>
+      <c r="C501">
+        <v>0.1181959564541213</v>
+      </c>
+      <c r="D501">
+        <v>6.3492063492063489E-2</v>
+      </c>
+      <c r="E501">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A502" s="3">
+        <v>44513</v>
+      </c>
+      <c r="B502">
+        <v>0.78125</v>
+      </c>
+      <c r="C502">
+        <v>0.1181959564541213</v>
+      </c>
+      <c r="D502">
+        <v>6.3492063492063489E-2</v>
+      </c>
+      <c r="E502">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A503" s="3">
+        <v>44514</v>
+      </c>
+      <c r="B503">
+        <v>0.78125</v>
+      </c>
+      <c r="C503">
+        <v>0.1181959564541213</v>
+      </c>
+      <c r="D503">
+        <v>6.3492063492063489E-2</v>
+      </c>
+      <c r="E503">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A504" s="3">
+        <v>44515</v>
+      </c>
+      <c r="B504">
+        <v>0.78125</v>
+      </c>
+      <c r="C504">
+        <v>0.1181959564541213</v>
+      </c>
+      <c r="D504">
+        <v>6.3492063492063489E-2</v>
+      </c>
+      <c r="E504">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A505" s="3">
+        <v>44516</v>
+      </c>
+      <c r="B505">
+        <v>0.71875</v>
+      </c>
+      <c r="C505">
+        <v>0.11516314779270634</v>
+      </c>
+      <c r="D505">
+        <v>5.905511811023622E-2</v>
+      </c>
+      <c r="E505">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A506" s="3">
+        <v>44517</v>
+      </c>
+      <c r="B506">
+        <v>0.6875</v>
+      </c>
+      <c r="C506">
+        <v>0.10748560460652591</v>
+      </c>
+      <c r="D506">
+        <v>6.2992125984251968E-2</v>
+      </c>
+      <c r="E506">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A507" s="3">
+        <v>44518</v>
+      </c>
+      <c r="B507">
+        <v>0.6875</v>
+      </c>
+      <c r="C507">
+        <v>0.10748560460652591</v>
+      </c>
+      <c r="D507">
+        <v>6.2992125984251968E-2</v>
+      </c>
+      <c r="E507">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A508" s="3">
+        <v>44519</v>
+      </c>
+      <c r="B508">
+        <v>0.6875</v>
+      </c>
+      <c r="C508">
+        <v>0.10748560460652591</v>
+      </c>
+      <c r="D508">
+        <v>6.2992125984251968E-2</v>
+      </c>
+      <c r="E508">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A509" s="3">
+        <v>44520</v>
+      </c>
+      <c r="B509">
+        <v>0.6875</v>
+      </c>
+      <c r="C509">
+        <v>0.10748560460652591</v>
+      </c>
+      <c r="D509">
+        <v>6.2992125984251968E-2</v>
+      </c>
+      <c r="E509">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A510" s="3">
+        <v>44521</v>
+      </c>
+      <c r="B510">
+        <v>0.6875</v>
+      </c>
+      <c r="C510">
+        <v>0.10748560460652591</v>
+      </c>
+      <c r="D510">
+        <v>6.2992125984251968E-2</v>
+      </c>
+      <c r="E510">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A511" s="3">
+        <v>44522</v>
+      </c>
+      <c r="B511">
+        <v>0.6875</v>
+      </c>
+      <c r="C511">
+        <v>0.10748560460652591</v>
+      </c>
+      <c r="D511">
+        <v>6.2992125984251968E-2</v>
+      </c>
+      <c r="E511">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A512" s="3">
+        <v>44523</v>
+      </c>
+      <c r="B512">
+        <v>0.78125</v>
+      </c>
+      <c r="C512">
+        <v>9.2130518234165071E-2</v>
+      </c>
+      <c r="D512">
+        <v>5.5118110236220472E-2</v>
+      </c>
+      <c r="E512">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A513" s="3">
+        <v>44524</v>
+      </c>
+      <c r="B513">
+        <v>0.8125</v>
+      </c>
+      <c r="C513">
+        <v>9.4049904030710174E-2</v>
+      </c>
+      <c r="D513">
+        <v>5.5118110236220472E-2</v>
+      </c>
+      <c r="E513">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A514" s="3">
+        <v>44525</v>
+      </c>
+      <c r="B514">
+        <v>0.75</v>
+      </c>
+      <c r="C514">
+        <v>9.2130518234165071E-2</v>
+      </c>
+      <c r="D514">
+        <v>5.905511811023622E-2</v>
+      </c>
+      <c r="E514">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A515" s="3">
+        <v>44526</v>
+      </c>
+      <c r="B515">
+        <v>0.75</v>
+      </c>
+      <c r="C515">
+        <v>9.2130518234165071E-2</v>
+      </c>
+      <c r="D515">
+        <v>5.905511811023622E-2</v>
+      </c>
+      <c r="E515">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A516" s="3">
+        <v>44527</v>
+      </c>
+      <c r="B516">
+        <v>0.78125</v>
+      </c>
+      <c r="C516">
+        <v>0.1036468330134357</v>
+      </c>
+      <c r="D516">
+        <v>5.5118110236220472E-2</v>
+      </c>
+      <c r="E516">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A517" s="3">
+        <v>44528</v>
+      </c>
+      <c r="B517">
+        <v>0.78125</v>
+      </c>
+      <c r="C517">
+        <v>0.1036468330134357</v>
+      </c>
+      <c r="D517">
+        <v>5.5118110236220472E-2</v>
+      </c>
+      <c r="E517">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A518" s="3">
+        <v>44529</v>
+      </c>
+      <c r="B518">
+        <v>0.78125</v>
+      </c>
+      <c r="C518">
+        <v>0.1036468330134357</v>
+      </c>
+      <c r="D518">
+        <v>5.5118110236220472E-2</v>
+      </c>
+      <c r="E518">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A519" s="3">
+        <v>44530</v>
+      </c>
+      <c r="B519">
+        <v>0.78125</v>
+      </c>
+      <c r="C519">
+        <v>0.1036468330134357</v>
+      </c>
+      <c r="D519">
+        <v>5.5118110236220472E-2</v>
+      </c>
+      <c r="E519">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A520" s="3">
+        <v>44531</v>
+      </c>
+      <c r="B520">
+        <v>0.78125</v>
+      </c>
+      <c r="C520">
+        <v>0.1036468330134357</v>
+      </c>
+      <c r="D520">
+        <v>5.5118110236220472E-2</v>
+      </c>
+      <c r="E520">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A521" s="3">
+        <v>44532</v>
+      </c>
+      <c r="B521">
+        <v>0.78125</v>
+      </c>
+      <c r="C521">
+        <v>0.1036468330134357</v>
+      </c>
+      <c r="D521">
+        <v>5.5118110236220472E-2</v>
+      </c>
+      <c r="E521">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A522" s="3">
+        <v>44533</v>
+      </c>
+      <c r="B522">
+        <v>0.78125</v>
+      </c>
+      <c r="C522">
+        <v>0.1036468330134357</v>
+      </c>
+      <c r="D522">
+        <v>5.5118110236220472E-2</v>
+      </c>
+      <c r="E522">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A523" s="3">
+        <v>44534</v>
+      </c>
+      <c r="B523">
+        <v>0.65625</v>
+      </c>
+      <c r="C523">
+        <v>9.3235831809872036E-2</v>
+      </c>
+      <c r="D523">
+        <v>7.0866141732283464E-2</v>
+      </c>
+      <c r="E523">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A524" s="3">
+        <v>44535</v>
+      </c>
+      <c r="B524">
+        <v>0.65625</v>
+      </c>
+      <c r="C524">
+        <v>9.3235831809872036E-2</v>
+      </c>
+      <c r="D524">
+        <v>7.0866141732283464E-2</v>
+      </c>
+      <c r="E524">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A525" s="3">
+        <v>44536</v>
+      </c>
+      <c r="B525">
+        <v>0.65625</v>
+      </c>
+      <c r="C525">
+        <v>9.3235831809872036E-2</v>
+      </c>
+      <c r="D525">
+        <v>7.0866141732283464E-2</v>
+      </c>
+      <c r="E525">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A526" s="3">
+        <v>44537</v>
+      </c>
+      <c r="B526">
+        <v>0.65625</v>
+      </c>
+      <c r="C526">
+        <v>9.3235831809872036E-2</v>
+      </c>
+      <c r="D526">
+        <v>7.0866141732283464E-2</v>
+      </c>
+      <c r="E526">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A527" s="3">
+        <v>44538</v>
+      </c>
+      <c r="B527">
+        <v>0.65625</v>
+      </c>
+      <c r="C527">
+        <v>9.3235831809872036E-2</v>
+      </c>
+      <c r="D527">
+        <v>7.0866141732283464E-2</v>
+      </c>
+      <c r="E527">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A528" s="3">
+        <v>44539</v>
+      </c>
+      <c r="B528">
+        <v>0.65625</v>
+      </c>
+      <c r="C528">
+        <v>9.3235831809872036E-2</v>
+      </c>
+      <c r="D528">
+        <v>7.0866141732283464E-2</v>
+      </c>
+      <c r="E528">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A529" s="3">
+        <v>44540</v>
+      </c>
+      <c r="B529">
+        <v>0.65625</v>
+      </c>
+      <c r="C529">
+        <v>9.3235831809872036E-2</v>
+      </c>
+      <c r="D529">
+        <v>7.0866141732283464E-2</v>
+      </c>
+      <c r="E529">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A530" s="3">
+        <v>44541</v>
+      </c>
+      <c r="B530">
+        <v>0.65625</v>
+      </c>
+      <c r="C530">
+        <v>9.3235831809872036E-2</v>
+      </c>
+      <c r="D530">
+        <v>7.0866141732283464E-2</v>
+      </c>
+      <c r="E530">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A531" s="3">
+        <v>44542</v>
+      </c>
+      <c r="B531">
+        <v>0.65625</v>
+      </c>
+      <c r="C531">
+        <v>9.3235831809872036E-2</v>
+      </c>
+      <c r="D531">
+        <v>7.0866141732283464E-2</v>
+      </c>
+      <c r="E531">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A532" s="3">
+        <v>44543</v>
+      </c>
+      <c r="B532">
+        <v>0.65625</v>
+      </c>
+      <c r="C532">
+        <v>9.3235831809872036E-2</v>
+      </c>
+      <c r="D532">
+        <v>7.0866141732283464E-2</v>
+      </c>
+      <c r="E532">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A533" s="3">
+        <v>44544</v>
+      </c>
+      <c r="B533">
+        <v>0.65625</v>
+      </c>
+      <c r="C533">
+        <v>9.3235831809872036E-2</v>
+      </c>
+      <c r="D533">
+        <v>7.0866141732283464E-2</v>
+      </c>
+      <c r="E533">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A534" s="3">
+        <v>44545</v>
+      </c>
+      <c r="B534">
+        <v>0.65625</v>
+      </c>
+      <c r="C534">
+        <v>9.3235831809872036E-2</v>
+      </c>
+      <c r="D534">
+        <v>7.0866141732283464E-2</v>
+      </c>
+      <c r="E534">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A535" s="3">
+        <v>44546</v>
+      </c>
+      <c r="B535">
+        <v>0.65625</v>
+      </c>
+      <c r="C535">
+        <v>9.3235831809872036E-2</v>
+      </c>
+      <c r="D535">
+        <v>7.0866141732283464E-2</v>
+      </c>
+      <c r="E535">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A536" s="3">
+        <v>44547</v>
+      </c>
+      <c r="B536">
+        <v>0.65625</v>
+      </c>
+      <c r="C536">
+        <v>9.3235831809872036E-2</v>
+      </c>
+      <c r="D536">
+        <v>7.0866141732283464E-2</v>
+      </c>
+      <c r="E536">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A537" s="3">
+        <v>44548</v>
+      </c>
+      <c r="B537">
+        <v>0.65625</v>
+      </c>
+      <c r="C537">
+        <v>9.3235831809872036E-2</v>
+      </c>
+      <c r="D537">
+        <v>7.0866141732283464E-2</v>
+      </c>
+      <c r="E537">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A538" s="3">
+        <v>44549</v>
+      </c>
+      <c r="B538">
+        <v>0.65625</v>
+      </c>
+      <c r="C538">
+        <v>9.3235831809872036E-2</v>
+      </c>
+      <c r="D538">
+        <v>7.0866141732283464E-2</v>
+      </c>
+      <c r="E538">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A539" s="3">
+        <v>44550</v>
+      </c>
+      <c r="B539">
+        <v>0.65625</v>
+      </c>
+      <c r="C539">
+        <v>9.3235831809871994E-2</v>
+      </c>
+      <c r="D539">
+        <v>7.0866141732283464E-2</v>
+      </c>
+      <c r="E539">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A540" s="3">
+        <v>44551</v>
+      </c>
+      <c r="B540">
+        <v>0.65625</v>
+      </c>
+      <c r="C540">
+        <v>9.3235831809871994E-2</v>
+      </c>
+      <c r="D540">
+        <v>7.0866141732283464E-2</v>
+      </c>
+      <c r="E540">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A541" s="3">
+        <v>44552</v>
+      </c>
+      <c r="B541" s="2">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="C541">
+        <v>9.9800399201596807E-2</v>
+      </c>
+      <c r="D541">
+        <v>5.5776892430278883E-2</v>
+      </c>
+      <c r="E541">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A542" s="3">
+        <v>44553</v>
+      </c>
+      <c r="B542" s="2">
+        <v>0.48148148148148145</v>
+      </c>
+      <c r="C542">
+        <v>0.10358565737051793</v>
+      </c>
+      <c r="D542">
+        <v>6.7460317460317457E-2</v>
+      </c>
+      <c r="E542">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A543" s="3">
+        <v>44554</v>
+      </c>
+      <c r="B543" s="2">
+        <v>0.51851851851851849</v>
+      </c>
+      <c r="C543">
+        <v>0.10358565737051793</v>
+      </c>
+      <c r="D543">
+        <v>7.5396825396825393E-2</v>
+      </c>
+      <c r="E543">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A544" s="3">
+        <v>44555</v>
+      </c>
+      <c r="B544" s="2">
+        <v>0.51851851851851849</v>
+      </c>
+      <c r="C544">
+        <v>0.10358565737051793</v>
+      </c>
+      <c r="D544">
+        <v>7.5396825396825393E-2</v>
+      </c>
+      <c r="E544">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A545" s="3">
+        <v>44556</v>
+      </c>
+      <c r="B545" s="2">
+        <v>0.51851851851851849</v>
+      </c>
+      <c r="C545">
+        <v>0.10358565737051793</v>
+      </c>
+      <c r="D545">
+        <v>7.5396825396825393E-2</v>
+      </c>
+      <c r="E545">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A546" s="3">
+        <v>44557</v>
+      </c>
+      <c r="B546" s="2">
+        <v>0.51851851851851849</v>
+      </c>
+      <c r="C546">
+        <v>0.10358565737051793</v>
+      </c>
+      <c r="D546">
+        <v>7.5396825396825393E-2</v>
+      </c>
+      <c r="E546">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A547" s="3">
+        <v>44558</v>
+      </c>
+      <c r="B547" s="2">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="C547">
+        <v>6.9721115537848599E-2</v>
+      </c>
+      <c r="D547">
+        <v>4.3650793650793648E-2</v>
+      </c>
+      <c r="E547">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A548" s="3">
+        <v>44559</v>
+      </c>
+      <c r="B548" s="2">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="C548">
+        <v>8.1673306772908363E-2</v>
+      </c>
+      <c r="D548">
+        <v>4.3650793650793648E-2</v>
+      </c>
+      <c r="E548">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A549" s="3">
+        <v>44560</v>
+      </c>
+      <c r="B549" s="2">
+        <v>0.51851851851851849</v>
+      </c>
+      <c r="C549">
+        <v>8.565737051792828E-2</v>
+      </c>
+      <c r="D549">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="E549">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A550" s="3">
+        <v>44561</v>
+      </c>
+      <c r="B550" s="2">
+        <v>0.51851851851851849</v>
+      </c>
+      <c r="C550">
+        <v>9.1633466135458169E-2</v>
+      </c>
+      <c r="D550">
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="E550">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A551" s="3">
+        <v>44562</v>
+      </c>
+      <c r="B551" s="2">
+        <v>0.51851851851851849</v>
+      </c>
+      <c r="C551">
+        <v>9.1633466135458169E-2</v>
+      </c>
+      <c r="D551">
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="E551">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A552" s="3">
+        <v>44563</v>
+      </c>
+      <c r="B552" s="2">
+        <v>0.51851851851851849</v>
+      </c>
+      <c r="C552">
+        <v>9.1633466135458169E-2</v>
+      </c>
+      <c r="D552">
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="E552">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A553" s="3">
+        <v>44564</v>
+      </c>
+      <c r="B553" s="2">
+        <v>0.51851851851851849</v>
+      </c>
+      <c r="C553">
+        <v>9.1633466135458169E-2</v>
+      </c>
+      <c r="D553">
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="E553">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A554" s="3">
+        <v>44565</v>
+      </c>
+      <c r="B554" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C554">
+        <v>0.11776447105788423</v>
+      </c>
+      <c r="D554">
+        <v>6.3745019920318724E-2</v>
+      </c>
+      <c r="E554">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A555" s="3">
+        <v>44566</v>
+      </c>
+      <c r="B555" s="2">
+        <v>0.62962962962962965</v>
+      </c>
+      <c r="C555">
+        <v>0.1217564870259481</v>
+      </c>
+      <c r="D555">
+        <v>6.3745019920318724E-2</v>
+      </c>
+      <c r="E555">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A556" s="3">
+        <v>44567</v>
+      </c>
+      <c r="B556" s="2">
+        <v>0.62962962962962965</v>
+      </c>
+      <c r="C556">
+        <v>0.15510204081632653</v>
+      </c>
+      <c r="D556">
+        <v>7.0833333333333331E-2</v>
+      </c>
+      <c r="E556">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A557" s="3">
+        <v>44568</v>
+      </c>
+      <c r="B557" s="2">
+        <v>0.62962962962962965</v>
+      </c>
+      <c r="C557">
+        <v>0.17959183673469387</v>
+      </c>
+      <c r="D557">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="E557">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A558" s="3">
+        <v>44569</v>
+      </c>
+      <c r="B558" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C558">
+        <v>0.18255578093306288</v>
+      </c>
+      <c r="D558">
+        <v>9.8765432098765427E-2</v>
+      </c>
+      <c r="E558">
+        <v>0.65384615384615385</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A559" s="3">
+        <v>44570</v>
+      </c>
+      <c r="B559" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C559">
+        <v>0.18255578093306288</v>
+      </c>
+      <c r="D559">
+        <v>9.8765432098765427E-2</v>
+      </c>
+      <c r="E559">
+        <v>0.65384615384615385</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A560" s="3">
+        <v>44571</v>
+      </c>
+      <c r="B560" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C560">
+        <v>0.18255578093306288</v>
+      </c>
+      <c r="D560">
+        <v>9.8765432098765427E-2</v>
+      </c>
+      <c r="E560">
+        <v>0.65384615384615385</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A561" s="3">
+        <v>44572</v>
+      </c>
+      <c r="B561" s="2">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="C561">
+        <v>0.23170731707317074</v>
+      </c>
+      <c r="D561">
+        <v>0.11570247933884298</v>
+      </c>
+      <c r="E561">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A562" s="3">
+        <v>44573</v>
+      </c>
+      <c r="B562" s="2">
+        <v>0.81481481481481477</v>
+      </c>
+      <c r="C562">
+        <v>0.35326086956521741</v>
+      </c>
+      <c r="D562">
+        <v>0.10126582278481013</v>
+      </c>
+      <c r="E562">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A563" s="3">
+        <v>44574</v>
+      </c>
+      <c r="B563" s="2">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="C563">
+        <v>0.35326086956521741</v>
+      </c>
+      <c r="D563">
+        <v>0.11428571428571428</v>
+      </c>
+      <c r="E563">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A564" s="3">
+        <v>44575</v>
+      </c>
+      <c r="B564" s="2">
+        <v>0.81481481481481477</v>
+      </c>
+      <c r="C564">
+        <v>0.34601449275362317</v>
+      </c>
+      <c r="D564">
+        <v>0.11382113821138211</v>
+      </c>
+      <c r="E564">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A565" s="3">
+        <v>44576</v>
+      </c>
+      <c r="B565" s="2">
+        <v>0.81481481481481477</v>
+      </c>
+      <c r="C565">
+        <v>0.34601449275362317</v>
+      </c>
+      <c r="D565">
+        <v>0.11382113821138211</v>
+      </c>
+      <c r="E565">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A566" s="3">
+        <v>44577</v>
+      </c>
+      <c r="B566" s="2">
+        <v>0.81481481481481477</v>
+      </c>
+      <c r="C566">
+        <v>0.34601449275362317</v>
+      </c>
+      <c r="D566">
+        <v>0.11382113821138211</v>
+      </c>
+      <c r="E566">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A567" s="3">
+        <v>44578</v>
+      </c>
+      <c r="B567" s="2">
+        <v>0.81481481481481477</v>
+      </c>
+      <c r="C567">
+        <v>0.34601449275362317</v>
+      </c>
+      <c r="D567">
+        <v>0.11382113821138211</v>
+      </c>
+      <c r="E567">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A568" s="3">
+        <v>44579</v>
+      </c>
+      <c r="B568" s="2">
+        <v>0.81481481481481477</v>
+      </c>
+      <c r="C568">
+        <v>0.27822580645161288</v>
+      </c>
+      <c r="D568">
+        <v>0.12195121951219512</v>
+      </c>
+      <c r="E568">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A569" s="3">
+        <v>44580</v>
+      </c>
+      <c r="B569" s="2">
+        <v>0.81481481481481477</v>
+      </c>
+      <c r="C569">
+        <v>0.32534930139720558</v>
+      </c>
+      <c r="D569">
+        <v>0.20717131474103587</v>
+      </c>
+      <c r="E569">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A570" s="3">
+        <v>44581</v>
+      </c>
+      <c r="B570" s="2">
+        <v>0.81481481481481477</v>
+      </c>
+      <c r="C570">
+        <v>0.32534930139720558</v>
+      </c>
+      <c r="D570">
+        <v>0.20717131474103587</v>
+      </c>
+      <c r="E570">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A571" s="3">
+        <v>44582</v>
+      </c>
+      <c r="B571" s="2">
+        <v>0.81481481481481477</v>
+      </c>
+      <c r="C571">
+        <v>0.35943775100401604</v>
+      </c>
+      <c r="D571">
+        <v>0.18145161290322581</v>
+      </c>
+      <c r="E571">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A572" s="3">
+        <v>44583</v>
+      </c>
+      <c r="B572" s="2">
+        <v>0.81481481481481477</v>
+      </c>
+      <c r="C572">
+        <v>0.35943775100401604</v>
+      </c>
+      <c r="D572">
+        <v>0.18145161290322581</v>
+      </c>
+      <c r="E572">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A573" s="3">
+        <v>44584</v>
+      </c>
+      <c r="B573" s="2">
+        <v>0.81481481481481477</v>
+      </c>
+      <c r="C573">
+        <v>0.35943775100401604</v>
+      </c>
+      <c r="D573">
+        <v>0.18145161290322581</v>
+      </c>
+      <c r="E573">
+        <v>0.88</v>
       </c>
     </row>
   </sheetData>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1045E77-29F2-46DB-AD5F-132FC0BEB466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7D78DE-79E6-4DB3-9A49-F8E9128A1155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,11 +109,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E573"/>
+  <dimension ref="A1:E579"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A543" workbookViewId="0">
-      <selection activeCell="B541" sqref="B541:B573"/>
+    <sheetView tabSelected="1" topLeftCell="A546" workbookViewId="0">
+      <selection activeCell="F574" sqref="F574"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9051,6 +9056,108 @@
         <v>0.88</v>
       </c>
     </row>
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A574" s="4">
+        <v>44585</v>
+      </c>
+      <c r="B574" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="C574" s="6">
+        <v>0.40417457305502846</v>
+      </c>
+      <c r="D574" s="7">
+        <v>0.22672064777327935</v>
+      </c>
+      <c r="E574" s="8">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A575" s="4">
+        <v>44586</v>
+      </c>
+      <c r="B575" s="5">
+        <v>0.78125</v>
+      </c>
+      <c r="C575" s="6">
+        <v>0.38519924098671726</v>
+      </c>
+      <c r="D575" s="7">
+        <v>0.25101214574898784</v>
+      </c>
+      <c r="E575" s="8">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A576" s="4">
+        <v>44587</v>
+      </c>
+      <c r="B576" s="5">
+        <v>0.64516129032258063</v>
+      </c>
+      <c r="C576" s="6">
+        <v>0.40796963946869069</v>
+      </c>
+      <c r="D576" s="7">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="E576" s="8">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A577" s="4">
+        <v>44588</v>
+      </c>
+      <c r="B577" s="5">
+        <v>0.64516129032258063</v>
+      </c>
+      <c r="C577" s="6">
+        <v>0.40796963946869069</v>
+      </c>
+      <c r="D577" s="7">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="E577" s="8">
+        <v>0.61538461538461542</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A578" s="4">
+        <v>44589</v>
+      </c>
+      <c r="B578" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="C578" s="6">
+        <v>0.37977099236641221</v>
+      </c>
+      <c r="D578" s="7">
+        <v>0.21991701244813278</v>
+      </c>
+      <c r="E578" s="8">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A579" s="4">
+        <v>44590</v>
+      </c>
+      <c r="B579" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="C579" s="6">
+        <v>0.37977099236641221</v>
+      </c>
+      <c r="D579" s="7">
+        <v>0.21991701244813278</v>
+      </c>
+      <c r="E579" s="8">
+        <v>0.68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7D78DE-79E6-4DB3-9A49-F8E9128A1155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8098BD50-7259-4291-B450-26D2DD865CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -123,7 +125,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -399,13 +412,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E579"/>
+  <dimension ref="A1:E586"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A546" workbookViewId="0">
-      <selection activeCell="F574" sqref="F574"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A552" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G581" sqref="G581"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -9158,6 +9175,125 @@
         <v>0.68</v>
       </c>
     </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A580" s="4">
+        <v>44591</v>
+      </c>
+      <c r="B580" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="C580">
+        <v>0.37977099236641221</v>
+      </c>
+      <c r="D580">
+        <v>0.21991701244813278</v>
+      </c>
+      <c r="E580">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A581" s="4">
+        <v>44592</v>
+      </c>
+      <c r="B581" s="8">
+        <v>0.90322580645161288</v>
+      </c>
+      <c r="C581">
+        <v>0.34923664122137404</v>
+      </c>
+      <c r="D581">
+        <v>0.17427385892116182</v>
+      </c>
+      <c r="E581">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A582" s="4">
+        <v>44593</v>
+      </c>
+      <c r="B582" s="8">
+        <v>0.90322580645161288</v>
+      </c>
+      <c r="C582">
+        <v>0.33962264150943394</v>
+      </c>
+      <c r="D582">
+        <v>0.17813765182186234</v>
+      </c>
+      <c r="E582">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A583" s="4">
+        <v>44594</v>
+      </c>
+      <c r="B583" s="8">
+        <v>0.90322580645161288</v>
+      </c>
+      <c r="C583">
+        <v>0.33396226415094338</v>
+      </c>
+      <c r="D583">
+        <v>0.18218623481781376</v>
+      </c>
+      <c r="E583">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A584" s="4">
+        <v>44595</v>
+      </c>
+      <c r="B584" s="8">
+        <v>0.90322580645161288</v>
+      </c>
+      <c r="C584">
+        <v>0.30245746691871456</v>
+      </c>
+      <c r="D584">
+        <v>0.1951219512195122</v>
+      </c>
+      <c r="E584">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A585" s="4">
+        <v>44596</v>
+      </c>
+      <c r="B585" s="8">
+        <v>0.90322580645161288</v>
+      </c>
+      <c r="C585">
+        <v>0.30056710775047257</v>
+      </c>
+      <c r="D585">
+        <v>0.17886178861788618</v>
+      </c>
+      <c r="E585">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A586" s="4">
+        <v>44597</v>
+      </c>
+      <c r="B586">
+        <v>0.90322580645161288</v>
+      </c>
+      <c r="C586">
+        <v>0.30056710775047257</v>
+      </c>
+      <c r="D586">
+        <v>0.17886178861788618</v>
+      </c>
+      <c r="E586">
+        <v>0.52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEI-02\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8098BD50-7259-4291-B450-26D2DD865CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3851C3-D411-41B2-B14E-A736A91EF6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,7 +111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -121,22 +121,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -412,11 +402,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E586"/>
+  <dimension ref="A1:E593"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A552" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G581" sqref="G581"/>
+      <pane ySplit="1" topLeftCell="A561" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E589" sqref="E589"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9294,6 +9284,125 @@
         <v>0.52</v>
       </c>
     </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A587" s="4">
+        <v>44598</v>
+      </c>
+      <c r="B587" s="9">
+        <v>0.90625</v>
+      </c>
+      <c r="C587" s="9">
+        <v>0.30056710775047257</v>
+      </c>
+      <c r="D587" s="9">
+        <v>0.17886178861788618</v>
+      </c>
+      <c r="E587" s="9">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A588" s="4">
+        <v>44599</v>
+      </c>
+      <c r="B588" s="9">
+        <v>0.96875</v>
+      </c>
+      <c r="C588" s="9">
+        <v>0.31238095238095237</v>
+      </c>
+      <c r="D588" s="9">
+        <v>0.21900826446280991</v>
+      </c>
+      <c r="E588" s="9">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A589" s="4">
+        <v>44600</v>
+      </c>
+      <c r="B589" s="9">
+        <v>0.9375</v>
+      </c>
+      <c r="C589" s="9">
+        <v>0.29489603024574668</v>
+      </c>
+      <c r="D589" s="9">
+        <v>0.22357723577235772</v>
+      </c>
+      <c r="E589" s="9">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A590" s="4">
+        <v>44601</v>
+      </c>
+      <c r="B590" s="9">
+        <v>0.875</v>
+      </c>
+      <c r="C590" s="9">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D590" s="9">
+        <v>0.22857142857142856</v>
+      </c>
+      <c r="E590" s="9">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A591" s="4">
+        <v>44602</v>
+      </c>
+      <c r="B591" s="9">
+        <v>0.90625</v>
+      </c>
+      <c r="C591" s="9">
+        <v>0.2504708097928437</v>
+      </c>
+      <c r="D591" s="9">
+        <v>0.17959183673469387</v>
+      </c>
+      <c r="E591" s="9">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A592" s="4">
+        <v>44603</v>
+      </c>
+      <c r="B592" s="9">
+        <v>0.90625</v>
+      </c>
+      <c r="C592" s="9">
+        <v>0.24339622641509434</v>
+      </c>
+      <c r="D592" s="9">
+        <v>0.17622950819672131</v>
+      </c>
+      <c r="E592" s="9">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A593" s="4">
+        <v>44604</v>
+      </c>
+      <c r="B593" s="9">
+        <v>0.90625</v>
+      </c>
+      <c r="C593" s="9">
+        <v>0.24339622641509434</v>
+      </c>
+      <c r="D593" s="9">
+        <v>0.17622950819672131</v>
+      </c>
+      <c r="E593" s="9">
+        <v>0.64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEI-02\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3851C3-D411-41B2-B14E-A736A91EF6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13777FB-73DA-4D48-94B1-8D1E72E1DD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,13 +111,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -402,11 +407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E593"/>
+  <dimension ref="A1:E600"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A561" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E589" sqref="E589"/>
+      <pane ySplit="1" topLeftCell="A576" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H600" sqref="H600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9403,6 +9408,125 @@
         <v>0.64</v>
       </c>
     </row>
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A594" s="10">
+        <v>44605</v>
+      </c>
+      <c r="B594" s="11">
+        <v>0.90625</v>
+      </c>
+      <c r="C594" s="13">
+        <v>0.24339622641509434</v>
+      </c>
+      <c r="D594" s="14">
+        <v>0.17622950819672131</v>
+      </c>
+      <c r="E594" s="12">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A595" s="10">
+        <v>44606</v>
+      </c>
+      <c r="B595" s="11">
+        <v>0.90625</v>
+      </c>
+      <c r="C595" s="13">
+        <v>0.21856866537717601</v>
+      </c>
+      <c r="D595" s="14">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="E595" s="12">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A596" s="10">
+        <v>44607</v>
+      </c>
+      <c r="B596" s="11">
+        <v>0.90625</v>
+      </c>
+      <c r="C596" s="13">
+        <v>0.21165048543689322</v>
+      </c>
+      <c r="D596" s="14">
+        <v>0.1394422310756972</v>
+      </c>
+      <c r="E596" s="12">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A597" s="10">
+        <v>44608</v>
+      </c>
+      <c r="B597" s="11">
+        <v>0.84375</v>
+      </c>
+      <c r="C597" s="13">
+        <v>0.19961612284069097</v>
+      </c>
+      <c r="D597" s="14">
+        <v>0.14007782101167315</v>
+      </c>
+      <c r="E597" s="12">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A598" s="10">
+        <v>44609</v>
+      </c>
+      <c r="B598" s="11">
+        <v>0.875</v>
+      </c>
+      <c r="C598" s="13">
+        <v>0.18511066398390341</v>
+      </c>
+      <c r="D598" s="14">
+        <v>0.14163090128755365</v>
+      </c>
+      <c r="E598" s="12">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A599" s="10">
+        <v>44610</v>
+      </c>
+      <c r="B599" s="11">
+        <v>0.875</v>
+      </c>
+      <c r="C599" s="13">
+        <v>0.1854043392504931</v>
+      </c>
+      <c r="D599" s="14">
+        <v>0.12704918032786885</v>
+      </c>
+      <c r="E599" s="12">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A600" s="10">
+        <v>44611</v>
+      </c>
+      <c r="B600" s="11">
+        <v>0.875</v>
+      </c>
+      <c r="C600" s="13">
+        <v>0.1854043392504931</v>
+      </c>
+      <c r="D600" s="14">
+        <v>0.12704918032786885</v>
+      </c>
+      <c r="E600" s="12">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEI-02\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13777FB-73DA-4D48-94B1-8D1E72E1DD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CE85E2-2A59-445F-B22C-5C61EDC6D4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,7 +131,48 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -407,16 +448,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E600"/>
+  <dimension ref="A1:E614"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A576" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H600" sqref="H600"/>
+      <pane ySplit="1" topLeftCell="A583" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E614" sqref="E614"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -9527,6 +9568,244 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
+    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A601" s="10">
+        <v>44612</v>
+      </c>
+      <c r="B601" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="C601">
+        <v>0.19354838709677419</v>
+      </c>
+      <c r="D601">
+        <v>0.14163090128755365</v>
+      </c>
+      <c r="E601">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A602" s="10">
+        <v>44613</v>
+      </c>
+      <c r="B602" s="14">
+        <v>0.9375</v>
+      </c>
+      <c r="C602">
+        <v>0.1925343811394892</v>
+      </c>
+      <c r="D602">
+        <v>0.11836734693877551</v>
+      </c>
+      <c r="E602">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A603" s="10">
+        <v>44614</v>
+      </c>
+      <c r="B603" s="14">
+        <v>0.90625</v>
+      </c>
+      <c r="C603">
+        <v>0.1925343811394892</v>
+      </c>
+      <c r="D603">
+        <v>0.11836734693877551</v>
+      </c>
+      <c r="E603">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A604" s="10">
+        <v>44615</v>
+      </c>
+      <c r="B604" s="14">
+        <v>0.90625</v>
+      </c>
+      <c r="C604">
+        <v>0.20250521920668058</v>
+      </c>
+      <c r="D604">
+        <v>0.13023255813953488</v>
+      </c>
+      <c r="E604">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A605" s="10">
+        <v>44616</v>
+      </c>
+      <c r="B605" s="14">
+        <v>0.90625</v>
+      </c>
+      <c r="C605">
+        <v>0.21294363256784968</v>
+      </c>
+      <c r="D605">
+        <v>0.13023255813953488</v>
+      </c>
+      <c r="E605">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A606" s="10">
+        <v>44617</v>
+      </c>
+      <c r="B606" s="14">
+        <v>0.84848484848484851</v>
+      </c>
+      <c r="C606">
+        <v>0.21294363256784968</v>
+      </c>
+      <c r="D606">
+        <v>9.1428571428571428E-2</v>
+      </c>
+      <c r="E606">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A607" s="10">
+        <v>44618</v>
+      </c>
+      <c r="B607" s="14">
+        <v>0.84848484848484851</v>
+      </c>
+      <c r="C607">
+        <v>0.21294363256784968</v>
+      </c>
+      <c r="D607">
+        <v>9.1428571428571428E-2</v>
+      </c>
+      <c r="E607">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A608" s="10">
+        <v>44619</v>
+      </c>
+      <c r="B608" s="14">
+        <v>0.84848484848484851</v>
+      </c>
+      <c r="C608">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D608">
+        <v>0.27058823529411763</v>
+      </c>
+      <c r="E608">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A609" s="10">
+        <v>44620</v>
+      </c>
+      <c r="B609" s="14">
+        <v>0.84848484848484851</v>
+      </c>
+      <c r="C609">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D609">
+        <v>0.27058823529411763</v>
+      </c>
+      <c r="E609">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A610" s="10">
+        <v>44621</v>
+      </c>
+      <c r="B610" s="14">
+        <v>0.78125</v>
+      </c>
+      <c r="C610">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D610">
+        <v>0.1975736568457539</v>
+      </c>
+      <c r="E610">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A611" s="10">
+        <v>44622</v>
+      </c>
+      <c r="B611" s="14">
+        <v>0.71875</v>
+      </c>
+      <c r="C611">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D611">
+        <v>0.19204152249134948</v>
+      </c>
+      <c r="E611">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A612" s="10">
+        <v>44623</v>
+      </c>
+      <c r="B612" s="14">
+        <v>0.90625</v>
+      </c>
+      <c r="C612">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D612">
+        <v>0.19748653500897667</v>
+      </c>
+      <c r="E612">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A613" s="10">
+        <v>44624</v>
+      </c>
+      <c r="B613" s="14">
+        <v>0.84375</v>
+      </c>
+      <c r="C613">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D613">
+        <v>0.2</v>
+      </c>
+      <c r="E613">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A614" s="10">
+        <v>44625</v>
+      </c>
+      <c r="B614" s="14">
+        <v>0.84375</v>
+      </c>
+      <c r="C614">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D614">
+        <v>0.2</v>
+      </c>
+      <c r="E614">
+        <v>0.48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEI-02\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CE85E2-2A59-445F-B22C-5C61EDC6D4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACF6CA8-2066-4D13-9CE0-4BC92749B584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,7 +111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -127,52 +127,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -448,11 +412,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E614"/>
+  <dimension ref="A1:E621"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A583" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E614" sqref="E614"/>
+      <pane ySplit="1" topLeftCell="A589" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G616" sqref="G616"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9806,6 +9770,125 @@
         <v>0.48</v>
       </c>
     </row>
+    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A615" s="15">
+        <v>44626</v>
+      </c>
+      <c r="B615" s="16">
+        <v>0.84375</v>
+      </c>
+      <c r="C615" s="18">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D615" s="19">
+        <v>8.6065573770491802E-2</v>
+      </c>
+      <c r="E615" s="17">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A616" s="15">
+        <v>44627</v>
+      </c>
+      <c r="B616" s="16">
+        <v>0.8529411764705882</v>
+      </c>
+      <c r="C616" s="18">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D616" s="19">
+        <v>7.2727272727272724E-2</v>
+      </c>
+      <c r="E616" s="17">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A617" s="15">
+        <v>44628</v>
+      </c>
+      <c r="B617" s="16">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="C617" s="18">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D617" s="19">
+        <v>7.2727272727272724E-2</v>
+      </c>
+      <c r="E617" s="17">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A618" s="15">
+        <v>44629</v>
+      </c>
+      <c r="B618" s="16">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="C618" s="18">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D618" s="19">
+        <v>6.363636363636363E-2</v>
+      </c>
+      <c r="E618" s="17">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A619" s="15">
+        <v>44630</v>
+      </c>
+      <c r="B619" s="16">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="C619" s="18">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D619" s="19">
+        <v>7.2727272727272724E-2</v>
+      </c>
+      <c r="E619" s="17">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A620" s="15">
+        <v>44631</v>
+      </c>
+      <c r="B620" s="16">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="C620" s="18">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D620" s="19">
+        <v>7.5268817204301078E-2</v>
+      </c>
+      <c r="E620" s="17">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A621" s="15">
+        <v>44632</v>
+      </c>
+      <c r="B621" s="16">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="C621" s="18">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D621" s="19">
+        <v>7.5268817204301078E-2</v>
+      </c>
+      <c r="E621" s="17">
+        <v>0.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEI-02\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACF6CA8-2066-4D13-9CE0-4BC92749B584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8451A4-1197-49B2-B5EE-1C159520DA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,13 +111,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -412,11 +417,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E621"/>
+  <dimension ref="A1:E628"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A589" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G616" sqref="G616"/>
+      <pane ySplit="1" topLeftCell="A598" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E623" sqref="E623"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9889,6 +9894,125 @@
         <v>0.4</v>
       </c>
     </row>
+    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A622" s="20">
+        <v>44633</v>
+      </c>
+      <c r="B622" s="21">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="C622" s="22">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D622" s="23">
+        <v>7.5268817204301078E-2</v>
+      </c>
+      <c r="E622" s="24">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A623" s="20">
+        <v>44634</v>
+      </c>
+      <c r="B623" s="21">
+        <v>0.85185185185185186</v>
+      </c>
+      <c r="C623" s="22">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D623" s="23">
+        <v>7.7625570776255703E-2</v>
+      </c>
+      <c r="E623" s="24">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A624" s="20">
+        <v>44635</v>
+      </c>
+      <c r="B624" s="21">
+        <v>1</v>
+      </c>
+      <c r="C624" s="22">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D624" s="23">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="E624" s="24">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A625" s="20">
+        <v>44636</v>
+      </c>
+      <c r="B625" s="21">
+        <v>0.85185185185185186</v>
+      </c>
+      <c r="C625" s="22">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D625" s="23">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="E625" s="24">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A626" s="20">
+        <v>44637</v>
+      </c>
+      <c r="B626" s="21">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="C626" s="22">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D626" s="23">
+        <v>7.7625570776255703E-2</v>
+      </c>
+      <c r="E626" s="24">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A627" s="20">
+        <v>44638</v>
+      </c>
+      <c r="B627" s="21">
+        <v>1</v>
+      </c>
+      <c r="C627" s="22">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D627" s="23">
+        <v>7.3059360730593603E-2</v>
+      </c>
+      <c r="E627" s="24">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A628" s="20">
+        <v>44639</v>
+      </c>
+      <c r="B628" s="21">
+        <v>1</v>
+      </c>
+      <c r="C628" s="22">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D628" s="23">
+        <v>7.3059360730593603E-2</v>
+      </c>
+      <c r="E628" s="24">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEI-02\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8451A4-1197-49B2-B5EE-1C159520DA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -54,7 +53,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -416,12 +415,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E628"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E634"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A598" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E623" sqref="E623"/>
+      <pane ySplit="1" topLeftCell="A616" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F634" sqref="F634"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10013,6 +10012,24 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A629" s="20"/>
+    </row>
+    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A630" s="20"/>
+    </row>
+    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A631" s="20"/>
+    </row>
+    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A632" s="20"/>
+    </row>
+    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A633" s="20"/>
+    </row>
+    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A634" s="20"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEI-02\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8451A4-1197-49B2-B5EE-1C159520DA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -415,12 +416,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E634"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E628"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A616" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F634" sqref="F634"/>
+      <pane ySplit="1" topLeftCell="A598" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E623" sqref="E623"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10012,24 +10013,6 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A629" s="20"/>
-    </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A630" s="20"/>
-    </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A631" s="20"/>
-    </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A632" s="20"/>
-    </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A633" s="20"/>
-    </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A634" s="20"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -140,7 +140,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -416,11 +437,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E634"/>
+  <dimension ref="A1:E635"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A616" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F634" sqref="F634"/>
+      <pane ySplit="1" topLeftCell="A611" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I630" sqref="I630"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10013,22 +10034,123 @@
       </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A629" s="20"/>
+      <c r="A629" s="20">
+        <v>44640</v>
+      </c>
+      <c r="B629">
+        <v>1</v>
+      </c>
+      <c r="C629">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D629">
+        <v>7.3059360730593603E-2</v>
+      </c>
+      <c r="E629">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A630" s="20"/>
+      <c r="A630" s="20">
+        <v>44641</v>
+      </c>
+      <c r="B630">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="C630">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D630">
+        <v>8.3798882681564241E-2</v>
+      </c>
+      <c r="E630">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A631" s="20"/>
+      <c r="A631" s="20">
+        <v>44642</v>
+      </c>
+      <c r="B631">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="C631">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D631">
+        <v>8.3798882681564241E-2</v>
+      </c>
+      <c r="E631">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A632" s="20"/>
+      <c r="A632" s="20">
+        <v>44643</v>
+      </c>
+      <c r="B632">
+        <v>0.85185185185185186</v>
+      </c>
+      <c r="C632">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D632">
+        <v>6.1403508771929821E-2</v>
+      </c>
+      <c r="E632">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A633" s="20"/>
+      <c r="A633" s="20">
+        <v>44644</v>
+      </c>
+      <c r="B633">
+        <v>0.85185185185185186</v>
+      </c>
+      <c r="C633">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D633">
+        <v>6.1403508771929821E-2</v>
+      </c>
+      <c r="E633">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A634" s="20"/>
+      <c r="A634" s="20">
+        <v>44645</v>
+      </c>
+      <c r="B634">
+        <v>0.85185185185185186</v>
+      </c>
+      <c r="C634">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D634">
+        <v>6.1403508771929821E-2</v>
+      </c>
+      <c r="E634">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A635" s="20">
+        <v>44646</v>
+      </c>
+      <c r="B635">
+        <v>0.85185185185185186</v>
+      </c>
+      <c r="C635">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D635">
+        <v>6.1403508771929821E-2</v>
+      </c>
+      <c r="E635">
+        <v>0.12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -140,28 +140,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -437,11 +416,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E635"/>
+  <dimension ref="A1:E642"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A611" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I630" sqref="I630"/>
+      <pane ySplit="1" topLeftCell="A621" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I641" sqref="I641"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10152,6 +10131,125 @@
         <v>0.12</v>
       </c>
     </row>
+    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A636" s="20">
+        <v>44647</v>
+      </c>
+      <c r="B636">
+        <v>0.85185185185185186</v>
+      </c>
+      <c r="C636">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D636">
+        <v>6.1403508771929821E-2</v>
+      </c>
+      <c r="E636">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A637" s="20">
+        <v>44648</v>
+      </c>
+      <c r="B637">
+        <v>0.92592592592592593</v>
+      </c>
+      <c r="C637">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D637">
+        <v>5.7522123893805309E-2</v>
+      </c>
+      <c r="E637">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A638" s="20">
+        <v>44649</v>
+      </c>
+      <c r="B638">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="C638">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D638">
+        <v>6.637168141592921E-2</v>
+      </c>
+      <c r="E638">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A639" s="20">
+        <v>44650</v>
+      </c>
+      <c r="B639">
+        <v>0.81481481481481477</v>
+      </c>
+      <c r="C639">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D639">
+        <v>7.5221238938053103E-2</v>
+      </c>
+      <c r="E639">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A640" s="20">
+        <v>44651</v>
+      </c>
+      <c r="B640">
+        <v>0.81481481481481477</v>
+      </c>
+      <c r="C640">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D640">
+        <v>8.4070796460176997E-2</v>
+      </c>
+      <c r="E640">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A641" s="20">
+        <v>44652</v>
+      </c>
+      <c r="B641">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="C641">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D641">
+        <v>8.2568807339449546E-2</v>
+      </c>
+      <c r="E641">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A642" s="20">
+        <v>44653</v>
+      </c>
+      <c r="B642">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="C642">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D642">
+        <v>8.2568807339449546E-2</v>
+      </c>
+      <c r="E642">
+        <v>0.16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -416,11 +416,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E642"/>
+  <dimension ref="A1:E646"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A621" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I641" sqref="I641"/>
+      <selection pane="bottomLeft" activeCell="G643" sqref="G643"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10250,6 +10250,74 @@
         <v>0.16</v>
       </c>
     </row>
+    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A643" s="20">
+        <v>44654</v>
+      </c>
+      <c r="B643">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="C643">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D643">
+        <v>8.2568807339449546E-2</v>
+      </c>
+      <c r="E643">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A644" s="20">
+        <v>44655</v>
+      </c>
+      <c r="B644">
+        <v>0.70370370370370372</v>
+      </c>
+      <c r="C644">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D644">
+        <v>7.7981651376146793E-2</v>
+      </c>
+      <c r="E644">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A645" s="20">
+        <v>44656</v>
+      </c>
+      <c r="B645">
+        <v>0.70370370370370372</v>
+      </c>
+      <c r="C645">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D645">
+        <v>7.7981651376146793E-2</v>
+      </c>
+      <c r="E645">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A646" s="20">
+        <v>44657</v>
+      </c>
+      <c r="B646">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="C646">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D646">
+        <v>6.4220183486238536E-2</v>
+      </c>
+      <c r="E646">
+        <v>0.12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -140,7 +140,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -416,11 +427,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E646"/>
+  <dimension ref="A1:E647"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A621" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G643" sqref="G643"/>
+      <pane ySplit="1" topLeftCell="A624" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G644" sqref="G644"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10318,6 +10329,23 @@
         <v>0.12</v>
       </c>
     </row>
+    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A647" s="20">
+        <v>44658</v>
+      </c>
+      <c r="B647">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="C647">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D647">
+        <v>5.5045871559633031E-2</v>
+      </c>
+      <c r="E647">
+        <v>0.16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enemi\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624118C2-F784-456A-AE38-44A8BC986A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,10 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -415,12 +415,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E646"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E651"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A621" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G643" sqref="G643"/>
+      <selection pane="bottomLeft" activeCell="I647" sqref="I647"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10318,6 +10318,91 @@
         <v>0.12</v>
       </c>
     </row>
+    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A647" s="20">
+        <v>44658</v>
+      </c>
+      <c r="B647">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="C647">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D647">
+        <v>5.5045871559633031E-2</v>
+      </c>
+      <c r="E647">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A648" s="20">
+        <v>44659</v>
+      </c>
+      <c r="B648">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="C648">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D648">
+        <v>4.5871559633027525E-2</v>
+      </c>
+      <c r="E648">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A649" s="20">
+        <v>44660</v>
+      </c>
+      <c r="B649">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="C649">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D649">
+        <v>4.5871559633027525E-2</v>
+      </c>
+      <c r="E649">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A650" s="20">
+        <v>44661</v>
+      </c>
+      <c r="B650" s="24">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="C650" s="24">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D650" s="24">
+        <v>4.5871559633027525E-2</v>
+      </c>
+      <c r="E650" s="24">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A651" s="20">
+        <v>44662</v>
+      </c>
+      <c r="B651" s="24">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="C651" s="24">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D651" s="24">
+        <v>8.2568807339449546E-2</v>
+      </c>
+      <c r="E651" s="24">
+        <v>0.16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enemi\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624118C2-F784-456A-AE38-44A8BC986A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,7 +52,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -415,12 +414,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E651"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E652"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A621" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I647" sqref="I647"/>
+      <pane ySplit="1" topLeftCell="A642" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H656" sqref="H656"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10391,16 +10390,33 @@
         <v>44662</v>
       </c>
       <c r="B651" s="24">
-        <v>0.77777777777777779</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C651" s="24">
         <v>0.3452164502164502</v>
       </c>
       <c r="D651" s="24">
-        <v>8.2568807339449546E-2</v>
+        <v>5.9633027522935783E-2</v>
       </c>
       <c r="E651" s="24">
-        <v>0.16</v>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A652" s="20">
+        <v>44663</v>
+      </c>
+      <c r="B652">
+        <v>0.70370370370370372</v>
+      </c>
+      <c r="C652">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D652">
+        <v>5.9633027522935783E-2</v>
+      </c>
+      <c r="E652">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -415,11 +415,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E652"/>
+  <dimension ref="A1:E658"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A642" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H656" sqref="H656"/>
+      <pane ySplit="1" topLeftCell="A636" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C660" sqref="C660"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10419,6 +10419,108 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A653" s="20">
+        <v>44664</v>
+      </c>
+      <c r="B653">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C653">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D653">
+        <v>7.7981651376146793E-2</v>
+      </c>
+      <c r="E653">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A654" s="20">
+        <v>44665</v>
+      </c>
+      <c r="B654">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C654">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D654">
+        <v>7.3394495412844041E-2</v>
+      </c>
+      <c r="E654">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A655" s="20">
+        <v>44666</v>
+      </c>
+      <c r="B655">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C655">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D655">
+        <v>7.3394495412844041E-2</v>
+      </c>
+      <c r="E655">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A656" s="20">
+        <v>44667</v>
+      </c>
+      <c r="B656">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C656">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D656">
+        <v>7.3394495412844041E-2</v>
+      </c>
+      <c r="E656">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A657" s="20">
+        <v>44668</v>
+      </c>
+      <c r="B657">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C657" s="24">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D657" s="24">
+        <v>7.3394495412844041E-2</v>
+      </c>
+      <c r="E657" s="24">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A658" s="20">
+        <v>44669</v>
+      </c>
+      <c r="B658" s="24">
+        <v>0.59259259259259256</v>
+      </c>
+      <c r="C658" s="24">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D658">
+        <v>5.9633027522935783E-2</v>
+      </c>
+      <c r="E658">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -415,11 +415,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E658"/>
+  <dimension ref="A1:E660"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A636" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C660" sqref="C660"/>
+      <selection pane="bottomLeft" activeCell="H651" sqref="H651"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10521,6 +10521,40 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
+    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A659" s="20">
+        <v>44670</v>
+      </c>
+      <c r="B659">
+        <v>0.68181818181818177</v>
+      </c>
+      <c r="C659">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D659">
+        <v>6.8807339449541288E-2</v>
+      </c>
+      <c r="E659">
+        <v>0.47058823529411764</v>
+      </c>
+    </row>
+    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A660" s="20">
+        <v>44671</v>
+      </c>
+      <c r="B660">
+        <v>0.77272727272727271</v>
+      </c>
+      <c r="C660">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D660">
+        <v>6.5727699530516437E-2</v>
+      </c>
+      <c r="E660">
+        <v>0.47058823529411764</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -139,7 +139,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -415,11 +426,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E660"/>
+  <dimension ref="A1:E661"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A636" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H651" sqref="H651"/>
+      <selection pane="bottomLeft" activeCell="H658" sqref="H658"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10555,6 +10566,23 @@
         <v>0.47058823529411764</v>
       </c>
     </row>
+    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A661" s="20">
+        <v>44672</v>
+      </c>
+      <c r="B661">
+        <v>0.77272727272727271</v>
+      </c>
+      <c r="C661">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D661">
+        <v>5.6994818652849742E-2</v>
+      </c>
+      <c r="E661">
+        <v>0.41176470588235292</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -426,11 +426,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E661"/>
+  <dimension ref="A1:E662"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A636" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H658" sqref="H658"/>
+      <pane ySplit="1" topLeftCell="A642" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E662" sqref="E662"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10583,6 +10583,23 @@
         <v>0.41176470588235292</v>
       </c>
     </row>
+    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A662" s="20">
+        <v>44673</v>
+      </c>
+      <c r="B662">
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="C662">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D662">
+        <v>4.6632124352331605E-2</v>
+      </c>
+      <c r="E662">
+        <v>0.41176470588235292</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -139,18 +139,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -426,11 +415,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E662"/>
+  <dimension ref="A1:E666"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A642" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E662" sqref="E662"/>
+      <selection pane="bottomLeft" activeCell="I657" sqref="I657"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10600,6 +10589,74 @@
         <v>0.41176470588235292</v>
       </c>
     </row>
+    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A663" s="20">
+        <v>44674</v>
+      </c>
+      <c r="B663">
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="C663" s="24">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D663">
+        <v>4.6632124352331605E-2</v>
+      </c>
+      <c r="E663">
+        <v>0.41176470588235292</v>
+      </c>
+    </row>
+    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A664" s="20">
+        <v>44675</v>
+      </c>
+      <c r="B664">
+        <v>0.77272727272727271</v>
+      </c>
+      <c r="C664" s="24">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D664">
+        <v>3.9024390243902439E-2</v>
+      </c>
+      <c r="E664">
+        <v>0.41176470588235292</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A665" s="20">
+        <v>44676</v>
+      </c>
+      <c r="B665">
+        <v>0.77272727272727271</v>
+      </c>
+      <c r="C665" s="24">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D665">
+        <v>3.9024390243902439E-2</v>
+      </c>
+      <c r="E665">
+        <v>0.41176470588235292</v>
+      </c>
+    </row>
+    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A666" s="20">
+        <v>44677</v>
+      </c>
+      <c r="B666">
+        <v>0.77272727272727271</v>
+      </c>
+      <c r="C666" s="24">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D666">
+        <v>3.6842105263157891E-2</v>
+      </c>
+      <c r="E666">
+        <v>0.35294117647058826</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -415,11 +415,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E666"/>
+  <dimension ref="A1:E667"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A642" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I657" sqref="I657"/>
+      <pane ySplit="1" topLeftCell="A648" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I667" sqref="I667"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10657,6 +10657,23 @@
         <v>0.35294117647058826</v>
       </c>
     </row>
+    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A667" s="20">
+        <v>44678</v>
+      </c>
+      <c r="B667">
+        <v>0.77272727272727271</v>
+      </c>
+      <c r="C667">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D667">
+        <v>3.6842105263157891E-2</v>
+      </c>
+      <c r="E667">
+        <v>0.23529411764705882</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -415,11 +415,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E667"/>
+  <dimension ref="A1:E668"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A648" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I667" sqref="I667"/>
+      <selection pane="bottomLeft" activeCell="I663" sqref="I663"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10674,6 +10674,23 @@
         <v>0.23529411764705882</v>
       </c>
     </row>
+    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A668" s="20">
+        <v>44679</v>
+      </c>
+      <c r="B668">
+        <v>0.77272727272727271</v>
+      </c>
+      <c r="C668">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D668">
+        <v>4.2105263157894736E-2</v>
+      </c>
+      <c r="E668">
+        <v>0.23529411764705882</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -415,11 +415,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E668"/>
+  <dimension ref="A1:E669"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A648" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I663" sqref="I663"/>
+      <selection pane="bottomLeft" activeCell="C672" sqref="C672"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10691,6 +10691,23 @@
         <v>0.23529411764705882</v>
       </c>
     </row>
+    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A669" s="20">
+        <v>44680</v>
+      </c>
+      <c r="B669">
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="C669">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D669">
+        <v>4.736842105263158E-2</v>
+      </c>
+      <c r="E669">
+        <v>0.72727272727272729</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enemi\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4288B12D-AEAC-44F0-B402-A6B1D354FD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -139,7 +140,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -414,12 +426,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E669"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E672"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A648" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C672" sqref="C672"/>
+      <selection pane="bottomLeft" activeCell="H676" sqref="H676"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10617,7 +10629,7 @@
         <v>0.3452164502164502</v>
       </c>
       <c r="D664">
-        <v>3.9024390243902439E-2</v>
+        <v>4.145077720207254E-2</v>
       </c>
       <c r="E664">
         <v>0.41176470588235292</v>
@@ -10634,7 +10646,7 @@
         <v>0.3452164502164502</v>
       </c>
       <c r="D665">
-        <v>3.9024390243902439E-2</v>
+        <v>4.145077720207254E-2</v>
       </c>
       <c r="E665">
         <v>0.41176470588235292</v>
@@ -10705,7 +10717,58 @@
         <v>4.736842105263158E-2</v>
       </c>
       <c r="E669">
+        <v>0.11764705882352941</v>
+      </c>
+    </row>
+    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A670" s="20">
+        <v>44681</v>
+      </c>
+      <c r="B670">
         <v>0.72727272727272729</v>
+      </c>
+      <c r="C670">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D670">
+        <v>4.736842105263158E-2</v>
+      </c>
+      <c r="E670">
+        <v>0.11764705882352941</v>
+      </c>
+    </row>
+    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A671" s="20">
+        <v>44682</v>
+      </c>
+      <c r="B671" s="24">
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="C671" s="24">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D671" s="24">
+        <v>3.1578947368421054E-2</v>
+      </c>
+      <c r="E671" s="24">
+        <v>0.11764705882352941</v>
+      </c>
+    </row>
+    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A672" s="20">
+        <v>44683</v>
+      </c>
+      <c r="B672" s="24">
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="C672" s="24">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D672" s="24">
+        <v>3.1578947368421054E-2</v>
+      </c>
+      <c r="E672" s="24">
+        <v>0.11764705882352941</v>
       </c>
     </row>
   </sheetData>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enemi\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4288B12D-AEAC-44F0-B402-A6B1D354FD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -53,7 +52,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -140,18 +139,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -426,12 +414,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E672"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E673"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A648" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H676" sqref="H676"/>
+      <pane ySplit="1" topLeftCell="A651" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A672" sqref="A672:A673"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10771,6 +10759,23 @@
         <v>0.11764705882352941</v>
       </c>
     </row>
+    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A673" s="20">
+        <v>44684</v>
+      </c>
+      <c r="B673" s="24">
+        <v>0.77272727272727271</v>
+      </c>
+      <c r="C673" s="24">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D673" s="24">
+        <v>4.736842105263158E-2</v>
+      </c>
+      <c r="E673" s="24">
+        <v>0.11764705882352941</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -415,11 +415,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E673"/>
+  <dimension ref="A1:E674"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A651" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A672" sqref="A672:A673"/>
+      <pane ySplit="1" topLeftCell="A657" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G675" sqref="G675"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10764,16 +10764,33 @@
         <v>44684</v>
       </c>
       <c r="B673" s="24">
-        <v>0.77272727272727271</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="C673" s="24">
         <v>0.3452164502164502</v>
       </c>
       <c r="D673" s="24">
-        <v>4.736842105263158E-2</v>
+        <v>3.6842105263157891E-2</v>
       </c>
       <c r="E673" s="24">
         <v>0.11764705882352941</v>
+      </c>
+    </row>
+    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A674" s="20">
+        <v>44685</v>
+      </c>
+      <c r="B674">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="C674" s="24">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D674">
+        <v>3.6842105263157891E-2</v>
+      </c>
+      <c r="E674">
+        <v>0.23529411764705882</v>
       </c>
     </row>
   </sheetData>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -415,11 +415,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E674"/>
+  <dimension ref="A1:E675"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A657" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G675" sqref="G675"/>
+      <selection pane="bottomLeft" activeCell="D675" sqref="D675"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10793,6 +10793,23 @@
         <v>0.23529411764705882</v>
       </c>
     </row>
+    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A675" s="20">
+        <v>44686</v>
+      </c>
+      <c r="B675">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="C675">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D675">
+        <v>3.6842105263157891E-2</v>
+      </c>
+      <c r="E675">
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -139,7 +139,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -415,11 +426,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E675"/>
+  <dimension ref="A1:E677"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A657" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D675" sqref="D675"/>
+      <selection pane="bottomLeft" activeCell="I677" sqref="I677"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10810,6 +10821,40 @@
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
+    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A676" s="20">
+        <v>44687</v>
+      </c>
+      <c r="B676">
+        <v>0.68181818181818177</v>
+      </c>
+      <c r="C676" s="24">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D676">
+        <v>4.2105263157894736E-2</v>
+      </c>
+      <c r="E676">
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
+    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A677" s="20">
+        <v>44688</v>
+      </c>
+      <c r="B677">
+        <v>0.68181818181818177</v>
+      </c>
+      <c r="C677" s="24">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D677">
+        <v>4.2105263157894736E-2</v>
+      </c>
+      <c r="E677">
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -426,11 +426,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E677"/>
+  <dimension ref="A1:E679"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A657" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I677" sqref="I677"/>
+      <selection pane="bottomLeft" activeCell="D679" sqref="D679"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10855,6 +10855,40 @@
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
+    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A678" s="20">
+        <v>44689</v>
+      </c>
+      <c r="B678">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="C678">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D678">
+        <v>4.145077720207254E-2</v>
+      </c>
+      <c r="E678">
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
+    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A679" s="20">
+        <v>44690</v>
+      </c>
+      <c r="B679">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="C679" s="24">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D679" s="24">
+        <v>4.145077720207254E-2</v>
+      </c>
+      <c r="E679">
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -139,18 +139,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -426,11 +415,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E679"/>
+  <dimension ref="A1:E681"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A657" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D679" sqref="D679"/>
+      <pane ySplit="1" topLeftCell="A663" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J675" sqref="J675"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10889,6 +10878,40 @@
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
+    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A680" s="20">
+        <v>44691</v>
+      </c>
+      <c r="B680">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="C680" s="24">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D680">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E680">
+        <v>3.954802259887006E-2</v>
+      </c>
+    </row>
+    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A681" s="20">
+        <v>44692</v>
+      </c>
+      <c r="B681">
+        <v>0.625</v>
+      </c>
+      <c r="C681" s="24">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D681">
+        <v>2.6041666666666668E-2</v>
+      </c>
+      <c r="E681">
+        <v>3.7267080745341616E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -415,11 +415,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E681"/>
+  <dimension ref="A1:E682"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A663" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J675" sqref="J675"/>
+      <selection pane="bottomLeft" activeCell="I682" sqref="I682"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10912,6 +10912,23 @@
         <v>3.7267080745341616E-2</v>
       </c>
     </row>
+    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A682" s="20">
+        <v>44693</v>
+      </c>
+      <c r="B682">
+        <v>0.5625</v>
+      </c>
+      <c r="C682" s="24">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D682" s="24">
+        <v>2.6041666666666668E-2</v>
+      </c>
+      <c r="E682" s="24">
+        <v>3.7267080745341616E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -415,11 +415,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E682"/>
+  <dimension ref="A1:E685"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A663" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I682" sqref="I682"/>
+      <selection pane="bottomLeft" activeCell="C686" sqref="C686"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10909,7 +10909,7 @@
         <v>2.6041666666666668E-2</v>
       </c>
       <c r="E681">
-        <v>3.7267080745341616E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:5" x14ac:dyDescent="0.25">
@@ -10926,8 +10926,45 @@
         <v>2.6041666666666668E-2</v>
       </c>
       <c r="E682" s="24">
-        <v>3.7267080745341616E-2</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A683" s="20">
+        <v>44694</v>
+      </c>
+      <c r="B683">
+        <v>0.68181818181818177</v>
+      </c>
+      <c r="C683" s="24">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D683">
+        <v>4.2105263157894736E-2</v>
+      </c>
+      <c r="E683">
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
+    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A684" s="20">
+        <v>44695</v>
+      </c>
+      <c r="B684">
+        <v>0.68181818181818177</v>
+      </c>
+      <c r="C684" s="24">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D684">
+        <v>4.2105263157894736E-2</v>
+      </c>
+      <c r="E684">
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
+    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A685" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -415,11 +415,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E685"/>
+  <dimension ref="A1:E688"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A663" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C686" sqref="C686"/>
+      <pane ySplit="1" topLeftCell="A670" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I682" sqref="I682"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10892,7 +10892,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="E680">
-        <v>3.954802259887006E-2</v>
+        <v>5.8823529411764705E-2</v>
       </c>
     </row>
     <row r="681" spans="1:5" x14ac:dyDescent="0.25">
@@ -10908,7 +10908,7 @@
       <c r="D681">
         <v>2.6041666666666668E-2</v>
       </c>
-      <c r="E681">
+      <c r="E681" s="24">
         <v>0</v>
       </c>
     </row>
@@ -10964,7 +10964,72 @@
       </c>
     </row>
     <row r="685" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A685" s="20"/>
+      <c r="A685" s="20">
+        <v>44696</v>
+      </c>
+      <c r="B685">
+        <v>0.5</v>
+      </c>
+      <c r="C685" s="24">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D685">
+        <v>3.1413612565445025E-2</v>
+      </c>
+      <c r="E685">
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A686" s="20">
+        <v>44697</v>
+      </c>
+      <c r="B686">
+        <v>0.5</v>
+      </c>
+      <c r="C686" s="24">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D686">
+        <v>3.1413612565445025E-2</v>
+      </c>
+      <c r="E686">
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A687" s="20">
+        <v>44698</v>
+      </c>
+      <c r="B687">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C687" s="24">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D687">
+        <v>3.6458333333333336E-2</v>
+      </c>
+      <c r="E687">
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A688" s="20">
+        <v>44699</v>
+      </c>
+      <c r="B688">
+        <v>0.25</v>
+      </c>
+      <c r="C688" s="24">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D688">
+        <v>3.125E-2</v>
+      </c>
+      <c r="E688">
+        <v>0.2857142857142857</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -415,11 +415,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E688"/>
+  <dimension ref="A1:E689"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A670" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I682" sqref="I682"/>
+      <selection pane="bottomLeft" activeCell="I688" sqref="I688"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11031,6 +11031,23 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
+    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A689" s="20">
+        <v>44700</v>
+      </c>
+      <c r="B689">
+        <v>0.25</v>
+      </c>
+      <c r="C689" s="24">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D689">
+        <v>2.6041666666666668E-2</v>
+      </c>
+      <c r="E689">
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -415,11 +415,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E689"/>
+  <dimension ref="A1:E691"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A670" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I688" sqref="I688"/>
+      <selection pane="bottomLeft" activeCell="G686" sqref="G686"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11048,6 +11048,40 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
+    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A690" s="20">
+        <v>44701</v>
+      </c>
+      <c r="B690">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C690" s="24">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D690">
+        <v>2.6041666666666668E-2</v>
+      </c>
+      <c r="E690">
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A691" s="20">
+        <v>44702</v>
+      </c>
+      <c r="B691">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C691" s="24">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D691">
+        <v>2.6041666666666668E-2</v>
+      </c>
+      <c r="E691">
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -415,11 +415,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E691"/>
+  <dimension ref="A1:E693"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A670" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G686" sqref="G686"/>
+      <selection pane="bottomLeft" activeCell="J685" sqref="J685"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11082,6 +11082,40 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
+    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A692" s="20">
+        <v>44703</v>
+      </c>
+      <c r="B692">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C692" s="24">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D692">
+        <v>3.6458333333333336E-2</v>
+      </c>
+      <c r="E692">
+        <v>0.35714285714285715</v>
+      </c>
+    </row>
+    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A693" s="20">
+        <v>44704</v>
+      </c>
+      <c r="B693">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C693" s="24">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D693">
+        <v>3.6458333333333336E-2</v>
+      </c>
+      <c r="E693">
+        <v>0.35714285714285715</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -415,11 +415,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E693"/>
+  <dimension ref="A1:E694"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A670" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J685" sqref="J685"/>
+      <selection pane="bottomLeft" activeCell="J689" sqref="J689"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11116,6 +11116,23 @@
         <v>0.35714285714285715</v>
       </c>
     </row>
+    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A694" s="20">
+        <v>44705</v>
+      </c>
+      <c r="B694">
+        <v>0.25</v>
+      </c>
+      <c r="C694" s="24">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D694">
+        <v>4.9689440993788817E-2</v>
+      </c>
+      <c r="E694">
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -139,7 +139,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -415,11 +426,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E694"/>
+  <dimension ref="A1:E695"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A670" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J689" sqref="J689"/>
+      <pane ySplit="1" topLeftCell="A673" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K691" sqref="K691"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11127,10 +11138,27 @@
         <v>0.3452164502164502</v>
       </c>
       <c r="D694">
-        <v>4.9689440993788817E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="E694">
-        <v>0.14285714285714285</v>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A695" s="20">
+        <v>44706</v>
+      </c>
+      <c r="B695">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C695" s="24">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D695">
+        <v>3.125E-2</v>
+      </c>
+      <c r="E695">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -139,18 +139,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -426,11 +415,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E695"/>
+  <dimension ref="A1:E696"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A673" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K691" sqref="K691"/>
+      <selection pane="bottomLeft" activeCell="K686" sqref="K686"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11161,6 +11150,23 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A696" s="20">
+        <v>44707</v>
+      </c>
+      <c r="B696">
+        <v>0.25</v>
+      </c>
+      <c r="C696" s="24">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D696">
+        <v>3.125E-2</v>
+      </c>
+      <c r="E696">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -415,11 +415,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E696"/>
+  <dimension ref="A1:E698"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A673" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K686" sqref="K686"/>
+      <selection pane="bottomLeft" activeCell="I697" sqref="I697"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11167,6 +11167,40 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A697" s="20">
+        <v>44708</v>
+      </c>
+      <c r="B697">
+        <v>0.25</v>
+      </c>
+      <c r="C697" s="24">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D697">
+        <v>2.6041666666666668E-2</v>
+      </c>
+      <c r="E697">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A698" s="20">
+        <v>44709</v>
+      </c>
+      <c r="B698">
+        <v>0.25</v>
+      </c>
+      <c r="C698" s="24">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D698">
+        <v>2.6041666666666668E-2</v>
+      </c>
+      <c r="E698">
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E698"/>
+  <dimension ref="A1:E700"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A673" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A685" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I697" sqref="I697"/>
     </sheetView>
   </sheetViews>
@@ -11201,6 +11201,40 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
+    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A699" s="20">
+        <v>44710</v>
+      </c>
+      <c r="B699">
+        <v>0.25</v>
+      </c>
+      <c r="C699" s="24">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D699">
+        <v>2.6041666666666668E-2</v>
+      </c>
+      <c r="E699">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A700" s="20">
+        <v>44711</v>
+      </c>
+      <c r="B700">
+        <v>0.25</v>
+      </c>
+      <c r="C700" s="24">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D700">
+        <v>2.6041666666666668E-2</v>
+      </c>
+      <c r="E700">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -415,11 +415,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E700"/>
+  <dimension ref="A1:E701"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A685" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I697" sqref="I697"/>
+      <selection pane="bottomLeft" activeCell="J700" sqref="J700"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11235,6 +11235,23 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A701" s="20">
+        <v>44712</v>
+      </c>
+      <c r="B701">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C701" s="24">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D701" s="24">
+        <v>2.6041666666666668E-2</v>
+      </c>
+      <c r="E701">
+        <v>0.35714285714285715</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -415,11 +415,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E701"/>
+  <dimension ref="A1:E702"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A685" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J700" sqref="J700"/>
+      <selection pane="bottomLeft" activeCell="I701" sqref="I701"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11252,6 +11252,23 @@
         <v>0.35714285714285715</v>
       </c>
     </row>
+    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A702" s="20">
+        <v>44713</v>
+      </c>
+      <c r="B702">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C702" s="24">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D702" s="24">
+        <v>2.6041666666666668E-2</v>
+      </c>
+      <c r="E702">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -415,11 +415,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E702"/>
+  <dimension ref="A1:E703"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A685" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I701" sqref="I701"/>
+      <selection pane="bottomLeft" activeCell="I700" sqref="I700"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11269,6 +11269,23 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A703" s="20">
+        <v>44714</v>
+      </c>
+      <c r="B703" s="24">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C703" s="24">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D703">
+        <v>3.125E-2</v>
+      </c>
+      <c r="E703">
+        <v>0.21428571428571427</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -415,11 +415,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E703"/>
+  <dimension ref="A1:E705"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A685" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I700" sqref="I700"/>
+      <selection pane="bottomLeft" activeCell="H699" sqref="H699"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11266,7 +11266,7 @@
         <v>2.6041666666666668E-2</v>
       </c>
       <c r="E702">
-        <v>0.5</v>
+        <v>0.35714285714285715</v>
       </c>
     </row>
     <row r="703" spans="1:5" x14ac:dyDescent="0.25">
@@ -11283,6 +11283,40 @@
         <v>3.125E-2</v>
       </c>
       <c r="E703">
+        <v>0.21428571428571427</v>
+      </c>
+    </row>
+    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A704" s="20">
+        <v>44715</v>
+      </c>
+      <c r="B704">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C704" s="24">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D704">
+        <v>3.0973451327433628E-2</v>
+      </c>
+      <c r="E704">
+        <v>0.21428571428571427</v>
+      </c>
+    </row>
+    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A705" s="20">
+        <v>44716</v>
+      </c>
+      <c r="B705">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C705" s="24">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D705">
+        <v>3.0973451327433628E-2</v>
+      </c>
+      <c r="E705">
         <v>0.21428571428571427</v>
       </c>
     </row>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -415,11 +415,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E705"/>
+  <dimension ref="A1:E707"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A685" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H699" sqref="H699"/>
+      <selection pane="bottomLeft" activeCell="I704" sqref="I704"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11320,6 +11320,40 @@
         <v>0.21428571428571427</v>
       </c>
     </row>
+    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A706" s="20">
+        <v>44717</v>
+      </c>
+      <c r="B706">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C706" s="24">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D706">
+        <v>3.125E-2</v>
+      </c>
+      <c r="E706">
+        <v>0.35714285714285715</v>
+      </c>
+    </row>
+    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A707" s="20">
+        <v>44718</v>
+      </c>
+      <c r="B707" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C707" s="24">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D707" s="24">
+        <v>3.125E-2</v>
+      </c>
+      <c r="E707">
+        <v>0.35714285714285715</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -415,11 +415,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E707"/>
+  <dimension ref="A1:E708"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A685" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I704" sqref="I704"/>
+      <selection pane="bottomLeft" activeCell="J701" sqref="J701"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11354,6 +11354,23 @@
         <v>0.35714285714285715</v>
       </c>
     </row>
+    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A708" s="20">
+        <v>44719</v>
+      </c>
+      <c r="B708">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C708" s="24">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D708">
+        <v>3.6458333333333336E-2</v>
+      </c>
+      <c r="E708">
+        <v>0.35714285714285715</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -415,11 +415,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E708"/>
+  <dimension ref="A1:E709"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A685" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J701" sqref="J701"/>
+      <selection pane="bottomLeft" activeCell="H706" sqref="H706"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11371,6 +11371,23 @@
         <v>0.35714285714285715</v>
       </c>
     </row>
+    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A709" s="20">
+        <v>44720</v>
+      </c>
+      <c r="B709" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C709" s="24">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D709" s="24">
+        <v>3.6458333333333336E-2</v>
+      </c>
+      <c r="E709" s="24">
+        <v>0.35714285714285715</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -415,11 +415,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E709"/>
+  <dimension ref="A1:E710"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A685" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H706" sqref="H706"/>
+      <pane ySplit="1" topLeftCell="A694" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K710" sqref="K710"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11388,6 +11388,23 @@
         <v>0.35714285714285715</v>
       </c>
     </row>
+    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A710" s="20">
+        <v>44721</v>
+      </c>
+      <c r="B710" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C710" s="24">
+        <v>0.3452164502164502</v>
+      </c>
+      <c r="D710">
+        <v>8.0745341614906832E-2</v>
+      </c>
+      <c r="E710">
+        <v>0.35714285714285715</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -415,11 +415,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E710"/>
+  <dimension ref="A1:E712"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A694" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K710" sqref="K710"/>
+      <pane ySplit="1" topLeftCell="A691" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J708" sqref="J708"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9900,7 +9900,7 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="C622" s="22">
-        <v>0.3452164502164502</v>
+        <v>8.0831408775981523E-2</v>
       </c>
       <c r="D622" s="23">
         <v>7.5268817204301078E-2</v>
@@ -9917,7 +9917,7 @@
         <v>0.85185185185185186</v>
       </c>
       <c r="C623" s="22">
-        <v>0.3452164502164502</v>
+        <v>8.15450643776824E-2</v>
       </c>
       <c r="D623" s="23">
         <v>7.7625570776255703E-2</v>
@@ -9934,7 +9934,7 @@
         <v>1</v>
       </c>
       <c r="C624" s="22">
-        <v>0.3452164502164502</v>
+        <v>8.5836909871244635E-2</v>
       </c>
       <c r="D624" s="23">
         <v>8.2191780821917804E-2</v>
@@ -9951,7 +9951,7 @@
         <v>0.85185185185185186</v>
       </c>
       <c r="C625" s="22">
-        <v>0.3452164502164502</v>
+        <v>8.15450643776824E-2</v>
       </c>
       <c r="D625" s="23">
         <v>8.2191780821917804E-2</v>
@@ -9968,7 +9968,7 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="C626" s="22">
-        <v>0.3452164502164502</v>
+        <v>8.15450643776824E-2</v>
       </c>
       <c r="D626" s="23">
         <v>7.7625570776255703E-2</v>
@@ -9985,7 +9985,7 @@
         <v>1</v>
       </c>
       <c r="C627" s="22">
-        <v>0.3452164502164502</v>
+        <v>7.2961373390557943E-2</v>
       </c>
       <c r="D627" s="23">
         <v>7.3059360730593603E-2</v>
@@ -10002,7 +10002,7 @@
         <v>1</v>
       </c>
       <c r="C628" s="22">
-        <v>0.3452164502164502</v>
+        <v>7.2961373390557943E-2</v>
       </c>
       <c r="D628" s="23">
         <v>7.3059360730593603E-2</v>
@@ -10019,7 +10019,7 @@
         <v>1</v>
       </c>
       <c r="C629">
-        <v>0.3452164502164502</v>
+        <v>7.2961373390557943E-2</v>
       </c>
       <c r="D629">
         <v>7.3059360730593603E-2</v>
@@ -10036,7 +10036,7 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="C630">
-        <v>0.3452164502164502</v>
+        <v>7.0422535211267609E-2</v>
       </c>
       <c r="D630">
         <v>8.3798882681564241E-2</v>
@@ -10053,7 +10053,7 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="C631">
-        <v>0.3452164502164502</v>
+        <v>0.08</v>
       </c>
       <c r="D631">
         <v>8.3798882681564241E-2</v>
@@ -10070,7 +10070,7 @@
         <v>0.85185185185185186</v>
       </c>
       <c r="C632">
-        <v>0.3452164502164502</v>
+        <v>8.4210526315789472E-2</v>
       </c>
       <c r="D632">
         <v>6.1403508771929821E-2</v>
@@ -10087,7 +10087,7 @@
         <v>0.85185185185185186</v>
       </c>
       <c r="C633">
-        <v>0.3452164502164502</v>
+        <v>7.5789473684210532E-2</v>
       </c>
       <c r="D633">
         <v>6.1403508771929821E-2</v>
@@ -10104,7 +10104,7 @@
         <v>0.85185185185185186</v>
       </c>
       <c r="C634">
-        <v>0.3452164502164502</v>
+        <v>0.08</v>
       </c>
       <c r="D634">
         <v>6.1403508771929821E-2</v>
@@ -10121,7 +10121,7 @@
         <v>0.85185185185185186</v>
       </c>
       <c r="C635">
-        <v>0.3452164502164502</v>
+        <v>0.08</v>
       </c>
       <c r="D635">
         <v>6.1403508771929821E-2</v>
@@ -10138,7 +10138,7 @@
         <v>0.85185185185185186</v>
       </c>
       <c r="C636">
-        <v>0.3452164502164502</v>
+        <v>0.08</v>
       </c>
       <c r="D636">
         <v>6.1403508771929821E-2</v>
@@ -10155,7 +10155,7 @@
         <v>0.92592592592592593</v>
       </c>
       <c r="C637">
-        <v>0.3452164502164502</v>
+        <v>7.8224101479915431E-2</v>
       </c>
       <c r="D637">
         <v>5.7522123893805309E-2</v>
@@ -10172,7 +10172,7 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="C638">
-        <v>0.3452164502164502</v>
+        <v>6.765327695560254E-2</v>
       </c>
       <c r="D638">
         <v>6.637168141592921E-2</v>
@@ -10189,7 +10189,7 @@
         <v>0.81481481481481477</v>
       </c>
       <c r="C639">
-        <v>0.3452164502164502</v>
+        <v>6.5539112050739964E-2</v>
       </c>
       <c r="D639">
         <v>7.5221238938053103E-2</v>
@@ -10206,7 +10206,7 @@
         <v>0.81481481481481477</v>
       </c>
       <c r="C640">
-        <v>0.3452164502164502</v>
+        <v>7.1881606765327691E-2</v>
       </c>
       <c r="D640">
         <v>8.4070796460176997E-2</v>
@@ -10223,7 +10223,7 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="C641">
-        <v>0.3452164502164502</v>
+        <v>7.7419354838709681E-2</v>
       </c>
       <c r="D641">
         <v>8.2568807339449546E-2</v>
@@ -10240,7 +10240,7 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="C642">
-        <v>0.3452164502164502</v>
+        <v>7.7419354838709681E-2</v>
       </c>
       <c r="D642">
         <v>8.2568807339449546E-2</v>
@@ -10257,7 +10257,7 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="C643">
-        <v>0.3452164502164502</v>
+        <v>7.7419354838709681E-2</v>
       </c>
       <c r="D643">
         <v>8.2568807339449546E-2</v>
@@ -10274,7 +10274,7 @@
         <v>0.70370370370370372</v>
       </c>
       <c r="C644">
-        <v>0.3452164502164502</v>
+        <v>7.0967741935483872E-2</v>
       </c>
       <c r="D644">
         <v>7.7981651376146793E-2</v>
@@ -10291,7 +10291,7 @@
         <v>0.70370370370370372</v>
       </c>
       <c r="C645">
-        <v>0.3452164502164502</v>
+        <v>7.3118279569892475E-2</v>
       </c>
       <c r="D645">
         <v>7.7981651376146793E-2</v>
@@ -10308,7 +10308,7 @@
         <v>0.7407407407407407</v>
       </c>
       <c r="C646">
-        <v>0.3452164502164502</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="D646">
         <v>6.4220183486238536E-2</v>
@@ -10325,7 +10325,7 @@
         <v>0.7407407407407407</v>
       </c>
       <c r="C647">
-        <v>0.3452164502164502</v>
+        <v>6.236559139784946E-2</v>
       </c>
       <c r="D647">
         <v>5.5045871559633031E-2</v>
@@ -10342,7 +10342,7 @@
         <v>0.7407407407407407</v>
       </c>
       <c r="C648">
-        <v>0.3452164502164502</v>
+        <v>5.3763440860215055E-2</v>
       </c>
       <c r="D648">
         <v>4.5871559633027525E-2</v>
@@ -10359,7 +10359,7 @@
         <v>0.7407407407407407</v>
       </c>
       <c r="C649">
-        <v>0.3452164502164502</v>
+        <v>5.3763440860215055E-2</v>
       </c>
       <c r="D649">
         <v>4.5871559633027525E-2</v>
@@ -10376,7 +10376,7 @@
         <v>0.7407407407407407</v>
       </c>
       <c r="C650" s="24">
-        <v>0.3452164502164502</v>
+        <v>5.3763440860215055E-2</v>
       </c>
       <c r="D650" s="24">
         <v>4.5871559633027525E-2</v>
@@ -10393,7 +10393,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C651" s="24">
-        <v>0.3452164502164502</v>
+        <v>5.3763440860215055E-2</v>
       </c>
       <c r="D651" s="24">
         <v>5.9633027522935783E-2</v>
@@ -10410,7 +10410,7 @@
         <v>0.70370370370370372</v>
       </c>
       <c r="C652">
-        <v>0.3452164502164502</v>
+        <v>5.1612903225806452E-2</v>
       </c>
       <c r="D652">
         <v>5.9633027522935783E-2</v>
@@ -10427,7 +10427,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C653">
-        <v>0.3452164502164502</v>
+        <v>5.8064516129032261E-2</v>
       </c>
       <c r="D653">
         <v>7.7981651376146793E-2</v>
@@ -10444,7 +10444,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C654">
-        <v>0.3452164502164502</v>
+        <v>5.3763440860215055E-2</v>
       </c>
       <c r="D654">
         <v>7.3394495412844041E-2</v>
@@ -10461,7 +10461,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C655">
-        <v>0.3452164502164502</v>
+        <v>5.3763440860215055E-2</v>
       </c>
       <c r="D655">
         <v>7.3394495412844041E-2</v>
@@ -10478,7 +10478,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C656">
-        <v>0.3452164502164502</v>
+        <v>5.3763440860215055E-2</v>
       </c>
       <c r="D656">
         <v>7.3394495412844041E-2</v>
@@ -10495,7 +10495,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C657" s="24">
-        <v>0.3452164502164502</v>
+        <v>5.3763440860215055E-2</v>
       </c>
       <c r="D657" s="24">
         <v>7.3394495412844041E-2</v>
@@ -10512,7 +10512,7 @@
         <v>0.59259259259259256</v>
       </c>
       <c r="C658" s="24">
-        <v>0.3452164502164502</v>
+        <v>5.3763440860215055E-2</v>
       </c>
       <c r="D658">
         <v>5.9633027522935783E-2</v>
@@ -10529,7 +10529,7 @@
         <v>0.68181818181818177</v>
       </c>
       <c r="C659">
-        <v>0.3452164502164502</v>
+        <v>8.5642317380352648E-2</v>
       </c>
       <c r="D659">
         <v>6.8807339449541288E-2</v>
@@ -10546,7 +10546,7 @@
         <v>0.77272727272727271</v>
       </c>
       <c r="C660">
-        <v>0.3452164502164502</v>
+        <v>8.1632653061224483E-2</v>
       </c>
       <c r="D660">
         <v>6.5727699530516437E-2</v>
@@ -10563,7 +10563,7 @@
         <v>0.77272727272727271</v>
       </c>
       <c r="C661">
-        <v>0.3452164502164502</v>
+        <v>7.5268817204301078E-2</v>
       </c>
       <c r="D661">
         <v>5.6994818652849742E-2</v>
@@ -10580,7 +10580,7 @@
         <v>0.81818181818181823</v>
       </c>
       <c r="C662">
-        <v>0.3452164502164502</v>
+        <v>6.7204301075268813E-2</v>
       </c>
       <c r="D662">
         <v>4.6632124352331605E-2</v>
@@ -10597,7 +10597,7 @@
         <v>0.81818181818181823</v>
       </c>
       <c r="C663" s="24">
-        <v>0.3452164502164502</v>
+        <v>6.7204301075268813E-2</v>
       </c>
       <c r="D663">
         <v>4.6632124352331605E-2</v>
@@ -10614,7 +10614,7 @@
         <v>0.77272727272727271</v>
       </c>
       <c r="C664" s="24">
-        <v>0.3452164502164502</v>
+        <v>5.6451612903225805E-2</v>
       </c>
       <c r="D664">
         <v>4.145077720207254E-2</v>
@@ -10631,7 +10631,7 @@
         <v>0.77272727272727271</v>
       </c>
       <c r="C665" s="24">
-        <v>0.3452164502164502</v>
+        <v>5.6451612903225805E-2</v>
       </c>
       <c r="D665">
         <v>4.145077720207254E-2</v>
@@ -10648,7 +10648,7 @@
         <v>0.77272727272727271</v>
       </c>
       <c r="C666" s="24">
-        <v>0.3452164502164502</v>
+        <v>5.4200542005420058E-2</v>
       </c>
       <c r="D666">
         <v>3.6842105263157891E-2</v>
@@ -10665,7 +10665,7 @@
         <v>0.77272727272727271</v>
       </c>
       <c r="C667">
-        <v>0.3452164502164502</v>
+        <v>4.0871934604904632E-2</v>
       </c>
       <c r="D667">
         <v>3.6842105263157891E-2</v>
@@ -10682,7 +10682,7 @@
         <v>0.77272727272727271</v>
       </c>
       <c r="C668">
-        <v>0.3452164502164502</v>
+        <v>4.632152588555858E-2</v>
       </c>
       <c r="D668">
         <v>4.2105263157894736E-2</v>
@@ -10699,7 +10699,7 @@
         <v>0.72727272727272729</v>
       </c>
       <c r="C669">
-        <v>0.3452164502164502</v>
+        <v>4.3596730245231606E-2</v>
       </c>
       <c r="D669">
         <v>4.736842105263158E-2</v>
@@ -10716,7 +10716,7 @@
         <v>0.72727272727272729</v>
       </c>
       <c r="C670">
-        <v>0.3452164502164502</v>
+        <v>4.3596730245231606E-2</v>
       </c>
       <c r="D670">
         <v>4.736842105263158E-2</v>
@@ -10733,7 +10733,7 @@
         <v>0.72727272727272729</v>
       </c>
       <c r="C671" s="24">
-        <v>0.3452164502164502</v>
+        <v>5.1771117166212535E-2</v>
       </c>
       <c r="D671" s="24">
         <v>3.1578947368421054E-2</v>
@@ -10750,7 +10750,7 @@
         <v>0.72727272727272729</v>
       </c>
       <c r="C672" s="24">
-        <v>0.3452164502164502</v>
+        <v>5.1771117166212535E-2</v>
       </c>
       <c r="D672" s="24">
         <v>3.1578947368421054E-2</v>
@@ -10767,7 +10767,7 @@
         <v>0.72727272727272729</v>
       </c>
       <c r="C673" s="24">
-        <v>0.3452164502164502</v>
+        <v>3.8147138964577658E-2</v>
       </c>
       <c r="D673" s="24">
         <v>3.6842105263157891E-2</v>
@@ -10784,7 +10784,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="C674" s="24">
-        <v>0.3452164502164502</v>
+        <v>3.8147138964577658E-2</v>
       </c>
       <c r="D674">
         <v>3.6842105263157891E-2</v>
@@ -10801,7 +10801,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="C675">
-        <v>0.3452164502164502</v>
+        <v>3.8147138964577658E-2</v>
       </c>
       <c r="D675">
         <v>3.6842105263157891E-2</v>
@@ -10818,7 +10818,7 @@
         <v>0.68181818181818177</v>
       </c>
       <c r="C676" s="24">
-        <v>0.3452164502164502</v>
+        <v>4.0871934604904632E-2</v>
       </c>
       <c r="D676">
         <v>4.2105263157894736E-2</v>
@@ -10835,7 +10835,7 @@
         <v>0.68181818181818177</v>
       </c>
       <c r="C677" s="24">
-        <v>0.3452164502164502</v>
+        <v>4.0871934604904632E-2</v>
       </c>
       <c r="D677">
         <v>4.2105263157894736E-2</v>
@@ -10852,7 +10852,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="C678">
-        <v>0.3452164502164502</v>
+        <v>4.0540540540540543E-2</v>
       </c>
       <c r="D678">
         <v>4.145077720207254E-2</v>
@@ -10869,7 +10869,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="C679" s="24">
-        <v>0.3452164502164502</v>
+        <v>4.0540540540540543E-2</v>
       </c>
       <c r="D679" s="24">
         <v>4.145077720207254E-2</v>
@@ -10886,7 +10886,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="C680" s="24">
-        <v>0.3452164502164502</v>
+        <v>2.9810298102981029E-2</v>
       </c>
       <c r="D680">
         <v>2.0833333333333332E-2</v>
@@ -10903,7 +10903,7 @@
         <v>0.625</v>
       </c>
       <c r="C681" s="24">
-        <v>0.3452164502164502</v>
+        <v>3.1161473087818695E-2</v>
       </c>
       <c r="D681">
         <v>2.6041666666666668E-2</v>
@@ -10920,7 +10920,7 @@
         <v>0.5625</v>
       </c>
       <c r="C682" s="24">
-        <v>0.3452164502164502</v>
+        <v>3.1161473087818695E-2</v>
       </c>
       <c r="D682" s="24">
         <v>2.6041666666666668E-2</v>
@@ -10937,7 +10937,7 @@
         <v>0.68181818181818177</v>
       </c>
       <c r="C683" s="24">
-        <v>0.3452164502164502</v>
+        <v>4.0871934604904632E-2</v>
       </c>
       <c r="D683">
         <v>4.2105263157894736E-2</v>
@@ -10954,7 +10954,7 @@
         <v>0.68181818181818177</v>
       </c>
       <c r="C684" s="24">
-        <v>0.3452164502164502</v>
+        <v>4.0871934604904632E-2</v>
       </c>
       <c r="D684">
         <v>4.2105263157894736E-2</v>
@@ -10971,7 +10971,7 @@
         <v>0.5</v>
       </c>
       <c r="C685" s="24">
-        <v>0.3452164502164502</v>
+        <v>4.0229885057471264E-2</v>
       </c>
       <c r="D685">
         <v>3.1413612565445025E-2</v>
@@ -10988,7 +10988,7 @@
         <v>0.5</v>
       </c>
       <c r="C686" s="24">
-        <v>0.3452164502164502</v>
+        <v>4.0229885057471264E-2</v>
       </c>
       <c r="D686">
         <v>3.1413612565445025E-2</v>
@@ -11005,7 +11005,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C687" s="24">
-        <v>0.3452164502164502</v>
+        <v>7.4712643678160925E-2</v>
       </c>
       <c r="D687">
         <v>3.6458333333333336E-2</v>
@@ -11022,7 +11022,7 @@
         <v>0.25</v>
       </c>
       <c r="C688" s="24">
-        <v>0.3452164502164502</v>
+        <v>7.7586206896551727E-2</v>
       </c>
       <c r="D688">
         <v>3.125E-2</v>
@@ -11039,7 +11039,7 @@
         <v>0.25</v>
       </c>
       <c r="C689" s="24">
-        <v>0.3452164502164502</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D689">
         <v>2.6041666666666668E-2</v>
@@ -11056,7 +11056,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="C690" s="24">
-        <v>0.3452164502164502</v>
+        <v>7.4712643678160925E-2</v>
       </c>
       <c r="D690">
         <v>2.6041666666666668E-2</v>
@@ -11073,7 +11073,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="C691" s="24">
-        <v>0.3452164502164502</v>
+        <v>7.4712643678160925E-2</v>
       </c>
       <c r="D691">
         <v>2.6041666666666668E-2</v>
@@ -11090,7 +11090,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C692" s="24">
-        <v>0.3452164502164502</v>
+        <v>4.2492917847025496E-2</v>
       </c>
       <c r="D692">
         <v>3.6458333333333336E-2</v>
@@ -11107,7 +11107,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C693" s="24">
-        <v>0.3452164502164502</v>
+        <v>4.2492917847025496E-2</v>
       </c>
       <c r="D693">
         <v>3.6458333333333336E-2</v>
@@ -11124,7 +11124,7 @@
         <v>0.25</v>
       </c>
       <c r="C694" s="24">
-        <v>0.3452164502164502</v>
+        <v>3.9660056657223795E-2</v>
       </c>
       <c r="D694">
         <v>3.125E-2</v>
@@ -11141,7 +11141,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C695" s="24">
-        <v>0.3452164502164502</v>
+        <v>3.9660056657223795E-2</v>
       </c>
       <c r="D695">
         <v>3.125E-2</v>
@@ -11158,7 +11158,7 @@
         <v>0.25</v>
       </c>
       <c r="C696" s="24">
-        <v>0.3452164502164502</v>
+        <v>4.8158640226628892E-2</v>
       </c>
       <c r="D696">
         <v>3.125E-2</v>
@@ -11175,7 +11175,7 @@
         <v>0.25</v>
       </c>
       <c r="C697" s="24">
-        <v>0.3452164502164502</v>
+        <v>4.5325779036827198E-2</v>
       </c>
       <c r="D697">
         <v>2.6041666666666668E-2</v>
@@ -11192,7 +11192,7 @@
         <v>0.25</v>
       </c>
       <c r="C698" s="24">
-        <v>0.3452164502164502</v>
+        <v>4.5325779036827198E-2</v>
       </c>
       <c r="D698">
         <v>2.6041666666666668E-2</v>
@@ -11209,7 +11209,7 @@
         <v>0.25</v>
       </c>
       <c r="C699" s="24">
-        <v>0.3452164502164502</v>
+        <v>4.5325779036827198E-2</v>
       </c>
       <c r="D699">
         <v>2.6041666666666668E-2</v>
@@ -11226,7 +11226,7 @@
         <v>0.25</v>
       </c>
       <c r="C700" s="24">
-        <v>0.3452164502164502</v>
+        <v>4.5325779036827198E-2</v>
       </c>
       <c r="D700">
         <v>2.6041666666666668E-2</v>
@@ -11243,7 +11243,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="C701" s="24">
-        <v>0.3452164502164502</v>
+        <v>4.2492917847025496E-2</v>
       </c>
       <c r="D701" s="24">
         <v>2.6041666666666668E-2</v>
@@ -11260,7 +11260,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="C702" s="24">
-        <v>0.3452164502164502</v>
+        <v>4.2492917847025496E-2</v>
       </c>
       <c r="D702" s="24">
         <v>2.6041666666666668E-2</v>
@@ -11277,7 +11277,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="C703" s="24">
-        <v>0.3452164502164502</v>
+        <v>3.9660056657223795E-2</v>
       </c>
       <c r="D703">
         <v>3.125E-2</v>
@@ -11294,7 +11294,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="C704" s="24">
-        <v>0.3452164502164502</v>
+        <v>4.5801526717557252E-2</v>
       </c>
       <c r="D704">
         <v>3.0973451327433628E-2</v>
@@ -11311,7 +11311,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="C705" s="24">
-        <v>0.3452164502164502</v>
+        <v>4.6997389033942558E-2</v>
       </c>
       <c r="D705">
         <v>3.0973451327433628E-2</v>
@@ -11328,7 +11328,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C706" s="24">
-        <v>0.3452164502164502</v>
+        <v>4.2492917847025496E-2</v>
       </c>
       <c r="D706">
         <v>3.125E-2</v>
@@ -11345,7 +11345,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C707" s="24">
-        <v>0.3452164502164502</v>
+        <v>4.2492917847025496E-2</v>
       </c>
       <c r="D707" s="24">
         <v>3.125E-2</v>
@@ -11362,7 +11362,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C708" s="24">
-        <v>0.3452164502164502</v>
+        <v>4.5325779036827198E-2</v>
       </c>
       <c r="D708">
         <v>3.6458333333333336E-2</v>
@@ -11379,7 +11379,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C709" s="24">
-        <v>0.3452164502164502</v>
+        <v>4.5325779036827198E-2</v>
       </c>
       <c r="D709" s="24">
         <v>3.6458333333333336E-2</v>
@@ -11396,13 +11396,47 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C710" s="24">
-        <v>0.3452164502164502</v>
+        <v>5.6657223796033995E-2</v>
       </c>
       <c r="D710">
-        <v>8.0745341614906832E-2</v>
+        <v>3.6458333333333336E-2</v>
       </c>
       <c r="E710">
         <v>0.35714285714285715</v>
+      </c>
+    </row>
+    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A711" s="20">
+        <v>44722</v>
+      </c>
+      <c r="B711">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="C711" s="24">
+        <v>5.9154929577464786E-2</v>
+      </c>
+      <c r="D711">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E711">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A712" s="20">
+        <v>44723</v>
+      </c>
+      <c r="B712" s="24">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="C712" s="24">
+        <v>5.9154929577464786E-2</v>
+      </c>
+      <c r="D712">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E712">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -415,11 +415,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E712"/>
+  <dimension ref="A1:E715"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A691" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J708" sqref="J708"/>
+      <pane ySplit="1" topLeftCell="A694" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M706" sqref="M706"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11439,6 +11439,57 @@
         <v>0</v>
       </c>
     </row>
+    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A713" s="20">
+        <v>44724</v>
+      </c>
+      <c r="B713">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="C713">
+        <v>7.421875E-2</v>
+      </c>
+      <c r="D713">
+        <v>3.125E-2</v>
+      </c>
+      <c r="E713">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A714" s="20">
+        <v>44725</v>
+      </c>
+      <c r="B714">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="C714">
+        <v>7.421875E-2</v>
+      </c>
+      <c r="D714">
+        <v>3.125E-2</v>
+      </c>
+      <c r="E714">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A715" s="20">
+        <v>44726</v>
+      </c>
+      <c r="B715">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="C715">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="D715">
+        <v>3.9823008849557522E-2</v>
+      </c>
+      <c r="E715" s="24">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -415,11 +415,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E715"/>
+  <dimension ref="A1:E716"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A694" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M706" sqref="M706"/>
+      <selection pane="bottomLeft" activeCell="D716" sqref="D716"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11490,6 +11490,23 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
+    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A716" s="20">
+        <v>44727</v>
+      </c>
+      <c r="B716">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="C716">
+        <v>7.421875E-2</v>
+      </c>
+      <c r="D716">
+        <v>3.6458333333333336E-2</v>
+      </c>
+      <c r="E716">
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -415,11 +415,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E716"/>
+  <dimension ref="A1:E719"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A694" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D716" sqref="D716"/>
+      <selection pane="bottomLeft" activeCell="I716" sqref="I716"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11507,6 +11507,57 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
+    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A717" s="20">
+        <v>44728</v>
+      </c>
+      <c r="B717" s="24">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="C717">
+        <v>5.9288537549407112E-2</v>
+      </c>
+      <c r="D717">
+        <v>3.125E-2</v>
+      </c>
+      <c r="E717">
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A718" s="20">
+        <v>44729</v>
+      </c>
+      <c r="B718" s="24">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="C718">
+        <v>7.9051383399209488E-2</v>
+      </c>
+      <c r="D718">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E718">
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A719" s="20">
+        <v>44730</v>
+      </c>
+      <c r="B719" s="24">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="C719">
+        <v>7.9051383399209488E-2</v>
+      </c>
+      <c r="D719">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E719">
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -415,11 +415,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E719"/>
+  <dimension ref="A1:E722"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A694" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I716" sqref="I716"/>
+      <pane ySplit="1" topLeftCell="A703" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J710" sqref="J710"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11558,6 +11558,57 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
+    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A720" s="20">
+        <v>44731</v>
+      </c>
+      <c r="B720">
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="C720">
+        <v>0.22950819672131148</v>
+      </c>
+      <c r="D720">
+        <v>3.6458333333333336E-2</v>
+      </c>
+      <c r="E720">
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A721" s="20">
+        <v>44732</v>
+      </c>
+      <c r="B721">
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="C721">
+        <v>0.22950819672131148</v>
+      </c>
+      <c r="D721">
+        <v>3.6458333333333336E-2</v>
+      </c>
+      <c r="E721">
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A722" s="20">
+        <v>44733</v>
+      </c>
+      <c r="B722">
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="C722">
+        <v>0.22950819672131148</v>
+      </c>
+      <c r="D722">
+        <v>3.6458333333333336E-2</v>
+      </c>
+      <c r="E722">
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -415,11 +415,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E722"/>
+  <dimension ref="A1:E723"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A703" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J710" sqref="J710"/>
+      <selection pane="bottomLeft" activeCell="H721" sqref="H721"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11566,7 +11566,7 @@
         <v>0.15384615384615385</v>
       </c>
       <c r="C720">
-        <v>0.22950819672131148</v>
+        <v>8.3003952569169967E-2</v>
       </c>
       <c r="D720">
         <v>3.6458333333333336E-2</v>
@@ -11583,7 +11583,7 @@
         <v>0.15384615384615385</v>
       </c>
       <c r="C721">
-        <v>0.22950819672131148</v>
+        <v>8.3003952569169967E-2</v>
       </c>
       <c r="D721">
         <v>3.6458333333333336E-2</v>
@@ -11600,12 +11600,29 @@
         <v>0.15384615384615385</v>
       </c>
       <c r="C722">
-        <v>0.22950819672131148</v>
+        <v>8.3003952569169967E-2</v>
       </c>
       <c r="D722">
         <v>3.6458333333333336E-2</v>
       </c>
       <c r="E722">
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A723" s="20">
+        <v>44734</v>
+      </c>
+      <c r="B723" s="24">
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="C723">
+        <v>9.4861660079051377E-2</v>
+      </c>
+      <c r="D723">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E723" s="24">
         <v>0.38461538461538464</v>
       </c>
     </row>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -139,7 +139,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -415,11 +426,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E723"/>
+  <dimension ref="A1:E724"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A703" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H721" sqref="H721"/>
+      <selection pane="bottomLeft" activeCell="H722" sqref="H722"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11626,6 +11637,23 @@
         <v>0.38461538461538464</v>
       </c>
     </row>
+    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A724" s="20">
+        <v>44735</v>
+      </c>
+      <c r="B724" s="24">
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="C724">
+        <v>0.11462450592885376</v>
+      </c>
+      <c r="D724">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="E724" s="24">
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enemi\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4BFB0A-D38D-4B1E-917D-BB1806BBF9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,14 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -52,7 +45,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -139,18 +132,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -425,12 +407,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E724"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E727"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A703" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H722" sqref="H722"/>
+      <selection pane="bottomLeft" activeCell="E724" sqref="E724:E727"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11654,6 +11636,57 @@
         <v>0.38461538461538464</v>
       </c>
     </row>
+    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A725" s="20">
+        <v>44736</v>
+      </c>
+      <c r="B725" s="24">
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="C725" s="24">
+        <v>0.11462450592885376</v>
+      </c>
+      <c r="D725" s="24">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="E725" s="24">
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A726" s="20">
+        <v>44737</v>
+      </c>
+      <c r="B726" s="24">
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="C726" s="24">
+        <v>0.11462450592885376</v>
+      </c>
+      <c r="D726" s="24">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="E726" s="24">
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A727" s="20">
+        <v>44738</v>
+      </c>
+      <c r="B727" s="24">
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="C727" s="24">
+        <v>0.11462450592885376</v>
+      </c>
+      <c r="D727" s="24">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="E727" s="24">
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enemi\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4BFB0A-D38D-4B1E-917D-BB1806BBF9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -407,12 +406,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E727"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E728"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A703" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E724" sqref="E724:E727"/>
+      <pane ySplit="1" topLeftCell="A709" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I727" sqref="I727"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11687,6 +11686,23 @@
         <v>0.38461538461538464</v>
       </c>
     </row>
+    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A728" s="20">
+        <v>44739</v>
+      </c>
+      <c r="B728" s="24">
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="C728" s="24">
+        <v>0.16205533596837945</v>
+      </c>
+      <c r="D728" s="24">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="E728" s="24">
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -407,11 +407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E728"/>
+  <dimension ref="A1:E729"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A709" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I727" sqref="I727"/>
+      <selection pane="bottomLeft" activeCell="J722" sqref="J722"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11703,6 +11703,23 @@
         <v>0.38461538461538464</v>
       </c>
     </row>
+    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A729" s="20">
+        <v>44740</v>
+      </c>
+      <c r="B729">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="C729">
+        <v>0.1541501976284585</v>
+      </c>
+      <c r="D729">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="E729">
+        <v>0.23076923076923078</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -131,7 +131,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -407,11 +418,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E729"/>
+  <dimension ref="A1:E731"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A709" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J722" sqref="J722"/>
+      <selection pane="bottomLeft" activeCell="J721" sqref="J721"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11720,6 +11731,40 @@
         <v>0.23076923076923078</v>
       </c>
     </row>
+    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A730" s="20">
+        <v>44741</v>
+      </c>
+      <c r="B730">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="C730">
+        <v>0.16867469879518071</v>
+      </c>
+      <c r="D730">
+        <v>3.125E-2</v>
+      </c>
+      <c r="E730">
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
+    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A731" s="20">
+        <v>44742</v>
+      </c>
+      <c r="B731">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="C731">
+        <v>0.16867469879518071</v>
+      </c>
+      <c r="D731">
+        <v>3.125E-2</v>
+      </c>
+      <c r="E731">
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -131,18 +131,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -418,11 +407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E731"/>
+  <dimension ref="A1:E733"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A709" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J721" sqref="J721"/>
+      <pane ySplit="1" topLeftCell="A724" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J735" sqref="J735"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11765,6 +11754,40 @@
         <v>0.46153846153846156</v>
       </c>
     </row>
+    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A732" s="20">
+        <v>44743</v>
+      </c>
+      <c r="B732">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="C732">
+        <v>0.1541501976284585</v>
+      </c>
+      <c r="D732">
+        <v>3.125E-2</v>
+      </c>
+      <c r="E732">
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
+    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A733" s="20">
+        <v>44744</v>
+      </c>
+      <c r="B733">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="C733">
+        <v>0.1541501976284585</v>
+      </c>
+      <c r="D733">
+        <v>3.125E-2</v>
+      </c>
+      <c r="E733">
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -407,11 +407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E733"/>
+  <dimension ref="A1:E735"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A724" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J735" sqref="J735"/>
+      <selection pane="bottomLeft" activeCell="H746" sqref="H746"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11788,6 +11788,40 @@
         <v>0.46153846153846156</v>
       </c>
     </row>
+    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A734" s="20">
+        <v>44745</v>
+      </c>
+      <c r="B734">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="C734">
+        <v>0.155893536121673</v>
+      </c>
+      <c r="D734">
+        <v>6.9306930693069313E-2</v>
+      </c>
+      <c r="E734">
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A735" s="20">
+        <v>44746</v>
+      </c>
+      <c r="B735">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="C735">
+        <v>0.155893536121673</v>
+      </c>
+      <c r="D735">
+        <v>6.9306930693069313E-2</v>
+      </c>
+      <c r="E735">
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -407,11 +407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E735"/>
+  <dimension ref="A1:E736"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A724" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H746" sqref="H746"/>
+      <selection pane="bottomLeft" activeCell="G742" sqref="G742"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11822,6 +11822,23 @@
         <v>0.38461538461538464</v>
       </c>
     </row>
+    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A736" s="20">
+        <v>44747</v>
+      </c>
+      <c r="B736">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="C736">
+        <v>0.16996047430830039</v>
+      </c>
+      <c r="D736">
+        <v>7.4257425742574254E-2</v>
+      </c>
+      <c r="E736">
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -407,11 +407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E736"/>
+  <dimension ref="A1:E737"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A724" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G742" sqref="G742"/>
+      <pane ySplit="1" topLeftCell="A718" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F742" sqref="F742"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11839,6 +11839,23 @@
         <v>0.38461538461538464</v>
       </c>
     </row>
+    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A737" s="20">
+        <v>44748</v>
+      </c>
+      <c r="B737">
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="C737">
+        <v>0.16153846153846155</v>
+      </c>
+      <c r="D737">
+        <v>5.7291666666666664E-2</v>
+      </c>
+      <c r="E737">
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -407,11 +407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E737"/>
+  <dimension ref="A1:E738"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A718" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F742" sqref="F742"/>
+      <selection pane="bottomLeft" activeCell="H740" sqref="H740"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11856,6 +11856,23 @@
         <v>0.38461538461538464</v>
       </c>
     </row>
+    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A738" s="20">
+        <v>44749</v>
+      </c>
+      <c r="B738">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="C738">
+        <v>0.18560606060606061</v>
+      </c>
+      <c r="D738">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E738">
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -407,11 +407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E738"/>
+  <dimension ref="A1:E739"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A718" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H740" sqref="H740"/>
+      <selection pane="bottomLeft" activeCell="H731" sqref="H731"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11873,6 +11873,23 @@
         <v>0.38461538461538464</v>
       </c>
     </row>
+    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A739" s="20">
+        <v>44750</v>
+      </c>
+      <c r="B739">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="C739">
+        <v>0.21568627450980393</v>
+      </c>
+      <c r="D739">
+        <v>7.1038251366120214E-2</v>
+      </c>
+      <c r="E739">
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -131,7 +131,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -407,11 +418,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E739"/>
+  <dimension ref="A1:E742"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A718" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H731" sqref="H731"/>
+      <selection pane="bottomLeft" activeCell="E742" sqref="E742"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11890,6 +11901,57 @@
         <v>0.38461538461538464</v>
       </c>
     </row>
+    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A740" s="20">
+        <v>44751</v>
+      </c>
+      <c r="B740">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="C740" s="24">
+        <v>0.21568627450980393</v>
+      </c>
+      <c r="D740">
+        <v>7.1038251366120214E-2</v>
+      </c>
+      <c r="E740" s="24">
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A741" s="20">
+        <v>44752</v>
+      </c>
+      <c r="B741">
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="C741">
+        <v>0.27586206896551724</v>
+      </c>
+      <c r="D741">
+        <v>9.2391304347826081E-2</v>
+      </c>
+      <c r="E741" s="24">
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A742" s="20">
+        <v>44753</v>
+      </c>
+      <c r="B742">
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="C742">
+        <v>0.27586206896551724</v>
+      </c>
+      <c r="D742">
+        <v>9.2391304347826081E-2</v>
+      </c>
+      <c r="E742" s="24">
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -131,18 +131,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -418,11 +407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E742"/>
+  <dimension ref="A1:E743"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A718" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E742" sqref="E742"/>
+      <selection pane="bottomLeft" activeCell="H736" sqref="H736"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11952,6 +11941,23 @@
         <v>0.38461538461538464</v>
       </c>
     </row>
+    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A743" s="20">
+        <v>44754</v>
+      </c>
+      <c r="B743">
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="C743">
+        <v>0.24060150375939848</v>
+      </c>
+      <c r="D743">
+        <v>8.1967213114754092E-2</v>
+      </c>
+      <c r="E743">
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -407,11 +407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E743"/>
+  <dimension ref="A1:E744"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A718" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H736" sqref="H736"/>
+      <selection pane="bottomLeft" activeCell="I734" sqref="I734"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11955,6 +11955,23 @@
         <v>8.1967213114754092E-2</v>
       </c>
       <c r="E743">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A744" s="20">
+        <v>44755</v>
+      </c>
+      <c r="B744">
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="C744">
+        <v>0.24242424242424243</v>
+      </c>
+      <c r="D744">
+        <v>7.1038251366120214E-2</v>
+      </c>
+      <c r="E744">
         <v>0.38461538461538464</v>
       </c>
     </row>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -407,11 +407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E744"/>
+  <dimension ref="A1:E745"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A718" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I734" sqref="I734"/>
+      <pane ySplit="1" topLeftCell="A724" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D745" sqref="D745"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11975,6 +11975,23 @@
         <v>0.38461538461538464</v>
       </c>
     </row>
+    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A745" s="20">
+        <v>44756</v>
+      </c>
+      <c r="B745">
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="C745">
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="D745">
+        <v>0.10382513661202186</v>
+      </c>
+      <c r="E745">
+        <v>0.69230769230769229</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -407,11 +407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E745"/>
+  <dimension ref="A1:E747"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A724" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D745" sqref="D745"/>
+      <selection pane="bottomLeft" activeCell="I738" sqref="I738"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11992,6 +11992,40 @@
         <v>0.69230769230769229</v>
       </c>
     </row>
+    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A746" s="20">
+        <v>44757</v>
+      </c>
+      <c r="B746">
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="C746">
+        <v>0.28030303030303028</v>
+      </c>
+      <c r="D746">
+        <v>0.125</v>
+      </c>
+      <c r="E746">
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A747" s="20">
+        <v>44758</v>
+      </c>
+      <c r="B747">
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="C747">
+        <v>0.28030303030303028</v>
+      </c>
+      <c r="D747">
+        <v>0.125</v>
+      </c>
+      <c r="E747" s="24">
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -407,11 +407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E747"/>
+  <dimension ref="A1:E749"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A724" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I738" sqref="I738"/>
+      <selection pane="bottomLeft" activeCell="L739" sqref="L739"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12026,6 +12026,40 @@
         <v>0.76923076923076927</v>
       </c>
     </row>
+    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A748" s="20">
+        <v>44759</v>
+      </c>
+      <c r="B748">
+        <v>0.36842105263157893</v>
+      </c>
+      <c r="C748">
+        <v>0.25555555555555554</v>
+      </c>
+      <c r="D748">
+        <v>0.1164021164021164</v>
+      </c>
+      <c r="E748">
+        <v>0.61538461538461542</v>
+      </c>
+    </row>
+    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A749" s="20">
+        <v>44760</v>
+      </c>
+      <c r="B749">
+        <v>0.36842105263157893</v>
+      </c>
+      <c r="C749">
+        <v>0.25555555555555554</v>
+      </c>
+      <c r="D749">
+        <v>0.1164021164021164</v>
+      </c>
+      <c r="E749">
+        <v>0.61538461538461542</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -131,7 +131,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -407,11 +418,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E749"/>
+  <dimension ref="A1:E751"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A724" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L739" sqref="L739"/>
+      <pane ySplit="1" topLeftCell="A730" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C755" sqref="C755"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12060,6 +12071,40 @@
         <v>0.61538461538461542</v>
       </c>
     </row>
+    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A750" s="20">
+        <v>44761</v>
+      </c>
+      <c r="B750">
+        <v>0.36842105263157893</v>
+      </c>
+      <c r="C750">
+        <v>0.29435483870967744</v>
+      </c>
+      <c r="D750">
+        <v>0.25093632958801498</v>
+      </c>
+      <c r="E750">
+        <v>0.69230769230769229</v>
+      </c>
+    </row>
+    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A751" s="20">
+        <v>44762</v>
+      </c>
+      <c r="B751">
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="C751">
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="D751">
+        <v>0.29435483870967744</v>
+      </c>
+      <c r="E751">
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -131,18 +131,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -418,11 +407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E751"/>
+  <dimension ref="A1:E752"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A730" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C755" sqref="C755"/>
+      <pane ySplit="1" topLeftCell="A727" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I750" sqref="I750"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12079,7 +12068,7 @@
         <v>0.36842105263157893</v>
       </c>
       <c r="C750">
-        <v>0.29435483870967744</v>
+        <v>0.25093632958801498</v>
       </c>
       <c r="D750">
         <v>0.25093632958801498</v>
@@ -12096,13 +12085,30 @@
         <v>0.31578947368421051</v>
       </c>
       <c r="C751">
-        <v>0.27272727272727271</v>
+        <v>0.29435483870967744</v>
       </c>
       <c r="D751">
         <v>0.29435483870967744</v>
       </c>
       <c r="E751">
         <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A752" s="20">
+        <v>44763</v>
+      </c>
+      <c r="B752">
+        <v>0.36842105263157893</v>
+      </c>
+      <c r="C752">
+        <v>0.32129963898916969</v>
+      </c>
+      <c r="D752" s="24">
+        <v>0.12105263157894737</v>
+      </c>
+      <c r="E752">
+        <v>0.76923076923076927</v>
       </c>
     </row>
   </sheetData>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -407,11 +407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E752"/>
+  <dimension ref="A1:E756"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A727" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I750" sqref="I750"/>
+      <pane ySplit="1" topLeftCell="A733" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I749" sqref="I749"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12111,6 +12111,74 @@
         <v>0.76923076923076927</v>
       </c>
     </row>
+    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A753" s="20">
+        <v>44764</v>
+      </c>
+      <c r="B753">
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="C753">
+        <v>0.30935251798561153</v>
+      </c>
+      <c r="D753">
+        <v>0.12105263157894737</v>
+      </c>
+      <c r="E753">
+        <v>0.84615384615384615</v>
+      </c>
+    </row>
+    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A754" s="20">
+        <v>44765</v>
+      </c>
+      <c r="B754">
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="C754">
+        <v>0.30935251798561153</v>
+      </c>
+      <c r="D754">
+        <v>0.12105263157894737</v>
+      </c>
+      <c r="E754">
+        <v>0.84615384615384615</v>
+      </c>
+    </row>
+    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A755" s="20">
+        <v>44766</v>
+      </c>
+      <c r="B755">
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="C755">
+        <v>0.29151291512915128</v>
+      </c>
+      <c r="D755">
+        <v>0.1164021164021164</v>
+      </c>
+      <c r="E755">
+        <v>0.61538461538461542</v>
+      </c>
+    </row>
+    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A756" s="20">
+        <v>44767</v>
+      </c>
+      <c r="B756">
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="C756">
+        <v>0.29259259259259257</v>
+      </c>
+      <c r="D756">
+        <v>0.1164021164021164</v>
+      </c>
+      <c r="E756">
+        <v>0.61538461538461542</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -407,11 +407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E756"/>
+  <dimension ref="A1:E757"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A733" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I749" sqref="I749"/>
+      <selection pane="bottomLeft" activeCell="H752" sqref="H752"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12179,6 +12179,23 @@
         <v>0.61538461538461542</v>
       </c>
     </row>
+    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A757" s="20">
+        <v>44768</v>
+      </c>
+      <c r="B757">
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="C757">
+        <v>0.30542986425339369</v>
+      </c>
+      <c r="D757">
+        <v>0.121875</v>
+      </c>
+      <c r="E757">
+        <v>0.69230769230769229</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -407,11 +407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E757"/>
+  <dimension ref="A1:E758"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A733" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H752" sqref="H752"/>
+      <selection pane="bottomLeft" activeCell="E742" sqref="E742"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12196,6 +12196,23 @@
         <v>0.69230769230769229</v>
       </c>
     </row>
+    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A758" s="20">
+        <v>44769</v>
+      </c>
+      <c r="B758">
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="C758">
+        <v>0.24264705882352941</v>
+      </c>
+      <c r="D758">
+        <v>5.7894736842105263E-2</v>
+      </c>
+      <c r="E758">
+        <v>0.69230769230769229</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -407,11 +407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E758"/>
+  <dimension ref="A1:E763"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A733" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E742" sqref="E742"/>
+      <pane ySplit="1" topLeftCell="A742" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D763" sqref="D763"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12213,6 +12213,91 @@
         <v>0.69230769230769229</v>
       </c>
     </row>
+    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A759" s="20">
+        <v>44770</v>
+      </c>
+      <c r="B759">
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="C759">
+        <v>0.23826714801444043</v>
+      </c>
+      <c r="D759">
+        <v>5.7894736842105263E-2</v>
+      </c>
+      <c r="E759">
+        <v>0.69230769230769229</v>
+      </c>
+    </row>
+    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A760" s="20">
+        <v>44771</v>
+      </c>
+      <c r="B760">
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="C760">
+        <v>0.23741007194244604</v>
+      </c>
+      <c r="D760">
+        <v>5.7894736842105263E-2</v>
+      </c>
+      <c r="E760">
+        <v>0.69230769230769229</v>
+      </c>
+    </row>
+    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A761" s="20">
+        <v>44772</v>
+      </c>
+      <c r="B761">
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="C761">
+        <v>0.23741007194244604</v>
+      </c>
+      <c r="D761">
+        <v>5.7894736842105263E-2</v>
+      </c>
+      <c r="E761">
+        <v>0.69230769230769229</v>
+      </c>
+    </row>
+    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A762" s="20">
+        <v>44773</v>
+      </c>
+      <c r="B762">
+        <v>0.36842105263157893</v>
+      </c>
+      <c r="C762">
+        <v>0.23636363636363636</v>
+      </c>
+      <c r="D762">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="E762">
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A763" s="20">
+        <v>44774</v>
+      </c>
+      <c r="B763">
+        <v>0.36842105263157893</v>
+      </c>
+      <c r="C763">
+        <v>0.23636363636363636</v>
+      </c>
+      <c r="D763">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="E763">
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -407,11 +407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E763"/>
+  <dimension ref="A1:E764"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A742" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D763" sqref="D763"/>
+      <selection pane="bottomLeft" activeCell="E764" sqref="E764"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12298,6 +12298,23 @@
         <v>0.53846153846153844</v>
       </c>
     </row>
+    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A764" s="20">
+        <v>44775</v>
+      </c>
+      <c r="B764">
+        <v>0.36842105263157893</v>
+      </c>
+      <c r="C764">
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="D764">
+        <v>6.3157894736842107E-2</v>
+      </c>
+      <c r="E764">
+        <v>0.61538461538461542</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -407,11 +407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E764"/>
+  <dimension ref="A1:E766"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A742" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E764" sqref="E764"/>
+      <selection pane="bottomLeft" activeCell="J758" sqref="J758"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12315,6 +12315,40 @@
         <v>0.61538461538461542</v>
       </c>
     </row>
+    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A765" s="20">
+        <v>44776</v>
+      </c>
+      <c r="B765">
+        <v>0.42105263157894735</v>
+      </c>
+      <c r="C765">
+        <v>0.25818181818181818</v>
+      </c>
+      <c r="D765">
+        <v>6.3157894736842107E-2</v>
+      </c>
+      <c r="E765">
+        <v>0.69230769230769229</v>
+      </c>
+    </row>
+    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A766" s="20">
+        <v>44777</v>
+      </c>
+      <c r="B766">
+        <v>0.36842105263157893</v>
+      </c>
+      <c r="C766">
+        <v>0.24</v>
+      </c>
+      <c r="D766">
+        <v>6.3157894736842107E-2</v>
+      </c>
+      <c r="E766">
+        <v>0.69230769230769229</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -407,11 +407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E766"/>
+  <dimension ref="A1:E770"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A742" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J758" sqref="J758"/>
+      <pane ySplit="1" topLeftCell="A745" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M761" sqref="M761"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12349,6 +12349,74 @@
         <v>0.69230769230769229</v>
       </c>
     </row>
+    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A767" s="20">
+        <v>44778</v>
+      </c>
+      <c r="B767">
+        <v>0.36842105263157893</v>
+      </c>
+      <c r="C767">
+        <v>0.23722627737226276</v>
+      </c>
+      <c r="D767">
+        <v>6.3157894736842107E-2</v>
+      </c>
+      <c r="E767">
+        <v>0.69230769230769229</v>
+      </c>
+    </row>
+    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A768" s="20">
+        <v>44779</v>
+      </c>
+      <c r="B768">
+        <v>0.36842105263157893</v>
+      </c>
+      <c r="C768">
+        <v>0.23722627737226276</v>
+      </c>
+      <c r="D768">
+        <v>6.3157894736842107E-2</v>
+      </c>
+      <c r="E768">
+        <v>0.69230769230769229</v>
+      </c>
+    </row>
+    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A769" s="20">
+        <v>44780</v>
+      </c>
+      <c r="B769">
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="C769">
+        <v>0.22992700729927007</v>
+      </c>
+      <c r="D769">
+        <v>4.2553191489361701E-2</v>
+      </c>
+      <c r="E769">
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A770" s="20">
+        <v>44781</v>
+      </c>
+      <c r="B770">
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="C770">
+        <v>0.22992700729927007</v>
+      </c>
+      <c r="D770">
+        <v>4.2553191489361701E-2</v>
+      </c>
+      <c r="E770">
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -131,7 +131,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -407,11 +418,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E770"/>
+  <dimension ref="A1:E771"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A745" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M761" sqref="M761"/>
+      <selection pane="bottomLeft" activeCell="D771" sqref="D771"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12417,6 +12428,23 @@
         <v>0.53846153846153844</v>
       </c>
     </row>
+    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A771" s="20">
+        <v>44782</v>
+      </c>
+      <c r="B771">
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="C771">
+        <v>0.24444444444444444</v>
+      </c>
+      <c r="D771">
+        <v>4.8128342245989303E-2</v>
+      </c>
+      <c r="E771">
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -131,18 +131,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -418,11 +407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E771"/>
+  <dimension ref="A1:E772"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A745" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D771" sqref="D771"/>
+      <pane ySplit="1" topLeftCell="A754" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G776" sqref="G776"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12445,6 +12434,23 @@
         <v>0.53846153846153844</v>
       </c>
     </row>
+    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A772" s="20">
+        <v>44783</v>
+      </c>
+      <c r="B772">
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="C772">
+        <v>0.21323529411764705</v>
+      </c>
+      <c r="D772">
+        <v>5.2910052910052907E-2</v>
+      </c>
+      <c r="E772">
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -407,11 +407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E772"/>
+  <dimension ref="A1:E773"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A754" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G776" sqref="G776"/>
+      <selection pane="bottomLeft" activeCell="D773" sqref="D773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12451,6 +12451,23 @@
         <v>0.46153846153846156</v>
       </c>
     </row>
+    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A773" s="20">
+        <v>44784</v>
+      </c>
+      <c r="B773">
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="C773">
+        <v>0.21481481481481482</v>
+      </c>
+      <c r="D773">
+        <v>6.3492063492063489E-2</v>
+      </c>
+      <c r="E773">
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -407,11 +407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E773"/>
+  <dimension ref="A1:E778"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A754" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D773" sqref="D773"/>
+      <selection pane="bottomLeft" activeCell="H764" sqref="H764"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12462,10 +12462,95 @@
         <v>0.21481481481481482</v>
       </c>
       <c r="D773">
+        <v>6.3492063492063502E-2</v>
+      </c>
+      <c r="E773">
+        <v>0.53846153846153799</v>
+      </c>
+    </row>
+    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A774" s="20">
+        <v>44785</v>
+      </c>
+      <c r="B774" s="24">
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="C774">
+        <v>0.21111111111111111</v>
+      </c>
+      <c r="D774">
+        <v>5.8510638297872342E-2</v>
+      </c>
+      <c r="E774" s="24">
+        <v>0.53846153846153799</v>
+      </c>
+    </row>
+    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A775" s="20">
+        <v>44786</v>
+      </c>
+      <c r="B775" s="24">
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="C775">
+        <v>0.21111111111111111</v>
+      </c>
+      <c r="D775">
+        <v>5.8510638297872342E-2</v>
+      </c>
+      <c r="E775" s="24">
+        <v>0.53846153846153799</v>
+      </c>
+    </row>
+    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A776" s="20">
+        <v>44787</v>
+      </c>
+      <c r="B776" s="24">
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="C776">
+        <v>0.19926199261992619</v>
+      </c>
+      <c r="D776">
+        <v>5.3191489361702128E-2</v>
+      </c>
+      <c r="E776" s="24">
+        <v>0.53846153846153799</v>
+      </c>
+    </row>
+    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A777" s="20">
+        <v>44788</v>
+      </c>
+      <c r="B777" s="24">
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="C777">
+        <v>0.19926199261992619</v>
+      </c>
+      <c r="D777">
+        <v>5.3191489361702128E-2</v>
+      </c>
+      <c r="E777" s="24">
+        <v>0.53846153846153799</v>
+      </c>
+    </row>
+    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A778" s="20">
+        <v>44789</v>
+      </c>
+      <c r="B778" s="24">
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="C778">
+        <v>0.20370370370370369</v>
+      </c>
+      <c r="D778">
         <v>6.3492063492063489E-2</v>
       </c>
-      <c r="E773">
-        <v>0.53846153846153844</v>
+      <c r="E778" s="24">
+        <v>0.46153846153846156</v>
       </c>
     </row>
   </sheetData>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -407,11 +407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E778"/>
+  <dimension ref="A1:E779"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A754" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H764" sqref="H764"/>
+      <selection pane="bottomLeft" activeCell="I767" sqref="I767"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12553,6 +12553,23 @@
         <v>0.46153846153846156</v>
       </c>
     </row>
+    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A779" s="20">
+        <v>44790</v>
+      </c>
+      <c r="B779" s="24">
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="C779">
+        <v>0.2140221402214022</v>
+      </c>
+      <c r="D779">
+        <v>6.8783068783068779E-2</v>
+      </c>
+      <c r="E779">
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -407,11 +407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E779"/>
+  <dimension ref="A1:E780"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A754" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I767" sqref="I767"/>
+      <selection pane="bottomLeft" activeCell="E779" sqref="E779:E780"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12570,6 +12570,23 @@
         <v>0.53846153846153844</v>
       </c>
     </row>
+    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A780" s="20">
+        <v>44791</v>
+      </c>
+      <c r="B780" s="24">
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="C780">
+        <v>0.21111111111111111</v>
+      </c>
+      <c r="D780">
+        <v>9.4736842105263161E-2</v>
+      </c>
+      <c r="E780" s="24">
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -407,11 +407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E780"/>
+  <dimension ref="A1:E784"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A754" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E779" sqref="E779:E780"/>
+      <pane ySplit="1" topLeftCell="A763" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H776" sqref="H776"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12587,6 +12587,74 @@
         <v>0.53846153846153844</v>
       </c>
     </row>
+    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A781" s="20">
+        <v>44792</v>
+      </c>
+      <c r="B781" s="24">
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="C781">
+        <v>0.2</v>
+      </c>
+      <c r="D781">
+        <v>0.10106382978723404</v>
+      </c>
+      <c r="E781">
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
+    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A782" s="20">
+        <v>44793</v>
+      </c>
+      <c r="B782" s="24">
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="C782">
+        <v>0.2</v>
+      </c>
+      <c r="D782">
+        <v>0.10106382978723404</v>
+      </c>
+      <c r="E782" s="24">
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
+    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A783" s="20">
+        <v>44794</v>
+      </c>
+      <c r="B783" s="24">
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="C783">
+        <v>0.20229007633587787</v>
+      </c>
+      <c r="D783">
+        <v>9.4736842105263161E-2</v>
+      </c>
+      <c r="E783">
+        <v>0.63636363636363635</v>
+      </c>
+    </row>
+    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A784" s="20">
+        <v>44795</v>
+      </c>
+      <c r="B784" s="24">
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="C784">
+        <v>0.20229007633587787</v>
+      </c>
+      <c r="D784">
+        <v>9.4736842105263161E-2</v>
+      </c>
+      <c r="E784">
+        <v>0.63636363636363635</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -407,11 +407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E784"/>
+  <dimension ref="A1:E785"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A763" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H776" sqref="H776"/>
+      <selection pane="bottomLeft" activeCell="D785" sqref="D785"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12655,6 +12655,23 @@
         <v>0.63636363636363635</v>
       </c>
     </row>
+    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A785" s="20">
+        <v>44796</v>
+      </c>
+      <c r="B785" s="24">
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="C785">
+        <v>0.17307692307692307</v>
+      </c>
+      <c r="D785">
+        <v>5.8510638297872342E-2</v>
+      </c>
+      <c r="E785">
+        <v>0.72727272727272729</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -407,11 +407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E785"/>
+  <dimension ref="A1:E786"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A763" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D785" sqref="D785"/>
+      <selection pane="bottomLeft" activeCell="K779" sqref="K779"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12672,6 +12672,23 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
+    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A786" s="20">
+        <v>44797</v>
+      </c>
+      <c r="B786">
+        <v>0.5</v>
+      </c>
+      <c r="C786">
+        <v>0.17760617760617761</v>
+      </c>
+      <c r="D786">
+        <v>6.9518716577540107E-2</v>
+      </c>
+      <c r="E786">
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -407,11 +407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E786"/>
+  <dimension ref="A1:E787"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A763" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K779" sqref="K779"/>
+      <selection pane="bottomLeft" activeCell="H788" sqref="H788"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12689,6 +12689,23 @@
         <v>0.38461538461538464</v>
       </c>
     </row>
+    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A787" s="20">
+        <v>44798</v>
+      </c>
+      <c r="B787" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="C787">
+        <v>0.18076923076923077</v>
+      </c>
+      <c r="D787">
+        <v>6.4516129032258063E-2</v>
+      </c>
+      <c r="E787">
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -407,11 +407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E787"/>
+  <dimension ref="A1:E793"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A763" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H788" sqref="H788"/>
+      <pane ySplit="1" topLeftCell="A772" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G790" sqref="G790"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12706,6 +12706,108 @@
         <v>0.53846153846153844</v>
       </c>
     </row>
+    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A788" s="20">
+        <v>44799</v>
+      </c>
+      <c r="B788">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="C788">
+        <v>0.19083969465648856</v>
+      </c>
+      <c r="D788">
+        <v>6.9892473118279563E-2</v>
+      </c>
+      <c r="E788">
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
+    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A789" s="20">
+        <v>44800</v>
+      </c>
+      <c r="B789">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="C789" s="24">
+        <v>0.19083969465648856</v>
+      </c>
+      <c r="D789">
+        <v>6.9892473118279563E-2</v>
+      </c>
+      <c r="E789">
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
+    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A790" s="20">
+        <v>44801</v>
+      </c>
+      <c r="B790">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="C790">
+        <v>0.16858237547892721</v>
+      </c>
+      <c r="D790">
+        <v>4.8128342245989303E-2</v>
+      </c>
+      <c r="E790">
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A791" s="20">
+        <v>44802</v>
+      </c>
+      <c r="B791">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="C791">
+        <v>0.16858237547892721</v>
+      </c>
+      <c r="D791" s="24">
+        <v>4.8128342245989303E-2</v>
+      </c>
+      <c r="E791">
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A792" s="20">
+        <v>44803</v>
+      </c>
+      <c r="B792">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="C792">
+        <v>0.16858237547892721</v>
+      </c>
+      <c r="D792" s="24">
+        <v>4.8128342245989303E-2</v>
+      </c>
+      <c r="E792">
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A793" s="20">
+        <v>44804</v>
+      </c>
+      <c r="B793">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="C793">
+        <v>0.16858237547892721</v>
+      </c>
+      <c r="D793" s="24">
+        <v>4.8128342245989303E-2</v>
+      </c>
+      <c r="E793">
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -407,11 +407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E793"/>
+  <dimension ref="A1:E794"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A772" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G790" sqref="G790"/>
+      <selection pane="bottomLeft" activeCell="H789" sqref="H789"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12808,6 +12808,23 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
+    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A794" s="20">
+        <v>44805</v>
+      </c>
+      <c r="B794">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="C794">
+        <v>0.18390804597701149</v>
+      </c>
+      <c r="D794">
+        <v>5.3475935828877004E-2</v>
+      </c>
+      <c r="E794">
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -407,11 +407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E793"/>
+  <dimension ref="A1:E796"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A772" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G790" sqref="G790"/>
+      <selection pane="bottomLeft" activeCell="H788" sqref="H788"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12808,6 +12808,57 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
+    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A794" s="20">
+        <v>44805</v>
+      </c>
+      <c r="B794">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="C794">
+        <v>0.18390804597701149</v>
+      </c>
+      <c r="D794">
+        <v>5.3475935828877004E-2</v>
+      </c>
+      <c r="E794">
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A795" s="20">
+        <v>44806</v>
+      </c>
+      <c r="B795">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="C795">
+        <v>0.14885496183206107</v>
+      </c>
+      <c r="D795">
+        <v>6.9518716577540107E-2</v>
+      </c>
+      <c r="E795">
+        <v>0.15384615384615385</v>
+      </c>
+    </row>
+    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A796" s="20">
+        <v>44807</v>
+      </c>
+      <c r="B796">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="C796">
+        <v>0.14885496183206107</v>
+      </c>
+      <c r="D796">
+        <v>6.9518716577540107E-2</v>
+      </c>
+      <c r="E796">
+        <v>0.15384615384615385</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -407,11 +407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E796"/>
+  <dimension ref="A1:E798"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A772" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H788" sqref="H788"/>
+      <selection pane="bottomLeft" activeCell="J788" sqref="J788"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12859,6 +12859,40 @@
         <v>0.15384615384615385</v>
       </c>
     </row>
+    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A797" s="20">
+        <v>44808</v>
+      </c>
+      <c r="B797">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C797">
+        <v>0.15444015444015444</v>
+      </c>
+      <c r="D797">
+        <v>5.3475935828877004E-2</v>
+      </c>
+      <c r="E797">
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A798" s="20">
+        <v>44809</v>
+      </c>
+      <c r="B798">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C798">
+        <v>0.15444015444015444</v>
+      </c>
+      <c r="D798">
+        <v>5.3475935828877004E-2</v>
+      </c>
+      <c r="E798">
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -407,11 +407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E798"/>
+  <dimension ref="A1:E801"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A772" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J788" sqref="J788"/>
+      <pane ySplit="1" topLeftCell="A778" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J796" sqref="J796"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12870,7 +12870,7 @@
         <v>0.15444015444015444</v>
       </c>
       <c r="D797">
-        <v>5.3475935828877004E-2</v>
+        <v>0.15444015444015444</v>
       </c>
       <c r="E797">
         <v>0.53846153846153844</v>
@@ -12887,10 +12887,61 @@
         <v>0.15444015444015444</v>
       </c>
       <c r="D798">
-        <v>5.3475935828877004E-2</v>
+        <v>0.15444015444015444</v>
       </c>
       <c r="E798">
         <v>0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A799" s="20">
+        <v>44810</v>
+      </c>
+      <c r="B799" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C799">
+        <v>0.15953307392996108</v>
+      </c>
+      <c r="D799">
+        <v>0.15953307392996108</v>
+      </c>
+      <c r="E799">
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A800" s="20">
+        <v>44811</v>
+      </c>
+      <c r="B800" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C800">
+        <v>0.14509803921568629</v>
+      </c>
+      <c r="D800">
+        <v>0.14509803921568629</v>
+      </c>
+      <c r="E800">
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A801" s="20">
+        <v>44812</v>
+      </c>
+      <c r="B801" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C801">
+        <v>0.14509803921568629</v>
+      </c>
+      <c r="D801">
+        <v>0.14509803921568629</v>
+      </c>
+      <c r="E801">
+        <v>0.30769230769230771</v>
       </c>
     </row>
   </sheetData>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79473FA-762C-40F7-8E30-C6EBB3C40527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -406,12 +407,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E801"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E807"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A778" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J796" sqref="J796"/>
+      <selection pane="bottomLeft" activeCell="N795" sqref="N795"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12944,6 +12945,108 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
+    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A802" s="20">
+        <v>44813</v>
+      </c>
+      <c r="B802">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="C802">
+        <v>0.16030534351145037</v>
+      </c>
+      <c r="D802">
+        <v>6.9518716577540107E-2</v>
+      </c>
+      <c r="E802">
+        <v>0.15384615384615385</v>
+      </c>
+    </row>
+    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A803" s="20">
+        <v>44814</v>
+      </c>
+      <c r="B803">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="C803">
+        <v>0.16030534351145037</v>
+      </c>
+      <c r="D803">
+        <v>6.9518716577540107E-2</v>
+      </c>
+      <c r="E803">
+        <v>0.15384615384615385</v>
+      </c>
+    </row>
+    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A804" s="20">
+        <v>44815</v>
+      </c>
+      <c r="B804">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C804">
+        <v>0.14396887159533073</v>
+      </c>
+      <c r="D804">
+        <v>5.3475935828877004E-2</v>
+      </c>
+      <c r="E804">
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A805" s="20">
+        <v>44816</v>
+      </c>
+      <c r="B805">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C805">
+        <v>0.14396887159533073</v>
+      </c>
+      <c r="D805">
+        <v>5.3475935828877004E-2</v>
+      </c>
+      <c r="E805">
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A806" s="20">
+        <v>44817</v>
+      </c>
+      <c r="B806">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C806">
+        <v>0.14396887159533073</v>
+      </c>
+      <c r="D806">
+        <v>5.9459459459459463E-2</v>
+      </c>
+      <c r="E806">
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A807" s="20">
+        <v>44818</v>
+      </c>
+      <c r="B807">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C807">
+        <v>0.13953488372093023</v>
+      </c>
+      <c r="D807">
+        <v>4.8648648648648651E-2</v>
+      </c>
+      <c r="E807">
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79473FA-762C-40F7-8E30-C6EBB3C40527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31F0BAC-2B1A-4FA0-A0F9-305F0C24881A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -408,11 +408,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E807"/>
+  <dimension ref="A1:E808"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A778" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N795" sqref="N795"/>
+      <selection pane="bottomLeft" activeCell="H804" sqref="H804"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13047,6 +13047,23 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
+    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A808" s="20">
+        <v>44819</v>
+      </c>
+      <c r="B808" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C808">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="D808">
+        <v>3.7433155080213901E-2</v>
+      </c>
+      <c r="E808">
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31F0BAC-2B1A-4FA0-A0F9-305F0C24881A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6384B617-8051-496B-B795-4C818DA0D431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -408,11 +408,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E808"/>
+  <dimension ref="A1:E812"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A778" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H804" sqref="H804"/>
+      <selection pane="bottomLeft" activeCell="K798" sqref="K798"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13064,6 +13064,74 @@
         <v>0.53846153846153844</v>
       </c>
     </row>
+    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A809" s="20">
+        <v>44820</v>
+      </c>
+      <c r="B809">
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="C809">
+        <v>0.15</v>
+      </c>
+      <c r="D809">
+        <v>3.5928143712574849E-2</v>
+      </c>
+      <c r="E809">
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A810" s="20">
+        <v>44821</v>
+      </c>
+      <c r="B810">
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="C810">
+        <v>0.15</v>
+      </c>
+      <c r="D810">
+        <v>3.5928143712574849E-2</v>
+      </c>
+      <c r="E810">
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A811" s="20">
+        <v>44822</v>
+      </c>
+      <c r="B811">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="C811">
+        <v>0.14225941422594143</v>
+      </c>
+      <c r="D811">
+        <v>3.5928143712574849E-2</v>
+      </c>
+      <c r="E811" s="24">
+        <v>0.53846153846153799</v>
+      </c>
+    </row>
+    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A812" s="20">
+        <v>44823</v>
+      </c>
+      <c r="B812">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="C812">
+        <v>0.14225941422594143</v>
+      </c>
+      <c r="D812">
+        <v>3.5928143712574849E-2</v>
+      </c>
+      <c r="E812" s="24">
+        <v>0.53846153846153799</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6384B617-8051-496B-B795-4C818DA0D431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28965391-1146-4C81-ADD9-A757EBEE50C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -408,11 +408,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E812"/>
+  <dimension ref="A1:E817"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A778" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K798" sqref="K798"/>
+      <pane ySplit="1" topLeftCell="A781" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I801" sqref="I801"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13112,7 +13112,7 @@
         <v>3.5928143712574849E-2</v>
       </c>
       <c r="E811" s="24">
-        <v>0.53846153846153799</v>
+        <v>0.53846153846153844</v>
       </c>
     </row>
     <row r="812" spans="1:5" x14ac:dyDescent="0.25">
@@ -13129,7 +13129,92 @@
         <v>3.5928143712574849E-2</v>
       </c>
       <c r="E812" s="24">
-        <v>0.53846153846153799</v>
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A813" s="20">
+        <v>44824</v>
+      </c>
+      <c r="B813">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="C813">
+        <v>0.13127413127413126</v>
+      </c>
+      <c r="D813">
+        <v>3.2085561497326207E-2</v>
+      </c>
+      <c r="E813">
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A814" s="20">
+        <v>44825</v>
+      </c>
+      <c r="B814">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="C814">
+        <v>7.5949367088607597E-2</v>
+      </c>
+      <c r="D814">
+        <v>3.5928143712574849E-2</v>
+      </c>
+      <c r="E814">
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A815" s="20">
+        <v>44826</v>
+      </c>
+      <c r="B815">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C815">
+        <v>7.5949367088607597E-2</v>
+      </c>
+      <c r="D815">
+        <v>3.5928143712574849E-2</v>
+      </c>
+      <c r="E815">
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
+    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A816" s="20">
+        <v>44827</v>
+      </c>
+      <c r="B816">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="C816">
+        <v>7.9831932773109238E-2</v>
+      </c>
+      <c r="D816">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E816">
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
+    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A817" s="20">
+        <v>44828</v>
+      </c>
+      <c r="B817">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="C817">
+        <v>7.9831932773109238E-2</v>
+      </c>
+      <c r="D817">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E817">
+        <v>0.46153846153846156</v>
       </c>
     </row>
   </sheetData>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28965391-1146-4C81-ADD9-A757EBEE50C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966C3A8E-1000-42A3-BB1A-8CC989BD5D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -408,11 +408,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E817"/>
+  <dimension ref="A1:E820"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A781" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I801" sqref="I801"/>
+      <pane ySplit="1" topLeftCell="A787" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I812" sqref="I812"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13217,6 +13217,57 @@
         <v>0.46153846153846156</v>
       </c>
     </row>
+    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A818" s="20">
+        <v>44829</v>
+      </c>
+      <c r="B818">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="C818">
+        <v>7.5630252100840331E-2</v>
+      </c>
+      <c r="D818">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E818">
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A819" s="20">
+        <v>44830</v>
+      </c>
+      <c r="B819">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="C819">
+        <v>7.5630252100840331E-2</v>
+      </c>
+      <c r="D819">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E819">
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A820" s="20">
+        <v>44831</v>
+      </c>
+      <c r="B820">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="C820">
+        <v>7.5630252100840331E-2</v>
+      </c>
+      <c r="D820">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E820">
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966C3A8E-1000-42A3-BB1A-8CC989BD5D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED42C26-F5E5-45C8-B85C-7D98A691F21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -408,11 +408,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E820"/>
+  <dimension ref="A1:E826"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A787" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I812" sqref="I812"/>
+      <pane ySplit="1" topLeftCell="A793" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M815" sqref="M815"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13268,6 +13268,108 @@
         <v>0.38461538461538464</v>
       </c>
     </row>
+    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A821" s="20">
+        <v>44832</v>
+      </c>
+      <c r="B821">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="C821">
+        <v>7.5630252100840331E-2</v>
+      </c>
+      <c r="D821" s="24">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E821">
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
+    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A822" s="20">
+        <v>44833</v>
+      </c>
+      <c r="B822" s="24">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="C822" s="24">
+        <v>7.5630252100840331E-2</v>
+      </c>
+      <c r="D822" s="24">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E822" s="24">
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
+    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A823" s="20">
+        <v>44834</v>
+      </c>
+      <c r="B823" s="24">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="C823" s="24">
+        <v>7.5630252100840331E-2</v>
+      </c>
+      <c r="D823" s="24">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E823" s="24">
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
+    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A824" s="20">
+        <v>44835</v>
+      </c>
+      <c r="B824" s="24">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="C824" s="24">
+        <v>7.5630252100840331E-2</v>
+      </c>
+      <c r="D824" s="24">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E824" s="24">
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
+    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A825" s="20">
+        <v>44836</v>
+      </c>
+      <c r="B825">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C825">
+        <v>6.3025210084033612E-2</v>
+      </c>
+      <c r="D825">
+        <v>3.5928143712574849E-2</v>
+      </c>
+      <c r="E825">
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
+    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A826" s="20">
+        <v>44837</v>
+      </c>
+      <c r="B826">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C826">
+        <v>6.3025210084033612E-2</v>
+      </c>
+      <c r="D826">
+        <v>3.5928143712574849E-2</v>
+      </c>
+      <c r="E826">
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED42C26-F5E5-45C8-B85C-7D98A691F21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE9BC6E-CEA7-4C6A-A12F-0D6A4B28D471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -408,11 +408,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E826"/>
+  <dimension ref="A1:E828"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A793" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M815" sqref="M815"/>
+      <selection pane="bottomLeft" activeCell="I815" sqref="I815"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13370,6 +13370,40 @@
         <v>0.46153846153846156</v>
       </c>
     </row>
+    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A827" s="20">
+        <v>44838</v>
+      </c>
+      <c r="B827">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C827">
+        <v>6.3291139240506333E-2</v>
+      </c>
+      <c r="D827">
+        <v>3.5928143712574849E-2</v>
+      </c>
+      <c r="E827">
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A828" s="20">
+        <v>44839</v>
+      </c>
+      <c r="B828">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C828">
+        <v>8.0168776371308023E-2</v>
+      </c>
+      <c r="D828">
+        <v>3.5928143712574849E-2</v>
+      </c>
+      <c r="E828">
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE9BC6E-CEA7-4C6A-A12F-0D6A4B28D471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4D9D70-05E1-4B10-81F6-E3F4F49E3BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -408,11 +408,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E828"/>
+  <dimension ref="A1:E834"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A793" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I815" sqref="I815"/>
+      <pane ySplit="1" topLeftCell="A802" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I824" sqref="I824"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13404,6 +13404,108 @@
         <v>0.53846153846153844</v>
       </c>
     </row>
+    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A829" s="20">
+        <v>44840</v>
+      </c>
+      <c r="B829">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C829">
+        <v>6.3559322033898302E-2</v>
+      </c>
+      <c r="D829" s="24">
+        <v>3.5928143712574849E-2</v>
+      </c>
+      <c r="E829">
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
+    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A830" s="20">
+        <v>44841</v>
+      </c>
+      <c r="B830">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C830">
+        <v>6.3559322033898302E-2</v>
+      </c>
+      <c r="D830" s="24">
+        <v>3.5928143712574849E-2</v>
+      </c>
+      <c r="E830">
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
+    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A831" s="20">
+        <v>44842</v>
+      </c>
+      <c r="B831">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C831">
+        <v>6.3559322033898302E-2</v>
+      </c>
+      <c r="D831" s="24">
+        <v>3.5928143712574849E-2</v>
+      </c>
+      <c r="E831">
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
+    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A832" s="20">
+        <v>44843</v>
+      </c>
+      <c r="B832">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C832">
+        <v>8.050847457627118E-2</v>
+      </c>
+      <c r="D832">
+        <v>0.18840579710144928</v>
+      </c>
+      <c r="E832">
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="833" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A833" s="20">
+        <v>44844</v>
+      </c>
+      <c r="B833">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C833">
+        <v>8.050847457627118E-2</v>
+      </c>
+      <c r="D833">
+        <v>0.18840579710144928</v>
+      </c>
+      <c r="E833">
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="834" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A834" s="20">
+        <v>44845</v>
+      </c>
+      <c r="B834">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C834">
+        <v>8.050847457627118E-2</v>
+      </c>
+      <c r="D834">
+        <v>0.18840579710144928</v>
+      </c>
+      <c r="E834">
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4D9D70-05E1-4B10-81F6-E3F4F49E3BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9ED89F-04C2-4BE9-AD3C-7081C16E865A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -408,11 +408,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E834"/>
+  <dimension ref="A1:E838"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A802" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I824" sqref="I824"/>
+      <selection pane="bottomLeft" activeCell="K824" sqref="K824"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13466,7 +13466,7 @@
         <v>8.050847457627118E-2</v>
       </c>
       <c r="D832">
-        <v>0.18840579710144928</v>
+        <v>3.5928143712574849E-2</v>
       </c>
       <c r="E832">
         <v>0.38461538461538464</v>
@@ -13483,7 +13483,7 @@
         <v>8.050847457627118E-2</v>
       </c>
       <c r="D833">
-        <v>0.18840579710144928</v>
+        <v>3.5928143712574849E-2</v>
       </c>
       <c r="E833">
         <v>0.38461538461538464</v>
@@ -13500,9 +13500,77 @@
         <v>8.050847457627118E-2</v>
       </c>
       <c r="D834">
-        <v>0.18840579710144928</v>
+        <v>3.5928143712574849E-2</v>
       </c>
       <c r="E834">
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A835" s="20">
+        <v>44846</v>
+      </c>
+      <c r="B835" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C835">
+        <v>8.050847457627118E-2</v>
+      </c>
+      <c r="D835">
+        <v>3.5928143712574849E-2</v>
+      </c>
+      <c r="E835">
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A836" s="20">
+        <v>44847</v>
+      </c>
+      <c r="B836" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C836">
+        <v>8.4745762711864403E-2</v>
+      </c>
+      <c r="D836">
+        <v>3.5928143712574849E-2</v>
+      </c>
+      <c r="E836">
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A837" s="20">
+        <v>44848</v>
+      </c>
+      <c r="B837" s="24">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="C837">
+        <v>8.4745762711864403E-2</v>
+      </c>
+      <c r="D837">
+        <v>3.5928143712574849E-2</v>
+      </c>
+      <c r="E837">
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A838" s="20">
+        <v>44849</v>
+      </c>
+      <c r="B838" s="24">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="C838">
+        <v>8.4745762711864403E-2</v>
+      </c>
+      <c r="D838">
+        <v>3.5928143712574849E-2</v>
+      </c>
+      <c r="E838">
         <v>0.38461538461538464</v>
       </c>
     </row>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enemi\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9ED89F-04C2-4BE9-AD3C-7081C16E865A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004CCC86-6CB2-4998-9039-9778BA447819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,14 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -102,32 +110,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,11 +394,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E838"/>
+  <dimension ref="A1:E849"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A802" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K824" sqref="K824"/>
+      <pane ySplit="1" topLeftCell="A820" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I838" sqref="I838"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,7 +427,7 @@
       <c r="A2" s="1">
         <v>44013</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>0.77777777777777779</v>
       </c>
       <c r="C2">
@@ -452,7 +438,7 @@
       <c r="A3" s="1">
         <v>44014</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>0.72222222222222221</v>
       </c>
       <c r="C3">
@@ -463,7 +449,7 @@
       <c r="A4" s="1">
         <v>44015</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>0.72222222222222221</v>
       </c>
       <c r="C4">
@@ -474,7 +460,7 @@
       <c r="A5" s="1">
         <v>44016</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>0.77777777777777779</v>
       </c>
       <c r="C5">
@@ -485,7 +471,7 @@
       <c r="A6" s="1">
         <v>44017</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>0.88888888888888884</v>
       </c>
       <c r="C6">
@@ -496,7 +482,7 @@
       <c r="A7" s="1">
         <v>44018</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>0.65217391304347827</v>
       </c>
       <c r="C7">
@@ -507,7 +493,7 @@
       <c r="A8" s="1">
         <v>44019</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>0.60869565217391308</v>
       </c>
       <c r="C8">
@@ -518,7 +504,7 @@
       <c r="A9" s="1">
         <v>44020</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>0.57692307692307687</v>
       </c>
       <c r="C9">
@@ -529,7 +515,7 @@
       <c r="A10" s="1">
         <v>44021</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>0.53846153846153844</v>
       </c>
       <c r="C10">
@@ -540,7 +526,7 @@
       <c r="A11" s="1">
         <v>44022</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
         <v>0.57692307692307687</v>
       </c>
       <c r="C11">
@@ -551,7 +537,7 @@
       <c r="A12" s="1">
         <v>44023</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
         <v>0.80769230769230771</v>
       </c>
       <c r="C12">
@@ -562,7 +548,7 @@
       <c r="A13" s="1">
         <v>44024</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
         <v>0.76923076923076927</v>
       </c>
       <c r="C13">
@@ -573,7 +559,7 @@
       <c r="A14" s="1">
         <v>44025</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
         <v>0.80769230769230771</v>
       </c>
       <c r="C14">
@@ -584,7 +570,7 @@
       <c r="A15" s="1">
         <v>44026</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15">
         <v>0.80769230769230771</v>
       </c>
       <c r="C15">
@@ -595,7 +581,7 @@
       <c r="A16" s="1">
         <v>44027</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16">
         <v>0.76923076923076927</v>
       </c>
       <c r="C16">
@@ -606,7 +592,7 @@
       <c r="A17" s="1">
         <v>44028</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17">
         <v>0.76923076923076927</v>
       </c>
       <c r="C17">
@@ -617,7 +603,7 @@
       <c r="A18" s="1">
         <v>44029</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18">
         <v>0.73076923076923073</v>
       </c>
       <c r="C18">
@@ -628,7 +614,7 @@
       <c r="A19" s="1">
         <v>44030</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19">
         <v>0.8</v>
       </c>
       <c r="C19">
@@ -639,7 +625,7 @@
       <c r="A20" s="1">
         <v>44031</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20">
         <v>0.76</v>
       </c>
       <c r="C20">
@@ -650,7 +636,7 @@
       <c r="A21" s="1">
         <v>44032</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21">
         <v>0.83333333333333337</v>
       </c>
       <c r="C21">
@@ -661,7 +647,7 @@
       <c r="A22" s="1">
         <v>44033</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22">
         <v>0.875</v>
       </c>
       <c r="C22">
@@ -672,7 +658,7 @@
       <c r="A23" s="1">
         <v>44034</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23">
         <v>0.875</v>
       </c>
       <c r="C23">
@@ -683,7 +669,7 @@
       <c r="A24" s="1">
         <v>44035</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24">
         <v>0.84</v>
       </c>
       <c r="C24">
@@ -694,7 +680,7 @@
       <c r="A25" s="1">
         <v>44036</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25">
         <v>0.84</v>
       </c>
       <c r="C25">
@@ -705,7 +691,7 @@
       <c r="A26" s="1">
         <v>44037</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26">
         <v>0.92</v>
       </c>
       <c r="C26">
@@ -716,7 +702,7 @@
       <c r="A27" s="1">
         <v>44038</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27">
         <v>0.88</v>
       </c>
       <c r="C27">
@@ -727,7 +713,7 @@
       <c r="A28" s="1">
         <v>44039</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28">
         <v>0.88</v>
       </c>
       <c r="C28">
@@ -738,7 +724,7 @@
       <c r="A29" s="1">
         <v>44040</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29">
         <v>0.92</v>
       </c>
       <c r="C29">
@@ -749,7 +735,7 @@
       <c r="A30" s="1">
         <v>44041</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30">
         <v>0.92</v>
       </c>
       <c r="C30">
@@ -760,7 +746,7 @@
       <c r="A31" s="1">
         <v>44042</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31">
         <v>0.92</v>
       </c>
       <c r="C31">
@@ -771,7 +757,7 @@
       <c r="A32" s="1">
         <v>44043</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32">
         <v>0.96</v>
       </c>
       <c r="C32">
@@ -782,7 +768,7 @@
       <c r="A33" s="1">
         <v>44044</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33">
         <v>0.96</v>
       </c>
       <c r="C33">
@@ -796,7 +782,7 @@
       <c r="A34" s="1">
         <v>44045</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34">
         <v>0.96</v>
       </c>
       <c r="C34">
@@ -810,7 +796,7 @@
       <c r="A35" s="1">
         <v>44046</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35">
         <v>0.96</v>
       </c>
       <c r="C35">
@@ -824,7 +810,7 @@
       <c r="A36" s="1">
         <v>44047</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36">
         <v>0.88</v>
       </c>
       <c r="C36">
@@ -838,7 +824,7 @@
       <c r="A37" s="1">
         <v>44048</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37">
         <v>0.96</v>
       </c>
       <c r="C37">
@@ -852,7 +838,7 @@
       <c r="A38" s="1">
         <v>44049</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38">
         <v>0.96</v>
       </c>
       <c r="C38">
@@ -866,7 +852,7 @@
       <c r="A39" s="1">
         <v>44050</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39">
         <v>0.95652173913043481</v>
       </c>
       <c r="C39">
@@ -880,7 +866,7 @@
       <c r="A40" s="1">
         <v>44051</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40">
         <v>0.95652173913043481</v>
       </c>
       <c r="C40">
@@ -894,7 +880,7 @@
       <c r="A41" s="1">
         <v>44052</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41">
         <v>0.95652173913043481</v>
       </c>
       <c r="C41">
@@ -908,7 +894,7 @@
       <c r="A42" s="1">
         <v>44053</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42">
         <v>1.0434782608695652</v>
       </c>
       <c r="C42">
@@ -922,7 +908,7 @@
       <c r="A43" s="1">
         <v>44054</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43">
         <v>1.0434782608695652</v>
       </c>
       <c r="C43">
@@ -936,7 +922,7 @@
       <c r="A44" s="1">
         <v>44055</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44">
         <v>1.0434782608695652</v>
       </c>
       <c r="C44">
@@ -950,7 +936,7 @@
       <c r="A45" s="1">
         <v>44056</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45">
         <v>1.0434782608695652</v>
       </c>
       <c r="C45">
@@ -964,7 +950,7 @@
       <c r="A46" s="1">
         <v>44057</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46">
         <v>1.0434782608695652</v>
       </c>
       <c r="C46">
@@ -978,7 +964,7 @@
       <c r="A47" s="1">
         <v>44058</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47">
         <v>1.0434782608695652</v>
       </c>
       <c r="C47">
@@ -992,7 +978,7 @@
       <c r="A48" s="1">
         <v>44059</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48">
         <v>1.0434782608695652</v>
       </c>
       <c r="C48">
@@ -1006,7 +992,7 @@
       <c r="A49" s="1">
         <v>44060</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49">
         <v>1.0434782608695652</v>
       </c>
       <c r="C49">
@@ -1020,7 +1006,7 @@
       <c r="A50" s="1">
         <v>44061</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50">
         <v>1.0434782608695652</v>
       </c>
       <c r="C50">
@@ -1034,7 +1020,7 @@
       <c r="A51" s="1">
         <v>44062</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51">
         <v>1.0434782608695652</v>
       </c>
       <c r="C51">
@@ -1048,7 +1034,7 @@
       <c r="A52" s="1">
         <v>44063</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52">
         <v>1.0434782608695652</v>
       </c>
       <c r="C52">
@@ -1062,7 +1048,7 @@
       <c r="A53" s="1">
         <v>44064</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53">
         <v>1.0434782608695652</v>
       </c>
       <c r="C53">
@@ -1076,7 +1062,7 @@
       <c r="A54" s="1">
         <v>44065</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54">
         <v>1</v>
       </c>
       <c r="C54">
@@ -1090,7 +1076,7 @@
       <c r="A55" s="1">
         <v>44066</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55">
         <v>1</v>
       </c>
       <c r="C55">
@@ -1104,7 +1090,7 @@
       <c r="A56" s="1">
         <v>44067</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56">
         <v>1</v>
       </c>
       <c r="C56">
@@ -1118,7 +1104,7 @@
       <c r="A57" s="1">
         <v>44068</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57">
         <v>1</v>
       </c>
       <c r="C57">
@@ -1132,7 +1118,7 @@
       <c r="A58" s="1">
         <v>44069</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58">
         <v>1.0434782608695652</v>
       </c>
       <c r="C58">
@@ -1146,7 +1132,7 @@
       <c r="A59" s="1">
         <v>44070</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59">
         <v>1.0434782608695652</v>
       </c>
       <c r="C59">
@@ -1160,7 +1146,7 @@
       <c r="A60" s="1">
         <v>44071</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60">
         <v>1.0434782608695652</v>
       </c>
       <c r="C60">
@@ -1174,7 +1160,7 @@
       <c r="A61" s="1">
         <v>44072</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61">
         <v>1.0869565217391304</v>
       </c>
       <c r="C61">
@@ -1188,7 +1174,7 @@
       <c r="A62" s="1">
         <v>44073</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62">
         <v>1.0869565217391304</v>
       </c>
       <c r="C62">
@@ -1202,7 +1188,7 @@
       <c r="A63" s="1">
         <v>44074</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63">
         <v>1.0416666666666667</v>
       </c>
       <c r="C63">
@@ -1216,7 +1202,7 @@
       <c r="A64" s="1">
         <v>44075</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64">
         <v>1.0416666666666667</v>
       </c>
       <c r="C64">
@@ -1230,7 +1216,7 @@
       <c r="A65" s="1">
         <v>44076</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65">
         <v>1</v>
       </c>
       <c r="C65">
@@ -1244,7 +1230,7 @@
       <c r="A66" s="1">
         <v>44077</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66">
         <v>1</v>
       </c>
       <c r="C66">
@@ -1258,7 +1244,7 @@
       <c r="A67" s="1">
         <v>44078</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67">
         <v>1</v>
       </c>
       <c r="C67">
@@ -1272,7 +1258,7 @@
       <c r="A68" s="1">
         <v>44079</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68">
         <v>0.96</v>
       </c>
       <c r="C68">
@@ -1286,7 +1272,7 @@
       <c r="A69" s="1">
         <v>44080</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69">
         <v>0.96</v>
       </c>
       <c r="C69">
@@ -1300,7 +1286,7 @@
       <c r="A70" s="1">
         <v>44081</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70">
         <v>0.96</v>
       </c>
       <c r="C70">
@@ -1314,7 +1300,7 @@
       <c r="A71" s="1">
         <v>44082</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71">
         <v>0.96</v>
       </c>
       <c r="C71">
@@ -1328,7 +1314,7 @@
       <c r="A72" s="1">
         <v>44083</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72">
         <v>1.037037037037037</v>
       </c>
       <c r="C72">
@@ -1342,7 +1328,7 @@
       <c r="A73" s="1">
         <v>44084</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73">
         <v>0.96296296296296291</v>
       </c>
       <c r="C73">
@@ -1356,7 +1342,7 @@
       <c r="A74" s="1">
         <v>44085</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74">
         <v>0.92592592592592593</v>
       </c>
       <c r="C74">
@@ -1370,7 +1356,7 @@
       <c r="A75" s="1">
         <v>44086</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75">
         <v>1</v>
       </c>
       <c r="C75">
@@ -1384,7 +1370,7 @@
       <c r="A76" s="1">
         <v>44087</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76">
         <v>1</v>
       </c>
       <c r="C76">
@@ -1398,7 +1384,7 @@
       <c r="A77" s="1">
         <v>44088</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77">
         <v>1</v>
       </c>
       <c r="C77">
@@ -1412,7 +1398,7 @@
       <c r="A78" s="1">
         <v>44089</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78">
         <v>1.037037037037037</v>
       </c>
       <c r="C78">
@@ -1426,7 +1412,7 @@
       <c r="A79" s="1">
         <v>44090</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79">
         <v>1</v>
       </c>
       <c r="C79">
@@ -1440,7 +1426,7 @@
       <c r="A80" s="1">
         <v>44091</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80">
         <v>1.037037037037037</v>
       </c>
       <c r="C80">
@@ -1454,7 +1440,7 @@
       <c r="A81" s="1">
         <v>44092</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81">
         <v>1.037037037037037</v>
       </c>
       <c r="C81">
@@ -1468,7 +1454,7 @@
       <c r="A82" s="1">
         <v>44093</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82">
         <v>0.96296296296296291</v>
       </c>
       <c r="C82">
@@ -1482,7 +1468,7 @@
       <c r="A83" s="1">
         <v>44094</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83">
         <v>0.96296296296296291</v>
       </c>
       <c r="C83">
@@ -1496,7 +1482,7 @@
       <c r="A84" s="1">
         <v>44095</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84">
         <v>0.92592592592592593</v>
       </c>
       <c r="C84">
@@ -1510,7 +1496,7 @@
       <c r="A85" s="1">
         <v>44096</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85">
         <v>0.88888888888888884</v>
       </c>
       <c r="C85">
@@ -1524,7 +1510,7 @@
       <c r="A86" s="1">
         <v>44097</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86">
         <v>0.88888888888888884</v>
       </c>
       <c r="C86">
@@ -1538,7 +1524,7 @@
       <c r="A87" s="1">
         <v>44098</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87">
         <v>0.94117647058823528</v>
       </c>
       <c r="C87">
@@ -1552,7 +1538,7 @@
       <c r="A88" s="1">
         <v>44099</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88">
         <v>0.94117647058823528</v>
       </c>
       <c r="C88">
@@ -1566,7 +1552,7 @@
       <c r="A89" s="1">
         <v>44100</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89">
         <v>0.91176470588235292</v>
       </c>
       <c r="C89">
@@ -1580,7 +1566,7 @@
       <c r="A90" s="1">
         <v>44101</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90">
         <v>0.94117647058823528</v>
       </c>
       <c r="C90">
@@ -1594,7 +1580,7 @@
       <c r="A91" s="1">
         <v>44102</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91">
         <v>0.94117647058823528</v>
       </c>
       <c r="C91">
@@ -1608,7 +1594,7 @@
       <c r="A92" s="1">
         <v>44103</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92">
         <v>0.94117647058823528</v>
       </c>
       <c r="C92">
@@ -1622,7 +1608,7 @@
       <c r="A93" s="1">
         <v>44104</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93">
         <v>0.94117647058823528</v>
       </c>
       <c r="C93">
@@ -1636,7 +1622,7 @@
       <c r="A94" s="1">
         <v>44105</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94">
         <v>0.91176470588235292</v>
       </c>
       <c r="C94">
@@ -1650,7 +1636,7 @@
       <c r="A95" s="1">
         <v>44106</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95">
         <v>0.91176470588235292</v>
       </c>
       <c r="C95">
@@ -1664,7 +1650,7 @@
       <c r="A96" s="1">
         <v>44107</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96">
         <v>0.91176470588235292</v>
       </c>
       <c r="C96">
@@ -1678,7 +1664,7 @@
       <c r="A97" s="1">
         <v>44108</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97">
         <v>0.91176470588235292</v>
       </c>
       <c r="C97">
@@ -1692,7 +1678,7 @@
       <c r="A98" s="1">
         <v>44109</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98">
         <v>0.94117647058823528</v>
       </c>
       <c r="C98">
@@ -1706,7 +1692,7 @@
       <c r="A99" s="1">
         <v>44110</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99">
         <v>0.94117647058823528</v>
       </c>
       <c r="C99">
@@ -1720,7 +1706,7 @@
       <c r="A100" s="1">
         <v>44111</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100">
         <v>0.88235294117647056</v>
       </c>
       <c r="C100">
@@ -1734,7 +1720,7 @@
       <c r="A101" s="1">
         <v>44112</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101">
         <v>0.94117647058823528</v>
       </c>
       <c r="C101">
@@ -1748,7 +1734,7 @@
       <c r="A102" s="1">
         <v>44113</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102">
         <v>0.88235294117647056</v>
       </c>
       <c r="C102">
@@ -1762,7 +1748,7 @@
       <c r="A103" s="1">
         <v>44114</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103">
         <v>0.8529411764705882</v>
       </c>
       <c r="C103">
@@ -1776,7 +1762,7 @@
       <c r="A104" s="1">
         <v>44115</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104">
         <v>0.8529411764705882</v>
       </c>
       <c r="C104">
@@ -1790,7 +1776,7 @@
       <c r="A105" s="1">
         <v>44116</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105">
         <v>0.8529411764705882</v>
       </c>
       <c r="C105">
@@ -1804,7 +1790,7 @@
       <c r="A106" s="1">
         <v>44117</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106">
         <v>0.91176470588235292</v>
       </c>
       <c r="C106">
@@ -1818,7 +1804,7 @@
       <c r="A107" s="1">
         <v>44118</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107">
         <v>0.88235294117647056</v>
       </c>
       <c r="C107">
@@ -1832,7 +1818,7 @@
       <c r="A108" s="1">
         <v>44119</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108">
         <v>0.79411764705882348</v>
       </c>
       <c r="C108">
@@ -1846,7 +1832,7 @@
       <c r="A109" s="1">
         <v>44120</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109">
         <v>0.8529411764705882</v>
       </c>
       <c r="C109">
@@ -1860,7 +1846,7 @@
       <c r="A110" s="1">
         <v>44121</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110">
         <v>0.88235294117647056</v>
       </c>
       <c r="C110">
@@ -1874,7 +1860,7 @@
       <c r="A111" s="1">
         <v>44122</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111">
         <v>0.88235294117647056</v>
       </c>
       <c r="C111">
@@ -1888,7 +1874,7 @@
       <c r="A112" s="1">
         <v>44123</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112">
         <v>0.84210526315789469</v>
       </c>
       <c r="C112">
@@ -1902,7 +1888,7 @@
       <c r="A113" s="1">
         <v>44124</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113">
         <v>0.84210526315789469</v>
       </c>
       <c r="C113">
@@ -1916,7 +1902,7 @@
       <c r="A114" s="1">
         <v>44125</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114">
         <v>0.78947368421052633</v>
       </c>
       <c r="C114">
@@ -1930,7 +1916,7 @@
       <c r="A115" s="1">
         <v>44126</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115">
         <v>0.75</v>
       </c>
       <c r="C115">
@@ -1944,7 +1930,7 @@
       <c r="A116" s="1">
         <v>44127</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116">
         <v>0.75</v>
       </c>
       <c r="C116">
@@ -1958,7 +1944,7 @@
       <c r="A117" s="1">
         <v>44128</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117">
         <v>0.75</v>
       </c>
       <c r="C117">
@@ -1972,7 +1958,7 @@
       <c r="A118" s="1">
         <v>44129</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118">
         <v>0.6428571428571429</v>
       </c>
       <c r="C118">
@@ -1986,7 +1972,7 @@
       <c r="A119" s="1">
         <v>44130</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119">
         <v>0.6428571428571429</v>
       </c>
       <c r="C119">
@@ -2000,7 +1986,7 @@
       <c r="A120" s="1">
         <v>44131</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120">
         <v>0.6071428571428571</v>
       </c>
       <c r="C120">
@@ -2014,7 +2000,7 @@
       <c r="A121" s="1">
         <v>44132</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121">
         <v>0.5</v>
       </c>
       <c r="C121">
@@ -2028,7 +2014,7 @@
       <c r="A122" s="1">
         <v>44133</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122">
         <v>0.51851851851851849</v>
       </c>
       <c r="C122">
@@ -2042,7 +2028,7 @@
       <c r="A123" s="1">
         <v>44134</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123">
         <v>0.59259259259259256</v>
       </c>
       <c r="C123">
@@ -2056,7 +2042,7 @@
       <c r="A124" s="1">
         <v>44135</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124">
         <v>0.59259259259259256</v>
       </c>
       <c r="C124">
@@ -2070,7 +2056,7 @@
       <c r="A125" s="1">
         <v>44136</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125">
         <v>0.59259259259259256</v>
       </c>
       <c r="C125">
@@ -2084,7 +2070,7 @@
       <c r="A126" s="1">
         <v>44137</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126">
         <v>0.59259259259259256</v>
       </c>
       <c r="C126">
@@ -2098,7 +2084,7 @@
       <c r="A127" s="1">
         <v>44138</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127">
         <v>0.55555555555555558</v>
       </c>
       <c r="C127">
@@ -2112,7 +2098,7 @@
       <c r="A128" s="1">
         <v>44139</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128">
         <v>0.51851851851851849</v>
       </c>
       <c r="C128">
@@ -2126,7 +2112,7 @@
       <c r="A129" s="1">
         <v>44140</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129">
         <v>0.51851851851851849</v>
       </c>
       <c r="C129">
@@ -2140,7 +2126,7 @@
       <c r="A130" s="1">
         <v>44141</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130">
         <v>0.51851851851851849</v>
       </c>
       <c r="C130">
@@ -2154,7 +2140,7 @@
       <c r="A131" s="1">
         <v>44142</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131">
         <v>0.55555555555555558</v>
       </c>
       <c r="C131">
@@ -2168,7 +2154,7 @@
       <c r="A132" s="1">
         <v>44143</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132">
         <v>0.55555555555555558</v>
       </c>
       <c r="C132">
@@ -2182,7 +2168,7 @@
       <c r="A133" s="1">
         <v>44144</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B133">
         <v>0.59259259259259256</v>
       </c>
       <c r="C133">
@@ -2196,7 +2182,7 @@
       <c r="A134" s="1">
         <v>44145</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B134">
         <v>0.59259259259259256</v>
       </c>
       <c r="C134">
@@ -2210,7 +2196,7 @@
       <c r="A135" s="1">
         <v>44146</v>
       </c>
-      <c r="B135" s="2">
+      <c r="B135">
         <v>0.7407407407407407</v>
       </c>
       <c r="C135">
@@ -2224,7 +2210,7 @@
       <c r="A136" s="1">
         <v>44147</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B136">
         <v>0.7407407407407407</v>
       </c>
       <c r="C136">
@@ -2238,7 +2224,7 @@
       <c r="A137" s="1">
         <v>44148</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B137">
         <v>0.70370370370370372</v>
       </c>
       <c r="C137">
@@ -2252,7 +2238,7 @@
       <c r="A138" s="1">
         <v>44149</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B138">
         <v>0.70370370370370372</v>
       </c>
       <c r="C138">
@@ -2266,7 +2252,7 @@
       <c r="A139" s="1">
         <v>44150</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B139">
         <v>0.70370370370370372</v>
       </c>
       <c r="C139">
@@ -2280,7 +2266,7 @@
       <c r="A140" s="1">
         <v>44151</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B140">
         <v>0.70370370370370372</v>
       </c>
       <c r="C140">
@@ -2294,7 +2280,7 @@
       <c r="A141" s="1">
         <v>44152</v>
       </c>
-      <c r="B141" s="2">
+      <c r="B141">
         <v>0.70370370370370372</v>
       </c>
       <c r="C141">
@@ -2308,7 +2294,7 @@
       <c r="A142" s="1">
         <v>44153</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B142">
         <v>0.70370370370370372</v>
       </c>
       <c r="C142">
@@ -2322,7 +2308,7 @@
       <c r="A143" s="1">
         <v>44154</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143">
         <v>0.7407407407407407</v>
       </c>
       <c r="C143">
@@ -2336,7 +2322,7 @@
       <c r="A144" s="1">
         <v>44155</v>
       </c>
-      <c r="B144" s="2">
+      <c r="B144">
         <v>0.7407407407407407</v>
       </c>
       <c r="C144">
@@ -2350,7 +2336,7 @@
       <c r="A145" s="1">
         <v>44156</v>
       </c>
-      <c r="B145" s="2">
+      <c r="B145">
         <v>0.7407407407407407</v>
       </c>
       <c r="C145">
@@ -2364,7 +2350,7 @@
       <c r="A146" s="1">
         <v>44157</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B146">
         <v>0.70370370370370372</v>
       </c>
       <c r="C146">
@@ -2378,7 +2364,7 @@
       <c r="A147" s="1">
         <v>44158</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B147">
         <v>0.7407407407407407</v>
       </c>
       <c r="C147">
@@ -2392,7 +2378,7 @@
       <c r="A148" s="1">
         <v>44159</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B148">
         <v>0.7407407407407407</v>
       </c>
       <c r="C148">
@@ -2406,7 +2392,7 @@
       <c r="A149" s="1">
         <v>44160</v>
       </c>
-      <c r="B149" s="2">
+      <c r="B149">
         <v>0.77777777777777779</v>
       </c>
       <c r="C149">
@@ -2420,7 +2406,7 @@
       <c r="A150" s="1">
         <v>44161</v>
       </c>
-      <c r="B150" s="2">
+      <c r="B150">
         <v>0.66666666666666663</v>
       </c>
       <c r="C150">
@@ -2434,7 +2420,7 @@
       <c r="A151" s="1">
         <v>44162</v>
       </c>
-      <c r="B151" s="2">
+      <c r="B151">
         <v>0.7407407407407407</v>
       </c>
       <c r="C151">
@@ -2448,7 +2434,7 @@
       <c r="A152" s="1">
         <v>44163</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B152">
         <v>0.77777777777777779</v>
       </c>
       <c r="C152">
@@ -2462,7 +2448,7 @@
       <c r="A153" s="1">
         <v>44164</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B153">
         <v>0.81481481481481477</v>
       </c>
       <c r="C153">
@@ -2476,7 +2462,7 @@
       <c r="A154" s="1">
         <v>44165</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B154">
         <v>0.66666666666666663</v>
       </c>
       <c r="C154">
@@ -2490,7 +2476,7 @@
       <c r="A155" s="1">
         <v>44166</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B155">
         <v>0.62962962962962965</v>
       </c>
       <c r="C155">
@@ -2504,7 +2490,7 @@
       <c r="A156" s="1">
         <v>44167</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B156">
         <v>0.73913043478260865</v>
       </c>
       <c r="C156">
@@ -2518,7 +2504,7 @@
       <c r="A157" s="1">
         <v>44168</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B157">
         <v>0.73913043478260865</v>
       </c>
       <c r="C157">
@@ -2532,7 +2518,7 @@
       <c r="A158" s="1">
         <v>44169</v>
       </c>
-      <c r="B158" s="2">
+      <c r="B158">
         <v>0.69565217391304346</v>
       </c>
       <c r="C158">
@@ -2546,7 +2532,7 @@
       <c r="A159" s="1">
         <v>44170</v>
       </c>
-      <c r="B159" s="2">
+      <c r="B159">
         <v>0.73913043478260865</v>
       </c>
       <c r="C159">
@@ -2560,7 +2546,7 @@
       <c r="A160" s="1">
         <v>44171</v>
       </c>
-      <c r="B160" s="2">
+      <c r="B160">
         <v>0.78260869565217395</v>
       </c>
       <c r="C160">
@@ -2574,7 +2560,7 @@
       <c r="A161" s="1">
         <v>44172</v>
       </c>
-      <c r="B161" s="2">
+      <c r="B161">
         <v>0.78260869565217395</v>
       </c>
       <c r="C161">
@@ -2588,7 +2574,7 @@
       <c r="A162" s="1">
         <v>44173</v>
       </c>
-      <c r="B162" s="2">
+      <c r="B162">
         <v>0.65217391304347827</v>
       </c>
       <c r="C162">
@@ -2602,7 +2588,7 @@
       <c r="A163" s="1">
         <v>44174</v>
       </c>
-      <c r="B163" s="2">
+      <c r="B163">
         <v>0.73913043478260865</v>
       </c>
       <c r="C163">
@@ -2616,7 +2602,7 @@
       <c r="A164" s="1">
         <v>44175</v>
       </c>
-      <c r="B164" s="2">
+      <c r="B164">
         <v>0.69565217391304346</v>
       </c>
       <c r="C164">
@@ -2630,7 +2616,7 @@
       <c r="A165" s="1">
         <v>44176</v>
       </c>
-      <c r="B165" s="2">
+      <c r="B165">
         <v>0.69565217391304346</v>
       </c>
       <c r="C165">
@@ -2644,7 +2630,7 @@
       <c r="A166" s="1">
         <v>44177</v>
       </c>
-      <c r="B166" s="2">
+      <c r="B166">
         <v>0.65217391304347827</v>
       </c>
       <c r="C166">
@@ -2658,7 +2644,7 @@
       <c r="A167" s="1">
         <v>44178</v>
       </c>
-      <c r="B167" s="2">
+      <c r="B167">
         <v>0.69565217391304346</v>
       </c>
       <c r="C167">
@@ -2672,7 +2658,7 @@
       <c r="A168" s="1">
         <v>44179</v>
       </c>
-      <c r="B168" s="2">
+      <c r="B168">
         <v>0.69565217391304346</v>
       </c>
       <c r="C168">
@@ -2686,7 +2672,7 @@
       <c r="A169" s="1">
         <v>44180</v>
       </c>
-      <c r="B169" s="2">
+      <c r="B169">
         <v>0.69565217391304346</v>
       </c>
       <c r="C169">
@@ -2700,7 +2686,7 @@
       <c r="A170" s="1">
         <v>44181</v>
       </c>
-      <c r="B170" s="2">
+      <c r="B170">
         <v>0.69565217391304346</v>
       </c>
       <c r="C170">
@@ -2714,7 +2700,7 @@
       <c r="A171" s="1">
         <v>44182</v>
       </c>
-      <c r="B171" s="2">
+      <c r="B171">
         <v>0.69565217391304346</v>
       </c>
       <c r="C171">
@@ -2728,7 +2714,7 @@
       <c r="A172" s="1">
         <v>44183</v>
       </c>
-      <c r="B172" s="2">
+      <c r="B172">
         <v>0.69565217391304346</v>
       </c>
       <c r="C172">
@@ -2742,7 +2728,7 @@
       <c r="A173" s="1">
         <v>44184</v>
       </c>
-      <c r="B173" s="2">
+      <c r="B173">
         <v>0.73913043478260865</v>
       </c>
       <c r="C173">
@@ -2756,7 +2742,7 @@
       <c r="A174" s="1">
         <v>44185</v>
       </c>
-      <c r="B174" s="2">
+      <c r="B174">
         <v>0.73913043478260865</v>
       </c>
       <c r="C174">
@@ -2770,7 +2756,7 @@
       <c r="A175" s="1">
         <v>44186</v>
       </c>
-      <c r="B175" s="2">
+      <c r="B175">
         <v>0.78260869565217395</v>
       </c>
       <c r="C175">
@@ -2784,7 +2770,7 @@
       <c r="A176" s="1">
         <v>44187</v>
       </c>
-      <c r="B176" s="2">
+      <c r="B176">
         <v>0.78260869565217395</v>
       </c>
       <c r="C176">
@@ -2798,7 +2784,7 @@
       <c r="A177" s="1">
         <v>44188</v>
       </c>
-      <c r="B177" s="2">
+      <c r="B177">
         <v>0.78260869565217395</v>
       </c>
       <c r="C177">
@@ -2812,7 +2798,7 @@
       <c r="A178" s="1">
         <v>44189</v>
       </c>
-      <c r="B178" s="2">
+      <c r="B178">
         <v>0.78260869565217395</v>
       </c>
       <c r="C178">
@@ -2826,7 +2812,7 @@
       <c r="A179" s="1">
         <v>44190</v>
       </c>
-      <c r="B179" s="2">
+      <c r="B179">
         <v>0.78260869565217395</v>
       </c>
       <c r="C179">
@@ -2840,7 +2826,7 @@
       <c r="A180" s="1">
         <v>44191</v>
       </c>
-      <c r="B180" s="2">
+      <c r="B180">
         <v>0.73913043478260865</v>
       </c>
       <c r="C180">
@@ -2854,7 +2840,7 @@
       <c r="A181" s="1">
         <v>44192</v>
       </c>
-      <c r="B181" s="2">
+      <c r="B181">
         <v>0.78260869565217395</v>
       </c>
       <c r="C181">
@@ -2868,7 +2854,7 @@
       <c r="A182" s="1">
         <v>44193</v>
       </c>
-      <c r="B182" s="2">
+      <c r="B182">
         <v>0.78260869565217395</v>
       </c>
       <c r="C182">
@@ -2882,7 +2868,7 @@
       <c r="A183" s="1">
         <v>44194</v>
       </c>
-      <c r="B183" s="2">
+      <c r="B183">
         <v>0.78260869565217395</v>
       </c>
       <c r="C183">
@@ -2896,7 +2882,7 @@
       <c r="A184" s="1">
         <v>44195</v>
       </c>
-      <c r="B184" s="2">
+      <c r="B184">
         <v>0.78260869565217395</v>
       </c>
       <c r="C184">
@@ -2910,7 +2896,7 @@
       <c r="A185" s="1">
         <v>44196</v>
       </c>
-      <c r="B185" s="2">
+      <c r="B185">
         <v>0.69565217391304346</v>
       </c>
       <c r="C185">
@@ -2924,7 +2910,7 @@
       <c r="A186" s="1">
         <v>44197</v>
       </c>
-      <c r="B186" s="2">
+      <c r="B186">
         <v>0.73913043478260865</v>
       </c>
       <c r="C186">
@@ -2938,7 +2924,7 @@
       <c r="A187" s="1">
         <v>44198</v>
       </c>
-      <c r="B187" s="2">
+      <c r="B187">
         <v>0.73913043478260865</v>
       </c>
       <c r="C187">
@@ -2952,7 +2938,7 @@
       <c r="A188" s="1">
         <v>44199</v>
       </c>
-      <c r="B188" s="2">
+      <c r="B188">
         <v>0.73913043478260865</v>
       </c>
       <c r="C188">
@@ -2966,7 +2952,7 @@
       <c r="A189" s="1">
         <v>44200</v>
       </c>
-      <c r="B189" s="2">
+      <c r="B189">
         <v>0.78260869565217395</v>
       </c>
       <c r="C189">
@@ -2980,7 +2966,7 @@
       <c r="A190" s="1">
         <v>44201</v>
       </c>
-      <c r="B190" s="2">
+      <c r="B190">
         <v>0.78260869565217395</v>
       </c>
       <c r="C190">
@@ -2994,7 +2980,7 @@
       <c r="A191" s="1">
         <v>44202</v>
       </c>
-      <c r="B191" s="2">
+      <c r="B191">
         <v>0.78260869565217395</v>
       </c>
       <c r="C191">
@@ -3008,7 +2994,7 @@
       <c r="A192" s="1">
         <v>44203</v>
       </c>
-      <c r="B192" s="2">
+      <c r="B192">
         <v>0.78260869565217395</v>
       </c>
       <c r="C192">
@@ -3022,7 +3008,7 @@
       <c r="A193" s="1">
         <v>44204</v>
       </c>
-      <c r="B193" s="2">
+      <c r="B193">
         <v>0.8571428571428571</v>
       </c>
       <c r="C193">
@@ -3036,7 +3022,7 @@
       <c r="A194" s="1">
         <v>44205</v>
       </c>
-      <c r="B194" s="2">
+      <c r="B194">
         <v>0.72</v>
       </c>
       <c r="C194">
@@ -3050,7 +3036,7 @@
       <c r="A195" s="1">
         <v>44206</v>
       </c>
-      <c r="B195" s="2">
+      <c r="B195">
         <v>0.86956521739130432</v>
       </c>
       <c r="C195">
@@ -3064,7 +3050,7 @@
       <c r="A196" s="1">
         <v>44207</v>
       </c>
-      <c r="B196" s="2">
+      <c r="B196">
         <v>0.86956521739130432</v>
       </c>
       <c r="C196">
@@ -3078,7 +3064,7 @@
       <c r="A197" s="1">
         <v>44208</v>
       </c>
-      <c r="B197" s="2">
+      <c r="B197">
         <v>0.86956521739130432</v>
       </c>
       <c r="C197">
@@ -3092,7 +3078,7 @@
       <c r="A198" s="1">
         <v>44209</v>
       </c>
-      <c r="B198" s="2">
+      <c r="B198">
         <v>0.91304347826086951</v>
       </c>
       <c r="C198">
@@ -3106,7 +3092,7 @@
       <c r="A199" s="1">
         <v>44210</v>
       </c>
-      <c r="B199" s="2">
+      <c r="B199">
         <v>0.91304347826086951</v>
       </c>
       <c r="C199">
@@ -3120,7 +3106,7 @@
       <c r="A200" s="1">
         <v>44211</v>
       </c>
-      <c r="B200" s="2">
+      <c r="B200">
         <v>0.95652173913043481</v>
       </c>
       <c r="C200">
@@ -3134,7 +3120,7 @@
       <c r="A201" s="1">
         <v>44212</v>
       </c>
-      <c r="B201" s="2">
+      <c r="B201">
         <v>0.95652173913043481</v>
       </c>
       <c r="C201">
@@ -3148,7 +3134,7 @@
       <c r="A202" s="1">
         <v>44213</v>
       </c>
-      <c r="B202" s="2">
+      <c r="B202">
         <v>1</v>
       </c>
       <c r="C202">
@@ -3162,7 +3148,7 @@
       <c r="A203" s="1">
         <v>44214</v>
       </c>
-      <c r="B203" s="2">
+      <c r="B203">
         <v>1</v>
       </c>
       <c r="C203">
@@ -3176,7 +3162,7 @@
       <c r="A204" s="1">
         <v>44215</v>
       </c>
-      <c r="B204" s="2">
+      <c r="B204">
         <v>1</v>
       </c>
       <c r="C204">
@@ -3190,7 +3176,7 @@
       <c r="A205" s="1">
         <v>44216</v>
       </c>
-      <c r="B205" s="2">
+      <c r="B205">
         <v>1</v>
       </c>
       <c r="C205">
@@ -3204,7 +3190,7 @@
       <c r="A206" s="1">
         <v>44217</v>
       </c>
-      <c r="B206" s="2">
+      <c r="B206">
         <v>0.84</v>
       </c>
       <c r="C206">
@@ -3218,7 +3204,7 @@
       <c r="A207" s="1">
         <v>44218</v>
       </c>
-      <c r="B207" s="2">
+      <c r="B207">
         <v>0.86956521739130432</v>
       </c>
       <c r="C207">
@@ -3232,7 +3218,7 @@
       <c r="A208" s="1">
         <v>44219</v>
       </c>
-      <c r="B208" s="2">
+      <c r="B208">
         <v>0.82608695652173914</v>
       </c>
       <c r="C208">
@@ -3246,7 +3232,7 @@
       <c r="A209" s="1">
         <v>44220</v>
       </c>
-      <c r="B209" s="2">
+      <c r="B209">
         <v>0.91304347826086951</v>
       </c>
       <c r="C209">
@@ -3260,7 +3246,7 @@
       <c r="A210" s="1">
         <v>44221</v>
       </c>
-      <c r="B210" s="2">
+      <c r="B210">
         <v>0.86956521739130432</v>
       </c>
       <c r="C210">
@@ -3274,7 +3260,7 @@
       <c r="A211" s="1">
         <v>44222</v>
       </c>
-      <c r="B211" s="2">
+      <c r="B211">
         <v>0.82608695652173914</v>
       </c>
       <c r="C211">
@@ -3288,7 +3274,7 @@
       <c r="A212" s="1">
         <v>44223</v>
       </c>
-      <c r="B212" s="2">
+      <c r="B212">
         <v>0.91304347826086951</v>
       </c>
       <c r="C212">
@@ -3302,7 +3288,7 @@
       <c r="A213" s="1">
         <v>44224</v>
       </c>
-      <c r="B213" s="2">
+      <c r="B213">
         <v>0.91304347826086951</v>
       </c>
       <c r="C213">
@@ -3316,7 +3302,7 @@
       <c r="A214" s="1">
         <v>44225</v>
       </c>
-      <c r="B214" s="2">
+      <c r="B214">
         <v>0.91304347826086951</v>
       </c>
       <c r="C214">
@@ -3330,7 +3316,7 @@
       <c r="A215" s="1">
         <v>44226</v>
       </c>
-      <c r="B215" s="2">
+      <c r="B215">
         <v>0.91666666666666663</v>
       </c>
       <c r="C215">
@@ -3344,7 +3330,7 @@
       <c r="A216" s="1">
         <v>44227</v>
       </c>
-      <c r="B216" s="2">
+      <c r="B216">
         <v>0.91666666666666663</v>
       </c>
       <c r="C216">
@@ -3358,7 +3344,7 @@
       <c r="A217" s="1">
         <v>44228</v>
       </c>
-      <c r="B217" s="2">
+      <c r="B217">
         <v>0.92</v>
       </c>
       <c r="C217">
@@ -3372,7 +3358,7 @@
       <c r="A218" s="1">
         <v>44229</v>
       </c>
-      <c r="B218" s="2">
+      <c r="B218">
         <v>0.92</v>
       </c>
       <c r="C218">
@@ -3386,7 +3372,7 @@
       <c r="A219" s="1">
         <v>44230</v>
       </c>
-      <c r="B219" s="2">
+      <c r="B219">
         <v>0.875</v>
       </c>
       <c r="C219">
@@ -3400,7 +3386,7 @@
       <c r="A220" s="1">
         <v>44231</v>
       </c>
-      <c r="B220" s="2">
+      <c r="B220">
         <v>0.875</v>
       </c>
       <c r="C220">
@@ -3414,7 +3400,7 @@
       <c r="A221" s="1">
         <v>44232</v>
       </c>
-      <c r="B221" s="2">
+      <c r="B221">
         <v>0.8571428571428571</v>
       </c>
       <c r="C221">
@@ -3428,7 +3414,7 @@
       <c r="A222" s="1">
         <v>44233</v>
       </c>
-      <c r="B222" s="2">
+      <c r="B222">
         <v>0.8571428571428571</v>
       </c>
       <c r="C222">
@@ -3442,7 +3428,7 @@
       <c r="A223" s="1">
         <v>44234</v>
       </c>
-      <c r="B223" s="2">
+      <c r="B223">
         <v>0.8571428571428571</v>
       </c>
       <c r="C223">
@@ -3456,7 +3442,7 @@
       <c r="A224" s="1">
         <v>44235</v>
       </c>
-      <c r="B224" s="2">
+      <c r="B224">
         <v>0.94285714285714284</v>
       </c>
       <c r="C224">
@@ -3470,7 +3456,7 @@
       <c r="A225" s="1">
         <v>44236</v>
       </c>
-      <c r="B225" s="2">
+      <c r="B225">
         <v>0.97142857142857142</v>
       </c>
       <c r="C225">
@@ -3484,7 +3470,7 @@
       <c r="A226" s="1">
         <v>44237</v>
       </c>
-      <c r="B226" s="2">
+      <c r="B226">
         <v>0.97142857142857142</v>
       </c>
       <c r="C226">
@@ -3498,7 +3484,7 @@
       <c r="A227" s="1">
         <v>44238</v>
       </c>
-      <c r="B227" s="2">
+      <c r="B227">
         <v>0.94285714285714284</v>
       </c>
       <c r="C227">
@@ -3512,7 +3498,7 @@
       <c r="A228" s="1">
         <v>44239</v>
       </c>
-      <c r="B228" s="2">
+      <c r="B228">
         <v>0.94285714285714284</v>
       </c>
       <c r="C228">
@@ -3526,7 +3512,7 @@
       <c r="A229" s="1">
         <v>44240</v>
       </c>
-      <c r="B229" s="2">
+      <c r="B229">
         <v>0.94285714285714284</v>
       </c>
       <c r="C229">
@@ -3540,7 +3526,7 @@
       <c r="A230" s="1">
         <v>44241</v>
       </c>
-      <c r="B230" s="2">
+      <c r="B230">
         <v>0.94285714285714284</v>
       </c>
       <c r="C230">
@@ -3554,7 +3540,7 @@
       <c r="A231" s="1">
         <v>44242</v>
       </c>
-      <c r="B231" s="2">
+      <c r="B231">
         <v>0.97142857142857142</v>
       </c>
       <c r="C231">
@@ -3568,7 +3554,7 @@
       <c r="A232" s="1">
         <v>44243</v>
       </c>
-      <c r="B232" s="2">
+      <c r="B232">
         <v>0.94444444444444442</v>
       </c>
       <c r="C232">
@@ -3582,7 +3568,7 @@
       <c r="A233" s="1">
         <v>44244</v>
       </c>
-      <c r="B233" s="2">
+      <c r="B233">
         <v>0.94285714285714284</v>
       </c>
       <c r="C233">
@@ -3596,7 +3582,7 @@
       <c r="A234" s="1">
         <v>44245</v>
       </c>
-      <c r="B234" s="2">
+      <c r="B234">
         <v>0.94444444444444442</v>
       </c>
       <c r="C234">
@@ -3610,7 +3596,7 @@
       <c r="A235" s="1">
         <v>44246</v>
       </c>
-      <c r="B235" s="2">
+      <c r="B235">
         <v>1</v>
       </c>
       <c r="C235">
@@ -3624,7 +3610,7 @@
       <c r="A236" s="1">
         <v>44247</v>
       </c>
-      <c r="B236" s="2">
+      <c r="B236">
         <v>1</v>
       </c>
       <c r="C236">
@@ -3638,7 +3624,7 @@
       <c r="A237" s="1">
         <v>44248</v>
       </c>
-      <c r="B237" s="2">
+      <c r="B237">
         <v>0.94871794871794868</v>
       </c>
       <c r="C237">
@@ -3652,7 +3638,7 @@
       <c r="A238" s="1">
         <v>44249</v>
       </c>
-      <c r="B238" s="2">
+      <c r="B238">
         <v>0.94871794871794868</v>
       </c>
       <c r="C238">
@@ -3666,7 +3652,7 @@
       <c r="A239" s="1">
         <v>44250</v>
       </c>
-      <c r="B239" s="2">
+      <c r="B239">
         <v>0.94871794871794868</v>
       </c>
       <c r="C239">
@@ -3680,7 +3666,7 @@
       <c r="A240" s="1">
         <v>44251</v>
       </c>
-      <c r="B240" s="2">
+      <c r="B240">
         <v>0.94871794871794868</v>
       </c>
       <c r="C240">
@@ -3694,7 +3680,7 @@
       <c r="A241" s="1">
         <v>44252</v>
       </c>
-      <c r="B241" s="2">
+      <c r="B241">
         <v>0.94871794871794868</v>
       </c>
       <c r="C241">
@@ -3708,7 +3694,7 @@
       <c r="A242" s="1">
         <v>44253</v>
       </c>
-      <c r="B242" s="2">
+      <c r="B242">
         <v>1</v>
       </c>
       <c r="C242">
@@ -3722,7 +3708,7 @@
       <c r="A243" s="1">
         <v>44254</v>
       </c>
-      <c r="B243" s="2">
+      <c r="B243">
         <v>1</v>
       </c>
       <c r="C243">
@@ -3736,7 +3722,7 @@
       <c r="A244" s="1">
         <v>44255</v>
       </c>
-      <c r="B244" s="2">
+      <c r="B244">
         <v>0.95</v>
       </c>
       <c r="C244">
@@ -3750,7 +3736,7 @@
       <c r="A245" s="1">
         <v>44256</v>
       </c>
-      <c r="B245" s="2">
+      <c r="B245">
         <v>0.94871794871794868</v>
       </c>
       <c r="C245">
@@ -3764,7 +3750,7 @@
       <c r="A246" s="1">
         <v>44257</v>
       </c>
-      <c r="B246" s="2">
+      <c r="B246">
         <v>0.95</v>
       </c>
       <c r="C246">
@@ -3778,7 +3764,7 @@
       <c r="A247" s="1">
         <v>44258</v>
       </c>
-      <c r="B247" s="2">
+      <c r="B247">
         <v>0.94871794871794868</v>
       </c>
       <c r="C247">
@@ -3792,7 +3778,7 @@
       <c r="A248" s="1">
         <v>44259</v>
       </c>
-      <c r="B248" s="2">
+      <c r="B248">
         <v>0.94871794871794868</v>
       </c>
       <c r="C248">
@@ -3806,7 +3792,7 @@
       <c r="A249" s="1">
         <v>44260</v>
       </c>
-      <c r="B249" s="2">
+      <c r="B249">
         <v>0.92500000000000004</v>
       </c>
       <c r="C249">
@@ -3820,7 +3806,7 @@
       <c r="A250" s="1">
         <v>44261</v>
       </c>
-      <c r="B250" s="2">
+      <c r="B250">
         <v>0.9</v>
       </c>
       <c r="C250">
@@ -3834,7 +3820,7 @@
       <c r="A251" s="1">
         <v>44262</v>
       </c>
-      <c r="B251" s="2">
+      <c r="B251">
         <v>0.9</v>
       </c>
       <c r="C251">
@@ -3848,7 +3834,7 @@
       <c r="A252" s="1">
         <v>44263</v>
       </c>
-      <c r="B252" s="2">
+      <c r="B252">
         <v>0.9</v>
       </c>
       <c r="C252">
@@ -3862,7 +3848,7 @@
       <c r="A253" s="1">
         <v>44264</v>
       </c>
-      <c r="B253" s="2">
+      <c r="B253">
         <v>0.9</v>
       </c>
       <c r="C253">
@@ -3876,7 +3862,7 @@
       <c r="A254" s="1">
         <v>44265</v>
       </c>
-      <c r="B254" s="2">
+      <c r="B254">
         <v>0.9</v>
       </c>
       <c r="C254">
@@ -3890,7 +3876,7 @@
       <c r="A255" s="1">
         <v>44266</v>
       </c>
-      <c r="B255" s="2">
+      <c r="B255">
         <v>0.9</v>
       </c>
       <c r="C255">
@@ -3904,7 +3890,7 @@
       <c r="A256" s="1">
         <v>44267</v>
       </c>
-      <c r="B256" s="2">
+      <c r="B256">
         <v>0.9</v>
       </c>
       <c r="C256">
@@ -3918,7 +3904,7 @@
       <c r="A257" s="1">
         <v>44268</v>
       </c>
-      <c r="B257" s="2">
+      <c r="B257">
         <v>0.9</v>
       </c>
       <c r="C257">
@@ -3932,7 +3918,7 @@
       <c r="A258" s="1">
         <v>44269</v>
       </c>
-      <c r="B258" s="2">
+      <c r="B258">
         <v>0.9</v>
       </c>
       <c r="C258">
@@ -3946,7 +3932,7 @@
       <c r="A259" s="1">
         <v>44270</v>
       </c>
-      <c r="B259" s="2">
+      <c r="B259">
         <v>0.9</v>
       </c>
       <c r="C259">
@@ -3960,7 +3946,7 @@
       <c r="A260" s="1">
         <v>44271</v>
       </c>
-      <c r="B260" s="2">
+      <c r="B260">
         <v>0.9</v>
       </c>
       <c r="C260">
@@ -3974,7 +3960,7 @@
       <c r="A261" s="1">
         <v>44272</v>
       </c>
-      <c r="B261" s="2">
+      <c r="B261">
         <v>1</v>
       </c>
       <c r="C261">
@@ -3988,7 +3974,7 @@
       <c r="A262" s="1">
         <v>44273</v>
       </c>
-      <c r="B262" s="2">
+      <c r="B262">
         <v>1</v>
       </c>
       <c r="C262">
@@ -4002,7 +3988,7 @@
       <c r="A263" s="1">
         <v>44274</v>
       </c>
-      <c r="B263" s="2">
+      <c r="B263">
         <v>1</v>
       </c>
       <c r="C263">
@@ -4016,7 +4002,7 @@
       <c r="A264" s="1">
         <v>44275</v>
       </c>
-      <c r="B264" s="2">
+      <c r="B264">
         <v>0.95348837209302328</v>
       </c>
       <c r="C264">
@@ -4030,7 +4016,7 @@
       <c r="A265" s="1">
         <v>44276</v>
       </c>
-      <c r="B265" s="2">
+      <c r="B265">
         <v>0.95348837209302328</v>
       </c>
       <c r="C265">
@@ -4044,7 +4030,7 @@
       <c r="A266" s="1">
         <v>44277</v>
       </c>
-      <c r="B266" s="2">
+      <c r="B266">
         <v>1</v>
       </c>
       <c r="C266">
@@ -4058,7 +4044,7 @@
       <c r="A267" s="1">
         <v>44278</v>
       </c>
-      <c r="B267" s="2">
+      <c r="B267">
         <v>1</v>
       </c>
       <c r="C267">
@@ -4072,7 +4058,7 @@
       <c r="A268" s="1">
         <v>44279</v>
       </c>
-      <c r="B268" s="2">
+      <c r="B268">
         <v>1</v>
       </c>
       <c r="C268">
@@ -4086,7 +4072,7 @@
       <c r="A269" s="1">
         <v>44280</v>
       </c>
-      <c r="B269" s="2">
+      <c r="B269">
         <v>1</v>
       </c>
       <c r="C269">
@@ -4100,7 +4086,7 @@
       <c r="A270" s="1">
         <v>44281</v>
       </c>
-      <c r="B270" s="2">
+      <c r="B270">
         <v>0.86046511627906974</v>
       </c>
       <c r="C270">
@@ -4114,7 +4100,7 @@
       <c r="A271" s="1">
         <v>44282</v>
       </c>
-      <c r="B271" s="2">
+      <c r="B271">
         <v>0.86046511627906974</v>
       </c>
       <c r="C271">
@@ -4128,7 +4114,7 @@
       <c r="A272" s="1">
         <v>44283</v>
       </c>
-      <c r="B272" s="2">
+      <c r="B272">
         <v>0.86046511627906974</v>
       </c>
       <c r="C272">
@@ -4142,7 +4128,7 @@
       <c r="A273" s="1">
         <v>44284</v>
       </c>
-      <c r="B273" s="2">
+      <c r="B273">
         <v>1</v>
       </c>
       <c r="C273">
@@ -4156,7 +4142,7 @@
       <c r="A274" s="1">
         <v>44285</v>
       </c>
-      <c r="B274" s="2">
+      <c r="B274">
         <v>1</v>
       </c>
       <c r="C274">
@@ -4170,7 +4156,7 @@
       <c r="A275" s="1">
         <v>44286</v>
       </c>
-      <c r="B275" s="2">
+      <c r="B275">
         <v>1</v>
       </c>
       <c r="C275">
@@ -4184,7 +4170,7 @@
       <c r="A276" s="1">
         <v>44287</v>
       </c>
-      <c r="B276" s="2">
+      <c r="B276">
         <v>1</v>
       </c>
       <c r="C276">
@@ -4198,7 +4184,7 @@
       <c r="A277" s="1">
         <v>44288</v>
       </c>
-      <c r="B277" s="2">
+      <c r="B277">
         <v>1</v>
       </c>
       <c r="C277">
@@ -4212,7 +4198,7 @@
       <c r="A278" s="1">
         <v>44289</v>
       </c>
-      <c r="B278" s="2">
+      <c r="B278">
         <v>1</v>
       </c>
       <c r="C278">
@@ -4226,7 +4212,7 @@
       <c r="A279" s="1">
         <v>44290</v>
       </c>
-      <c r="B279" s="2">
+      <c r="B279">
         <v>1</v>
       </c>
       <c r="C279">
@@ -4240,7 +4226,7 @@
       <c r="A280" s="1">
         <v>44291</v>
       </c>
-      <c r="B280" s="2">
+      <c r="B280">
         <v>1</v>
       </c>
       <c r="C280">
@@ -4254,7 +4240,7 @@
       <c r="A281" s="1">
         <v>44292</v>
       </c>
-      <c r="B281" s="2">
+      <c r="B281">
         <v>1</v>
       </c>
       <c r="C281">
@@ -4268,7 +4254,7 @@
       <c r="A282" s="1">
         <v>44293</v>
       </c>
-      <c r="B282" s="2">
+      <c r="B282">
         <v>1</v>
       </c>
       <c r="C282">
@@ -4282,7 +4268,7 @@
       <c r="A283" s="1">
         <v>44294</v>
       </c>
-      <c r="B283" s="2">
+      <c r="B283">
         <v>1</v>
       </c>
       <c r="C283">
@@ -4296,7 +4282,7 @@
       <c r="A284" s="1">
         <v>44295</v>
       </c>
-      <c r="B284" s="2">
+      <c r="B284">
         <v>1</v>
       </c>
       <c r="C284">
@@ -4310,7 +4296,7 @@
       <c r="A285" s="1">
         <v>44296</v>
       </c>
-      <c r="B285" s="2">
+      <c r="B285">
         <v>1</v>
       </c>
       <c r="C285">
@@ -4324,7 +4310,7 @@
       <c r="A286" s="1">
         <v>44297</v>
       </c>
-      <c r="B286" s="2">
+      <c r="B286">
         <v>1</v>
       </c>
       <c r="C286">
@@ -4338,7 +4324,7 @@
       <c r="A287" s="1">
         <v>44298</v>
       </c>
-      <c r="B287" s="2">
+      <c r="B287">
         <v>1</v>
       </c>
       <c r="C287">
@@ -4352,7 +4338,7 @@
       <c r="A288" s="1">
         <v>44299</v>
       </c>
-      <c r="B288" s="2">
+      <c r="B288">
         <v>1</v>
       </c>
       <c r="C288">
@@ -4366,7 +4352,7 @@
       <c r="A289" s="1">
         <v>44300</v>
       </c>
-      <c r="B289" s="2">
+      <c r="B289">
         <v>1</v>
       </c>
       <c r="C289">
@@ -4380,7 +4366,7 @@
       <c r="A290" s="1">
         <v>44301</v>
       </c>
-      <c r="B290" s="2">
+      <c r="B290">
         <v>1</v>
       </c>
       <c r="C290">
@@ -4394,7 +4380,7 @@
       <c r="A291" s="1">
         <v>44302</v>
       </c>
-      <c r="B291" s="2">
+      <c r="B291">
         <v>1</v>
       </c>
       <c r="C291">
@@ -4408,7 +4394,7 @@
       <c r="A292" s="1">
         <v>44303</v>
       </c>
-      <c r="B292" s="2">
+      <c r="B292">
         <v>1</v>
       </c>
       <c r="C292">
@@ -4422,7 +4408,7 @@
       <c r="A293" s="1">
         <v>44304</v>
       </c>
-      <c r="B293" s="2">
+      <c r="B293">
         <v>1</v>
       </c>
       <c r="C293">
@@ -4436,7 +4422,7 @@
       <c r="A294" s="1">
         <v>44305</v>
       </c>
-      <c r="B294" s="2">
+      <c r="B294">
         <v>0.8666666666666667</v>
       </c>
       <c r="C294">
@@ -4450,7 +4436,7 @@
       <c r="A295" s="1">
         <v>44306</v>
       </c>
-      <c r="B295" s="2">
+      <c r="B295">
         <v>1</v>
       </c>
       <c r="C295">
@@ -4464,7 +4450,7 @@
       <c r="A296" s="1">
         <v>44307</v>
       </c>
-      <c r="B296" s="2">
+      <c r="B296">
         <v>1</v>
       </c>
       <c r="C296">
@@ -4478,7 +4464,7 @@
       <c r="A297" s="1">
         <v>44308</v>
       </c>
-      <c r="B297" s="2">
+      <c r="B297">
         <v>1</v>
       </c>
       <c r="C297">
@@ -4492,7 +4478,7 @@
       <c r="A298" s="1">
         <v>44309</v>
       </c>
-      <c r="B298" s="2">
+      <c r="B298">
         <v>1</v>
       </c>
       <c r="C298">
@@ -4506,7 +4492,7 @@
       <c r="A299" s="1">
         <v>44310</v>
       </c>
-      <c r="B299" s="2">
+      <c r="B299">
         <v>1</v>
       </c>
       <c r="C299">
@@ -4520,7 +4506,7 @@
       <c r="A300" s="1">
         <v>44311</v>
       </c>
-      <c r="B300" s="2">
+      <c r="B300">
         <v>1</v>
       </c>
       <c r="C300">
@@ -4534,7 +4520,7 @@
       <c r="A301" s="1">
         <v>44312</v>
       </c>
-      <c r="B301" s="2">
+      <c r="B301">
         <v>1</v>
       </c>
       <c r="C301">
@@ -4548,7 +4534,7 @@
       <c r="A302" s="1">
         <v>44313</v>
       </c>
-      <c r="B302" s="2">
+      <c r="B302">
         <v>1</v>
       </c>
       <c r="C302">
@@ -4562,7 +4548,7 @@
       <c r="A303" s="1">
         <v>44314</v>
       </c>
-      <c r="B303" s="2">
+      <c r="B303">
         <v>1</v>
       </c>
       <c r="C303">
@@ -4576,7 +4562,7 @@
       <c r="A304" s="1">
         <v>44315</v>
       </c>
-      <c r="B304" s="2">
+      <c r="B304">
         <v>1</v>
       </c>
       <c r="C304">
@@ -4590,7 +4576,7 @@
       <c r="A305" s="1">
         <v>44316</v>
       </c>
-      <c r="B305" s="2">
+      <c r="B305">
         <v>1</v>
       </c>
       <c r="C305">
@@ -4604,7 +4590,7 @@
       <c r="A306" s="1">
         <v>44317</v>
       </c>
-      <c r="B306" s="2">
+      <c r="B306">
         <v>1</v>
       </c>
       <c r="C306">
@@ -4618,7 +4604,7 @@
       <c r="A307" s="1">
         <v>44318</v>
       </c>
-      <c r="B307" s="2">
+      <c r="B307">
         <v>1</v>
       </c>
       <c r="C307">
@@ -4632,7 +4618,7 @@
       <c r="A308" s="1">
         <v>44319</v>
       </c>
-      <c r="B308" s="2">
+      <c r="B308">
         <v>1</v>
       </c>
       <c r="C308">
@@ -4646,7 +4632,7 @@
       <c r="A309" s="1">
         <v>44320</v>
       </c>
-      <c r="B309" s="2">
+      <c r="B309">
         <v>1</v>
       </c>
       <c r="C309">
@@ -4660,7 +4646,7 @@
       <c r="A310" s="1">
         <v>44321</v>
       </c>
-      <c r="B310" s="2">
+      <c r="B310">
         <v>1</v>
       </c>
       <c r="C310">
@@ -4674,7 +4660,7 @@
       <c r="A311" s="1">
         <v>44322</v>
       </c>
-      <c r="B311" s="2">
+      <c r="B311">
         <v>1</v>
       </c>
       <c r="C311">
@@ -4688,7 +4674,7 @@
       <c r="A312" s="1">
         <v>44323</v>
       </c>
-      <c r="B312" s="2">
+      <c r="B312">
         <v>1</v>
       </c>
       <c r="C312">
@@ -4702,7 +4688,7 @@
       <c r="A313" s="1">
         <v>44324</v>
       </c>
-      <c r="B313" s="2">
+      <c r="B313">
         <v>1</v>
       </c>
       <c r="C313">
@@ -4716,7 +4702,7 @@
       <c r="A314" s="1">
         <v>44325</v>
       </c>
-      <c r="B314" s="2">
+      <c r="B314">
         <v>1</v>
       </c>
       <c r="C314">
@@ -4730,7 +4716,7 @@
       <c r="A315" s="1">
         <v>44326</v>
       </c>
-      <c r="B315" s="2">
+      <c r="B315">
         <v>1</v>
       </c>
       <c r="C315">
@@ -4744,7 +4730,7 @@
       <c r="A316" s="1">
         <v>44327</v>
       </c>
-      <c r="B316" s="2">
+      <c r="B316">
         <v>1</v>
       </c>
       <c r="C316">
@@ -4758,7 +4744,7 @@
       <c r="A317" s="1">
         <v>44328</v>
       </c>
-      <c r="B317" s="2">
+      <c r="B317">
         <v>1</v>
       </c>
       <c r="C317">
@@ -4772,7 +4758,7 @@
       <c r="A318" s="1">
         <v>44329</v>
       </c>
-      <c r="B318" s="2">
+      <c r="B318">
         <v>1</v>
       </c>
       <c r="C318">
@@ -4786,7 +4772,7 @@
       <c r="A319" s="1">
         <v>44330</v>
       </c>
-      <c r="B319" s="2">
+      <c r="B319">
         <v>1</v>
       </c>
       <c r="C319">
@@ -4800,7 +4786,7 @@
       <c r="A320" s="1">
         <v>44331</v>
       </c>
-      <c r="B320" s="2">
+      <c r="B320">
         <v>1</v>
       </c>
       <c r="C320">
@@ -4814,7 +4800,7 @@
       <c r="A321" s="1">
         <v>44332</v>
       </c>
-      <c r="B321" s="2">
+      <c r="B321">
         <v>1</v>
       </c>
       <c r="C321">
@@ -4828,7 +4814,7 @@
       <c r="A322" s="1">
         <v>44333</v>
       </c>
-      <c r="B322" s="2">
+      <c r="B322">
         <v>1</v>
       </c>
       <c r="C322">
@@ -4842,7 +4828,7 @@
       <c r="A323" s="1">
         <v>44334</v>
       </c>
-      <c r="B323" s="2">
+      <c r="B323">
         <v>1</v>
       </c>
       <c r="C323">
@@ -4856,7 +4842,7 @@
       <c r="A324" s="1">
         <v>44335</v>
       </c>
-      <c r="B324" s="2">
+      <c r="B324">
         <v>1</v>
       </c>
       <c r="C324">
@@ -4870,7 +4856,7 @@
       <c r="A325" s="1">
         <v>44336</v>
       </c>
-      <c r="B325" s="2">
+      <c r="B325">
         <v>1</v>
       </c>
       <c r="C325">
@@ -4884,7 +4870,7 @@
       <c r="A326" s="1">
         <v>44337</v>
       </c>
-      <c r="B326" s="2">
+      <c r="B326">
         <v>1</v>
       </c>
       <c r="C326">
@@ -4898,7 +4884,7 @@
       <c r="A327" s="1">
         <v>44338</v>
       </c>
-      <c r="B327" s="2">
+      <c r="B327">
         <v>1</v>
       </c>
       <c r="C327">
@@ -4912,7 +4898,7 @@
       <c r="A328" s="1">
         <v>44339</v>
       </c>
-      <c r="B328" s="2">
+      <c r="B328">
         <v>1</v>
       </c>
       <c r="C328">
@@ -4926,7 +4912,7 @@
       <c r="A329" s="1">
         <v>44340</v>
       </c>
-      <c r="B329" s="2">
+      <c r="B329">
         <v>1</v>
       </c>
       <c r="C329">
@@ -4940,7 +4926,7 @@
       <c r="A330" s="1">
         <v>44341</v>
       </c>
-      <c r="B330" s="2">
+      <c r="B330">
         <v>1</v>
       </c>
       <c r="C330">
@@ -4954,7 +4940,7 @@
       <c r="A331" s="1">
         <v>44342</v>
       </c>
-      <c r="B331" s="2">
+      <c r="B331">
         <v>1</v>
       </c>
       <c r="C331">
@@ -4968,7 +4954,7 @@
       <c r="A332" s="1">
         <v>44343</v>
       </c>
-      <c r="B332" s="2">
+      <c r="B332">
         <v>1</v>
       </c>
       <c r="C332">
@@ -4982,7 +4968,7 @@
       <c r="A333" s="1">
         <v>44344</v>
       </c>
-      <c r="B333" s="2">
+      <c r="B333">
         <v>1</v>
       </c>
       <c r="C333">
@@ -4996,7 +4982,7 @@
       <c r="A334" s="1">
         <v>44345</v>
       </c>
-      <c r="B334" s="2">
+      <c r="B334">
         <v>1</v>
       </c>
       <c r="C334">
@@ -5010,7 +4996,7 @@
       <c r="A335" s="1">
         <v>44346</v>
       </c>
-      <c r="B335" s="2">
+      <c r="B335">
         <v>1</v>
       </c>
       <c r="C335">
@@ -5027,7 +5013,7 @@
       <c r="A336" s="1">
         <v>44347</v>
       </c>
-      <c r="B336" s="2">
+      <c r="B336">
         <v>1</v>
       </c>
       <c r="C336">
@@ -5044,7 +5030,7 @@
       <c r="A337" s="1">
         <v>44348</v>
       </c>
-      <c r="B337" s="2">
+      <c r="B337">
         <v>1</v>
       </c>
       <c r="C337">
@@ -5061,7 +5047,7 @@
       <c r="A338" s="1">
         <v>44349</v>
       </c>
-      <c r="B338" s="2">
+      <c r="B338">
         <v>1</v>
       </c>
       <c r="C338">
@@ -5078,7 +5064,7 @@
       <c r="A339" s="1">
         <v>44350</v>
       </c>
-      <c r="B339" s="2">
+      <c r="B339">
         <v>1</v>
       </c>
       <c r="C339">
@@ -5095,7 +5081,7 @@
       <c r="A340" s="1">
         <v>44351</v>
       </c>
-      <c r="B340" s="2">
+      <c r="B340">
         <v>1</v>
       </c>
       <c r="C340">
@@ -5112,7 +5098,7 @@
       <c r="A341" s="1">
         <v>44352</v>
       </c>
-      <c r="B341" s="2">
+      <c r="B341">
         <v>1</v>
       </c>
       <c r="C341">
@@ -5129,7 +5115,7 @@
       <c r="A342" s="1">
         <v>44353</v>
       </c>
-      <c r="B342" s="2">
+      <c r="B342">
         <v>1</v>
       </c>
       <c r="C342">
@@ -5146,7 +5132,7 @@
       <c r="A343" s="1">
         <v>44354</v>
       </c>
-      <c r="B343" s="2">
+      <c r="B343">
         <v>1</v>
       </c>
       <c r="C343">
@@ -5163,7 +5149,7 @@
       <c r="A344" s="1">
         <v>44355</v>
       </c>
-      <c r="B344" s="2">
+      <c r="B344">
         <v>1</v>
       </c>
       <c r="C344">
@@ -5180,7 +5166,7 @@
       <c r="A345" s="1">
         <v>44356</v>
       </c>
-      <c r="B345" s="2">
+      <c r="B345">
         <v>1</v>
       </c>
       <c r="C345">
@@ -5197,7 +5183,7 @@
       <c r="A346" s="1">
         <v>44357</v>
       </c>
-      <c r="B346" s="2">
+      <c r="B346">
         <v>1</v>
       </c>
       <c r="C346">
@@ -5214,7 +5200,7 @@
       <c r="A347" s="1">
         <v>44358</v>
       </c>
-      <c r="B347" s="2">
+      <c r="B347">
         <v>1</v>
       </c>
       <c r="C347">
@@ -5231,7 +5217,7 @@
       <c r="A348" s="1">
         <v>44359</v>
       </c>
-      <c r="B348" s="2">
+      <c r="B348">
         <v>1</v>
       </c>
       <c r="C348">
@@ -5248,7 +5234,7 @@
       <c r="A349" s="1">
         <v>44360</v>
       </c>
-      <c r="B349" s="2">
+      <c r="B349">
         <v>1</v>
       </c>
       <c r="C349">
@@ -5265,7 +5251,7 @@
       <c r="A350" s="1">
         <v>44361</v>
       </c>
-      <c r="B350" s="2">
+      <c r="B350">
         <v>1</v>
       </c>
       <c r="C350">
@@ -5282,7 +5268,7 @@
       <c r="A351" s="1">
         <v>44362</v>
       </c>
-      <c r="B351" s="2">
+      <c r="B351">
         <v>1</v>
       </c>
       <c r="C351">
@@ -5299,7 +5285,7 @@
       <c r="A352" s="1">
         <v>44363</v>
       </c>
-      <c r="B352" s="2">
+      <c r="B352">
         <v>1</v>
       </c>
       <c r="C352">
@@ -5316,7 +5302,7 @@
       <c r="A353" s="1">
         <v>44364</v>
       </c>
-      <c r="B353" s="2">
+      <c r="B353">
         <v>1</v>
       </c>
       <c r="C353">
@@ -5333,7 +5319,7 @@
       <c r="A354" s="1">
         <v>44365</v>
       </c>
-      <c r="B354" s="2">
+      <c r="B354">
         <v>1</v>
       </c>
       <c r="C354">
@@ -5350,7 +5336,7 @@
       <c r="A355" s="1">
         <v>44366</v>
       </c>
-      <c r="B355" s="2">
+      <c r="B355">
         <v>1</v>
       </c>
       <c r="C355">
@@ -5367,7 +5353,7 @@
       <c r="A356" s="1">
         <v>44367</v>
       </c>
-      <c r="B356" s="2">
+      <c r="B356">
         <v>1</v>
       </c>
       <c r="C356">
@@ -5384,7 +5370,7 @@
       <c r="A357" s="1">
         <v>44368</v>
       </c>
-      <c r="B357" s="2">
+      <c r="B357">
         <v>1</v>
       </c>
       <c r="C357">
@@ -5401,7 +5387,7 @@
       <c r="A358" s="1">
         <v>44369</v>
       </c>
-      <c r="B358" s="2">
+      <c r="B358">
         <v>1</v>
       </c>
       <c r="C358">
@@ -5418,7 +5404,7 @@
       <c r="A359" s="1">
         <v>44370</v>
       </c>
-      <c r="B359" s="2">
+      <c r="B359">
         <v>1</v>
       </c>
       <c r="C359">
@@ -5435,7 +5421,7 @@
       <c r="A360" s="1">
         <v>44371</v>
       </c>
-      <c r="B360" s="2">
+      <c r="B360">
         <v>1</v>
       </c>
       <c r="C360">
@@ -5452,7 +5438,7 @@
       <c r="A361" s="1">
         <v>44372</v>
       </c>
-      <c r="B361" s="2">
+      <c r="B361">
         <v>1</v>
       </c>
       <c r="C361">
@@ -5469,7 +5455,7 @@
       <c r="A362" s="1">
         <v>44373</v>
       </c>
-      <c r="B362" s="2">
+      <c r="B362">
         <v>1</v>
       </c>
       <c r="C362">
@@ -5486,7 +5472,7 @@
       <c r="A363" s="1">
         <v>44374</v>
       </c>
-      <c r="B363" s="2">
+      <c r="B363">
         <v>1</v>
       </c>
       <c r="C363">
@@ -5503,7 +5489,7 @@
       <c r="A364" s="1">
         <v>44375</v>
       </c>
-      <c r="B364" s="2">
+      <c r="B364">
         <v>1</v>
       </c>
       <c r="C364">
@@ -5520,7 +5506,7 @@
       <c r="A365" s="1">
         <v>44376</v>
       </c>
-      <c r="B365" s="2">
+      <c r="B365">
         <v>1</v>
       </c>
       <c r="C365">
@@ -5537,7 +5523,7 @@
       <c r="A366" s="1">
         <v>44377</v>
       </c>
-      <c r="B366" s="2">
+      <c r="B366">
         <v>1</v>
       </c>
       <c r="C366">
@@ -5554,7 +5540,7 @@
       <c r="A367" s="1">
         <v>44378</v>
       </c>
-      <c r="B367" s="2">
+      <c r="B367">
         <v>1</v>
       </c>
       <c r="C367">
@@ -5571,7 +5557,7 @@
       <c r="A368" s="1">
         <v>44379</v>
       </c>
-      <c r="B368" s="2">
+      <c r="B368">
         <v>1</v>
       </c>
       <c r="C368">
@@ -5588,7 +5574,7 @@
       <c r="A369" s="1">
         <v>44380</v>
       </c>
-      <c r="B369" s="2">
+      <c r="B369">
         <v>1</v>
       </c>
       <c r="C369">
@@ -5605,7 +5591,7 @@
       <c r="A370" s="1">
         <v>44381</v>
       </c>
-      <c r="B370" s="2">
+      <c r="B370">
         <v>1</v>
       </c>
       <c r="C370">
@@ -5622,7 +5608,7 @@
       <c r="A371" s="1">
         <v>44382</v>
       </c>
-      <c r="B371" s="2">
+      <c r="B371">
         <v>0.97435897435897434</v>
       </c>
       <c r="C371">
@@ -5639,7 +5625,7 @@
       <c r="A372" s="1">
         <v>44383</v>
       </c>
-      <c r="B372" s="2">
+      <c r="B372">
         <v>0.97435897435897434</v>
       </c>
       <c r="C372">
@@ -5656,7 +5642,7 @@
       <c r="A373" s="1">
         <v>44384</v>
       </c>
-      <c r="B373" s="2">
+      <c r="B373">
         <v>1</v>
       </c>
       <c r="C373">
@@ -5673,7 +5659,7 @@
       <c r="A374" s="1">
         <v>44385</v>
       </c>
-      <c r="B374" s="2">
+      <c r="B374">
         <v>1</v>
       </c>
       <c r="C374">
@@ -5690,7 +5676,7 @@
       <c r="A375" s="1">
         <v>44386</v>
       </c>
-      <c r="B375" s="2">
+      <c r="B375">
         <v>1</v>
       </c>
       <c r="C375">
@@ -5707,7 +5693,7 @@
       <c r="A376" s="1">
         <v>44387</v>
       </c>
-      <c r="B376" s="2">
+      <c r="B376">
         <v>1</v>
       </c>
       <c r="C376">
@@ -5724,7 +5710,7 @@
       <c r="A377" s="1">
         <v>44388</v>
       </c>
-      <c r="B377" s="2">
+      <c r="B377">
         <v>1</v>
       </c>
       <c r="C377">
@@ -5741,7 +5727,7 @@
       <c r="A378" s="1">
         <v>44389</v>
       </c>
-      <c r="B378" s="2">
+      <c r="B378">
         <v>1</v>
       </c>
       <c r="C378">
@@ -5758,7 +5744,7 @@
       <c r="A379" s="1">
         <v>44390</v>
       </c>
-      <c r="B379" s="2">
+      <c r="B379">
         <v>1</v>
       </c>
       <c r="C379">
@@ -5775,7 +5761,7 @@
       <c r="A380" s="1">
         <v>44391</v>
       </c>
-      <c r="B380" s="2">
+      <c r="B380">
         <v>1</v>
       </c>
       <c r="C380">
@@ -5792,7 +5778,7 @@
       <c r="A381" s="1">
         <v>44392</v>
       </c>
-      <c r="B381" s="2">
+      <c r="B381">
         <v>1</v>
       </c>
       <c r="C381">
@@ -5809,7 +5795,7 @@
       <c r="A382" s="1">
         <v>44393</v>
       </c>
-      <c r="B382" s="2">
+      <c r="B382">
         <v>1</v>
       </c>
       <c r="C382">
@@ -5826,7 +5812,7 @@
       <c r="A383" s="1">
         <v>44394</v>
       </c>
-      <c r="B383" s="2">
+      <c r="B383">
         <v>1</v>
       </c>
       <c r="C383">
@@ -5843,7 +5829,7 @@
       <c r="A384" s="1">
         <v>44395</v>
       </c>
-      <c r="B384" s="2">
+      <c r="B384">
         <v>1</v>
       </c>
       <c r="C384">
@@ -5860,7 +5846,7 @@
       <c r="A385" s="1">
         <v>44396</v>
       </c>
-      <c r="B385" s="2">
+      <c r="B385">
         <v>1</v>
       </c>
       <c r="C385">
@@ -5877,7 +5863,7 @@
       <c r="A386" s="1">
         <v>44397</v>
       </c>
-      <c r="B386" s="2">
+      <c r="B386">
         <v>1</v>
       </c>
       <c r="C386">
@@ -5894,7 +5880,7 @@
       <c r="A387" s="1">
         <v>44398</v>
       </c>
-      <c r="B387" s="2">
+      <c r="B387">
         <v>1</v>
       </c>
       <c r="C387">
@@ -5911,7 +5897,7 @@
       <c r="A388" s="1">
         <v>44399</v>
       </c>
-      <c r="B388" s="2">
+      <c r="B388">
         <v>1</v>
       </c>
       <c r="C388">
@@ -5928,7 +5914,7 @@
       <c r="A389" s="1">
         <v>44400</v>
       </c>
-      <c r="B389" s="2">
+      <c r="B389">
         <v>1</v>
       </c>
       <c r="C389">
@@ -5945,7 +5931,7 @@
       <c r="A390" s="1">
         <v>44401</v>
       </c>
-      <c r="B390" s="2">
+      <c r="B390">
         <v>1</v>
       </c>
       <c r="C390">
@@ -5962,7 +5948,7 @@
       <c r="A391" s="1">
         <v>44402</v>
       </c>
-      <c r="B391" s="2">
+      <c r="B391">
         <v>1</v>
       </c>
       <c r="C391">
@@ -5979,7 +5965,7 @@
       <c r="A392" s="1">
         <v>44403</v>
       </c>
-      <c r="B392" s="2">
+      <c r="B392">
         <v>1</v>
       </c>
       <c r="C392">
@@ -5996,7 +5982,7 @@
       <c r="A393" s="1">
         <v>44404</v>
       </c>
-      <c r="B393" s="2">
+      <c r="B393">
         <v>1</v>
       </c>
       <c r="C393">
@@ -6013,7 +5999,7 @@
       <c r="A394" s="1">
         <v>44405</v>
       </c>
-      <c r="B394" s="2">
+      <c r="B394">
         <v>1</v>
       </c>
       <c r="C394">
@@ -6030,7 +6016,7 @@
       <c r="A395" s="1">
         <v>44406</v>
       </c>
-      <c r="B395" s="2">
+      <c r="B395">
         <v>1</v>
       </c>
       <c r="C395">
@@ -6047,7 +6033,7 @@
       <c r="A396" s="1">
         <v>44407</v>
       </c>
-      <c r="B396" s="2">
+      <c r="B396">
         <v>1</v>
       </c>
       <c r="C396">
@@ -6064,7 +6050,7 @@
       <c r="A397" s="1">
         <v>44408</v>
       </c>
-      <c r="B397" s="2">
+      <c r="B397">
         <v>1</v>
       </c>
       <c r="C397">
@@ -6081,7 +6067,7 @@
       <c r="A398" s="1">
         <v>44409</v>
       </c>
-      <c r="B398" s="2">
+      <c r="B398">
         <v>1</v>
       </c>
       <c r="C398">
@@ -6098,7 +6084,7 @@
       <c r="A399" s="1">
         <v>44410</v>
       </c>
-      <c r="B399" s="2">
+      <c r="B399">
         <v>1</v>
       </c>
       <c r="C399">
@@ -6115,7 +6101,7 @@
       <c r="A400" s="1">
         <v>44411</v>
       </c>
-      <c r="B400" s="2">
+      <c r="B400">
         <v>1</v>
       </c>
       <c r="C400">
@@ -6132,7 +6118,7 @@
       <c r="A401" s="1">
         <v>44412</v>
       </c>
-      <c r="B401" s="2">
+      <c r="B401">
         <v>1</v>
       </c>
       <c r="C401">
@@ -6149,7 +6135,7 @@
       <c r="A402" s="1">
         <v>44413</v>
       </c>
-      <c r="B402" s="2">
+      <c r="B402">
         <v>0.97435897435897434</v>
       </c>
       <c r="C402">
@@ -6166,7 +6152,7 @@
       <c r="A403" s="1">
         <v>44414</v>
       </c>
-      <c r="B403" s="2">
+      <c r="B403">
         <v>0.97435897435897434</v>
       </c>
       <c r="C403">
@@ -6183,7 +6169,7 @@
       <c r="A404" s="1">
         <v>44415</v>
       </c>
-      <c r="B404" s="2">
+      <c r="B404">
         <v>0.97435897435897434</v>
       </c>
       <c r="C404">
@@ -6200,7 +6186,7 @@
       <c r="A405" s="1">
         <v>44416</v>
       </c>
-      <c r="B405" s="2">
+      <c r="B405">
         <v>0.97435897435897434</v>
       </c>
       <c r="C405">
@@ -6217,7 +6203,7 @@
       <c r="A406" s="1">
         <v>44417</v>
       </c>
-      <c r="B406" s="2">
+      <c r="B406">
         <v>0.97435897435897434</v>
       </c>
       <c r="C406">
@@ -6234,7 +6220,7 @@
       <c r="A407" s="1">
         <v>44418</v>
       </c>
-      <c r="B407" s="2">
+      <c r="B407">
         <v>1</v>
       </c>
       <c r="C407">
@@ -6251,7 +6237,7 @@
       <c r="A408" s="1">
         <v>44419</v>
       </c>
-      <c r="B408" s="2">
+      <c r="B408">
         <v>1</v>
       </c>
       <c r="C408">
@@ -6268,7 +6254,7 @@
       <c r="A409" s="1">
         <v>44420</v>
       </c>
-      <c r="B409" s="2">
+      <c r="B409">
         <v>1</v>
       </c>
       <c r="C409">
@@ -6285,7 +6271,7 @@
       <c r="A410" s="1">
         <v>44421</v>
       </c>
-      <c r="B410" s="2">
+      <c r="B410">
         <v>1</v>
       </c>
       <c r="C410">
@@ -6302,7 +6288,7 @@
       <c r="A411" s="1">
         <v>44422</v>
       </c>
-      <c r="B411" s="2">
+      <c r="B411">
         <v>1</v>
       </c>
       <c r="C411">
@@ -6319,7 +6305,7 @@
       <c r="A412" s="1">
         <v>44423</v>
       </c>
-      <c r="B412" s="2">
+      <c r="B412">
         <v>1</v>
       </c>
       <c r="C412">
@@ -6336,7 +6322,7 @@
       <c r="A413" s="1">
         <v>44424</v>
       </c>
-      <c r="B413" s="2">
+      <c r="B413">
         <v>1</v>
       </c>
       <c r="C413">
@@ -6353,7 +6339,7 @@
       <c r="A414" s="1">
         <v>44425</v>
       </c>
-      <c r="B414" s="2">
+      <c r="B414">
         <v>0.97435897435897434</v>
       </c>
       <c r="C414">
@@ -6370,7 +6356,7 @@
       <c r="A415" s="1">
         <v>44426</v>
       </c>
-      <c r="B415" s="2">
+      <c r="B415">
         <v>0.97435897435897434</v>
       </c>
       <c r="C415">
@@ -6387,7 +6373,7 @@
       <c r="A416" s="1">
         <v>44427</v>
       </c>
-      <c r="B416" s="2">
+      <c r="B416">
         <v>0.97435897435897434</v>
       </c>
       <c r="C416">
@@ -6404,7 +6390,7 @@
       <c r="A417" s="1">
         <v>44428</v>
       </c>
-      <c r="B417" s="2">
+      <c r="B417">
         <v>1</v>
       </c>
       <c r="C417">
@@ -6421,7 +6407,7 @@
       <c r="A418" s="1">
         <v>44429</v>
       </c>
-      <c r="B418" s="2">
+      <c r="B418">
         <v>1</v>
       </c>
       <c r="C418">
@@ -6438,7 +6424,7 @@
       <c r="A419" s="1">
         <v>44430</v>
       </c>
-      <c r="B419" s="2">
+      <c r="B419">
         <v>1</v>
       </c>
       <c r="C419">
@@ -6455,7 +6441,7 @@
       <c r="A420" s="1">
         <v>44431</v>
       </c>
-      <c r="B420" s="2">
+      <c r="B420">
         <v>1</v>
       </c>
       <c r="C420">
@@ -6472,7 +6458,7 @@
       <c r="A421" s="1">
         <v>44432</v>
       </c>
-      <c r="B421" s="2">
+      <c r="B421">
         <v>0.94871794871794868</v>
       </c>
       <c r="C421">
@@ -6489,7 +6475,7 @@
       <c r="A422" s="1">
         <v>44433</v>
       </c>
-      <c r="B422" s="2">
+      <c r="B422">
         <v>0.94871794871794868</v>
       </c>
       <c r="C422">
@@ -6506,7 +6492,7 @@
       <c r="A423" s="1">
         <v>44434</v>
       </c>
-      <c r="B423" s="2">
+      <c r="B423">
         <v>0.94871794871794868</v>
       </c>
       <c r="C423">
@@ -6523,7 +6509,7 @@
       <c r="A424" s="1">
         <v>44435</v>
       </c>
-      <c r="B424" s="2">
+      <c r="B424">
         <v>0.97435897435897434</v>
       </c>
       <c r="C424">
@@ -6540,7 +6526,7 @@
       <c r="A425" s="1">
         <v>44436</v>
       </c>
-      <c r="B425" s="2">
+      <c r="B425">
         <v>0.97435897435897434</v>
       </c>
       <c r="C425">
@@ -6557,7 +6543,7 @@
       <c r="A426" s="1">
         <v>44437</v>
       </c>
-      <c r="B426" s="2">
+      <c r="B426">
         <v>0.97435897435897434</v>
       </c>
       <c r="C426">
@@ -6574,7 +6560,7 @@
       <c r="A427" s="1">
         <v>44438</v>
       </c>
-      <c r="B427" s="2">
+      <c r="B427">
         <v>0.97435897435897434</v>
       </c>
       <c r="C427">
@@ -6591,7 +6577,7 @@
       <c r="A428" s="1">
         <v>44439</v>
       </c>
-      <c r="B428" s="2">
+      <c r="B428">
         <v>0.92307692307692313</v>
       </c>
       <c r="C428">
@@ -6608,7 +6594,7 @@
       <c r="A429" s="1">
         <v>44440</v>
       </c>
-      <c r="B429" s="2">
+      <c r="B429">
         <v>0.97435897435897434</v>
       </c>
       <c r="C429">
@@ -6625,7 +6611,7 @@
       <c r="A430" s="1">
         <v>44441</v>
       </c>
-      <c r="B430" s="2">
+      <c r="B430">
         <v>0.92307692307692313</v>
       </c>
       <c r="C430">
@@ -6642,7 +6628,7 @@
       <c r="A431" s="1">
         <v>44442</v>
       </c>
-      <c r="B431" s="2">
+      <c r="B431">
         <v>0.92307692307692313</v>
       </c>
       <c r="C431">
@@ -6659,7 +6645,7 @@
       <c r="A432" s="1">
         <v>44443</v>
       </c>
-      <c r="B432" s="2">
+      <c r="B432">
         <v>0.92307692307692313</v>
       </c>
       <c r="C432">
@@ -6676,7 +6662,7 @@
       <c r="A433" s="1">
         <v>44444</v>
       </c>
-      <c r="B433" s="2">
+      <c r="B433">
         <v>0.92105263157894735</v>
       </c>
       <c r="C433">
@@ -6693,7 +6679,7 @@
       <c r="A434" s="1">
         <v>44445</v>
       </c>
-      <c r="B434" s="2">
+      <c r="B434">
         <v>0.82051282051282048</v>
       </c>
       <c r="C434">
@@ -6710,7 +6696,7 @@
       <c r="A435" s="1">
         <v>44446</v>
       </c>
-      <c r="B435" s="2">
+      <c r="B435">
         <v>0.79487179487179482</v>
       </c>
       <c r="C435">
@@ -6727,7 +6713,7 @@
       <c r="A436" s="1">
         <v>44447</v>
       </c>
-      <c r="B436" s="2">
+      <c r="B436">
         <v>0.79487179487179482</v>
       </c>
       <c r="C436">
@@ -6744,7 +6730,7 @@
       <c r="A437" s="1">
         <v>44448</v>
       </c>
-      <c r="B437" s="2">
+      <c r="B437">
         <v>0.74358974358974361</v>
       </c>
       <c r="C437">
@@ -6761,7 +6747,7 @@
       <c r="A438" s="1">
         <v>44449</v>
       </c>
-      <c r="B438" s="2">
+      <c r="B438">
         <v>0.79487179487179482</v>
       </c>
       <c r="C438">
@@ -6778,7 +6764,7 @@
       <c r="A439" s="1">
         <v>44450</v>
       </c>
-      <c r="B439" s="2">
+      <c r="B439">
         <v>0.79487179487179482</v>
       </c>
       <c r="C439">
@@ -6795,7 +6781,7 @@
       <c r="A440" s="1">
         <v>44451</v>
       </c>
-      <c r="B440" s="2">
+      <c r="B440">
         <v>0.79487179487179482</v>
       </c>
       <c r="C440">
@@ -6812,7 +6798,7 @@
       <c r="A441" s="1">
         <v>44452</v>
       </c>
-      <c r="B441" s="2">
+      <c r="B441">
         <v>0.89189189189189189</v>
       </c>
       <c r="C441">
@@ -6829,7 +6815,7 @@
       <c r="A442" s="1">
         <v>44453</v>
       </c>
-      <c r="B442" s="2">
+      <c r="B442">
         <v>0.89189189189189189</v>
       </c>
       <c r="C442">
@@ -6846,7 +6832,7 @@
       <c r="A443" s="1">
         <v>44454</v>
       </c>
-      <c r="B443" s="2">
+      <c r="B443">
         <v>0.89189189189189189</v>
       </c>
       <c r="C443">
@@ -6863,7 +6849,7 @@
       <c r="A444" s="1">
         <v>44455</v>
       </c>
-      <c r="B444" s="2">
+      <c r="B444">
         <v>0.89189189189189189</v>
       </c>
       <c r="C444">
@@ -6880,7 +6866,7 @@
       <c r="A445" s="1">
         <v>44456</v>
       </c>
-      <c r="B445" s="2">
+      <c r="B445">
         <v>0.92500000000000004</v>
       </c>
       <c r="C445">
@@ -6897,7 +6883,7 @@
       <c r="A446" s="1">
         <v>44457</v>
       </c>
-      <c r="B446" s="2">
+      <c r="B446">
         <v>0.92500000000000004</v>
       </c>
       <c r="C446">
@@ -6911,10 +6897,10 @@
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A447" s="3">
+      <c r="A447" s="1">
         <v>44458</v>
       </c>
-      <c r="B447" s="2">
+      <c r="B447">
         <v>0.92500000000000004</v>
       </c>
       <c r="C447">
@@ -6928,10 +6914,10 @@
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A448" s="3">
+      <c r="A448" s="1">
         <v>44459</v>
       </c>
-      <c r="B448" s="2">
+      <c r="B448">
         <v>0.89743589743589747</v>
       </c>
       <c r="C448">
@@ -6945,10 +6931,10 @@
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A449" s="3">
+      <c r="A449" s="1">
         <v>44460</v>
       </c>
-      <c r="B449" s="2">
+      <c r="B449">
         <v>0.89743589743589747</v>
       </c>
       <c r="C449">
@@ -6962,10 +6948,10 @@
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A450" s="3">
+      <c r="A450" s="1">
         <v>44461</v>
       </c>
-      <c r="B450" s="2">
+      <c r="B450">
         <v>0.89743589743589747</v>
       </c>
       <c r="C450">
@@ -6979,10 +6965,10 @@
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A451" s="3">
+      <c r="A451" s="1">
         <v>44462</v>
       </c>
-      <c r="B451" s="2">
+      <c r="B451">
         <v>0.92307692307692313</v>
       </c>
       <c r="C451">
@@ -6996,10 +6982,10 @@
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A452" s="3">
+      <c r="A452" s="1">
         <v>44463</v>
       </c>
-      <c r="B452" s="2">
+      <c r="B452">
         <v>0.92307692307692313</v>
       </c>
       <c r="C452">
@@ -7013,10 +6999,10 @@
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A453" s="3">
+      <c r="A453" s="1">
         <v>44464</v>
       </c>
-      <c r="B453" s="2">
+      <c r="B453">
         <v>0.92307692307692313</v>
       </c>
       <c r="C453">
@@ -7030,7 +7016,7 @@
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A454" s="3">
+      <c r="A454" s="1">
         <v>44465</v>
       </c>
       <c r="B454">
@@ -7047,7 +7033,7 @@
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A455" s="3">
+      <c r="A455" s="1">
         <v>44466</v>
       </c>
       <c r="B455">
@@ -7064,7 +7050,7 @@
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A456" s="3">
+      <c r="A456" s="1">
         <v>44467</v>
       </c>
       <c r="B456">
@@ -7081,7 +7067,7 @@
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A457" s="3">
+      <c r="A457" s="1">
         <v>44468</v>
       </c>
       <c r="B457">
@@ -7098,7 +7084,7 @@
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A458" s="3">
+      <c r="A458" s="1">
         <v>44469</v>
       </c>
       <c r="B458">
@@ -7115,7 +7101,7 @@
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A459" s="3">
+      <c r="A459" s="1">
         <v>44470</v>
       </c>
       <c r="B459">
@@ -7132,7 +7118,7 @@
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A460" s="3">
+      <c r="A460" s="1">
         <v>44471</v>
       </c>
       <c r="B460">
@@ -7149,7 +7135,7 @@
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A461" s="3">
+      <c r="A461" s="1">
         <v>44472</v>
       </c>
       <c r="B461">
@@ -7166,7 +7152,7 @@
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A462" s="3">
+      <c r="A462" s="1">
         <v>44473</v>
       </c>
       <c r="B462">
@@ -7183,7 +7169,7 @@
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A463" s="3">
+      <c r="A463" s="1">
         <v>44474</v>
       </c>
       <c r="B463">
@@ -7200,7 +7186,7 @@
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A464" s="3">
+      <c r="A464" s="1">
         <v>44475</v>
       </c>
       <c r="B464">
@@ -7217,7 +7203,7 @@
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A465" s="3">
+      <c r="A465" s="1">
         <v>44476</v>
       </c>
       <c r="B465">
@@ -7234,7 +7220,7 @@
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A466" s="3">
+      <c r="A466" s="1">
         <v>44477</v>
       </c>
       <c r="B466">
@@ -7251,7 +7237,7 @@
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A467" s="3">
+      <c r="A467" s="1">
         <v>44478</v>
       </c>
       <c r="B467">
@@ -7268,7 +7254,7 @@
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A468" s="3">
+      <c r="A468" s="1">
         <v>44479</v>
       </c>
       <c r="B468">
@@ -7285,7 +7271,7 @@
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A469" s="3">
+      <c r="A469" s="1">
         <v>44480</v>
       </c>
       <c r="B469">
@@ -7302,7 +7288,7 @@
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A470" s="3">
+      <c r="A470" s="1">
         <v>44481</v>
       </c>
       <c r="B470">
@@ -7319,7 +7305,7 @@
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A471" s="3">
+      <c r="A471" s="1">
         <v>44482</v>
       </c>
       <c r="B471">
@@ -7336,7 +7322,7 @@
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A472" s="3">
+      <c r="A472" s="1">
         <v>44483</v>
       </c>
       <c r="B472">
@@ -7353,7 +7339,7 @@
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A473" s="3">
+      <c r="A473" s="1">
         <v>44484</v>
       </c>
       <c r="B473">
@@ -7370,7 +7356,7 @@
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A474" s="3">
+      <c r="A474" s="1">
         <v>44485</v>
       </c>
       <c r="B474">
@@ -7387,7 +7373,7 @@
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A475" s="3">
+      <c r="A475" s="1">
         <v>44486</v>
       </c>
       <c r="B475">
@@ -7404,7 +7390,7 @@
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A476" s="3">
+      <c r="A476" s="1">
         <v>44487</v>
       </c>
       <c r="B476">
@@ -7421,7 +7407,7 @@
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A477" s="3">
+      <c r="A477" s="1">
         <v>44488</v>
       </c>
       <c r="B477">
@@ -7438,7 +7424,7 @@
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A478" s="3">
+      <c r="A478" s="1">
         <v>44489</v>
       </c>
       <c r="B478">
@@ -7455,7 +7441,7 @@
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A479" s="3">
+      <c r="A479" s="1">
         <v>44490</v>
       </c>
       <c r="B479">
@@ -7472,7 +7458,7 @@
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A480" s="3">
+      <c r="A480" s="1">
         <v>44491</v>
       </c>
       <c r="B480">
@@ -7489,7 +7475,7 @@
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A481" s="3">
+      <c r="A481" s="1">
         <v>44492</v>
       </c>
       <c r="B481">
@@ -7506,7 +7492,7 @@
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A482" s="3">
+      <c r="A482" s="1">
         <v>44493</v>
       </c>
       <c r="B482">
@@ -7523,7 +7509,7 @@
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A483" s="3">
+      <c r="A483" s="1">
         <v>44494</v>
       </c>
       <c r="B483">
@@ -7540,7 +7526,7 @@
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A484" s="3">
+      <c r="A484" s="1">
         <v>44495</v>
       </c>
       <c r="B484">
@@ -7557,7 +7543,7 @@
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A485" s="3">
+      <c r="A485" s="1">
         <v>44496</v>
       </c>
       <c r="B485">
@@ -7574,7 +7560,7 @@
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A486" s="3">
+      <c r="A486" s="1">
         <v>44497</v>
       </c>
       <c r="B486">
@@ -7591,7 +7577,7 @@
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A487" s="3">
+      <c r="A487" s="1">
         <v>44498</v>
       </c>
       <c r="B487">
@@ -7608,7 +7594,7 @@
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A488" s="3">
+      <c r="A488" s="1">
         <v>44499</v>
       </c>
       <c r="B488">
@@ -7625,7 +7611,7 @@
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A489" s="3">
+      <c r="A489" s="1">
         <v>44500</v>
       </c>
       <c r="B489">
@@ -7642,7 +7628,7 @@
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A490" s="3">
+      <c r="A490" s="1">
         <v>44501</v>
       </c>
       <c r="B490">
@@ -7659,7 +7645,7 @@
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A491" s="3">
+      <c r="A491" s="1">
         <v>44502</v>
       </c>
       <c r="B491">
@@ -7676,7 +7662,7 @@
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A492" s="3">
+      <c r="A492" s="1">
         <v>44503</v>
       </c>
       <c r="B492">
@@ -7693,7 +7679,7 @@
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A493" s="3">
+      <c r="A493" s="1">
         <v>44504</v>
       </c>
       <c r="B493">
@@ -7710,7 +7696,7 @@
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A494" s="3">
+      <c r="A494" s="1">
         <v>44505</v>
       </c>
       <c r="B494">
@@ -7727,7 +7713,7 @@
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A495" s="3">
+      <c r="A495" s="1">
         <v>44506</v>
       </c>
       <c r="B495">
@@ -7744,7 +7730,7 @@
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A496" s="3">
+      <c r="A496" s="1">
         <v>44507</v>
       </c>
       <c r="B496">
@@ -7761,7 +7747,7 @@
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A497" s="3">
+      <c r="A497" s="1">
         <v>44508</v>
       </c>
       <c r="B497">
@@ -7778,7 +7764,7 @@
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A498" s="3">
+      <c r="A498" s="1">
         <v>44509</v>
       </c>
       <c r="B498">
@@ -7795,7 +7781,7 @@
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A499" s="3">
+      <c r="A499" s="1">
         <v>44510</v>
       </c>
       <c r="B499">
@@ -7812,7 +7798,7 @@
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A500" s="3">
+      <c r="A500" s="1">
         <v>44511</v>
       </c>
       <c r="B500">
@@ -7829,7 +7815,7 @@
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A501" s="3">
+      <c r="A501" s="1">
         <v>44512</v>
       </c>
       <c r="B501">
@@ -7846,7 +7832,7 @@
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A502" s="3">
+      <c r="A502" s="1">
         <v>44513</v>
       </c>
       <c r="B502">
@@ -7863,7 +7849,7 @@
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A503" s="3">
+      <c r="A503" s="1">
         <v>44514</v>
       </c>
       <c r="B503">
@@ -7880,7 +7866,7 @@
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A504" s="3">
+      <c r="A504" s="1">
         <v>44515</v>
       </c>
       <c r="B504">
@@ -7897,7 +7883,7 @@
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A505" s="3">
+      <c r="A505" s="1">
         <v>44516</v>
       </c>
       <c r="B505">
@@ -7914,7 +7900,7 @@
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A506" s="3">
+      <c r="A506" s="1">
         <v>44517</v>
       </c>
       <c r="B506">
@@ -7931,7 +7917,7 @@
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A507" s="3">
+      <c r="A507" s="1">
         <v>44518</v>
       </c>
       <c r="B507">
@@ -7948,7 +7934,7 @@
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A508" s="3">
+      <c r="A508" s="1">
         <v>44519</v>
       </c>
       <c r="B508">
@@ -7965,7 +7951,7 @@
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A509" s="3">
+      <c r="A509" s="1">
         <v>44520</v>
       </c>
       <c r="B509">
@@ -7982,7 +7968,7 @@
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A510" s="3">
+      <c r="A510" s="1">
         <v>44521</v>
       </c>
       <c r="B510">
@@ -7999,7 +7985,7 @@
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A511" s="3">
+      <c r="A511" s="1">
         <v>44522</v>
       </c>
       <c r="B511">
@@ -8016,7 +8002,7 @@
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A512" s="3">
+      <c r="A512" s="1">
         <v>44523</v>
       </c>
       <c r="B512">
@@ -8033,7 +8019,7 @@
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A513" s="3">
+      <c r="A513" s="1">
         <v>44524</v>
       </c>
       <c r="B513">
@@ -8050,7 +8036,7 @@
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A514" s="3">
+      <c r="A514" s="1">
         <v>44525</v>
       </c>
       <c r="B514">
@@ -8067,7 +8053,7 @@
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A515" s="3">
+      <c r="A515" s="1">
         <v>44526</v>
       </c>
       <c r="B515">
@@ -8084,7 +8070,7 @@
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A516" s="3">
+      <c r="A516" s="1">
         <v>44527</v>
       </c>
       <c r="B516">
@@ -8101,7 +8087,7 @@
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A517" s="3">
+      <c r="A517" s="1">
         <v>44528</v>
       </c>
       <c r="B517">
@@ -8118,7 +8104,7 @@
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A518" s="3">
+      <c r="A518" s="1">
         <v>44529</v>
       </c>
       <c r="B518">
@@ -8135,7 +8121,7 @@
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A519" s="3">
+      <c r="A519" s="1">
         <v>44530</v>
       </c>
       <c r="B519">
@@ -8152,7 +8138,7 @@
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A520" s="3">
+      <c r="A520" s="1">
         <v>44531</v>
       </c>
       <c r="B520">
@@ -8169,7 +8155,7 @@
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A521" s="3">
+      <c r="A521" s="1">
         <v>44532</v>
       </c>
       <c r="B521">
@@ -8186,7 +8172,7 @@
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A522" s="3">
+      <c r="A522" s="1">
         <v>44533</v>
       </c>
       <c r="B522">
@@ -8203,7 +8189,7 @@
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A523" s="3">
+      <c r="A523" s="1">
         <v>44534</v>
       </c>
       <c r="B523">
@@ -8220,7 +8206,7 @@
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A524" s="3">
+      <c r="A524" s="1">
         <v>44535</v>
       </c>
       <c r="B524">
@@ -8237,7 +8223,7 @@
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A525" s="3">
+      <c r="A525" s="1">
         <v>44536</v>
       </c>
       <c r="B525">
@@ -8254,7 +8240,7 @@
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A526" s="3">
+      <c r="A526" s="1">
         <v>44537</v>
       </c>
       <c r="B526">
@@ -8271,7 +8257,7 @@
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A527" s="3">
+      <c r="A527" s="1">
         <v>44538</v>
       </c>
       <c r="B527">
@@ -8288,7 +8274,7 @@
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A528" s="3">
+      <c r="A528" s="1">
         <v>44539</v>
       </c>
       <c r="B528">
@@ -8305,7 +8291,7 @@
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A529" s="3">
+      <c r="A529" s="1">
         <v>44540</v>
       </c>
       <c r="B529">
@@ -8322,7 +8308,7 @@
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A530" s="3">
+      <c r="A530" s="1">
         <v>44541</v>
       </c>
       <c r="B530">
@@ -8339,7 +8325,7 @@
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A531" s="3">
+      <c r="A531" s="1">
         <v>44542</v>
       </c>
       <c r="B531">
@@ -8356,7 +8342,7 @@
       </c>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A532" s="3">
+      <c r="A532" s="1">
         <v>44543</v>
       </c>
       <c r="B532">
@@ -8373,7 +8359,7 @@
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A533" s="3">
+      <c r="A533" s="1">
         <v>44544</v>
       </c>
       <c r="B533">
@@ -8390,7 +8376,7 @@
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A534" s="3">
+      <c r="A534" s="1">
         <v>44545</v>
       </c>
       <c r="B534">
@@ -8407,7 +8393,7 @@
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A535" s="3">
+      <c r="A535" s="1">
         <v>44546</v>
       </c>
       <c r="B535">
@@ -8424,7 +8410,7 @@
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A536" s="3">
+      <c r="A536" s="1">
         <v>44547</v>
       </c>
       <c r="B536">
@@ -8441,7 +8427,7 @@
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A537" s="3">
+      <c r="A537" s="1">
         <v>44548</v>
       </c>
       <c r="B537">
@@ -8458,7 +8444,7 @@
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A538" s="3">
+      <c r="A538" s="1">
         <v>44549</v>
       </c>
       <c r="B538">
@@ -8475,7 +8461,7 @@
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A539" s="3">
+      <c r="A539" s="1">
         <v>44550</v>
       </c>
       <c r="B539">
@@ -8492,7 +8478,7 @@
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A540" s="3">
+      <c r="A540" s="1">
         <v>44551</v>
       </c>
       <c r="B540">
@@ -8509,10 +8495,10 @@
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A541" s="3">
+      <c r="A541" s="1">
         <v>44552</v>
       </c>
-      <c r="B541" s="2">
+      <c r="B541">
         <v>0.55555555555555558</v>
       </c>
       <c r="C541">
@@ -8526,10 +8512,10 @@
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A542" s="3">
+      <c r="A542" s="1">
         <v>44553</v>
       </c>
-      <c r="B542" s="2">
+      <c r="B542">
         <v>0.48148148148148145</v>
       </c>
       <c r="C542">
@@ -8543,10 +8529,10 @@
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A543" s="3">
+      <c r="A543" s="1">
         <v>44554</v>
       </c>
-      <c r="B543" s="2">
+      <c r="B543">
         <v>0.51851851851851849</v>
       </c>
       <c r="C543">
@@ -8560,10 +8546,10 @@
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A544" s="3">
+      <c r="A544" s="1">
         <v>44555</v>
       </c>
-      <c r="B544" s="2">
+      <c r="B544">
         <v>0.51851851851851849</v>
       </c>
       <c r="C544">
@@ -8577,10 +8563,10 @@
       </c>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A545" s="3">
+      <c r="A545" s="1">
         <v>44556</v>
       </c>
-      <c r="B545" s="2">
+      <c r="B545">
         <v>0.51851851851851849</v>
       </c>
       <c r="C545">
@@ -8594,10 +8580,10 @@
       </c>
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A546" s="3">
+      <c r="A546" s="1">
         <v>44557</v>
       </c>
-      <c r="B546" s="2">
+      <c r="B546">
         <v>0.51851851851851849</v>
       </c>
       <c r="C546">
@@ -8611,10 +8597,10 @@
       </c>
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A547" s="3">
+      <c r="A547" s="1">
         <v>44558</v>
       </c>
-      <c r="B547" s="2">
+      <c r="B547">
         <v>0.55555555555555558</v>
       </c>
       <c r="C547">
@@ -8628,10 +8614,10 @@
       </c>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A548" s="3">
+      <c r="A548" s="1">
         <v>44559</v>
       </c>
-      <c r="B548" s="2">
+      <c r="B548">
         <v>0.55555555555555558</v>
       </c>
       <c r="C548">
@@ -8645,10 +8631,10 @@
       </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A549" s="3">
+      <c r="A549" s="1">
         <v>44560</v>
       </c>
-      <c r="B549" s="2">
+      <c r="B549">
         <v>0.51851851851851849</v>
       </c>
       <c r="C549">
@@ -8662,10 +8648,10 @@
       </c>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A550" s="3">
+      <c r="A550" s="1">
         <v>44561</v>
       </c>
-      <c r="B550" s="2">
+      <c r="B550">
         <v>0.51851851851851849</v>
       </c>
       <c r="C550">
@@ -8679,10 +8665,10 @@
       </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A551" s="3">
+      <c r="A551" s="1">
         <v>44562</v>
       </c>
-      <c r="B551" s="2">
+      <c r="B551">
         <v>0.51851851851851849</v>
       </c>
       <c r="C551">
@@ -8696,10 +8682,10 @@
       </c>
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A552" s="3">
+      <c r="A552" s="1">
         <v>44563</v>
       </c>
-      <c r="B552" s="2">
+      <c r="B552">
         <v>0.51851851851851849</v>
       </c>
       <c r="C552">
@@ -8713,10 +8699,10 @@
       </c>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A553" s="3">
+      <c r="A553" s="1">
         <v>44564</v>
       </c>
-      <c r="B553" s="2">
+      <c r="B553">
         <v>0.51851851851851849</v>
       </c>
       <c r="C553">
@@ -8730,10 +8716,10 @@
       </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A554" s="3">
+      <c r="A554" s="1">
         <v>44565</v>
       </c>
-      <c r="B554" s="2">
+      <c r="B554">
         <v>0.66666666666666663</v>
       </c>
       <c r="C554">
@@ -8747,10 +8733,10 @@
       </c>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A555" s="3">
+      <c r="A555" s="1">
         <v>44566</v>
       </c>
-      <c r="B555" s="2">
+      <c r="B555">
         <v>0.62962962962962965</v>
       </c>
       <c r="C555">
@@ -8764,10 +8750,10 @@
       </c>
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A556" s="3">
+      <c r="A556" s="1">
         <v>44567</v>
       </c>
-      <c r="B556" s="2">
+      <c r="B556">
         <v>0.62962962962962965</v>
       </c>
       <c r="C556">
@@ -8781,10 +8767,10 @@
       </c>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A557" s="3">
+      <c r="A557" s="1">
         <v>44568</v>
       </c>
-      <c r="B557" s="2">
+      <c r="B557">
         <v>0.62962962962962965</v>
       </c>
       <c r="C557">
@@ -8798,10 +8784,10 @@
       </c>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A558" s="3">
+      <c r="A558" s="1">
         <v>44569</v>
       </c>
-      <c r="B558" s="2">
+      <c r="B558">
         <v>0.66666666666666663</v>
       </c>
       <c r="C558">
@@ -8815,10 +8801,10 @@
       </c>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A559" s="3">
+      <c r="A559" s="1">
         <v>44570</v>
       </c>
-      <c r="B559" s="2">
+      <c r="B559">
         <v>0.66666666666666663</v>
       </c>
       <c r="C559">
@@ -8832,10 +8818,10 @@
       </c>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A560" s="3">
+      <c r="A560" s="1">
         <v>44571</v>
       </c>
-      <c r="B560" s="2">
+      <c r="B560">
         <v>0.66666666666666663</v>
       </c>
       <c r="C560">
@@ -8849,10 +8835,10 @@
       </c>
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A561" s="3">
+      <c r="A561" s="1">
         <v>44572</v>
       </c>
-      <c r="B561" s="2">
+      <c r="B561">
         <v>0.77777777777777779</v>
       </c>
       <c r="C561">
@@ -8866,10 +8852,10 @@
       </c>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A562" s="3">
+      <c r="A562" s="1">
         <v>44573</v>
       </c>
-      <c r="B562" s="2">
+      <c r="B562">
         <v>0.81481481481481477</v>
       </c>
       <c r="C562">
@@ -8883,10 +8869,10 @@
       </c>
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A563" s="3">
+      <c r="A563" s="1">
         <v>44574</v>
       </c>
-      <c r="B563" s="2">
+      <c r="B563">
         <v>0.7407407407407407</v>
       </c>
       <c r="C563">
@@ -8900,10 +8886,10 @@
       </c>
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A564" s="3">
+      <c r="A564" s="1">
         <v>44575</v>
       </c>
-      <c r="B564" s="2">
+      <c r="B564">
         <v>0.81481481481481477</v>
       </c>
       <c r="C564">
@@ -8917,10 +8903,10 @@
       </c>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A565" s="3">
+      <c r="A565" s="1">
         <v>44576</v>
       </c>
-      <c r="B565" s="2">
+      <c r="B565">
         <v>0.81481481481481477</v>
       </c>
       <c r="C565">
@@ -8934,10 +8920,10 @@
       </c>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A566" s="3">
+      <c r="A566" s="1">
         <v>44577</v>
       </c>
-      <c r="B566" s="2">
+      <c r="B566">
         <v>0.81481481481481477</v>
       </c>
       <c r="C566">
@@ -8951,10 +8937,10 @@
       </c>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A567" s="3">
+      <c r="A567" s="1">
         <v>44578</v>
       </c>
-      <c r="B567" s="2">
+      <c r="B567">
         <v>0.81481481481481477</v>
       </c>
       <c r="C567">
@@ -8968,10 +8954,10 @@
       </c>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A568" s="3">
+      <c r="A568" s="1">
         <v>44579</v>
       </c>
-      <c r="B568" s="2">
+      <c r="B568">
         <v>0.81481481481481477</v>
       </c>
       <c r="C568">
@@ -8985,10 +8971,10 @@
       </c>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A569" s="3">
+      <c r="A569" s="1">
         <v>44580</v>
       </c>
-      <c r="B569" s="2">
+      <c r="B569">
         <v>0.81481481481481477</v>
       </c>
       <c r="C569">
@@ -9002,10 +8988,10 @@
       </c>
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A570" s="3">
+      <c r="A570" s="1">
         <v>44581</v>
       </c>
-      <c r="B570" s="2">
+      <c r="B570">
         <v>0.81481481481481477</v>
       </c>
       <c r="C570">
@@ -9019,10 +9005,10 @@
       </c>
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A571" s="3">
+      <c r="A571" s="1">
         <v>44582</v>
       </c>
-      <c r="B571" s="2">
+      <c r="B571">
         <v>0.81481481481481477</v>
       </c>
       <c r="C571">
@@ -9036,10 +9022,10 @@
       </c>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A572" s="3">
+      <c r="A572" s="1">
         <v>44583</v>
       </c>
-      <c r="B572" s="2">
+      <c r="B572">
         <v>0.81481481481481477</v>
       </c>
       <c r="C572">
@@ -9053,10 +9039,10 @@
       </c>
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A573" s="3">
+      <c r="A573" s="1">
         <v>44584</v>
       </c>
-      <c r="B573" s="2">
+      <c r="B573">
         <v>0.81481481481481477</v>
       </c>
       <c r="C573">
@@ -9070,112 +9056,112 @@
       </c>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A574" s="4">
+      <c r="A574" s="2">
         <v>44585</v>
       </c>
-      <c r="B574" s="5">
+      <c r="B574">
         <v>0.6875</v>
       </c>
-      <c r="C574" s="6">
+      <c r="C574">
         <v>0.40417457305502846</v>
       </c>
-      <c r="D574" s="7">
+      <c r="D574">
         <v>0.22672064777327935</v>
       </c>
-      <c r="E574" s="8">
+      <c r="E574">
         <v>0.72</v>
       </c>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A575" s="4">
+      <c r="A575" s="2">
         <v>44586</v>
       </c>
-      <c r="B575" s="5">
+      <c r="B575">
         <v>0.78125</v>
       </c>
-      <c r="C575" s="6">
+      <c r="C575">
         <v>0.38519924098671726</v>
       </c>
-      <c r="D575" s="7">
+      <c r="D575">
         <v>0.25101214574898784</v>
       </c>
-      <c r="E575" s="8">
+      <c r="E575">
         <v>0.72</v>
       </c>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A576" s="4">
+      <c r="A576" s="2">
         <v>44587</v>
       </c>
-      <c r="B576" s="5">
+      <c r="B576">
         <v>0.64516129032258063</v>
       </c>
-      <c r="C576" s="6">
+      <c r="C576">
         <v>0.40796963946869069</v>
       </c>
-      <c r="D576" s="7">
+      <c r="D576">
         <v>0.23076923076923078</v>
       </c>
-      <c r="E576" s="8">
+      <c r="E576">
         <v>0.64</v>
       </c>
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A577" s="4">
+      <c r="A577" s="2">
         <v>44588</v>
       </c>
-      <c r="B577" s="5">
+      <c r="B577">
         <v>0.64516129032258063</v>
       </c>
-      <c r="C577" s="6">
+      <c r="C577">
         <v>0.40796963946869069</v>
       </c>
-      <c r="D577" s="7">
+      <c r="D577">
         <v>0.23076923076923078</v>
       </c>
-      <c r="E577" s="8">
+      <c r="E577">
         <v>0.61538461538461542</v>
       </c>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A578" s="4">
+      <c r="A578" s="2">
         <v>44589</v>
       </c>
-      <c r="B578" s="5">
+      <c r="B578">
         <v>0.875</v>
       </c>
-      <c r="C578" s="6">
+      <c r="C578">
         <v>0.37977099236641221</v>
       </c>
-      <c r="D578" s="7">
+      <c r="D578">
         <v>0.21991701244813278</v>
       </c>
-      <c r="E578" s="8">
+      <c r="E578">
         <v>0.68</v>
       </c>
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A579" s="4">
+      <c r="A579" s="2">
         <v>44590</v>
       </c>
-      <c r="B579" s="5">
+      <c r="B579">
         <v>0.875</v>
       </c>
-      <c r="C579" s="6">
+      <c r="C579">
         <v>0.37977099236641221</v>
       </c>
-      <c r="D579" s="7">
+      <c r="D579">
         <v>0.21991701244813278</v>
       </c>
-      <c r="E579" s="8">
+      <c r="E579">
         <v>0.68</v>
       </c>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A580" s="4">
+      <c r="A580" s="2">
         <v>44591</v>
       </c>
-      <c r="B580" s="8">
+      <c r="B580">
         <v>0.875</v>
       </c>
       <c r="C580">
@@ -9189,10 +9175,10 @@
       </c>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A581" s="4">
+      <c r="A581" s="2">
         <v>44592</v>
       </c>
-      <c r="B581" s="8">
+      <c r="B581">
         <v>0.90322580645161288</v>
       </c>
       <c r="C581">
@@ -9206,10 +9192,10 @@
       </c>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A582" s="4">
+      <c r="A582" s="2">
         <v>44593</v>
       </c>
-      <c r="B582" s="8">
+      <c r="B582">
         <v>0.90322580645161288</v>
       </c>
       <c r="C582">
@@ -9223,10 +9209,10 @@
       </c>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A583" s="4">
+      <c r="A583" s="2">
         <v>44594</v>
       </c>
-      <c r="B583" s="8">
+      <c r="B583">
         <v>0.90322580645161288</v>
       </c>
       <c r="C583">
@@ -9240,10 +9226,10 @@
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A584" s="4">
+      <c r="A584" s="2">
         <v>44595</v>
       </c>
-      <c r="B584" s="8">
+      <c r="B584">
         <v>0.90322580645161288</v>
       </c>
       <c r="C584">
@@ -9257,10 +9243,10 @@
       </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A585" s="4">
+      <c r="A585" s="2">
         <v>44596</v>
       </c>
-      <c r="B585" s="8">
+      <c r="B585">
         <v>0.90322580645161288</v>
       </c>
       <c r="C585">
@@ -9274,7 +9260,7 @@
       </c>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A586" s="4">
+      <c r="A586" s="2">
         <v>44597</v>
       </c>
       <c r="B586">
@@ -9291,248 +9277,248 @@
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A587" s="4">
+      <c r="A587" s="2">
         <v>44598</v>
       </c>
-      <c r="B587" s="9">
+      <c r="B587">
         <v>0.90625</v>
       </c>
-      <c r="C587" s="9">
+      <c r="C587">
         <v>0.30056710775047257</v>
       </c>
-      <c r="D587" s="9">
+      <c r="D587">
         <v>0.17886178861788618</v>
       </c>
-      <c r="E587" s="9">
+      <c r="E587">
         <v>0.52</v>
       </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A588" s="4">
+      <c r="A588" s="2">
         <v>44599</v>
       </c>
-      <c r="B588" s="9">
+      <c r="B588">
         <v>0.96875</v>
       </c>
-      <c r="C588" s="9">
+      <c r="C588">
         <v>0.31238095238095237</v>
       </c>
-      <c r="D588" s="9">
+      <c r="D588">
         <v>0.21900826446280991</v>
       </c>
-      <c r="E588" s="9">
+      <c r="E588">
         <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A589" s="4">
+      <c r="A589" s="2">
         <v>44600</v>
       </c>
-      <c r="B589" s="9">
+      <c r="B589">
         <v>0.9375</v>
       </c>
-      <c r="C589" s="9">
+      <c r="C589">
         <v>0.29489603024574668</v>
       </c>
-      <c r="D589" s="9">
+      <c r="D589">
         <v>0.22357723577235772</v>
       </c>
-      <c r="E589" s="9">
+      <c r="E589">
         <v>0.72</v>
       </c>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A590" s="4">
+      <c r="A590" s="2">
         <v>44601</v>
       </c>
-      <c r="B590" s="9">
+      <c r="B590">
         <v>0.875</v>
       </c>
-      <c r="C590" s="9">
+      <c r="C590">
         <v>0.29166666666666669</v>
       </c>
-      <c r="D590" s="9">
+      <c r="D590">
         <v>0.22857142857142856</v>
       </c>
-      <c r="E590" s="9">
+      <c r="E590">
         <v>0.6</v>
       </c>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A591" s="4">
+      <c r="A591" s="2">
         <v>44602</v>
       </c>
-      <c r="B591" s="9">
+      <c r="B591">
         <v>0.90625</v>
       </c>
-      <c r="C591" s="9">
+      <c r="C591">
         <v>0.2504708097928437</v>
       </c>
-      <c r="D591" s="9">
+      <c r="D591">
         <v>0.17959183673469387</v>
       </c>
-      <c r="E591" s="9">
+      <c r="E591">
         <v>0.52</v>
       </c>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A592" s="4">
+      <c r="A592" s="2">
         <v>44603</v>
       </c>
-      <c r="B592" s="9">
+      <c r="B592">
         <v>0.90625</v>
       </c>
-      <c r="C592" s="9">
+      <c r="C592">
         <v>0.24339622641509434</v>
       </c>
-      <c r="D592" s="9">
+      <c r="D592">
         <v>0.17622950819672131</v>
       </c>
-      <c r="E592" s="9">
+      <c r="E592">
         <v>0.64</v>
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A593" s="4">
+      <c r="A593" s="2">
         <v>44604</v>
       </c>
-      <c r="B593" s="9">
+      <c r="B593">
         <v>0.90625</v>
       </c>
-      <c r="C593" s="9">
+      <c r="C593">
         <v>0.24339622641509434</v>
       </c>
-      <c r="D593" s="9">
+      <c r="D593">
         <v>0.17622950819672131</v>
       </c>
-      <c r="E593" s="9">
+      <c r="E593">
         <v>0.64</v>
       </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A594" s="10">
+      <c r="A594" s="2">
         <v>44605</v>
       </c>
-      <c r="B594" s="11">
+      <c r="B594">
         <v>0.90625</v>
       </c>
-      <c r="C594" s="13">
+      <c r="C594">
         <v>0.24339622641509434</v>
       </c>
-      <c r="D594" s="14">
+      <c r="D594">
         <v>0.17622950819672131</v>
       </c>
-      <c r="E594" s="12">
+      <c r="E594">
         <v>0.64</v>
       </c>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A595" s="10">
+      <c r="A595" s="2">
         <v>44606</v>
       </c>
-      <c r="B595" s="11">
+      <c r="B595">
         <v>0.90625</v>
       </c>
-      <c r="C595" s="13">
+      <c r="C595">
         <v>0.21856866537717601</v>
       </c>
-      <c r="D595" s="14">
+      <c r="D595">
         <v>0.14285714285714285</v>
       </c>
-      <c r="E595" s="12">
+      <c r="E595">
         <v>0.52</v>
       </c>
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A596" s="10">
+      <c r="A596" s="2">
         <v>44607</v>
       </c>
-      <c r="B596" s="11">
+      <c r="B596">
         <v>0.90625</v>
       </c>
-      <c r="C596" s="13">
+      <c r="C596">
         <v>0.21165048543689322</v>
       </c>
-      <c r="D596" s="14">
+      <c r="D596">
         <v>0.1394422310756972</v>
       </c>
-      <c r="E596" s="12">
+      <c r="E596">
         <v>0.6</v>
       </c>
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A597" s="10">
+      <c r="A597" s="2">
         <v>44608</v>
       </c>
-      <c r="B597" s="11">
+      <c r="B597">
         <v>0.84375</v>
       </c>
-      <c r="C597" s="13">
+      <c r="C597">
         <v>0.19961612284069097</v>
       </c>
-      <c r="D597" s="14">
+      <c r="D597">
         <v>0.14007782101167315</v>
       </c>
-      <c r="E597" s="12">
+      <c r="E597">
         <v>0.44</v>
       </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A598" s="10">
+      <c r="A598" s="2">
         <v>44609</v>
       </c>
-      <c r="B598" s="11">
+      <c r="B598">
         <v>0.875</v>
       </c>
-      <c r="C598" s="13">
+      <c r="C598">
         <v>0.18511066398390341</v>
       </c>
-      <c r="D598" s="14">
+      <c r="D598">
         <v>0.14163090128755365</v>
       </c>
-      <c r="E598" s="12">
+      <c r="E598">
         <v>0.52</v>
       </c>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A599" s="10">
+      <c r="A599" s="2">
         <v>44610</v>
       </c>
-      <c r="B599" s="11">
+      <c r="B599">
         <v>0.875</v>
       </c>
-      <c r="C599" s="13">
+      <c r="C599">
         <v>0.1854043392504931</v>
       </c>
-      <c r="D599" s="14">
+      <c r="D599">
         <v>0.12704918032786885</v>
       </c>
-      <c r="E599" s="12">
+      <c r="E599">
         <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A600" s="10">
+      <c r="A600" s="2">
         <v>44611</v>
       </c>
-      <c r="B600" s="11">
+      <c r="B600">
         <v>0.875</v>
       </c>
-      <c r="C600" s="13">
+      <c r="C600">
         <v>0.1854043392504931</v>
       </c>
-      <c r="D600" s="14">
+      <c r="D600">
         <v>0.12704918032786885</v>
       </c>
-      <c r="E600" s="12">
+      <c r="E600">
         <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A601" s="10">
+      <c r="A601" s="2">
         <v>44612</v>
       </c>
-      <c r="B601" s="14">
+      <c r="B601">
         <v>0.875</v>
       </c>
       <c r="C601">
@@ -9546,10 +9532,10 @@
       </c>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A602" s="10">
+      <c r="A602" s="2">
         <v>44613</v>
       </c>
-      <c r="B602" s="14">
+      <c r="B602">
         <v>0.9375</v>
       </c>
       <c r="C602">
@@ -9563,10 +9549,10 @@
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A603" s="10">
+      <c r="A603" s="2">
         <v>44614</v>
       </c>
-      <c r="B603" s="14">
+      <c r="B603">
         <v>0.90625</v>
       </c>
       <c r="C603">
@@ -9580,10 +9566,10 @@
       </c>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A604" s="10">
+      <c r="A604" s="2">
         <v>44615</v>
       </c>
-      <c r="B604" s="14">
+      <c r="B604">
         <v>0.90625</v>
       </c>
       <c r="C604">
@@ -9597,10 +9583,10 @@
       </c>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A605" s="10">
+      <c r="A605" s="2">
         <v>44616</v>
       </c>
-      <c r="B605" s="14">
+      <c r="B605">
         <v>0.90625</v>
       </c>
       <c r="C605">
@@ -9614,10 +9600,10 @@
       </c>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A606" s="10">
+      <c r="A606" s="2">
         <v>44617</v>
       </c>
-      <c r="B606" s="14">
+      <c r="B606">
         <v>0.84848484848484851</v>
       </c>
       <c r="C606">
@@ -9631,10 +9617,10 @@
       </c>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A607" s="10">
+      <c r="A607" s="2">
         <v>44618</v>
       </c>
-      <c r="B607" s="14">
+      <c r="B607">
         <v>0.84848484848484851</v>
       </c>
       <c r="C607">
@@ -9648,10 +9634,10 @@
       </c>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A608" s="10">
+      <c r="A608" s="2">
         <v>44619</v>
       </c>
-      <c r="B608" s="14">
+      <c r="B608">
         <v>0.84848484848484851</v>
       </c>
       <c r="C608">
@@ -9665,10 +9651,10 @@
       </c>
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A609" s="10">
+      <c r="A609" s="2">
         <v>44620</v>
       </c>
-      <c r="B609" s="14">
+      <c r="B609">
         <v>0.84848484848484851</v>
       </c>
       <c r="C609">
@@ -9682,10 +9668,10 @@
       </c>
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A610" s="10">
+      <c r="A610" s="2">
         <v>44621</v>
       </c>
-      <c r="B610" s="14">
+      <c r="B610">
         <v>0.78125</v>
       </c>
       <c r="C610">
@@ -9699,10 +9685,10 @@
       </c>
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A611" s="10">
+      <c r="A611" s="2">
         <v>44622</v>
       </c>
-      <c r="B611" s="14">
+      <c r="B611">
         <v>0.71875</v>
       </c>
       <c r="C611">
@@ -9716,10 +9702,10 @@
       </c>
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A612" s="10">
+      <c r="A612" s="2">
         <v>44623</v>
       </c>
-      <c r="B612" s="14">
+      <c r="B612">
         <v>0.90625</v>
       </c>
       <c r="C612">
@@ -9733,10 +9719,10 @@
       </c>
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A613" s="10">
+      <c r="A613" s="2">
         <v>44624</v>
       </c>
-      <c r="B613" s="14">
+      <c r="B613">
         <v>0.84375</v>
       </c>
       <c r="C613">
@@ -9750,10 +9736,10 @@
       </c>
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A614" s="10">
+      <c r="A614" s="2">
         <v>44625</v>
       </c>
-      <c r="B614" s="14">
+      <c r="B614">
         <v>0.84375</v>
       </c>
       <c r="C614">
@@ -9767,245 +9753,245 @@
       </c>
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A615" s="15">
+      <c r="A615" s="2">
         <v>44626</v>
       </c>
-      <c r="B615" s="16">
+      <c r="B615">
         <v>0.84375</v>
       </c>
-      <c r="C615" s="18">
+      <c r="C615">
         <v>0.3452164502164502</v>
       </c>
-      <c r="D615" s="19">
+      <c r="D615">
         <v>8.6065573770491802E-2</v>
       </c>
-      <c r="E615" s="17">
+      <c r="E615">
         <v>0.48</v>
       </c>
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A616" s="15">
+      <c r="A616" s="2">
         <v>44627</v>
       </c>
-      <c r="B616" s="16">
+      <c r="B616">
         <v>0.8529411764705882</v>
       </c>
-      <c r="C616" s="18">
+      <c r="C616">
         <v>0.3452164502164502</v>
       </c>
-      <c r="D616" s="19">
+      <c r="D616">
         <v>7.2727272727272724E-2</v>
       </c>
-      <c r="E616" s="17">
+      <c r="E616">
         <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A617" s="15">
+      <c r="A617" s="2">
         <v>44628</v>
       </c>
-      <c r="B617" s="16">
+      <c r="B617">
         <v>0.88888888888888884</v>
       </c>
-      <c r="C617" s="18">
+      <c r="C617">
         <v>0.3452164502164502</v>
       </c>
-      <c r="D617" s="19">
+      <c r="D617">
         <v>7.2727272727272724E-2</v>
       </c>
-      <c r="E617" s="17">
+      <c r="E617">
         <v>0.44</v>
       </c>
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A618" s="15">
+      <c r="A618" s="2">
         <v>44629</v>
       </c>
-      <c r="B618" s="16">
+      <c r="B618">
         <v>0.88888888888888884</v>
       </c>
-      <c r="C618" s="18">
+      <c r="C618">
         <v>0.3452164502164502</v>
       </c>
-      <c r="D618" s="19">
+      <c r="D618">
         <v>6.363636363636363E-2</v>
       </c>
-      <c r="E618" s="17">
+      <c r="E618">
         <v>0.44</v>
       </c>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A619" s="15">
+      <c r="A619" s="2">
         <v>44630</v>
       </c>
-      <c r="B619" s="16">
+      <c r="B619">
         <v>0.88888888888888884</v>
       </c>
-      <c r="C619" s="18">
+      <c r="C619">
         <v>0.3452164502164502</v>
       </c>
-      <c r="D619" s="19">
+      <c r="D619">
         <v>7.2727272727272724E-2</v>
       </c>
-      <c r="E619" s="17">
+      <c r="E619">
         <v>0.36</v>
       </c>
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A620" s="15">
+      <c r="A620" s="2">
         <v>44631</v>
       </c>
-      <c r="B620" s="16">
+      <c r="B620">
         <v>0.88888888888888884</v>
       </c>
-      <c r="C620" s="18">
+      <c r="C620">
         <v>0.3452164502164502</v>
       </c>
-      <c r="D620" s="19">
+      <c r="D620">
         <v>7.5268817204301078E-2</v>
       </c>
-      <c r="E620" s="17">
+      <c r="E620">
         <v>0.4</v>
       </c>
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A621" s="15">
+      <c r="A621" s="2">
         <v>44632</v>
       </c>
-      <c r="B621" s="16">
+      <c r="B621">
         <v>0.88888888888888884</v>
       </c>
-      <c r="C621" s="18">
+      <c r="C621">
         <v>0.3452164502164502</v>
       </c>
-      <c r="D621" s="19">
+      <c r="D621">
         <v>7.5268817204301078E-2</v>
       </c>
-      <c r="E621" s="17">
+      <c r="E621">
         <v>0.4</v>
       </c>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A622" s="20">
+      <c r="A622" s="2">
         <v>44633</v>
       </c>
-      <c r="B622" s="21">
+      <c r="B622">
         <v>0.88888888888888884</v>
       </c>
-      <c r="C622" s="22">
+      <c r="C622">
         <v>8.0831408775981523E-2</v>
       </c>
-      <c r="D622" s="23">
+      <c r="D622">
         <v>7.5268817204301078E-2</v>
       </c>
-      <c r="E622" s="24">
+      <c r="E622">
         <v>0.4</v>
       </c>
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A623" s="20">
+      <c r="A623" s="2">
         <v>44634</v>
       </c>
-      <c r="B623" s="21">
+      <c r="B623">
         <v>0.85185185185185186</v>
       </c>
-      <c r="C623" s="22">
+      <c r="C623">
         <v>8.15450643776824E-2</v>
       </c>
-      <c r="D623" s="23">
+      <c r="D623">
         <v>7.7625570776255703E-2</v>
       </c>
-      <c r="E623" s="24">
+      <c r="E623">
         <v>0.44</v>
       </c>
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A624" s="20">
+      <c r="A624" s="2">
         <v>44635</v>
       </c>
-      <c r="B624" s="21">
-        <v>1</v>
-      </c>
-      <c r="C624" s="22">
+      <c r="B624">
+        <v>1</v>
+      </c>
+      <c r="C624">
         <v>8.5836909871244635E-2</v>
       </c>
-      <c r="D624" s="23">
+      <c r="D624">
         <v>8.2191780821917804E-2</v>
       </c>
-      <c r="E624" s="24">
+      <c r="E624">
         <v>0.36</v>
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A625" s="20">
+      <c r="A625" s="2">
         <v>44636</v>
       </c>
-      <c r="B625" s="21">
+      <c r="B625">
         <v>0.85185185185185186</v>
       </c>
-      <c r="C625" s="22">
+      <c r="C625">
         <v>8.15450643776824E-2</v>
       </c>
-      <c r="D625" s="23">
+      <c r="D625">
         <v>8.2191780821917804E-2</v>
       </c>
-      <c r="E625" s="24">
+      <c r="E625">
         <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A626" s="20">
+      <c r="A626" s="2">
         <v>44637</v>
       </c>
-      <c r="B626" s="21">
+      <c r="B626">
         <v>0.88888888888888884</v>
       </c>
-      <c r="C626" s="22">
+      <c r="C626">
         <v>8.15450643776824E-2</v>
       </c>
-      <c r="D626" s="23">
+      <c r="D626">
         <v>7.7625570776255703E-2</v>
       </c>
-      <c r="E626" s="24">
+      <c r="E626">
         <v>0.24</v>
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A627" s="20">
+      <c r="A627" s="2">
         <v>44638</v>
       </c>
-      <c r="B627" s="21">
-        <v>1</v>
-      </c>
-      <c r="C627" s="22">
+      <c r="B627">
+        <v>1</v>
+      </c>
+      <c r="C627">
         <v>7.2961373390557943E-2</v>
       </c>
-      <c r="D627" s="23">
+      <c r="D627">
         <v>7.3059360730593603E-2</v>
       </c>
-      <c r="E627" s="24">
+      <c r="E627">
         <v>0.2</v>
       </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A628" s="20">
+      <c r="A628" s="2">
         <v>44639</v>
       </c>
-      <c r="B628" s="21">
-        <v>1</v>
-      </c>
-      <c r="C628" s="22">
+      <c r="B628">
+        <v>1</v>
+      </c>
+      <c r="C628">
         <v>7.2961373390557943E-2</v>
       </c>
-      <c r="D628" s="23">
+      <c r="D628">
         <v>7.3059360730593603E-2</v>
       </c>
-      <c r="E628" s="24">
+      <c r="E628">
         <v>0.2</v>
       </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A629" s="20">
+      <c r="A629" s="2">
         <v>44640</v>
       </c>
       <c r="B629">
@@ -10022,7 +10008,7 @@
       </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A630" s="20">
+      <c r="A630" s="2">
         <v>44641</v>
       </c>
       <c r="B630">
@@ -10039,7 +10025,7 @@
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A631" s="20">
+      <c r="A631" s="2">
         <v>44642</v>
       </c>
       <c r="B631">
@@ -10056,7 +10042,7 @@
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A632" s="20">
+      <c r="A632" s="2">
         <v>44643</v>
       </c>
       <c r="B632">
@@ -10073,7 +10059,7 @@
       </c>
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A633" s="20">
+      <c r="A633" s="2">
         <v>44644</v>
       </c>
       <c r="B633">
@@ -10090,7 +10076,7 @@
       </c>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A634" s="20">
+      <c r="A634" s="2">
         <v>44645</v>
       </c>
       <c r="B634">
@@ -10107,7 +10093,7 @@
       </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A635" s="20">
+      <c r="A635" s="2">
         <v>44646</v>
       </c>
       <c r="B635">
@@ -10124,7 +10110,7 @@
       </c>
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A636" s="20">
+      <c r="A636" s="2">
         <v>44647</v>
       </c>
       <c r="B636">
@@ -10141,7 +10127,7 @@
       </c>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A637" s="20">
+      <c r="A637" s="2">
         <v>44648</v>
       </c>
       <c r="B637">
@@ -10158,7 +10144,7 @@
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A638" s="20">
+      <c r="A638" s="2">
         <v>44649</v>
       </c>
       <c r="B638">
@@ -10175,7 +10161,7 @@
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A639" s="20">
+      <c r="A639" s="2">
         <v>44650</v>
       </c>
       <c r="B639">
@@ -10192,7 +10178,7 @@
       </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A640" s="20">
+      <c r="A640" s="2">
         <v>44651</v>
       </c>
       <c r="B640">
@@ -10209,7 +10195,7 @@
       </c>
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A641" s="20">
+      <c r="A641" s="2">
         <v>44652</v>
       </c>
       <c r="B641">
@@ -10226,7 +10212,7 @@
       </c>
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A642" s="20">
+      <c r="A642" s="2">
         <v>44653</v>
       </c>
       <c r="B642">
@@ -10243,7 +10229,7 @@
       </c>
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A643" s="20">
+      <c r="A643" s="2">
         <v>44654</v>
       </c>
       <c r="B643">
@@ -10260,7 +10246,7 @@
       </c>
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A644" s="20">
+      <c r="A644" s="2">
         <v>44655</v>
       </c>
       <c r="B644">
@@ -10277,7 +10263,7 @@
       </c>
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A645" s="20">
+      <c r="A645" s="2">
         <v>44656</v>
       </c>
       <c r="B645">
@@ -10294,7 +10280,7 @@
       </c>
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A646" s="20">
+      <c r="A646" s="2">
         <v>44657</v>
       </c>
       <c r="B646">
@@ -10311,7 +10297,7 @@
       </c>
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A647" s="20">
+      <c r="A647" s="2">
         <v>44658</v>
       </c>
       <c r="B647">
@@ -10328,7 +10314,7 @@
       </c>
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A648" s="20">
+      <c r="A648" s="2">
         <v>44659</v>
       </c>
       <c r="B648">
@@ -10345,7 +10331,7 @@
       </c>
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A649" s="20">
+      <c r="A649" s="2">
         <v>44660</v>
       </c>
       <c r="B649">
@@ -10362,41 +10348,41 @@
       </c>
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A650" s="20">
+      <c r="A650" s="2">
         <v>44661</v>
       </c>
-      <c r="B650" s="24">
+      <c r="B650">
         <v>0.7407407407407407</v>
       </c>
-      <c r="C650" s="24">
+      <c r="C650">
         <v>5.3763440860215055E-2</v>
       </c>
-      <c r="D650" s="24">
+      <c r="D650">
         <v>4.5871559633027525E-2</v>
       </c>
-      <c r="E650" s="24">
+      <c r="E650">
         <v>0.2</v>
       </c>
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A651" s="20">
+      <c r="A651" s="2">
         <v>44662</v>
       </c>
-      <c r="B651" s="24">
+      <c r="B651">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C651" s="24">
+      <c r="C651">
         <v>5.3763440860215055E-2</v>
       </c>
-      <c r="D651" s="24">
+      <c r="D651">
         <v>5.9633027522935783E-2</v>
       </c>
-      <c r="E651" s="24">
+      <c r="E651">
         <v>0.2</v>
       </c>
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A652" s="20">
+      <c r="A652" s="2">
         <v>44663</v>
       </c>
       <c r="B652">
@@ -10413,7 +10399,7 @@
       </c>
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A653" s="20">
+      <c r="A653" s="2">
         <v>44664</v>
       </c>
       <c r="B653">
@@ -10430,7 +10416,7 @@
       </c>
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A654" s="20">
+      <c r="A654" s="2">
         <v>44665</v>
       </c>
       <c r="B654">
@@ -10447,7 +10433,7 @@
       </c>
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A655" s="20">
+      <c r="A655" s="2">
         <v>44666</v>
       </c>
       <c r="B655">
@@ -10464,7 +10450,7 @@
       </c>
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A656" s="20">
+      <c r="A656" s="2">
         <v>44667</v>
       </c>
       <c r="B656">
@@ -10481,30 +10467,30 @@
       </c>
     </row>
     <row r="657" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A657" s="20">
+      <c r="A657" s="2">
         <v>44668</v>
       </c>
       <c r="B657">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C657" s="24">
+      <c r="C657">
         <v>5.3763440860215055E-2</v>
       </c>
-      <c r="D657" s="24">
+      <c r="D657">
         <v>7.3394495412844041E-2</v>
       </c>
-      <c r="E657" s="24">
+      <c r="E657">
         <v>0.2</v>
       </c>
     </row>
     <row r="658" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A658" s="20">
+      <c r="A658" s="2">
         <v>44669</v>
       </c>
-      <c r="B658" s="24">
+      <c r="B658">
         <v>0.59259259259259256</v>
       </c>
-      <c r="C658" s="24">
+      <c r="C658">
         <v>5.3763440860215055E-2</v>
       </c>
       <c r="D658">
@@ -10515,7 +10501,7 @@
       </c>
     </row>
     <row r="659" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A659" s="20">
+      <c r="A659" s="2">
         <v>44670</v>
       </c>
       <c r="B659">
@@ -10532,7 +10518,7 @@
       </c>
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A660" s="20">
+      <c r="A660" s="2">
         <v>44671</v>
       </c>
       <c r="B660">
@@ -10549,7 +10535,7 @@
       </c>
     </row>
     <row r="661" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A661" s="20">
+      <c r="A661" s="2">
         <v>44672</v>
       </c>
       <c r="B661">
@@ -10566,7 +10552,7 @@
       </c>
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A662" s="20">
+      <c r="A662" s="2">
         <v>44673</v>
       </c>
       <c r="B662">
@@ -10583,13 +10569,13 @@
       </c>
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A663" s="20">
+      <c r="A663" s="2">
         <v>44674</v>
       </c>
       <c r="B663">
         <v>0.81818181818181823</v>
       </c>
-      <c r="C663" s="24">
+      <c r="C663">
         <v>6.7204301075268813E-2</v>
       </c>
       <c r="D663">
@@ -10600,13 +10586,13 @@
       </c>
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A664" s="20">
+      <c r="A664" s="2">
         <v>44675</v>
       </c>
       <c r="B664">
         <v>0.77272727272727271</v>
       </c>
-      <c r="C664" s="24">
+      <c r="C664">
         <v>5.6451612903225805E-2</v>
       </c>
       <c r="D664">
@@ -10617,13 +10603,13 @@
       </c>
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A665" s="20">
+      <c r="A665" s="2">
         <v>44676</v>
       </c>
       <c r="B665">
         <v>0.77272727272727271</v>
       </c>
-      <c r="C665" s="24">
+      <c r="C665">
         <v>5.6451612903225805E-2</v>
       </c>
       <c r="D665">
@@ -10634,13 +10620,13 @@
       </c>
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A666" s="20">
+      <c r="A666" s="2">
         <v>44677</v>
       </c>
       <c r="B666">
         <v>0.77272727272727271</v>
       </c>
-      <c r="C666" s="24">
+      <c r="C666">
         <v>5.4200542005420058E-2</v>
       </c>
       <c r="D666">
@@ -10651,7 +10637,7 @@
       </c>
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A667" s="20">
+      <c r="A667" s="2">
         <v>44678</v>
       </c>
       <c r="B667">
@@ -10668,7 +10654,7 @@
       </c>
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A668" s="20">
+      <c r="A668" s="2">
         <v>44679</v>
       </c>
       <c r="B668">
@@ -10685,7 +10671,7 @@
       </c>
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A669" s="20">
+      <c r="A669" s="2">
         <v>44680</v>
       </c>
       <c r="B669">
@@ -10702,7 +10688,7 @@
       </c>
     </row>
     <row r="670" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A670" s="20">
+      <c r="A670" s="2">
         <v>44681</v>
       </c>
       <c r="B670">
@@ -10719,64 +10705,64 @@
       </c>
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A671" s="20">
+      <c r="A671" s="2">
         <v>44682</v>
       </c>
-      <c r="B671" s="24">
+      <c r="B671">
         <v>0.72727272727272729</v>
       </c>
-      <c r="C671" s="24">
+      <c r="C671">
         <v>5.1771117166212535E-2</v>
       </c>
-      <c r="D671" s="24">
+      <c r="D671">
         <v>3.1578947368421054E-2</v>
       </c>
-      <c r="E671" s="24">
+      <c r="E671">
         <v>0.11764705882352941</v>
       </c>
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A672" s="20">
+      <c r="A672" s="2">
         <v>44683</v>
       </c>
-      <c r="B672" s="24">
+      <c r="B672">
         <v>0.72727272727272729</v>
       </c>
-      <c r="C672" s="24">
+      <c r="C672">
         <v>5.1771117166212535E-2</v>
       </c>
-      <c r="D672" s="24">
+      <c r="D672">
         <v>3.1578947368421054E-2</v>
       </c>
-      <c r="E672" s="24">
+      <c r="E672">
         <v>0.11764705882352941</v>
       </c>
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A673" s="20">
+      <c r="A673" s="2">
         <v>44684</v>
       </c>
-      <c r="B673" s="24">
+      <c r="B673">
         <v>0.72727272727272729</v>
       </c>
-      <c r="C673" s="24">
+      <c r="C673">
         <v>3.8147138964577658E-2</v>
       </c>
-      <c r="D673" s="24">
+      <c r="D673">
         <v>3.6842105263157891E-2</v>
       </c>
-      <c r="E673" s="24">
+      <c r="E673">
         <v>0.11764705882352941</v>
       </c>
     </row>
     <row r="674" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A674" s="20">
+      <c r="A674" s="2">
         <v>44685</v>
       </c>
       <c r="B674">
         <v>0.7142857142857143</v>
       </c>
-      <c r="C674" s="24">
+      <c r="C674">
         <v>3.8147138964577658E-2</v>
       </c>
       <c r="D674">
@@ -10787,7 +10773,7 @@
       </c>
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A675" s="20">
+      <c r="A675" s="2">
         <v>44686</v>
       </c>
       <c r="B675">
@@ -10804,13 +10790,13 @@
       </c>
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A676" s="20">
+      <c r="A676" s="2">
         <v>44687</v>
       </c>
       <c r="B676">
         <v>0.68181818181818177</v>
       </c>
-      <c r="C676" s="24">
+      <c r="C676">
         <v>4.0871934604904632E-2</v>
       </c>
       <c r="D676">
@@ -10821,13 +10807,13 @@
       </c>
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A677" s="20">
+      <c r="A677" s="2">
         <v>44688</v>
       </c>
       <c r="B677">
         <v>0.68181818181818177</v>
       </c>
-      <c r="C677" s="24">
+      <c r="C677">
         <v>4.0871934604904632E-2</v>
       </c>
       <c r="D677">
@@ -10838,7 +10824,7 @@
       </c>
     </row>
     <row r="678" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A678" s="20">
+      <c r="A678" s="2">
         <v>44689</v>
       </c>
       <c r="B678">
@@ -10855,16 +10841,16 @@
       </c>
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A679" s="20">
+      <c r="A679" s="2">
         <v>44690</v>
       </c>
       <c r="B679">
         <v>0.7142857142857143</v>
       </c>
-      <c r="C679" s="24">
+      <c r="C679">
         <v>4.0540540540540543E-2</v>
       </c>
-      <c r="D679" s="24">
+      <c r="D679">
         <v>4.145077720207254E-2</v>
       </c>
       <c r="E679">
@@ -10872,13 +10858,13 @@
       </c>
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A680" s="20">
+      <c r="A680" s="2">
         <v>44691</v>
       </c>
       <c r="B680">
         <v>0.7142857142857143</v>
       </c>
-      <c r="C680" s="24">
+      <c r="C680">
         <v>2.9810298102981029E-2</v>
       </c>
       <c r="D680">
@@ -10889,47 +10875,47 @@
       </c>
     </row>
     <row r="681" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A681" s="20">
+      <c r="A681" s="2">
         <v>44692</v>
       </c>
       <c r="B681">
         <v>0.625</v>
       </c>
-      <c r="C681" s="24">
+      <c r="C681">
         <v>3.1161473087818695E-2</v>
       </c>
       <c r="D681">
         <v>2.6041666666666668E-2</v>
       </c>
-      <c r="E681" s="24">
+      <c r="E681">
         <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A682" s="20">
+      <c r="A682" s="2">
         <v>44693</v>
       </c>
       <c r="B682">
         <v>0.5625</v>
       </c>
-      <c r="C682" s="24">
+      <c r="C682">
         <v>3.1161473087818695E-2</v>
       </c>
-      <c r="D682" s="24">
+      <c r="D682">
         <v>2.6041666666666668E-2</v>
       </c>
-      <c r="E682" s="24">
+      <c r="E682">
         <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A683" s="20">
+      <c r="A683" s="2">
         <v>44694</v>
       </c>
       <c r="B683">
         <v>0.68181818181818177</v>
       </c>
-      <c r="C683" s="24">
+      <c r="C683">
         <v>4.0871934604904632E-2</v>
       </c>
       <c r="D683">
@@ -10940,13 +10926,13 @@
       </c>
     </row>
     <row r="684" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A684" s="20">
+      <c r="A684" s="2">
         <v>44695</v>
       </c>
       <c r="B684">
         <v>0.68181818181818177</v>
       </c>
-      <c r="C684" s="24">
+      <c r="C684">
         <v>4.0871934604904632E-2</v>
       </c>
       <c r="D684">
@@ -10957,13 +10943,13 @@
       </c>
     </row>
     <row r="685" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A685" s="20">
+      <c r="A685" s="2">
         <v>44696</v>
       </c>
       <c r="B685">
         <v>0.5</v>
       </c>
-      <c r="C685" s="24">
+      <c r="C685">
         <v>4.0229885057471264E-2</v>
       </c>
       <c r="D685">
@@ -10974,13 +10960,13 @@
       </c>
     </row>
     <row r="686" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A686" s="20">
+      <c r="A686" s="2">
         <v>44697</v>
       </c>
       <c r="B686">
         <v>0.5</v>
       </c>
-      <c r="C686" s="24">
+      <c r="C686">
         <v>4.0229885057471264E-2</v>
       </c>
       <c r="D686">
@@ -10991,13 +10977,13 @@
       </c>
     </row>
     <row r="687" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A687" s="20">
+      <c r="A687" s="2">
         <v>44698</v>
       </c>
       <c r="B687">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C687" s="24">
+      <c r="C687">
         <v>7.4712643678160925E-2</v>
       </c>
       <c r="D687">
@@ -11008,13 +10994,13 @@
       </c>
     </row>
     <row r="688" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A688" s="20">
+      <c r="A688" s="2">
         <v>44699</v>
       </c>
       <c r="B688">
         <v>0.25</v>
       </c>
-      <c r="C688" s="24">
+      <c r="C688">
         <v>7.7586206896551727E-2</v>
       </c>
       <c r="D688">
@@ -11025,13 +11011,13 @@
       </c>
     </row>
     <row r="689" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A689" s="20">
+      <c r="A689" s="2">
         <v>44700</v>
       </c>
       <c r="B689">
         <v>0.25</v>
       </c>
-      <c r="C689" s="24">
+      <c r="C689">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D689">
@@ -11042,13 +11028,13 @@
       </c>
     </row>
     <row r="690" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A690" s="20">
+      <c r="A690" s="2">
         <v>44701</v>
       </c>
       <c r="B690">
         <v>0.16666666666666666</v>
       </c>
-      <c r="C690" s="24">
+      <c r="C690">
         <v>7.4712643678160925E-2</v>
       </c>
       <c r="D690">
@@ -11059,13 +11045,13 @@
       </c>
     </row>
     <row r="691" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A691" s="20">
+      <c r="A691" s="2">
         <v>44702</v>
       </c>
       <c r="B691">
         <v>0.16666666666666666</v>
       </c>
-      <c r="C691" s="24">
+      <c r="C691">
         <v>7.4712643678160925E-2</v>
       </c>
       <c r="D691">
@@ -11076,13 +11062,13 @@
       </c>
     </row>
     <row r="692" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A692" s="20">
+      <c r="A692" s="2">
         <v>44703</v>
       </c>
       <c r="B692">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C692" s="24">
+      <c r="C692">
         <v>4.2492917847025496E-2</v>
       </c>
       <c r="D692">
@@ -11093,13 +11079,13 @@
       </c>
     </row>
     <row r="693" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A693" s="20">
+      <c r="A693" s="2">
         <v>44704</v>
       </c>
       <c r="B693">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C693" s="24">
+      <c r="C693">
         <v>4.2492917847025496E-2</v>
       </c>
       <c r="D693">
@@ -11110,13 +11096,13 @@
       </c>
     </row>
     <row r="694" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A694" s="20">
+      <c r="A694" s="2">
         <v>44705</v>
       </c>
       <c r="B694">
         <v>0.25</v>
       </c>
-      <c r="C694" s="24">
+      <c r="C694">
         <v>3.9660056657223795E-2</v>
       </c>
       <c r="D694">
@@ -11127,13 +11113,13 @@
       </c>
     </row>
     <row r="695" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A695" s="20">
+      <c r="A695" s="2">
         <v>44706</v>
       </c>
       <c r="B695">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C695" s="24">
+      <c r="C695">
         <v>3.9660056657223795E-2</v>
       </c>
       <c r="D695">
@@ -11144,13 +11130,13 @@
       </c>
     </row>
     <row r="696" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A696" s="20">
+      <c r="A696" s="2">
         <v>44707</v>
       </c>
       <c r="B696">
         <v>0.25</v>
       </c>
-      <c r="C696" s="24">
+      <c r="C696">
         <v>4.8158640226628892E-2</v>
       </c>
       <c r="D696">
@@ -11161,13 +11147,13 @@
       </c>
     </row>
     <row r="697" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A697" s="20">
+      <c r="A697" s="2">
         <v>44708</v>
       </c>
       <c r="B697">
         <v>0.25</v>
       </c>
-      <c r="C697" s="24">
+      <c r="C697">
         <v>4.5325779036827198E-2</v>
       </c>
       <c r="D697">
@@ -11178,13 +11164,13 @@
       </c>
     </row>
     <row r="698" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A698" s="20">
+      <c r="A698" s="2">
         <v>44709</v>
       </c>
       <c r="B698">
         <v>0.25</v>
       </c>
-      <c r="C698" s="24">
+      <c r="C698">
         <v>4.5325779036827198E-2</v>
       </c>
       <c r="D698">
@@ -11195,13 +11181,13 @@
       </c>
     </row>
     <row r="699" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A699" s="20">
+      <c r="A699" s="2">
         <v>44710</v>
       </c>
       <c r="B699">
         <v>0.25</v>
       </c>
-      <c r="C699" s="24">
+      <c r="C699">
         <v>4.5325779036827198E-2</v>
       </c>
       <c r="D699">
@@ -11212,13 +11198,13 @@
       </c>
     </row>
     <row r="700" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A700" s="20">
+      <c r="A700" s="2">
         <v>44711</v>
       </c>
       <c r="B700">
         <v>0.25</v>
       </c>
-      <c r="C700" s="24">
+      <c r="C700">
         <v>4.5325779036827198E-2</v>
       </c>
       <c r="D700">
@@ -11229,16 +11215,16 @@
       </c>
     </row>
     <row r="701" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A701" s="20">
+      <c r="A701" s="2">
         <v>44712</v>
       </c>
       <c r="B701">
         <v>0.16666666666666666</v>
       </c>
-      <c r="C701" s="24">
+      <c r="C701">
         <v>4.2492917847025496E-2</v>
       </c>
-      <c r="D701" s="24">
+      <c r="D701">
         <v>2.6041666666666668E-2</v>
       </c>
       <c r="E701">
@@ -11246,16 +11232,16 @@
       </c>
     </row>
     <row r="702" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A702" s="20">
+      <c r="A702" s="2">
         <v>44713</v>
       </c>
       <c r="B702">
         <v>0.16666666666666666</v>
       </c>
-      <c r="C702" s="24">
+      <c r="C702">
         <v>4.2492917847025496E-2</v>
       </c>
-      <c r="D702" s="24">
+      <c r="D702">
         <v>2.6041666666666668E-2</v>
       </c>
       <c r="E702">
@@ -11263,13 +11249,13 @@
       </c>
     </row>
     <row r="703" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A703" s="20">
+      <c r="A703" s="2">
         <v>44714</v>
       </c>
-      <c r="B703" s="24">
+      <c r="B703">
         <v>0.16666666666666666</v>
       </c>
-      <c r="C703" s="24">
+      <c r="C703">
         <v>3.9660056657223795E-2</v>
       </c>
       <c r="D703">
@@ -11280,13 +11266,13 @@
       </c>
     </row>
     <row r="704" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A704" s="20">
+      <c r="A704" s="2">
         <v>44715</v>
       </c>
       <c r="B704">
         <v>0.16666666666666666</v>
       </c>
-      <c r="C704" s="24">
+      <c r="C704">
         <v>4.5801526717557252E-2</v>
       </c>
       <c r="D704">
@@ -11297,13 +11283,13 @@
       </c>
     </row>
     <row r="705" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A705" s="20">
+      <c r="A705" s="2">
         <v>44716</v>
       </c>
       <c r="B705">
         <v>0.16666666666666666</v>
       </c>
-      <c r="C705" s="24">
+      <c r="C705">
         <v>4.6997389033942558E-2</v>
       </c>
       <c r="D705">
@@ -11314,13 +11300,13 @@
       </c>
     </row>
     <row r="706" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A706" s="20">
+      <c r="A706" s="2">
         <v>44717</v>
       </c>
       <c r="B706">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C706" s="24">
+      <c r="C706">
         <v>4.2492917847025496E-2</v>
       </c>
       <c r="D706">
@@ -11331,16 +11317,16 @@
       </c>
     </row>
     <row r="707" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A707" s="20">
+      <c r="A707" s="2">
         <v>44718</v>
       </c>
-      <c r="B707" s="24">
+      <c r="B707">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C707" s="24">
+      <c r="C707">
         <v>4.2492917847025496E-2</v>
       </c>
-      <c r="D707" s="24">
+      <c r="D707">
         <v>3.125E-2</v>
       </c>
       <c r="E707">
@@ -11348,13 +11334,13 @@
       </c>
     </row>
     <row r="708" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A708" s="20">
+      <c r="A708" s="2">
         <v>44719</v>
       </c>
       <c r="B708">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C708" s="24">
+      <c r="C708">
         <v>4.5325779036827198E-2</v>
       </c>
       <c r="D708">
@@ -11365,30 +11351,30 @@
       </c>
     </row>
     <row r="709" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A709" s="20">
+      <c r="A709" s="2">
         <v>44720</v>
       </c>
-      <c r="B709" s="24">
+      <c r="B709">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C709" s="24">
+      <c r="C709">
         <v>4.5325779036827198E-2</v>
       </c>
-      <c r="D709" s="24">
+      <c r="D709">
         <v>3.6458333333333336E-2</v>
       </c>
-      <c r="E709" s="24">
+      <c r="E709">
         <v>0.35714285714285715</v>
       </c>
     </row>
     <row r="710" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A710" s="20">
+      <c r="A710" s="2">
         <v>44721</v>
       </c>
-      <c r="B710" s="24">
+      <c r="B710">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C710" s="24">
+      <c r="C710">
         <v>5.6657223796033995E-2</v>
       </c>
       <c r="D710">
@@ -11399,13 +11385,13 @@
       </c>
     </row>
     <row r="711" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A711" s="20">
+      <c r="A711" s="2">
         <v>44722</v>
       </c>
       <c r="B711">
         <v>0.30769230769230771</v>
       </c>
-      <c r="C711" s="24">
+      <c r="C711">
         <v>5.9154929577464786E-2</v>
       </c>
       <c r="D711">
@@ -11416,13 +11402,13 @@
       </c>
     </row>
     <row r="712" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A712" s="20">
+      <c r="A712" s="2">
         <v>44723</v>
       </c>
-      <c r="B712" s="24">
+      <c r="B712">
         <v>0.30769230769230771</v>
       </c>
-      <c r="C712" s="24">
+      <c r="C712">
         <v>5.9154929577464786E-2</v>
       </c>
       <c r="D712">
@@ -11433,7 +11419,7 @@
       </c>
     </row>
     <row r="713" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A713" s="20">
+      <c r="A713" s="2">
         <v>44724</v>
       </c>
       <c r="B713">
@@ -11450,7 +11436,7 @@
       </c>
     </row>
     <row r="714" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A714" s="20">
+      <c r="A714" s="2">
         <v>44725</v>
       </c>
       <c r="B714">
@@ -11467,7 +11453,7 @@
       </c>
     </row>
     <row r="715" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A715" s="20">
+      <c r="A715" s="2">
         <v>44726</v>
       </c>
       <c r="B715">
@@ -11479,12 +11465,12 @@
       <c r="D715">
         <v>3.9823008849557522E-2</v>
       </c>
-      <c r="E715" s="24">
+      <c r="E715">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="716" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A716" s="20">
+      <c r="A716" s="2">
         <v>44727</v>
       </c>
       <c r="B716">
@@ -11501,10 +11487,10 @@
       </c>
     </row>
     <row r="717" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A717" s="20">
+      <c r="A717" s="2">
         <v>44728</v>
       </c>
-      <c r="B717" s="24">
+      <c r="B717">
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="C717">
@@ -11518,10 +11504,10 @@
       </c>
     </row>
     <row r="718" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A718" s="20">
+      <c r="A718" s="2">
         <v>44729</v>
       </c>
-      <c r="B718" s="24">
+      <c r="B718">
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="C718">
@@ -11535,10 +11521,10 @@
       </c>
     </row>
     <row r="719" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A719" s="20">
+      <c r="A719" s="2">
         <v>44730</v>
       </c>
-      <c r="B719" s="24">
+      <c r="B719">
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="C719">
@@ -11552,7 +11538,7 @@
       </c>
     </row>
     <row r="720" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A720" s="20">
+      <c r="A720" s="2">
         <v>44731</v>
       </c>
       <c r="B720">
@@ -11569,7 +11555,7 @@
       </c>
     </row>
     <row r="721" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A721" s="20">
+      <c r="A721" s="2">
         <v>44732</v>
       </c>
       <c r="B721">
@@ -11586,7 +11572,7 @@
       </c>
     </row>
     <row r="722" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A722" s="20">
+      <c r="A722" s="2">
         <v>44733</v>
       </c>
       <c r="B722">
@@ -11603,10 +11589,10 @@
       </c>
     </row>
     <row r="723" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A723" s="20">
+      <c r="A723" s="2">
         <v>44734</v>
       </c>
-      <c r="B723" s="24">
+      <c r="B723">
         <v>0.15384615384615385</v>
       </c>
       <c r="C723">
@@ -11615,15 +11601,15 @@
       <c r="D723">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E723" s="24">
+      <c r="E723">
         <v>0.38461538461538464</v>
       </c>
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A724" s="20">
+      <c r="A724" s="2">
         <v>44735</v>
       </c>
-      <c r="B724" s="24">
+      <c r="B724">
         <v>0.15384615384615385</v>
       </c>
       <c r="C724">
@@ -11632,80 +11618,80 @@
       <c r="D724">
         <v>4.6875E-2</v>
       </c>
-      <c r="E724" s="24">
+      <c r="E724">
         <v>0.38461538461538464</v>
       </c>
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A725" s="20">
+      <c r="A725" s="2">
         <v>44736</v>
       </c>
-      <c r="B725" s="24">
+      <c r="B725">
         <v>0.15384615384615385</v>
       </c>
-      <c r="C725" s="24">
+      <c r="C725">
         <v>0.11462450592885376</v>
       </c>
-      <c r="D725" s="24">
+      <c r="D725">
         <v>4.6875E-2</v>
       </c>
-      <c r="E725" s="24">
+      <c r="E725">
         <v>0.38461538461538464</v>
       </c>
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A726" s="20">
+      <c r="A726" s="2">
         <v>44737</v>
       </c>
-      <c r="B726" s="24">
+      <c r="B726">
         <v>0.15384615384615385</v>
       </c>
-      <c r="C726" s="24">
+      <c r="C726">
         <v>0.11462450592885376</v>
       </c>
-      <c r="D726" s="24">
+      <c r="D726">
         <v>4.6875E-2</v>
       </c>
-      <c r="E726" s="24">
+      <c r="E726">
         <v>0.38461538461538464</v>
       </c>
     </row>
     <row r="727" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A727" s="20">
+      <c r="A727" s="2">
         <v>44738</v>
       </c>
-      <c r="B727" s="24">
+      <c r="B727">
         <v>0.15384615384615385</v>
       </c>
-      <c r="C727" s="24">
+      <c r="C727">
         <v>0.11462450592885376</v>
       </c>
-      <c r="D727" s="24">
+      <c r="D727">
         <v>4.6875E-2</v>
       </c>
-      <c r="E727" s="24">
+      <c r="E727">
         <v>0.38461538461538464</v>
       </c>
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A728" s="20">
+      <c r="A728" s="2">
         <v>44739</v>
       </c>
-      <c r="B728" s="24">
+      <c r="B728">
         <v>0.15384615384615385</v>
       </c>
-      <c r="C728" s="24">
+      <c r="C728">
         <v>0.16205533596837945</v>
       </c>
-      <c r="D728" s="24">
+      <c r="D728">
         <v>4.6875E-2</v>
       </c>
-      <c r="E728" s="24">
+      <c r="E728">
         <v>0.38461538461538464</v>
       </c>
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A729" s="20">
+      <c r="A729" s="2">
         <v>44740</v>
       </c>
       <c r="B729">
@@ -11722,7 +11708,7 @@
       </c>
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A730" s="20">
+      <c r="A730" s="2">
         <v>44741</v>
       </c>
       <c r="B730">
@@ -11739,7 +11725,7 @@
       </c>
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A731" s="20">
+      <c r="A731" s="2">
         <v>44742</v>
       </c>
       <c r="B731">
@@ -11756,7 +11742,7 @@
       </c>
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A732" s="20">
+      <c r="A732" s="2">
         <v>44743</v>
       </c>
       <c r="B732">
@@ -11773,7 +11759,7 @@
       </c>
     </row>
     <row r="733" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A733" s="20">
+      <c r="A733" s="2">
         <v>44744</v>
       </c>
       <c r="B733">
@@ -11790,7 +11776,7 @@
       </c>
     </row>
     <row r="734" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A734" s="20">
+      <c r="A734" s="2">
         <v>44745</v>
       </c>
       <c r="B734">
@@ -11807,7 +11793,7 @@
       </c>
     </row>
     <row r="735" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A735" s="20">
+      <c r="A735" s="2">
         <v>44746</v>
       </c>
       <c r="B735">
@@ -11824,7 +11810,7 @@
       </c>
     </row>
     <row r="736" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A736" s="20">
+      <c r="A736" s="2">
         <v>44747</v>
       </c>
       <c r="B736">
@@ -11841,7 +11827,7 @@
       </c>
     </row>
     <row r="737" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A737" s="20">
+      <c r="A737" s="2">
         <v>44748</v>
       </c>
       <c r="B737">
@@ -11858,7 +11844,7 @@
       </c>
     </row>
     <row r="738" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A738" s="20">
+      <c r="A738" s="2">
         <v>44749</v>
       </c>
       <c r="B738">
@@ -11875,7 +11861,7 @@
       </c>
     </row>
     <row r="739" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A739" s="20">
+      <c r="A739" s="2">
         <v>44750</v>
       </c>
       <c r="B739">
@@ -11892,24 +11878,24 @@
       </c>
     </row>
     <row r="740" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A740" s="20">
+      <c r="A740" s="2">
         <v>44751</v>
       </c>
       <c r="B740">
         <v>0.42857142857142855</v>
       </c>
-      <c r="C740" s="24">
+      <c r="C740">
         <v>0.21568627450980393</v>
       </c>
       <c r="D740">
         <v>7.1038251366120214E-2</v>
       </c>
-      <c r="E740" s="24">
+      <c r="E740">
         <v>0.38461538461538464</v>
       </c>
     </row>
     <row r="741" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A741" s="20">
+      <c r="A741" s="2">
         <v>44752</v>
       </c>
       <c r="B741">
@@ -11921,12 +11907,12 @@
       <c r="D741">
         <v>9.2391304347826081E-2</v>
       </c>
-      <c r="E741" s="24">
+      <c r="E741">
         <v>0.38461538461538464</v>
       </c>
     </row>
     <row r="742" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A742" s="20">
+      <c r="A742" s="2">
         <v>44753</v>
       </c>
       <c r="B742">
@@ -11938,12 +11924,12 @@
       <c r="D742">
         <v>9.2391304347826081E-2</v>
       </c>
-      <c r="E742" s="24">
+      <c r="E742">
         <v>0.38461538461538464</v>
       </c>
     </row>
     <row r="743" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A743" s="20">
+      <c r="A743" s="2">
         <v>44754</v>
       </c>
       <c r="B743">
@@ -11960,7 +11946,7 @@
       </c>
     </row>
     <row r="744" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A744" s="20">
+      <c r="A744" s="2">
         <v>44755</v>
       </c>
       <c r="B744">
@@ -11977,7 +11963,7 @@
       </c>
     </row>
     <row r="745" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A745" s="20">
+      <c r="A745" s="2">
         <v>44756</v>
       </c>
       <c r="B745">
@@ -11994,7 +11980,7 @@
       </c>
     </row>
     <row r="746" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A746" s="20">
+      <c r="A746" s="2">
         <v>44757</v>
       </c>
       <c r="B746">
@@ -12011,7 +11997,7 @@
       </c>
     </row>
     <row r="747" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A747" s="20">
+      <c r="A747" s="2">
         <v>44758</v>
       </c>
       <c r="B747">
@@ -12023,12 +12009,12 @@
       <c r="D747">
         <v>0.125</v>
       </c>
-      <c r="E747" s="24">
+      <c r="E747">
         <v>0.76923076923076927</v>
       </c>
     </row>
     <row r="748" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A748" s="20">
+      <c r="A748" s="2">
         <v>44759</v>
       </c>
       <c r="B748">
@@ -12045,7 +12031,7 @@
       </c>
     </row>
     <row r="749" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A749" s="20">
+      <c r="A749" s="2">
         <v>44760</v>
       </c>
       <c r="B749">
@@ -12062,7 +12048,7 @@
       </c>
     </row>
     <row r="750" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A750" s="20">
+      <c r="A750" s="2">
         <v>44761</v>
       </c>
       <c r="B750">
@@ -12079,7 +12065,7 @@
       </c>
     </row>
     <row r="751" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A751" s="20">
+      <c r="A751" s="2">
         <v>44762</v>
       </c>
       <c r="B751">
@@ -12096,7 +12082,7 @@
       </c>
     </row>
     <row r="752" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A752" s="20">
+      <c r="A752" s="2">
         <v>44763</v>
       </c>
       <c r="B752">
@@ -12105,7 +12091,7 @@
       <c r="C752">
         <v>0.32129963898916969</v>
       </c>
-      <c r="D752" s="24">
+      <c r="D752">
         <v>0.12105263157894737</v>
       </c>
       <c r="E752">
@@ -12113,7 +12099,7 @@
       </c>
     </row>
     <row r="753" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A753" s="20">
+      <c r="A753" s="2">
         <v>44764</v>
       </c>
       <c r="B753">
@@ -12130,7 +12116,7 @@
       </c>
     </row>
     <row r="754" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A754" s="20">
+      <c r="A754" s="2">
         <v>44765</v>
       </c>
       <c r="B754">
@@ -12147,7 +12133,7 @@
       </c>
     </row>
     <row r="755" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A755" s="20">
+      <c r="A755" s="2">
         <v>44766</v>
       </c>
       <c r="B755">
@@ -12164,7 +12150,7 @@
       </c>
     </row>
     <row r="756" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A756" s="20">
+      <c r="A756" s="2">
         <v>44767</v>
       </c>
       <c r="B756">
@@ -12181,7 +12167,7 @@
       </c>
     </row>
     <row r="757" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A757" s="20">
+      <c r="A757" s="2">
         <v>44768</v>
       </c>
       <c r="B757">
@@ -12198,7 +12184,7 @@
       </c>
     </row>
     <row r="758" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A758" s="20">
+      <c r="A758" s="2">
         <v>44769</v>
       </c>
       <c r="B758">
@@ -12215,7 +12201,7 @@
       </c>
     </row>
     <row r="759" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A759" s="20">
+      <c r="A759" s="2">
         <v>44770</v>
       </c>
       <c r="B759">
@@ -12232,7 +12218,7 @@
       </c>
     </row>
     <row r="760" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A760" s="20">
+      <c r="A760" s="2">
         <v>44771</v>
       </c>
       <c r="B760">
@@ -12249,7 +12235,7 @@
       </c>
     </row>
     <row r="761" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A761" s="20">
+      <c r="A761" s="2">
         <v>44772</v>
       </c>
       <c r="B761">
@@ -12266,7 +12252,7 @@
       </c>
     </row>
     <row r="762" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A762" s="20">
+      <c r="A762" s="2">
         <v>44773</v>
       </c>
       <c r="B762">
@@ -12283,7 +12269,7 @@
       </c>
     </row>
     <row r="763" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A763" s="20">
+      <c r="A763" s="2">
         <v>44774</v>
       </c>
       <c r="B763">
@@ -12300,7 +12286,7 @@
       </c>
     </row>
     <row r="764" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A764" s="20">
+      <c r="A764" s="2">
         <v>44775</v>
       </c>
       <c r="B764">
@@ -12317,7 +12303,7 @@
       </c>
     </row>
     <row r="765" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A765" s="20">
+      <c r="A765" s="2">
         <v>44776</v>
       </c>
       <c r="B765">
@@ -12334,7 +12320,7 @@
       </c>
     </row>
     <row r="766" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A766" s="20">
+      <c r="A766" s="2">
         <v>44777</v>
       </c>
       <c r="B766">
@@ -12351,7 +12337,7 @@
       </c>
     </row>
     <row r="767" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A767" s="20">
+      <c r="A767" s="2">
         <v>44778</v>
       </c>
       <c r="B767">
@@ -12368,7 +12354,7 @@
       </c>
     </row>
     <row r="768" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A768" s="20">
+      <c r="A768" s="2">
         <v>44779</v>
       </c>
       <c r="B768">
@@ -12385,7 +12371,7 @@
       </c>
     </row>
     <row r="769" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A769" s="20">
+      <c r="A769" s="2">
         <v>44780</v>
       </c>
       <c r="B769">
@@ -12402,7 +12388,7 @@
       </c>
     </row>
     <row r="770" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A770" s="20">
+      <c r="A770" s="2">
         <v>44781</v>
       </c>
       <c r="B770">
@@ -12419,7 +12405,7 @@
       </c>
     </row>
     <row r="771" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A771" s="20">
+      <c r="A771" s="2">
         <v>44782</v>
       </c>
       <c r="B771">
@@ -12436,7 +12422,7 @@
       </c>
     </row>
     <row r="772" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A772" s="20">
+      <c r="A772" s="2">
         <v>44783</v>
       </c>
       <c r="B772">
@@ -12453,7 +12439,7 @@
       </c>
     </row>
     <row r="773" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A773" s="20">
+      <c r="A773" s="2">
         <v>44784</v>
       </c>
       <c r="B773">
@@ -12470,10 +12456,10 @@
       </c>
     </row>
     <row r="774" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A774" s="20">
+      <c r="A774" s="2">
         <v>44785</v>
       </c>
-      <c r="B774" s="24">
+      <c r="B774">
         <v>0.47368421052631576</v>
       </c>
       <c r="C774">
@@ -12482,15 +12468,15 @@
       <c r="D774">
         <v>5.8510638297872342E-2</v>
       </c>
-      <c r="E774" s="24">
+      <c r="E774">
         <v>0.53846153846153799</v>
       </c>
     </row>
     <row r="775" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A775" s="20">
+      <c r="A775" s="2">
         <v>44786</v>
       </c>
-      <c r="B775" s="24">
+      <c r="B775">
         <v>0.47368421052631576</v>
       </c>
       <c r="C775">
@@ -12499,15 +12485,15 @@
       <c r="D775">
         <v>5.8510638297872342E-2</v>
       </c>
-      <c r="E775" s="24">
+      <c r="E775">
         <v>0.53846153846153799</v>
       </c>
     </row>
     <row r="776" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A776" s="20">
+      <c r="A776" s="2">
         <v>44787</v>
       </c>
-      <c r="B776" s="24">
+      <c r="B776">
         <v>0.47368421052631576</v>
       </c>
       <c r="C776">
@@ -12516,15 +12502,15 @@
       <c r="D776">
         <v>5.3191489361702128E-2</v>
       </c>
-      <c r="E776" s="24">
+      <c r="E776">
         <v>0.53846153846153799</v>
       </c>
     </row>
     <row r="777" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A777" s="20">
+      <c r="A777" s="2">
         <v>44788</v>
       </c>
-      <c r="B777" s="24">
+      <c r="B777">
         <v>0.47368421052631576</v>
       </c>
       <c r="C777">
@@ -12533,15 +12519,15 @@
       <c r="D777">
         <v>5.3191489361702128E-2</v>
       </c>
-      <c r="E777" s="24">
+      <c r="E777">
         <v>0.53846153846153799</v>
       </c>
     </row>
     <row r="778" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A778" s="20">
+      <c r="A778" s="2">
         <v>44789</v>
       </c>
-      <c r="B778" s="24">
+      <c r="B778">
         <v>0.47368421052631576</v>
       </c>
       <c r="C778">
@@ -12550,15 +12536,15 @@
       <c r="D778">
         <v>6.3492063492063489E-2</v>
       </c>
-      <c r="E778" s="24">
+      <c r="E778">
         <v>0.46153846153846156</v>
       </c>
     </row>
     <row r="779" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A779" s="20">
+      <c r="A779" s="2">
         <v>44790</v>
       </c>
-      <c r="B779" s="24">
+      <c r="B779">
         <v>0.47368421052631576</v>
       </c>
       <c r="C779">
@@ -12572,10 +12558,10 @@
       </c>
     </row>
     <row r="780" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A780" s="20">
+      <c r="A780" s="2">
         <v>44791</v>
       </c>
-      <c r="B780" s="24">
+      <c r="B780">
         <v>0.47368421052631576</v>
       </c>
       <c r="C780">
@@ -12584,15 +12570,15 @@
       <c r="D780">
         <v>9.4736842105263161E-2</v>
       </c>
-      <c r="E780" s="24">
+      <c r="E780">
         <v>0.53846153846153844</v>
       </c>
     </row>
     <row r="781" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A781" s="20">
+      <c r="A781" s="2">
         <v>44792</v>
       </c>
-      <c r="B781" s="24">
+      <c r="B781">
         <v>0.47368421052631576</v>
       </c>
       <c r="C781">
@@ -12606,10 +12592,10 @@
       </c>
     </row>
     <row r="782" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A782" s="20">
+      <c r="A782" s="2">
         <v>44793</v>
       </c>
-      <c r="B782" s="24">
+      <c r="B782">
         <v>0.47368421052631576</v>
       </c>
       <c r="C782">
@@ -12618,15 +12604,15 @@
       <c r="D782">
         <v>0.10106382978723404</v>
       </c>
-      <c r="E782" s="24">
+      <c r="E782">
         <v>0.46153846153846156</v>
       </c>
     </row>
     <row r="783" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A783" s="20">
+      <c r="A783" s="2">
         <v>44794</v>
       </c>
-      <c r="B783" s="24">
+      <c r="B783">
         <v>0.47368421052631576</v>
       </c>
       <c r="C783">
@@ -12640,10 +12626,10 @@
       </c>
     </row>
     <row r="784" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A784" s="20">
+      <c r="A784" s="2">
         <v>44795</v>
       </c>
-      <c r="B784" s="24">
+      <c r="B784">
         <v>0.47368421052631576</v>
       </c>
       <c r="C784">
@@ -12657,10 +12643,10 @@
       </c>
     </row>
     <row r="785" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A785" s="20">
+      <c r="A785" s="2">
         <v>44796</v>
       </c>
-      <c r="B785" s="24">
+      <c r="B785">
         <v>0.47368421052631576</v>
       </c>
       <c r="C785">
@@ -12674,7 +12660,7 @@
       </c>
     </row>
     <row r="786" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A786" s="20">
+      <c r="A786" s="2">
         <v>44797</v>
       </c>
       <c r="B786">
@@ -12691,10 +12677,10 @@
       </c>
     </row>
     <row r="787" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A787" s="20">
+      <c r="A787" s="2">
         <v>44798</v>
       </c>
-      <c r="B787" s="24">
+      <c r="B787">
         <v>0.5</v>
       </c>
       <c r="C787">
@@ -12708,7 +12694,7 @@
       </c>
     </row>
     <row r="788" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A788" s="20">
+      <c r="A788" s="2">
         <v>44799</v>
       </c>
       <c r="B788">
@@ -12725,13 +12711,13 @@
       </c>
     </row>
     <row r="789" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A789" s="20">
+      <c r="A789" s="2">
         <v>44800</v>
       </c>
       <c r="B789">
         <v>0.7142857142857143</v>
       </c>
-      <c r="C789" s="24">
+      <c r="C789">
         <v>0.19083969465648856</v>
       </c>
       <c r="D789">
@@ -12742,7 +12728,7 @@
       </c>
     </row>
     <row r="790" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A790" s="20">
+      <c r="A790" s="2">
         <v>44801</v>
       </c>
       <c r="B790">
@@ -12759,7 +12745,7 @@
       </c>
     </row>
     <row r="791" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A791" s="20">
+      <c r="A791" s="2">
         <v>44802</v>
       </c>
       <c r="B791">
@@ -12768,7 +12754,7 @@
       <c r="C791">
         <v>0.16858237547892721</v>
       </c>
-      <c r="D791" s="24">
+      <c r="D791">
         <v>4.8128342245989303E-2</v>
       </c>
       <c r="E791">
@@ -12776,7 +12762,7 @@
       </c>
     </row>
     <row r="792" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A792" s="20">
+      <c r="A792" s="2">
         <v>44803</v>
       </c>
       <c r="B792">
@@ -12785,7 +12771,7 @@
       <c r="C792">
         <v>0.16858237547892721</v>
       </c>
-      <c r="D792" s="24">
+      <c r="D792">
         <v>4.8128342245989303E-2</v>
       </c>
       <c r="E792">
@@ -12793,7 +12779,7 @@
       </c>
     </row>
     <row r="793" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A793" s="20">
+      <c r="A793" s="2">
         <v>44804</v>
       </c>
       <c r="B793">
@@ -12802,7 +12788,7 @@
       <c r="C793">
         <v>0.16858237547892721</v>
       </c>
-      <c r="D793" s="24">
+      <c r="D793">
         <v>4.8128342245989303E-2</v>
       </c>
       <c r="E793">
@@ -12810,7 +12796,7 @@
       </c>
     </row>
     <row r="794" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A794" s="20">
+      <c r="A794" s="2">
         <v>44805</v>
       </c>
       <c r="B794">
@@ -12827,7 +12813,7 @@
       </c>
     </row>
     <row r="795" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A795" s="20">
+      <c r="A795" s="2">
         <v>44806</v>
       </c>
       <c r="B795">
@@ -12844,7 +12830,7 @@
       </c>
     </row>
     <row r="796" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A796" s="20">
+      <c r="A796" s="2">
         <v>44807</v>
       </c>
       <c r="B796">
@@ -12861,7 +12847,7 @@
       </c>
     </row>
     <row r="797" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A797" s="20">
+      <c r="A797" s="2">
         <v>44808</v>
       </c>
       <c r="B797">
@@ -12878,7 +12864,7 @@
       </c>
     </row>
     <row r="798" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A798" s="20">
+      <c r="A798" s="2">
         <v>44809</v>
       </c>
       <c r="B798">
@@ -12895,10 +12881,10 @@
       </c>
     </row>
     <row r="799" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A799" s="20">
+      <c r="A799" s="2">
         <v>44810</v>
       </c>
-      <c r="B799" s="24">
+      <c r="B799">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C799">
@@ -12912,10 +12898,10 @@
       </c>
     </row>
     <row r="800" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A800" s="20">
+      <c r="A800" s="2">
         <v>44811</v>
       </c>
-      <c r="B800" s="24">
+      <c r="B800">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C800">
@@ -12929,10 +12915,10 @@
       </c>
     </row>
     <row r="801" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A801" s="20">
+      <c r="A801" s="2">
         <v>44812</v>
       </c>
-      <c r="B801" s="24">
+      <c r="B801">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C801">
@@ -12946,7 +12932,7 @@
       </c>
     </row>
     <row r="802" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A802" s="20">
+      <c r="A802" s="2">
         <v>44813</v>
       </c>
       <c r="B802">
@@ -12963,7 +12949,7 @@
       </c>
     </row>
     <row r="803" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A803" s="20">
+      <c r="A803" s="2">
         <v>44814</v>
       </c>
       <c r="B803">
@@ -12980,7 +12966,7 @@
       </c>
     </row>
     <row r="804" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A804" s="20">
+      <c r="A804" s="2">
         <v>44815</v>
       </c>
       <c r="B804">
@@ -12997,7 +12983,7 @@
       </c>
     </row>
     <row r="805" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A805" s="20">
+      <c r="A805" s="2">
         <v>44816</v>
       </c>
       <c r="B805">
@@ -13014,7 +13000,7 @@
       </c>
     </row>
     <row r="806" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A806" s="20">
+      <c r="A806" s="2">
         <v>44817</v>
       </c>
       <c r="B806">
@@ -13031,7 +13017,7 @@
       </c>
     </row>
     <row r="807" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A807" s="20">
+      <c r="A807" s="2">
         <v>44818</v>
       </c>
       <c r="B807">
@@ -13048,10 +13034,10 @@
       </c>
     </row>
     <row r="808" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A808" s="20">
+      <c r="A808" s="2">
         <v>44819</v>
       </c>
-      <c r="B808" s="24">
+      <c r="B808">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C808">
@@ -13065,7 +13051,7 @@
       </c>
     </row>
     <row r="809" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A809" s="20">
+      <c r="A809" s="2">
         <v>44820</v>
       </c>
       <c r="B809">
@@ -13082,7 +13068,7 @@
       </c>
     </row>
     <row r="810" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A810" s="20">
+      <c r="A810" s="2">
         <v>44821</v>
       </c>
       <c r="B810">
@@ -13099,7 +13085,7 @@
       </c>
     </row>
     <row r="811" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A811" s="20">
+      <c r="A811" s="2">
         <v>44822</v>
       </c>
       <c r="B811">
@@ -13111,12 +13097,12 @@
       <c r="D811">
         <v>3.5928143712574849E-2</v>
       </c>
-      <c r="E811" s="24">
+      <c r="E811">
         <v>0.53846153846153844</v>
       </c>
     </row>
     <row r="812" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A812" s="20">
+      <c r="A812" s="2">
         <v>44823</v>
       </c>
       <c r="B812">
@@ -13128,12 +13114,12 @@
       <c r="D812">
         <v>3.5928143712574849E-2</v>
       </c>
-      <c r="E812" s="24">
+      <c r="E812">
         <v>0.53846153846153844</v>
       </c>
     </row>
     <row r="813" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A813" s="20">
+      <c r="A813" s="2">
         <v>44824</v>
       </c>
       <c r="B813">
@@ -13150,7 +13136,7 @@
       </c>
     </row>
     <row r="814" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A814" s="20">
+      <c r="A814" s="2">
         <v>44825</v>
       </c>
       <c r="B814">
@@ -13167,7 +13153,7 @@
       </c>
     </row>
     <row r="815" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A815" s="20">
+      <c r="A815" s="2">
         <v>44826</v>
       </c>
       <c r="B815">
@@ -13184,7 +13170,7 @@
       </c>
     </row>
     <row r="816" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A816" s="20">
+      <c r="A816" s="2">
         <v>44827</v>
       </c>
       <c r="B816">
@@ -13201,7 +13187,7 @@
       </c>
     </row>
     <row r="817" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A817" s="20">
+      <c r="A817" s="2">
         <v>44828</v>
       </c>
       <c r="B817">
@@ -13218,7 +13204,7 @@
       </c>
     </row>
     <row r="818" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A818" s="20">
+      <c r="A818" s="2">
         <v>44829</v>
       </c>
       <c r="B818">
@@ -13235,7 +13221,7 @@
       </c>
     </row>
     <row r="819" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A819" s="20">
+      <c r="A819" s="2">
         <v>44830</v>
       </c>
       <c r="B819">
@@ -13252,7 +13238,7 @@
       </c>
     </row>
     <row r="820" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A820" s="20">
+      <c r="A820" s="2">
         <v>44831</v>
       </c>
       <c r="B820">
@@ -13269,7 +13255,7 @@
       </c>
     </row>
     <row r="821" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A821" s="20">
+      <c r="A821" s="2">
         <v>44832</v>
       </c>
       <c r="B821">
@@ -13278,7 +13264,7 @@
       <c r="C821">
         <v>7.5630252100840331E-2</v>
       </c>
-      <c r="D821" s="24">
+      <c r="D821">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E821">
@@ -13286,58 +13272,58 @@
       </c>
     </row>
     <row r="822" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A822" s="20">
+      <c r="A822" s="2">
         <v>44833</v>
       </c>
-      <c r="B822" s="24">
+      <c r="B822">
         <v>0.23076923076923078</v>
       </c>
-      <c r="C822" s="24">
+      <c r="C822">
         <v>7.5630252100840331E-2</v>
       </c>
-      <c r="D822" s="24">
+      <c r="D822">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E822" s="24">
+      <c r="E822">
         <v>0.46153846153846156</v>
       </c>
     </row>
     <row r="823" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A823" s="20">
+      <c r="A823" s="2">
         <v>44834</v>
       </c>
-      <c r="B823" s="24">
+      <c r="B823">
         <v>0.23076923076923078</v>
       </c>
-      <c r="C823" s="24">
+      <c r="C823">
         <v>7.5630252100840331E-2</v>
       </c>
-      <c r="D823" s="24">
+      <c r="D823">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E823" s="24">
+      <c r="E823">
         <v>0.46153846153846156</v>
       </c>
     </row>
     <row r="824" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A824" s="20">
+      <c r="A824" s="2">
         <v>44835</v>
       </c>
-      <c r="B824" s="24">
+      <c r="B824">
         <v>0.23076923076923078</v>
       </c>
-      <c r="C824" s="24">
+      <c r="C824">
         <v>7.5630252100840331E-2</v>
       </c>
-      <c r="D824" s="24">
+      <c r="D824">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E824" s="24">
+      <c r="E824">
         <v>0.46153846153846156</v>
       </c>
     </row>
     <row r="825" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A825" s="20">
+      <c r="A825" s="2">
         <v>44836</v>
       </c>
       <c r="B825">
@@ -13354,7 +13340,7 @@
       </c>
     </row>
     <row r="826" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A826" s="20">
+      <c r="A826" s="2">
         <v>44837</v>
       </c>
       <c r="B826">
@@ -13371,7 +13357,7 @@
       </c>
     </row>
     <row r="827" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A827" s="20">
+      <c r="A827" s="2">
         <v>44838</v>
       </c>
       <c r="B827">
@@ -13388,7 +13374,7 @@
       </c>
     </row>
     <row r="828" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A828" s="20">
+      <c r="A828" s="2">
         <v>44839</v>
       </c>
       <c r="B828">
@@ -13405,7 +13391,7 @@
       </c>
     </row>
     <row r="829" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A829" s="20">
+      <c r="A829" s="2">
         <v>44840</v>
       </c>
       <c r="B829">
@@ -13414,7 +13400,7 @@
       <c r="C829">
         <v>6.3559322033898302E-2</v>
       </c>
-      <c r="D829" s="24">
+      <c r="D829">
         <v>3.5928143712574849E-2</v>
       </c>
       <c r="E829">
@@ -13422,7 +13408,7 @@
       </c>
     </row>
     <row r="830" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A830" s="20">
+      <c r="A830" s="2">
         <v>44841</v>
       </c>
       <c r="B830">
@@ -13431,7 +13417,7 @@
       <c r="C830">
         <v>6.3559322033898302E-2</v>
       </c>
-      <c r="D830" s="24">
+      <c r="D830">
         <v>3.5928143712574849E-2</v>
       </c>
       <c r="E830">
@@ -13439,7 +13425,7 @@
       </c>
     </row>
     <row r="831" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A831" s="20">
+      <c r="A831" s="2">
         <v>44842</v>
       </c>
       <c r="B831">
@@ -13448,7 +13434,7 @@
       <c r="C831">
         <v>6.3559322033898302E-2</v>
       </c>
-      <c r="D831" s="24">
+      <c r="D831">
         <v>3.5928143712574849E-2</v>
       </c>
       <c r="E831">
@@ -13456,7 +13442,7 @@
       </c>
     </row>
     <row r="832" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A832" s="20">
+      <c r="A832" s="2">
         <v>44843</v>
       </c>
       <c r="B832">
@@ -13473,7 +13459,7 @@
       </c>
     </row>
     <row r="833" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A833" s="20">
+      <c r="A833" s="2">
         <v>44844</v>
       </c>
       <c r="B833">
@@ -13490,7 +13476,7 @@
       </c>
     </row>
     <row r="834" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A834" s="20">
+      <c r="A834" s="2">
         <v>44845</v>
       </c>
       <c r="B834">
@@ -13507,10 +13493,10 @@
       </c>
     </row>
     <row r="835" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A835" s="20">
+      <c r="A835" s="2">
         <v>44846</v>
       </c>
-      <c r="B835" s="24">
+      <c r="B835">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C835">
@@ -13524,10 +13510,10 @@
       </c>
     </row>
     <row r="836" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A836" s="20">
+      <c r="A836" s="2">
         <v>44847</v>
       </c>
-      <c r="B836" s="24">
+      <c r="B836">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C836">
@@ -13541,10 +13527,10 @@
       </c>
     </row>
     <row r="837" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A837" s="20">
+      <c r="A837" s="2">
         <v>44848</v>
       </c>
-      <c r="B837" s="24">
+      <c r="B837">
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="C837">
@@ -13558,10 +13544,10 @@
       </c>
     </row>
     <row r="838" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A838" s="20">
+      <c r="A838" s="2">
         <v>44849</v>
       </c>
-      <c r="B838" s="24">
+      <c r="B838">
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="C838">
@@ -13572,6 +13558,190 @@
       </c>
       <c r="E838">
         <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="839" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A839" s="2">
+        <v>44850</v>
+      </c>
+      <c r="B839">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="C839">
+        <v>8.050847457627118E-2</v>
+      </c>
+      <c r="D839">
+        <v>3.5928143712574849E-2</v>
+      </c>
+      <c r="E839">
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="840" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A840" s="2">
+        <v>44851</v>
+      </c>
+      <c r="B840">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="C840">
+        <v>8.050847457627118E-2</v>
+      </c>
+      <c r="D840">
+        <v>3.5928143712574849E-2</v>
+      </c>
+      <c r="E840">
+        <v>0.15384615384615385</v>
+      </c>
+    </row>
+    <row r="841" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A841" s="2">
+        <v>44852</v>
+      </c>
+      <c r="B841">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="C841">
+        <v>7.2033898305084748E-2</v>
+      </c>
+      <c r="D841">
+        <v>3.5928143712574849E-2</v>
+      </c>
+      <c r="E841">
+        <v>0.15384615384615385</v>
+      </c>
+    </row>
+    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A842" s="2">
+        <v>44853</v>
+      </c>
+      <c r="B842">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="C842">
+        <v>7.2033898305084748E-2</v>
+      </c>
+      <c r="D842">
+        <v>3.5928143712574849E-2</v>
+      </c>
+      <c r="E842">
+        <v>0.15384615384615385</v>
+      </c>
+    </row>
+    <row r="843" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A843" s="2">
+        <v>44854</v>
+      </c>
+      <c r="B843">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="C843">
+        <v>7.2033898305084748E-2</v>
+      </c>
+      <c r="D843">
+        <v>3.5928143712574849E-2</v>
+      </c>
+      <c r="E843">
+        <v>0.15384615384615385</v>
+      </c>
+    </row>
+    <row r="844" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A844" s="2">
+        <v>44855</v>
+      </c>
+      <c r="B844">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="C844">
+        <v>7.2033898305084748E-2</v>
+      </c>
+      <c r="D844">
+        <v>3.5928143712574849E-2</v>
+      </c>
+      <c r="E844">
+        <v>0.15384615384615385</v>
+      </c>
+    </row>
+    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A845" s="2">
+        <v>44856</v>
+      </c>
+      <c r="B845">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="C845">
+        <v>7.2033898305084748E-2</v>
+      </c>
+      <c r="D845">
+        <v>3.5928143712574849E-2</v>
+      </c>
+      <c r="E845">
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="846" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A846" s="2">
+        <v>44857</v>
+      </c>
+      <c r="B846">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C846">
+        <v>8.050847457627118E-2</v>
+      </c>
+      <c r="D846">
+        <v>3.5928143712574849E-2</v>
+      </c>
+      <c r="E846">
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="847" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A847" s="2">
+        <v>44858</v>
+      </c>
+      <c r="B847">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C847">
+        <v>8.050847457627118E-2</v>
+      </c>
+      <c r="D847">
+        <v>3.5928143712574849E-2</v>
+      </c>
+      <c r="E847">
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="848" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A848" s="2">
+        <v>44859</v>
+      </c>
+      <c r="B848">
+        <v>0</v>
+      </c>
+      <c r="C848">
+        <v>6.3291139240506333E-2</v>
+      </c>
+      <c r="D848">
+        <v>3.5928143712574849E-2</v>
+      </c>
+      <c r="E848">
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="849" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A849" s="2">
+        <v>44860</v>
+      </c>
+      <c r="B849">
+        <v>0</v>
+      </c>
+      <c r="C849">
+        <v>6.3291139240506333E-2</v>
+      </c>
+      <c r="D849">
+        <v>3.5928143712574849E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enemi\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEI-02\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004CCC86-6CB2-4998-9039-9778BA447819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B4824D-31BE-419A-96F7-50F61DCEA4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -54,6 +55,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -110,15 +114,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -394,11 +430,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E849"/>
+  <dimension ref="A1:E890"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A820" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I838" sqref="I838"/>
+      <pane ySplit="1" topLeftCell="A861" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C888" sqref="C888"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13730,7 +13766,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="849" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A849" s="2">
         <v>44860</v>
       </c>
@@ -13742,6 +13778,706 @@
       </c>
       <c r="D849">
         <v>3.5928143712574849E-2</v>
+      </c>
+      <c r="E849">
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="850" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A850" s="2">
+        <v>44861</v>
+      </c>
+      <c r="B850">
+        <v>0</v>
+      </c>
+      <c r="C850">
+        <v>6.3291139240506333E-2</v>
+      </c>
+      <c r="D850">
+        <v>3.5928143712574849E-2</v>
+      </c>
+      <c r="E850">
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="851" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A851" s="2">
+        <v>44862</v>
+      </c>
+      <c r="B851">
+        <v>0</v>
+      </c>
+      <c r="C851">
+        <v>6.3291139240506333E-2</v>
+      </c>
+      <c r="D851">
+        <v>3.5928143712574849E-2</v>
+      </c>
+      <c r="E851">
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="852" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A852" s="2">
+        <v>44863</v>
+      </c>
+      <c r="B852">
+        <v>0</v>
+      </c>
+      <c r="C852">
+        <v>6.3291139240506333E-2</v>
+      </c>
+      <c r="D852">
+        <v>3.5928143712574849E-2</v>
+      </c>
+      <c r="E852">
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="853" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A853" s="2">
+        <v>44864</v>
+      </c>
+      <c r="B853">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C853">
+        <v>8.050847457627118E-2</v>
+      </c>
+      <c r="D853">
+        <v>3.5928143712574849E-2</v>
+      </c>
+      <c r="E853">
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="854" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A854" s="2">
+        <v>44865</v>
+      </c>
+      <c r="B854">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C854">
+        <v>8.050847457627118E-2</v>
+      </c>
+      <c r="D854">
+        <v>3.5928143712574849E-2</v>
+      </c>
+      <c r="E854">
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="855" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A855" s="2">
+        <v>44866</v>
+      </c>
+      <c r="B855">
+        <v>0</v>
+      </c>
+      <c r="C855">
+        <v>6.3291139240506333E-2</v>
+      </c>
+      <c r="D855">
+        <v>3.5928143712574849E-2</v>
+      </c>
+      <c r="E855">
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="856" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A856" s="2">
+        <v>44867</v>
+      </c>
+      <c r="B856">
+        <v>0</v>
+      </c>
+      <c r="C856">
+        <v>6.3291139240506333E-2</v>
+      </c>
+      <c r="D856">
+        <v>3.5928143712574849E-2</v>
+      </c>
+      <c r="E856">
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="857" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A857" s="2">
+        <v>44868</v>
+      </c>
+      <c r="B857">
+        <v>0</v>
+      </c>
+      <c r="C857">
+        <v>6.3291139240506333E-2</v>
+      </c>
+      <c r="D857">
+        <v>3.5928143712574849E-2</v>
+      </c>
+      <c r="E857">
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="858" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A858" s="2">
+        <v>44869</v>
+      </c>
+      <c r="B858">
+        <v>0</v>
+      </c>
+      <c r="C858">
+        <v>6.3291139240506333E-2</v>
+      </c>
+      <c r="D858">
+        <v>3.5928143712574849E-2</v>
+      </c>
+      <c r="E858">
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A859" s="2">
+        <v>44870</v>
+      </c>
+      <c r="B859">
+        <v>0</v>
+      </c>
+      <c r="C859">
+        <v>6.3291139240506333E-2</v>
+      </c>
+      <c r="D859">
+        <v>3.5928143712574849E-2</v>
+      </c>
+      <c r="E859">
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="860" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A860" s="2">
+        <v>44871</v>
+      </c>
+      <c r="B860">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C860">
+        <v>8.050847457627118E-2</v>
+      </c>
+      <c r="D860">
+        <v>3.5928143712574849E-2</v>
+      </c>
+      <c r="E860">
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="861" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A861" s="2">
+        <v>44872</v>
+      </c>
+      <c r="B861">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C861">
+        <v>8.050847457627118E-2</v>
+      </c>
+      <c r="D861">
+        <v>3.5928143712574849E-2</v>
+      </c>
+      <c r="E861">
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="862" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A862" s="2">
+        <v>44873</v>
+      </c>
+      <c r="B862">
+        <v>0</v>
+      </c>
+      <c r="C862">
+        <v>6.3291139240506333E-2</v>
+      </c>
+      <c r="D862">
+        <v>3.5928143712574849E-2</v>
+      </c>
+      <c r="E862">
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="863" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A863" s="2">
+        <v>44874</v>
+      </c>
+      <c r="B863">
+        <v>0</v>
+      </c>
+      <c r="C863">
+        <v>6.3291139240506333E-2</v>
+      </c>
+      <c r="D863">
+        <v>3.5928143712574849E-2</v>
+      </c>
+      <c r="E863">
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="864" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A864" s="2">
+        <v>44875</v>
+      </c>
+      <c r="B864">
+        <v>0</v>
+      </c>
+      <c r="C864">
+        <v>6.3291139240506333E-2</v>
+      </c>
+      <c r="D864">
+        <v>3.5928143712574849E-2</v>
+      </c>
+      <c r="E864">
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="865" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A865" s="2">
+        <v>44876</v>
+      </c>
+      <c r="B865">
+        <v>0</v>
+      </c>
+      <c r="C865">
+        <v>6.3291139240506333E-2</v>
+      </c>
+      <c r="D865">
+        <v>3.5928143712574849E-2</v>
+      </c>
+      <c r="E865">
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="866" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A866" s="2">
+        <v>44877</v>
+      </c>
+      <c r="B866">
+        <v>0</v>
+      </c>
+      <c r="C866">
+        <v>6.3291139240506333E-2</v>
+      </c>
+      <c r="D866">
+        <v>3.5928143712574849E-2</v>
+      </c>
+      <c r="E866">
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="867" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A867" s="2">
+        <v>44878</v>
+      </c>
+      <c r="B867" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C867">
+        <v>0.25</v>
+      </c>
+      <c r="D867">
+        <v>0</v>
+      </c>
+      <c r="E867">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="868" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A868" s="2">
+        <v>44879</v>
+      </c>
+      <c r="B868">
+        <v>0.1</v>
+      </c>
+      <c r="C868">
+        <v>0.25</v>
+      </c>
+      <c r="D868">
+        <v>0</v>
+      </c>
+      <c r="E868">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="869" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A869" s="2">
+        <v>44880</v>
+      </c>
+      <c r="B869">
+        <v>0.1</v>
+      </c>
+      <c r="C869">
+        <v>0.25</v>
+      </c>
+      <c r="D869">
+        <v>0</v>
+      </c>
+      <c r="E869">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="870" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A870" s="2">
+        <v>44881</v>
+      </c>
+      <c r="B870">
+        <v>0.1</v>
+      </c>
+      <c r="C870">
+        <v>0.25</v>
+      </c>
+      <c r="D870">
+        <v>0</v>
+      </c>
+      <c r="E870">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="871" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A871" s="2">
+        <v>44882</v>
+      </c>
+      <c r="B871">
+        <v>0.1</v>
+      </c>
+      <c r="C871">
+        <v>0.25</v>
+      </c>
+      <c r="D871">
+        <v>0</v>
+      </c>
+      <c r="E871">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="872" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A872" s="2">
+        <v>44883</v>
+      </c>
+      <c r="B872">
+        <v>0.1</v>
+      </c>
+      <c r="C872">
+        <v>0.25</v>
+      </c>
+      <c r="D872">
+        <v>0</v>
+      </c>
+      <c r="E872">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="873" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A873" s="2">
+        <v>44884</v>
+      </c>
+      <c r="B873">
+        <v>0.1</v>
+      </c>
+      <c r="C873">
+        <v>0.25</v>
+      </c>
+      <c r="D873">
+        <v>0</v>
+      </c>
+      <c r="E873">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="874" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A874" s="2">
+        <v>44885</v>
+      </c>
+      <c r="B874">
+        <v>0.1</v>
+      </c>
+      <c r="C874">
+        <v>0.25</v>
+      </c>
+      <c r="D874">
+        <v>0</v>
+      </c>
+      <c r="E874">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="875" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A875" s="2">
+        <v>44886</v>
+      </c>
+      <c r="B875">
+        <v>0.1</v>
+      </c>
+      <c r="C875">
+        <v>0.25</v>
+      </c>
+      <c r="D875">
+        <v>0</v>
+      </c>
+      <c r="E875">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="876" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A876" s="2">
+        <v>44887</v>
+      </c>
+      <c r="B876">
+        <v>0.1</v>
+      </c>
+      <c r="C876">
+        <v>0.25</v>
+      </c>
+      <c r="D876">
+        <v>0</v>
+      </c>
+      <c r="E876">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="877" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A877" s="2">
+        <v>44888</v>
+      </c>
+      <c r="B877">
+        <v>0.1</v>
+      </c>
+      <c r="C877">
+        <v>0.25</v>
+      </c>
+      <c r="D877">
+        <v>0</v>
+      </c>
+      <c r="E877">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="878" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A878" s="2">
+        <v>44889</v>
+      </c>
+      <c r="B878">
+        <v>0.1</v>
+      </c>
+      <c r="C878">
+        <v>0.25</v>
+      </c>
+      <c r="D878">
+        <v>0</v>
+      </c>
+      <c r="E878">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="879" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A879" s="2">
+        <v>44890</v>
+      </c>
+      <c r="B879">
+        <v>0.2</v>
+      </c>
+      <c r="C879">
+        <v>0.3</v>
+      </c>
+      <c r="D879">
+        <v>0</v>
+      </c>
+      <c r="E879">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="880" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A880" s="2">
+        <v>44891</v>
+      </c>
+      <c r="B880">
+        <v>0.2</v>
+      </c>
+      <c r="C880">
+        <v>0.3</v>
+      </c>
+      <c r="D880">
+        <v>0</v>
+      </c>
+      <c r="E880">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="881" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A881" s="2">
+        <v>44892</v>
+      </c>
+      <c r="B881">
+        <v>0.2</v>
+      </c>
+      <c r="C881">
+        <v>0.3</v>
+      </c>
+      <c r="D881">
+        <v>0</v>
+      </c>
+      <c r="E881">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="882" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A882" s="2">
+        <v>44893</v>
+      </c>
+      <c r="B882">
+        <v>0.2</v>
+      </c>
+      <c r="C882">
+        <v>0.375</v>
+      </c>
+      <c r="D882">
+        <v>0</v>
+      </c>
+      <c r="E882">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="883" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A883" s="2">
+        <v>44894</v>
+      </c>
+      <c r="B883">
+        <v>0.2</v>
+      </c>
+      <c r="C883">
+        <v>0.453125</v>
+      </c>
+      <c r="D883">
+        <v>0</v>
+      </c>
+      <c r="E883">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="884" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A884" s="2">
+        <v>44895</v>
+      </c>
+      <c r="B884">
+        <v>0.2</v>
+      </c>
+      <c r="C884">
+        <v>0.35</v>
+      </c>
+      <c r="D884">
+        <v>0</v>
+      </c>
+      <c r="E884">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="885" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A885" s="2">
+        <v>44896</v>
+      </c>
+      <c r="B885">
+        <v>0.2</v>
+      </c>
+      <c r="C885">
+        <v>0.3</v>
+      </c>
+      <c r="D885">
+        <v>0</v>
+      </c>
+      <c r="E885">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="886" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A886" s="2">
+        <v>44897</v>
+      </c>
+      <c r="B886">
+        <v>0.2</v>
+      </c>
+      <c r="C886">
+        <v>0.3</v>
+      </c>
+      <c r="D886">
+        <v>0</v>
+      </c>
+      <c r="E886">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="887" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A887" s="2">
+        <v>44898</v>
+      </c>
+      <c r="B887">
+        <v>0.2</v>
+      </c>
+      <c r="C887">
+        <v>0.3</v>
+      </c>
+      <c r="D887">
+        <v>0</v>
+      </c>
+      <c r="E887">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="888" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A888" s="2">
+        <v>44899</v>
+      </c>
+      <c r="B888">
+        <v>0.1</v>
+      </c>
+      <c r="C888">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D888">
+        <v>0</v>
+      </c>
+      <c r="E888">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="889" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A889" s="2">
+        <v>44900</v>
+      </c>
+      <c r="B889">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C889">
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="D889">
+        <v>0</v>
+      </c>
+      <c r="E889">
+        <v>0.84444444444444444</v>
+      </c>
+    </row>
+    <row r="890" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A890" s="2">
+        <v>44901</v>
+      </c>
+      <c r="B890">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C890">
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="D890">
+        <v>0</v>
+      </c>
+      <c r="E890">
+        <v>0.84444444444444444</v>
       </c>
     </row>
   </sheetData>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEI-02\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEIS-02\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B4824D-31BE-419A-96F7-50F61DCEA4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A26849-0169-4BBA-B6BE-C9ADA9E7822C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,17 +123,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -430,11 +420,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E890"/>
+  <dimension ref="A1:E897"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A861" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C888" sqref="C888"/>
+      <pane ySplit="1" topLeftCell="A864" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E895" sqref="E895:E897"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14480,6 +14470,125 @@
         <v>0.84444444444444444</v>
       </c>
     </row>
+    <row r="891" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A891" s="2">
+        <v>44902</v>
+      </c>
+      <c r="B891">
+        <v>1</v>
+      </c>
+      <c r="C891">
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="D891">
+        <v>0</v>
+      </c>
+      <c r="E891">
+        <v>0.84444444444444444</v>
+      </c>
+    </row>
+    <row r="892" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A892" s="2">
+        <v>44903</v>
+      </c>
+      <c r="B892">
+        <v>1</v>
+      </c>
+      <c r="C892">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="D892">
+        <v>0</v>
+      </c>
+      <c r="E892">
+        <v>0.84444444444444444</v>
+      </c>
+    </row>
+    <row r="893" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A893" s="2">
+        <v>44904</v>
+      </c>
+      <c r="B893">
+        <v>1</v>
+      </c>
+      <c r="C893">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="D893">
+        <v>0</v>
+      </c>
+      <c r="E893">
+        <v>0.84444444444444444</v>
+      </c>
+    </row>
+    <row r="894" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A894" s="2">
+        <v>44905</v>
+      </c>
+      <c r="B894">
+        <v>1</v>
+      </c>
+      <c r="C894">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="D894">
+        <v>0</v>
+      </c>
+      <c r="E894">
+        <v>0.84444444444444444</v>
+      </c>
+    </row>
+    <row r="895" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A895" s="2">
+        <v>44906</v>
+      </c>
+      <c r="B895">
+        <v>1</v>
+      </c>
+      <c r="C895">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="D895">
+        <v>0</v>
+      </c>
+      <c r="E895">
+        <v>0.84444444444444444</v>
+      </c>
+    </row>
+    <row r="896" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A896" s="2">
+        <v>44907</v>
+      </c>
+      <c r="B896">
+        <v>1</v>
+      </c>
+      <c r="C896">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="D896">
+        <v>0</v>
+      </c>
+      <c r="E896">
+        <v>0.84444444444444444</v>
+      </c>
+    </row>
+    <row r="897" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A897" s="2">
+        <v>44908</v>
+      </c>
+      <c r="B897">
+        <v>1</v>
+      </c>
+      <c r="C897">
+        <v>6.0606060606060608E-2</v>
+      </c>
+      <c r="D897">
+        <v>0</v>
+      </c>
+      <c r="E897">
+        <v>0.85106382978723405</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
+++ b/data/source1_camas/input/disponibilidad_camas_hospitalarias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEIS-02\Documents\GitHub\GERESA_dashboard\data\source1_camas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A26849-0169-4BBA-B6BE-C9ADA9E7822C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB0DD5F-EDDD-4B8E-A711-904893945246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -55,10 +53,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,8 +71,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -83,6 +89,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -111,40 +123,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -420,11 +417,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E897"/>
+  <dimension ref="A1:E913"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A864" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E895" sqref="E895:E897"/>
+      <pane ySplit="1" topLeftCell="A882" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E900" sqref="E900"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14543,16 +14540,16 @@
         <v>44906</v>
       </c>
       <c r="B895">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="C895">
-        <v>6.6666666666666666E-2</v>
+        <v>0.78</v>
       </c>
       <c r="D895">
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="E895">
         <v>0</v>
-      </c>
-      <c r="E895">
-        <v>0.84444444444444444</v>
       </c>
     </row>
     <row r="896" spans="1:5" x14ac:dyDescent="0.25">
@@ -14560,16 +14557,16 @@
         <v>44907</v>
       </c>
       <c r="B896">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="C896">
-        <v>6.6666666666666666E-2</v>
+        <v>0.82352941176470584</v>
       </c>
       <c r="D896">
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="E896">
         <v>0</v>
-      </c>
-      <c r="E896">
-        <v>0.84444444444444444</v>
       </c>
     </row>
     <row r="897" spans="1:5" x14ac:dyDescent="0.25">
@@ -14577,16 +14574,285 @@
         <v>44908</v>
       </c>
       <c r="B897">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="C897">
-        <v>6.0606060606060608E-2</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D897">
+        <v>3.9215686274509803E-2</v>
+      </c>
+      <c r="E897">
         <v>0</v>
       </c>
-      <c r="E897">
-        <v>0.85106382978723405</v>
+    </row>
+    <row r="898" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A898" s="5">
+        <v>44909</v>
+      </c>
+      <c r="B898" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="C898" s="7">
+        <v>0.82692307692307687</v>
+      </c>
+      <c r="D898" s="7">
+        <v>3.9215686274509803E-2</v>
+      </c>
+      <c r="E898" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="899" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A899" s="2">
+        <v>44910</v>
+      </c>
+      <c r="B899" s="4">
+        <v>0.1875</v>
+      </c>
+      <c r="C899">
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="D899">
+        <v>1.9607843137254902E-2</v>
+      </c>
+      <c r="E899">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="900" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A900" s="2">
+        <v>44911</v>
+      </c>
+      <c r="B900" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="C900">
+        <v>0.8</v>
+      </c>
+      <c r="D900">
+        <v>7.0175438596491224E-2</v>
+      </c>
+      <c r="E900">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="901" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A901" s="2">
+        <v>44912</v>
+      </c>
+      <c r="B901" s="4">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="C901">
+        <v>0.86363636363636365</v>
+      </c>
+      <c r="D901">
+        <v>0.04</v>
+      </c>
+      <c r="E901">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="902" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A902" s="2">
+        <v>44913</v>
+      </c>
+      <c r="B902">
+        <v>0.4</v>
+      </c>
+      <c r="C902">
+        <v>0.77272727272727271</v>
+      </c>
+      <c r="D902">
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="E902">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="903" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A903" s="2">
+        <v>44914</v>
+      </c>
+      <c r="B903">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C903">
+        <v>0.77272727272727271</v>
+      </c>
+      <c r="D903">
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="E903">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="904" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A904" s="2">
+        <v>44915</v>
+      </c>
+      <c r="B904">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="C904">
+        <v>0.68181818181818177</v>
+      </c>
+      <c r="D904">
+        <v>7.0175438596491224E-2</v>
+      </c>
+      <c r="E904">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="905" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A905" s="2">
+        <v>44916</v>
+      </c>
+      <c r="B905">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C905">
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="D905">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="E905">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="906" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A906" s="2">
+        <v>44917</v>
+      </c>
+      <c r="B906">
+        <v>0.4</v>
+      </c>
+      <c r="C906">
+        <v>0.79545454545454541</v>
+      </c>
+      <c r="D906">
+        <v>7.0175438596491224E-2</v>
+      </c>
+      <c r="E906">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="907" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A907" s="2">
+        <v>44918</v>
+      </c>
+      <c r="B907">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="C907">
+        <v>0.70454545454545459</v>
+      </c>
+      <c r="D907">
+        <v>0.2</v>
+      </c>
+      <c r="E907">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="908" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A908" s="2">
+        <v>44919</v>
+      </c>
+      <c r="B908">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C908">
+        <v>0.68181818181818177</v>
+      </c>
+      <c r="D908">
+        <v>8.771929824561403E-2</v>
+      </c>
+      <c r="E908">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="909" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A909" s="2">
+        <v>44920</v>
+      </c>
+      <c r="B909">
+        <v>0.4</v>
+      </c>
+      <c r="C909">
+        <v>0.68181818181818177</v>
+      </c>
+      <c r="D909">
+        <v>7.0175438596491224E-2</v>
+      </c>
+      <c r="E909">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="910" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A910" s="2">
+        <v>44921</v>
+      </c>
+      <c r="B910">
+        <v>0.4</v>
+      </c>
+      <c r="C910">
+        <v>0.68181818181818177</v>
+      </c>
+      <c r="D910">
+        <v>7.0175438596491224E-2</v>
+      </c>
+      <c r="E910">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="911" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A911" s="2">
+        <v>44922</v>
+      </c>
+      <c r="B911">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C911">
+        <v>0.52272727272727271</v>
+      </c>
+      <c r="D911">
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="E911">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="912" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A912" s="2">
+        <v>44923</v>
+      </c>
+      <c r="B912">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C912">
+        <v>0.43181818181818182</v>
+      </c>
+      <c r="D912">
+        <v>3.5087719298245612E-2</v>
+      </c>
+      <c r="E912">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="913" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A913" s="2">
+        <v>44924</v>
+      </c>
+      <c r="B913">
+        <v>0.4</v>
+      </c>
+      <c r="C913">
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="D913">
+        <v>8.771929824561403E-2</v>
       </c>
     </row>
   </sheetData>
